--- a/Results/Results_with_RobustRankAggreg_Package_Ranking_Strategy/UCEC/miRcorrNet Results/UCEC_mRNA_miRcorrNet_ranked_miRNA_byFrequency.xlsx
+++ b/Results/Results_with_RobustRankAggreg_Package_Ranking_Strategy/UCEC/miRcorrNet Results/UCEC_mRNA_miRcorrNet_ranked_miRNA_byFrequency.xlsx
@@ -116,73 +116,73 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hsa-miR-151a-5p</t>
+          <t>hsa-miR-15b-5p</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>223.0</v>
+        <v>240.0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.23</v>
+        <v>2.4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CXorf36(67), FLT4(76), LRRN4CL(75), TSPAN18(45), ANTXR2(78), C5orf53(41), ANO6(45), TIMP2(57), TIMP3(62), MFAP4(53), MEF2C(85), HSD17B6(47), DMD(48), SPARCL1(84), FLI1(48), MEIS3(43), ARHGAP6(65), DPYD(30), MMRN2(48), DHH(17), SH3BP5(41), TACC1(82), THSD1(12), PDE10A(23), MYCT1(66), SETD7(55), C1orf133(49), SSC5D(28), PEAR1(67), RSPO1(69), CLIC2(55), RFTN1(14), SOX7(31), CCDC69(49), DIXDC1(77), KANK3(55), FERMT2(42), STOM(30), KIAA1462(79), TIE1(70), C16orf45(64), PALM2-AKAP2(64), FGF2(69), TXNIP(49), AKT3(79), ZAK(85), CDH5(20), BNC2(77), TENC1(42), MDFIC(36), MAMDC2(63), CALD1(67), KCNMA1(80), SLC24A3(88), KANK2(64), EMCN(63), TEK(57), PCDHGA6(63), SVIL(68), STAT5B(97), TCEAL7(60), ESAM(48), RHOJ(81), ZBTB4(5), ARHGAP31(47), N4BP2L1(3), SAP30L(70), ARHGEF6(24), SRL(17), STON1(49), PLN(15), NEXN(14), GHR(44), GIMAP1(13), KDR(27), JAM2(31), DPYSL3(29), ELTD1(9), CCL14(10), GLT8D2(32), AHNAK(31), RAB23(10), PTPRB(12), PCDHGA5(22), AKAP13(3), TCEAL1(34), PPAPDC3(17), HSPB7(24), NKAPL(27), CNN1(7), LAMA4(20), MBNL2(11), GRK5(8), SOCS2(17), TBC1D1(37), ECM2(12), CSRP1(16), FXYD6(12), RASGRP2(4), GIMAP6(19), KLHL38(23), SNRK(22), GPM6A(9), FAM65B(28), ITGA8(35), MICAL2(13), SYNPO(19), GNG7(7), ERVFRDE1(19), PTGIS(37), C1QTNF7(18), LOH3CR2A(38), TCF23(10), IL3RA(1), TNFAIP8L3(33), TMOD2(21), DACT3(20), CDC42EP3(4), GIMAP8(29), GPRASP1(56), PDLIM3(18), EPAS1(6), PPP1R12B(52), TGFBR3(30), ATL1(11), DLL4(5), TSHZ3(11), PCDHGA2(38), NEURL1B(13), CLIC4(24), GPRASP2(27), MSRB3(18), ITPR1(29), LMOD1(61), CCDC80(6), AKAP2(35), PRKG1(11), YPEL4(6), ST5(66), LONRF2(4), VAMP2(8), OR5K2(18), CAV1(13), APBB1(25), C21orf34(35), MID2(45), PTGER2(7), RUNDC3B(2), ACVRL1(6), SH3BGRL(57), NXPH3(54), PDE8B(24), CTGF(1), PLIN4(4), KCNJ8(35), ABCB1(30), DIRAS1(7), PTRF(32), BACH2(3), PABPC5(30), LIMS2(8), FOXN3(26), TBXA2R(19), MS4A2(3), ABI3BP(50), ENPP1(12), PMP22(31), C14orf28(20), NR3C2(3), FXYD1(11), TBL1X(45), CNRIP1(62), KLHL10(4), DSTN(36), RASSF8(31), CAV2(9), CACNB2(19), LHFP(21), PDE5A(21), STARD8(5), NECAB1(9), ECSCR(8), ASPA(4), SYNPO2(18), VIP(1), FBLN5(21), FLNC(6), TSPAN2(44), C5orf4(24), RAMP1(14), PGM5P2(49), CFL2(17), PRUNE2(23), CALHM2(54), HTR2B(8), OLFML2A(32), TRPC1(16), ZBTB38(35), LDB2(58), PALLD(40), ANKRD29(47), KLHL33(2), C7orf58(23), LRCH1(51), PRX(10), NAP1L2(2), C1orf70(15), SMTN(24), FRY(39), CLEC14A(25), PDLIM5(5), PGM5(40), LEPR(17), LTBP4(26), A2M(31), FHL1(31), ZEB1(55), GNG11(23), GPR116(27), RASL12(20), FGF7(30), PRDM8(51), GEFT(14), RERG(37), TMEM204(41), SYT15(9), TMEM55A(29), EHD2(9), CASP12(14), ARHGEF15(47), ADAMTSL1(11), TAL1(11), MYH11(14), MXI1(2), HAR1A(2), CYP2U1(17), MASP1(11), GSN(6), USP31(12), GNAL(14), SLC8A2(1), SELP(18), GIMAP4(16), GIMAP5(13), PLSCR4(28), HGF(5), CBX7(68), CEP68(18), LRRC70(9), CACNA1H(26), SNCA(11), GRRP1(14), CACNA1C(51), TMEM200A(23), MRGPRF(35), OSTM1(5), CAMK2A(6), NFASC(24), CYBRD1(16), TLN1(25), PDE2A(35), ABCG2(49), ZCCHC24(40), TMEM200B(35), PKD2(16), TNXB(61), MAOB(57), HSPA12B(23), TMEM88(6), KIAA1644(32), TNS1(43), KIAA1755(1), CLEC2B(12), KLF17(7), LCN6(3), SMOC2(50), MYOCD(5), ADCY2(36), KATNAL1(38), CD302(27), LRRC32(6), S1PR1(10), FAM13C(28), ABCC9(21), LOC283174(4), ASAM(71), RASA4(21), ZEB2(9), ZNF483(12), SORBS1(9), MITF(19), MBNL1(27), ENPP2(3), C1orf21(17), ILK(26), GRID1(38), FBXO32(36), GPR124(20), ROBO4(49), RECK(32), SCARF1(16), PJA2(52), ZNF25(15), UBL3(34), DNAJC27(1), FBXL3(9), KLHDC1(24), MYADM(23), GLI3(13), DCHS1(10), NRIP2(14), GAB1(19), MEF2D(27), SHANK3(9), FEM1B(10), WT1(15), CYYR1(27), HEPH(8), CRTAP(7), THBS2(7), TMEM47(13), FAM69A(14), ADARB1(22), ADCY4(7), CHURC1(2), DFNA5(7), JAM3(26), LIX1L(14), IL33(24), DST(8), MAPK10(4), NEDD4(22), SHE(35), PROS1(39), DDR2(11), EMILIN1(20), SRF(16), CLIP3(30), RUNX1T1(3), VAMP3(5), PPP1R12A(16), FRMD6(34), CC2D2B(1), IGSF9B(1), RASL11A(2), PCDHGA11(8), ERG(17), ST6GALNAC3(5), CDKL1(1), NOSTRIN(33), CD34(7), GYPC(11), KCTD7(9), GRINL1A(8), RAB31(6), ATOH8(9), PRNP(11), LRRC2(11), PECAM1(1), TMEM133(1), CD93(15), KCNQ4(2), ELK3(13), RNF38(9), SPTBN1(4), ENAM(1), PAPPA(22), WHAMML1(6), LRRK2(24), PCDHGA4(7), FGD5(9), TUB(4), ADAMTS5(4), RASD2(1), GAS1(4), ANGPTL1(8), TGFB1I1(30), KCNB1(11), TMEM109(3), JPH4(24), C5orf41(8), EFEMP1(5), ARRB1(1), CLDN5(2), ITGA5(1), ITPKB(11), TPSAB1(4), EZH1(6), SFMBT2(5), SERINC1(4), SDPR(6), HSPB2(7), PHLDB2(18), GNG12(20), TBC1D2B(5), CCND2(10), SCARA3(8), NDN(16), SH2D3C(15), KCNMB1(10), FKBP7(6), SH3D19(8), AXL(3), PDE7B(11), ZNF208(7), KCTD12(13), THRA(12), SYTL4(5), AFAP1L1(12), EPM2A(18), RAB9B(4), VCL(1), KLF11(2), VGLL3(4), CLEC1A(3), C1orf183(2), RGMA(4), RSPO3(8), PRELP(11), MARVELD1(1), FLNA(3), SCN4B(4), CRY2(1), KLF9(1), FILIP1L(13), PCDHB18(8), PCDHGB7(8), PPP1R12C(4), RAPGEF4(8), ACTN1(2), PBX1(9), KL(4), ITGA11(2), SNED1(2), PCDHGA3(10), S1PR3(1), PCDHB15(4), PCDHB4(14), PCDHGA9(4), RNF144A(4), PPP1R16B(2), MAN1C1(9), COL15A1(3), CD97(1), TGM2(1), LIFR(3), PCDHGB3(2), ZNF521(16), ADD1(5), PRKCA(4), KIAA1614(10), NR3C1(4), CDK17(3), FZD4(11), ENTPD1(13), RAB8B(4), PRKCH(3), SSPN(11), OLFML1(5), FAM70B(4), C4orf32(4), RNF11(1), NAP1L3(10), EDNRB(1), NPTN(3), SBDS(2), TIPARP(4), LRRC8C(9), RAB33B(1), HEG1(18), FEZ2(6), GIMAP7(5), TRIM23(2), NBEA(6), UST(3), CLEC3B(4), NCAM1(6), APOL3(4), HIGD1B(3), PGCP(12), C1orf150(3), TCF4(2), TRPC4(6), REM1(8), TGFBR2(3), ATP2B4(1), ITM2A(2), MEIS2(5), CDO1(5), PHYHIP(4), FAM198B(3), JPH2(5), KRT222(5), C1QTNF1(3), TCEAL4(3), MYOZ2(5), DCAF12L2(5), DOCK4(2), LAYN(2), KIAA1045(1), SGCE(4), DPP6(8), TPSB2(4), SLMAP(3), PROCR(3), TCEAL6(2), MYLK(4), SLC8A1(4), CCDC136(7), EDIL3(2), PCDHB12(1), CACNA2D1(1), FBN1(2), SLCO2A1(3), ADRA1D(1), TAGLN(1), AQP1(1), CSPG4(2), SLC16A7(3), P2RY1(3), ATRNL1(2), SEPT7(2), ASB2(1), BVES(1), TEF(1), OGN(1), SNAI2(1), DKK3(1), SEPP1(2), C3orf64(1), ACTA2(2), SPEG(6), SCN2B(1), KANK1(1), GPR1(9), PID1(1), MCAM(2), JAZF1(1), FEZ1(6), C20orf160(3), AVPR1A(1), RNASE4(1), PCDHGA12(6), PODN(4), PCDHGA7(1), OSR2(1), ZDBF2(2), PI15(1), RGS13(1), LMCD1(2), NPY1R(1), WISP1(5), ENPEP(4), GNAO1(3), MBLAC2(1), LOC283856(2), ANXA6(1), FAM26E(1), ZFYVE20(1), GPR161(1), MESTIT1(1), HPGDS(1), INPP5A(1), METTL7A(1), GJC3(2), CYP1B1(3), MXRA7(3), ANK2(2), BCAP29(1), FILIP1(4), CD99L2(1), AEBP1(5), STARD13(12), LOC144571(3), RFTN2(3), RAMP2(2), TM4SF18(1), SCN3B(5), CXCL12(3), FAM175A(4), TGFB3(2), IL11RA(1), GULP1(1), TBX3(1), FOXO1(1), CSDC2(3), P2RX7(1), PCDHA3(1), EPDR1(1), TRIM9(1), ZDHHC14(3), CCDC50(3), FAM55C(3), DENND2A(2), KCTD10(1), C21orf7(2), PCDH17(1), CTNNA3(1), TSPAN7(1), PURG(2), LSM11(1), KLHL4(1), MAP3K3(6), ETS1(1), C12orf53(1), ZNF34(1), SGCA(1), WSCD2(1), PRIMA1(1), WIT1(2), ZYX(2), RPS6KA2(1), SYNE1(1), KLHL13(2), EHBP1(2), PPM1K(1), FAM49A(1), ZNF676(3), PLAT(4), PRKCDBP(1), IGFBP4(1), CALCOCO2(1), STARD5(1), LOC728264(2), CRISPLD2(1), LPCAT2(2), FYCO1(4), PTPN21(2), CCDC85A(1), DUSP3(2), INSR(5), KLHL21(1), CALCOCO1(2), LRCH2(1), SETBP1(1), ENOX1(2), MAF(1), ARHGAP24(1), SAMD4A(1), GAS6(2), HOXD10(1), PCDH12(1), PCDHB7(3), C9orf5(2), ARL15(1), HOXD9(1), GJD3(1), PTGDR(3), PCDHGB6(1), GUCY1A3(1), CGNL1(1), SUGT1P1(2), TSPAN4(1), PDZD4(1), HTRA3(1), EHBP1L1(1), MACF1(1), ZNF781(1), RBM9(1), LRP1(1), ACACB(3), LGI4(1), RIC3(2), GIPC3(1), KIAA0430(1), IRS1(1), SLC45A1(1), HRC(1), CALCRL(1), EXOC3L2(1), EBF1(1), PLXDC1(2), CDH13(2), COL6A3(1), EFHA2(1), CCDC48(1), POU6F1(1), PSD(1), PKD1(1)</t>
+          <t>CXorf36(30), SAP30L(40), CDK17(3), NOSTRIN(17), FLT4(63), STON1(27), LRRN4CL(66), TSPAN18(23), ANTXR2(70), GHR(22), POU6F1(2), KDR(12), JAM2(13), DPYSL3(2), GRINL1A(10), GLT8D2(27), AHNAK(44), PGCP(10), C5orf53(28), TCEAL1(8), ANO6(64), PPAPDC3(18), NKAPL(17), MBNL2(31), GRK5(5), TIMP2(56), TBC1D1(18), ECM2(6), TIMP3(36), LRRC2(2), MFAP4(46), MEF2C(74), FXYD6(8), ANK2(1), HSD17B6(7), DMD(28), SNRK(16), GPM6A(3), C1orf150(4), FAM65B(14), NEDD4(21), SPARCL1(59), ITGA8(9), FLI1(21), SYNPO(13), ZNF208(6), ARHGAP6(49), PTGIS(9), C1QTNF7(24), LOH3CR2A(40), MMRN2(16), TNFAIP8L3(5), SH3BP5(29), ELK3(25), SSPN(13), SHE(12), TMOD2(7), TACC1(74), DACT3(9), GPRASP1(49), MYCT1(37), THRA(8), PPP1R12B(17), TGFBR3(16), ATL1(7), SPTBN1(11), TEF(3), SETD7(63), TSHZ3(14), PCDHGA2(30), PRELP(6), CLIC4(12), GPRASP2(26), PAPPA(12), MSRB3(4), ITPR1(10), LMOD1(18), AKAP2(11), PRKG1(2), ST5(50), PEAR1(44), FAM198B(9), RSPO1(32), TNNI3K(1), MID2(29), SH3BGRL(33), NXPH3(29), CLIC2(57), PROS1(28), KCNJ8(13), DIRAS1(8), PTRF(8), PABPC5(30), CCDC69(11), ABI3BP(19), DIXDC1(65), C14orf28(17), TBL1X(28), CNRIP1(52), C4orf32(3), DSTN(8), RASSF8(43), CAV2(7), KANK3(18), FERMT2(10), CACNB2(8), ANGPTL1(2), LHFP(6), STOM(21), TGFB1I1(6), RAPGEF4(6), PDE5A(12), SYTL4(5), KIAA1462(78), TIE1(45), FBLN5(13), C5orf4(19), PGM5P2(20), PRUNE2(3), CALHM2(40), C16orf45(48), OLFML2A(24), TRPC1(5), ADD1(11), ZBTB38(23), FBXL3(6), LDB2(28), KL(5), PALLD(17), ANKRD29(43), ERG(8), PALM2-AKAP2(19), FKBP7(12), C7orf58(23), LRCH1(59), FGF2(63), DENND2A(2), FRY(9), AKT3(51), ZAK(78), PGM5(10), LEPR(18), LTBP4(23), FHL1(6), STARD13(6), ZEB1(40), SH3D19(11), GPR116(16), FGF7(7), PRDM8(41), RERG(9), BNC2(49), TMEM204(22), TENC1(28), TMEM55A(26), CASP12(8), LAYN(6), ARHGEF15(18), ADAMTSL1(2), GAB1(19), MDFIC(35), CYP2U1(6), MAMDC2(29), GNAL(9), CALD1(36), KCNMA1(28), SLC24A3(84), PCDHGA3(22), PLSCR4(10), CBX7(45), CACNA1H(11), HEG1(8), CACNA1C(29), TMEM200A(20), MRGPRF(8), KANK2(49), EMCN(25), CYBRD1(5), TLN1(9), PDE2A(11), ABCG2(23), ZCCHC24(28), TMEM200B(19), TEK(30), PKD2(8), PCDHGA9(6), TNXB(24), MAOB(49), PCDHGA6(70), HSPA12B(19), SVIL(69), MAN1C1(4), KIAA1644(10), STAT5B(92), TNS1(14), SMOC2(14), ADCY2(24), CD302(14), TCEAL7(57), ESAM(7), FAM13C(10), ABCC9(7), RHOJ(75), ASAM(49), RASA4(11), ZEB2(13), PHLDB2(20), ZNF483(5), MITF(19), C1orf21(11), GRID1(12), MYADM(21), ARHGAP31(30), GNG12(34), FBXO32(15), GPR124(14), ROBO4(17), RECK(19), PJA2(52), UBL3(35), SOX7(18), TXNIP(33), CEP68(12), SHANK3(5), SRL(6), GYPC(2), AFAP1L1(2), PLN(1), FAM175A(9), SCARF1(17), NEXN(1), CACNA2D1(1), GIMAP1(3), DNAJB5(1), NCAM1(1), APOL3(2), ELTD1(1), CCL14(1), RAB31(6), RAB23(1), MMRN1(1), PCDHGA5(12), RAB9B(1), AKAP13(6), HSPB7(2), VIPR2(1), PER3(1), LAMA4(3), MESTIT1(1), SOCS2(4), ZNF835(1), CSRP1(1), RASGRP2(1), GIMAP6(7), KLHL38(6), VGLL3(1), MEIS3(20), MICAL2(3), TRPC4(1), ARHGAP24(1), GNG7(4), KCND2(1), ERVFRDE1(7), TCF23(1), REM1(2), TGFBR2(1), P2RY1(1), THSD1(5), CDC42EP3(1), GIMAP8(7), PDLIM3(1), HOXD10(1), WT1(14), OGN(2), OLFML1(2), ITM2A(1), SEPP1(1), NEURL1B(1), CCDC80(1), C1orf133(31), YPEL4(3), WHAMML1(4), SSC5D(11), CAV1(3), APBB1(14), C21orf34(21), FLNA(1), PTGER2(6), SPEG(1), ENOX1(1), TUB(1), PDE8B(2), ADAMTS5(1), GPR1(2), EMILIN1(13), RASD2(1), FILIP1L(2), FOXN3(11), TBXA2R(1), MS4A2(1), PCDHB18(3), FRMD3(1), NR3C2(2), FXYD1(1), TCEAL4(1), STARD8(2), NPTN(8), PCDHGA12(2), ASPA(1), PODN(2), SYNPO2(1), FLNC(1), TSPAN2(7), SRF(1), RAMP1(3), CFL2(3), HTR2B(5), JPH4(5), PBX1(2), TBX3(2), KLHL33(2), FAM69A(3), ADARB1(3), PRX(5), NAP1L2(4), C1orf70(2), SMTN(3), CLEC14A(8), CLIP3(30), A2M(17), GNG11(9), RASL12(4), ARRB1(1), SYT15(1), TAL1(3), LRRC8C(2), ZNF676(4), MYH11(1), KIAA1614(10), MASP1(1), USP31(5), SELP(2), GIMAP4(6), S1PR3(1), LMCD1(2), EHBP1L1(2), GIMAP5(1), HGF(1), LRRC70(3), DPP6(1), NPY1R(1), SNCA(1), GRRP1(1), WISP1(6), ENPEP(1), PCDHB15(5), ARSI(1), PCDHB4(20), TRIM9(1), RNF144A(4), FRMD6(25), PPP1R16B(1), TCEAL6(1), GIMAP7(1), SLC8A1(4), NT5DC3(3), CLEC2B(3), KLF17(1), MYOCD(1), KATNAL1(21), SDPR(1), S1PR1(1), FAM131B(1), TLL1(1), SORBS1(1), ENPP2(1), LIFR(2), ILK(3), MXRA7(3), ZNF366(1), WIT1(1), ARHGEF6(14), PRNP(13), GUCY1A3(2), IL33(11), LRRK2(13), ABCB1(16), DDR2(5), KRT222(5), PMP22(22), TMEM47(1), LIX1L(16), PDE7B(14), PRKCH(4), DPYD(25), EPAS1(5), NDN(10), CDO1(4), FGD5(13), BACH2(2), PCDHGB7(18), RNF11(1), PTPN21(1), NECAB1(11), CRTAP(11), PDLIM5(2), MXI1(1), MEF2D(21), KLHDC1(29), CBX6(1), VAMP3(5), KCTD12(17), PTPRB(4), SLCO2A1(5), MATN2(2), PRKCA(7), INSR(1), SERINC1(4), TBC1D2B(6), KCTD7(10), JAM3(17), PHF15(1), ZNF521(10), KCTD10(2), RGMA(1), MEIS2(4), CALCRL(1), HEPH(8), ACTN1(1), C10orf54(1), NRIP2(9), DOCK4(4), PPP1R12A(11), ITPKB(2), FEZ2(6), SFMBT2(6), MBNL1(8), FAM55C(1), CCND2(7), FBXO31(2), MAP3K3(9), AKNA(1), PCDHGB6(2), EZH1(11), CCDC136(1), SCARA3(1), SLC16A7(2), DHH(6), ATP2B4(1), PCDHGA4(1), CYYR1(6), C4orf12(8), SOX15(1), ENPP1(2), SH2D3C(2), C20orf160(1), DCAF12L2(1), THBS2(2), OSR2(1), ARL15(2), PCDHGA11(5), SERPINF1(1), AEBP1(2), CYP1B1(1), GNAO1(2), LOC283856(1), PCDHB7(3), RFTN2(2), COL15A1(3), PCDH18(2), LUM(1), ST6GALNAC3(1), TGFB3(2), NBEA(5), PARM1(1), CDH5(4), OSTM1(1), PLAT(2), LATS2(2), N4BP2L1(3), ACOX2(1), PDE10A(9), RFTN1(9), PTGDR(1), P2RX7(3), FYCO1(3), TCF4(2), RAB8B(6), SBDS(2), RBM9(1), EHD2(6), CBFA2T3(2), SYNE1(4), PPAP2A(1), KLHL13(2), FEZ1(1), ETS1(2), EFEMP1(2), NFASC(1), FBXL7(1), CGNL1(2), ENTPD1(1), MARVELD1(5), ZNF25(11), BCL2(1), GLI3(9), FEM1B(8), DNASE1L3(1), LSM11(1), RUNX1T1(1), DFNA5(6), ATOH8(2), CLEC1A(2), DKK3(1), DCHS1(4), TPSB2(1), LRP1(1), MXRA8(1), GNG2(2), APBA1(1), CALCOCO1(1), C5orf41(2), TRIM23(1), ZBTB4(1), ADCY4(3), KALRN(1), FZD4(3), PPM1F(1), ACACB(2), RNF38(5), EPM2A(2), RAB11FIP2(2), MACF1(1), FBN1(1), CSDC2(1), FAT4(1), PEG3(1), HLF(1), CRY2(1), NAP1L3(1), C10orf72(1), TM4SF18(1), AXL(3), NBL1(1), SCN3B(1), KITLG(1), OR5K2(1), TNFSF12(1), MAPK10(2), OSBPL1A(1), KCNQ4(2), HCFC2(1), JAZF1(1), RNASE4(1), SEPT7(2), DST(1), IRS1(1), MBLAC2(1), GAS6(1), VAMP2(1), TMEM88(1), VCL(1), PCDHB5(1), RAB11FIP5(1), FOXO1(1)</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>679.0</v>
+        <v>565.0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6000102276913634</v>
+        <v>-0.6000003450410423</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.7891604063860739</v>
+        <v>-0.7859329391084364</v>
       </c>
       <c r="H2" t="n">
-        <v>11081.0</v>
+        <v>6563.0</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6349071309091132</v>
+        <v>-0.6294595771429934</v>
       </c>
       <c r="J2" t="n">
-        <v>49.690582959641254</v>
+        <v>27.345833333333335</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hsa-miR-200b-3p</t>
+          <t>hsa-miR-423-3p</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>212.0</v>
+        <v>218.0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FLT4(67), GYPC(36), GHR(17), PPAPDC3(31), TIMP2(72), MEF2C(41), TSHZ3(52), GPRASP2(45), APBB1(29), PMP22(31), CNRIP1(67), KIAA1462(56), HAAO(15), CALHM2(68), C16orf45(55), TRPC1(13), FGF2(52), C1orf70(31), AKT3(52), PRDM8(51), EHD2(17), SLC24A3(73), KANK2(52), ZCCHC24(31), HSPA12B(32), TMEM88(4), STAT5B(63), TCEAL7(61), RHOJ(57), ZBTB4(2), GPR124(40), ARHGEF6(8), LRRN4CL(54), ANTXR2(23), GLI3(7), JAM3(33), FBN1(23), ANO6(18), NKAPL(28), PRNP(18), TCF4(2), MEIS3(40), SCN3B(6), LOH3CR2A(21), SSPN(13), TACC1(28), GPRASP1(38), PDE10A(7), PEAR1(49), CLIC2(30), RFTN1(14), PTRF(21), PABPC5(47), DCHS1(10), DIXDC1(28), SH2D3C(14), FEZ1(6), RASSF8(31), ST8SIA1(1), TIE1(32), FKBP7(17), NRIP2(7), ZAK(50), LTBP4(44), KLHDC1(15), ZEB1(38), TENC1(26), TMEM55A(15), ARHGEF15(28), LOC144571(3), TLN1(6), TNXB(44), MAOB(29), SVIL(24), KATNAL1(31), ZEB2(29), RAB31(11), NEDD4(14), C21orf34(14), LAYN(21), HEG1(4), MYADM(12), ARHGAP31(23), SHANK3(4), PRKCDBP(2), TSPAN18(15), GLT8D2(35), C5orf53(9), DAB2(7), TGFB3(6), MFAP4(22), SPARCL1(20), RAB8B(12), ARHGAP6(24), DPYD(12), REM1(8), GFPT2(2), DACT3(21), TGFBR3(12), WT1(12), SETD7(21), RAB3IL1(11), CDO1(4), SSC5D(9), RSPO1(15), NXPH3(17), KCNJ8(18), EMILIN1(25), FXYD1(7), CAV2(10), KANK3(22), CACNB2(19), HEPH(3), NECAB1(21), CRTAP(8), SRF(19), RAMP1(9), OSR2(24), ANKRD29(34), TBX3(12), PRX(13), SNED1(1), BNC2(22), MDFIC(14), MAMDC2(19), CACNA1H(15), TMEM200B(24), HSPB2(5), RFTN2(9), ASAM(29), COL15A1(11), ILK(5), GRID1(21), RECK(21), NOSTRIN(12), POU6F1(2), FGD5(5), STOM(4), DENND2A(3), CLIP3(34), KIAA1614(6), LIX1L(12), INSR(2), ROBO4(18), CXorf36(16), SAP30L(10), STON1(6), JAM2(11), PGCP(7), PCDHGA5(3), VIPR2(2), GRK5(3), PJA2(4), SOCS2(2), TIMP3(23), FXYD6(11), FLI1(8), PTGIS(5), C1QTNF7(10), SH3BP5(7), SHE(7), LOC134466(5), MYCT1(14), PPP1R12B(2), OLFML1(12), PCDHGA2(12), CLIC4(1), LMOD1(5), C1orf133(2), YPEL4(1), ST5(12), PHYHIP(7), MID2(8), NBLA00301(2), C15orf51(2), SH3BGRL(7), DST(1), PROS1(12), DIRAS1(10), SULF2(1), DDR2(4), SOX15(6), FOXN3(8), ABI3BP(7), PCDHB18(10), TBL1X(14), LHFP(2), TGFB1I1(10), RAPGEF4(2), NAP1L3(16), C10orf72(5), C5orf4(6), CFL2(4), JPH4(4), OLFML2A(9), FBXL3(3), LDB2(13), FAM69A(4), ADARB1(10), COX7A1(1), C7orf58(8), LRCH1(7), MEF2D(11), NAP1L2(1), HIC1(7), AEBP1(4), LEPR(2), GNG11(10), LPAR4(1), RASL12(6), CRISPLD2(2), GEFT(18), CASP12(6), GAB1(1), GNAL(2), CALD1(16), PPP1R12A(1), KCNMA1(11), PCDHGA3(16), CBX7(19), CACNA1C(11), TMEM200A(16), ENPEP(1), MRGPRF(13), PDE2A(3), ABCG2(5), FEZ2(4), PCDHGA6(17), FRMD6(4), TNS1(3), SMOC2(6), CD302(14), RASA4(14), PHLDB2(1), ZNF483(1), MBNL1(2), PCDH18(3), C1orf21(8), RUNX1T1(3), PCDHB4(12), CLEC2B(11), APBA1(2), GIMAP1(7), AHNAK(2), ATOH8(6), MBNL2(5), CD93(1), SYNPO(2), GLI2(10), MMRN2(2), TMOD2(5), UBL3(4), CYYR1(3), PDE5A(10), FBLN5(5), MAGI2(2), PCDHGA11(2), ERG(5), PALM2-AKAP2(5), EFEMP1(3), TMEM204(16), GIMAP4(6), CEP68(3), PCDHB15(4), EMCN(4), PROCR(2), MAN1C1(6), ADCY2(10), ESAM(3), ST6GALNAC3(1), FAM162B(2), FAM175A(4), SLC45A1(11), TCEAL1(4), TBC1D1(4), DMD(1), SNAI2(5), MARVELD1(2), PAPPA(6), ZNF25(7), FAM198B(6), TUB(11), SOX7(5), CCDC69(4), PPAP2A(2), SERPINF1(11), HOXD9(2), LMCD1(3), PCDHB7(1), SRL(6), ECM2(4), ADRA1D(2), WHAMML1(3), LRRK2(3), GLT1D1(1), TXNIP(2), CYBRD1(2), EZH1(1), TEK(7), SFMBT2(1), SERINC1(1), MITF(1), NDN(15), AXL(5), KCTD12(11), ACVRL1(5), GNAO1(5), KCTD7(3), C14orf28(3), PRKCA(6), ANK2(1), ZDBF2(3), ZFYVE20(1), TBC1D2B(13), NES(2), TEF(5), TBXA2R(3), PPP1R12C(1), ARRB1(1), TAL1(1), LOC728264(2), MXRA7(2), GNG7(6), COL6A3(1), VAMP3(2), PLXDC1(2), KLHL10(4), LRRC8C(1), AFAP1L1(1), CCND2(5), IL11RA(3), ATL1(1), SPTBN1(2), GJC3(1), WIT1(7), DHH(3), A2M(2), GJD3(1), SCARF1(4), FEM1B(2), NR3C1(2), SCARA3(1), TUBB6(1), PRRG3(1), CD99L2(1), ZNF208(2), GPR133(2), RGMA(3), MEIS2(1), BACH2(1), TM4SF18(1), FREM1(1), FLJ35390(2), CDH5(1), GPR116(1), USP31(1), PCDHGB6(2), LATS2(2), RNF144A(1), SLC8A1(1), CCDC50(2), MAP3K3(7), ZNF34(1), HCG11(1), ZYX(2), UST(1), CLEC3B(1), FZD4(1), RASGRP2(2), SNRK(1), NBEA(1), THSD1(1), OGN(1), OR5K2(1), SCN2B(1), SYNE1(1), C1QTNF1(4), JAZF1(1), TCEAL4(1), FERMT2(3), SYTL4(1), TMEM47(2), C1QTNF4(1), SBDS(2), TIPARP(2), HTRA3(1), CYP2U1(1), GIMAP5(2), HGF(1), CYP1B1(2), PDE7B(1), EHBP1(1), FLRT2(1), FAM65C(1), ARHGAP20(1), SHC2(1), ACACB(1), LOC728392(1), PLAT(1), MAF(1), ZNF521(1), CBX6(1), C9orf5(1), APOBEC3C(1), N4BP2L1(1), C10orf54(1), COL6A2(3), EBF1(1), LOC644538(1), ZNF575(1), PTPN21(2), KL(2), ANXA6(1), PCDHGB7(2), TSPAN4(1), ZNF676(1), MACF1(1), FYCO1(1), LRCH2(1), DFNA5(2), THRA(1), NEURL1B(1), SLC9A9(1), CLEC1A(1), NID1(1), FAM55C(1), EFHA2(1), ISLR(1), C20orf160(1), ALDH1A2(1), CCDC48(1), ACTN1(1), LOC283856(1), PSD(1), VAMP2(1), MXRA8(1), PKD1(1)</t>
+          <t>TIMP2(45), MDFIC(35), FLT4(62), TIMP3(59), KIAA1462(62), TIE1(50), ZAK(53), SLC24A3(81), SVIL(51), STAT5B(67), RHOJ(73), TSPAN18(32), SCARF1(21), ANTXR2(42), MEF2C(50), SPARCL1(51), TACC1(62), SETD7(34), NEURL1B(11), PEAR1(39), CNRIP1(27), C16orf45(48), OLFML2A(30), ANKRD29(21), FGF2(34), AKT3(49), CLIP3(19), BNC2(40), TAL1(4), MAMDC2(27), GNAL(10), KCNMA1(28), KANK2(46), PCDHGA6(37), HSPA12B(15), TCEAL7(36), ASAM(46), MXRA7(3), CXorf36(37), GHR(27), GLT8D2(21), IL33(11), ARHGAP6(36), DHH(11), SHE(17), MYCT1(37), APBB1(11), ABCB1(14), DIXDC1(50), PMP22(26), KANK3(27), CALHM2(36), ERG(13), PALM2-AKAP2(40), LRCH1(23), CLEC14A(12), A2M(22), ZEB1(31), GPR116(14), PRDM8(41), TMEM204(17), CACNA1C(35), EMCN(29), TEK(37), LIX1L(16), ESAM(26), ARHGAP31(24), ROBO4(27), RECK(20), ZNF521(12), MEF2D(22), LRRN4CL(32), JAM2(23), JAM3(23), C5orf53(15), TBC1D1(24), MFAP4(23), NEDD4(22), MEIS3(29), SYNPO(4), MMRN2(18), SH3BP5(16), RGMA(12), PPP1R12B(22), PCDHGA2(21), CLIC4(17), LMOD1(23), C1orf133(27), ST5(19), C21orf34(17), PCDHGA4(1), NXPH3(26), CLIC2(42), PROS1(7), RFTN1(5), SOX7(28), BACH2(3), DCHS1(5), TBL1X(18), RASSF8(15), TSPAN2(19), RAMP1(2), PGM5P2(27), LDB2(30), TENC1(13), TMEM55A(12), CBX7(24), PDE2A(21), PRR16(2), ZCCHC24(22), FRMD6(26), MYADM(11), FBXO32(29), SAP30L(35), CCND2(6), FLI1(20), CBX6(1), DACT3(19), PDE10A(10), UBL3(15), BCL6B(1), SH3BGRL(22), EMILIN1(13), PDE5A(6), KIAA1614(8), TMEM200B(17), GRID1(12), FGD5(14), ARHGEF6(8), TBC1D2B(5), SRL(6), CD34(4), STON1(21), NES(1), KCTD7(4), RAB31(3), EPM2A(3), AHNAK(12), PGCP(6), PCDHGA5(12), PPAPDC3(9), HSD17B6(15), DMD(11), FAM65B(5), ITGA8(14), KCTD10(3), C1QTNF7(9), LOH3CR2A(16), SSPN(8), GIMAP8(14), GPRASP1(15), TGFBR3(10), SPTBN1(4), NDN(4), GPRASP2(10), AKAP2(16), CDO1(1), RSPO1(17), MID2(26), CYYR1(7), PTRF(14), DDR2(9), FOXN3(11), CCDC69(4), C14orf28(6), DSTN(10), LHFP(8), STOM(9), TGFB1I1(10), NAP1L3(2), ACTN1(2), JPH4(8), ADD1(1), FAM69A(4), C7orf58(6), C1orf70(6), NRIP2(10), TXNIP(19), PGM5(19), LEPR(9), CDH5(8), RERG(9), ARHGEF15(26), GAB1(13), CYP2U1(4), CALD1(25), PPP1R12A(4), PCDHGA3(9), ITPKB(5), HEG1(6), TMEM200A(15), MRGPRF(12), PCDHB4(13), ABCG2(20), FEZ2(6), TNXB(17), KIAA1644(15), TNS1(11), SMOC2(19), ADCY2(10), CD302(13), RASA4(8), ADCY4(5), MITF(8), C1orf21(8), GPR124(12), MAP3K3(5), AFAP1L1(2), KDR(11), SOCS2(8), GIMAP6(9), ENTPD1(5), ELK3(11), TMOD2(9), ITPR1(8), WHAMML1(3), KRT222(1), ENPP1(6), KLHL10(2), PPP1R12C(1), CAV2(4), FERMT2(11), SIRT1(1), HTR2B(9), PALLD(16), FKBP7(7), FHL1(9), SH3D19(1), GEFT(6), CEP68(11), MAOB(12), RNF144A(9), KATNAL1(17), FOXF1(2), PCDHGA11(2), PLAT(1), GYPC(2), NKAPL(7), DPYD(10), PCDHA10(1), SSC5D(15), KCNJ8(8), PABPC5(7), TBXA2R(6), PCDHGB7(9), CRTAP(6), GNG11(8), EHD2(5), CACNA1H(6), PHLDB2(11), CRY2(1), NECAB1(3), KLHDC1(3), DPYSL2(1), POU6F1(2), ANO6(13), FEM1B(5), BMPR2(1), TCF4(3), ZNF25(7), HEPH(3), LRCH2(1), TMEM88(4), KCTD12(7), RBM9(1), DKFZp434J0226(1), GIMAP1(8), TGFB3(3), KLHL38(10), REM1(1), LRRK2(2), TMEM109(1), C10orf54(1), PRKCA(3), LTBP4(12), GIMAP4(7), GIMAP5(5), CDK17(1), PRNP(11), USP31(14), PJA2(14), PCDHB18(3), TLN1(6), NOSTRIN(4), IGFBP4(1), LAMA4(5), NBEA(4), PTGIS(10), WT1(5), RSPO3(4), PTGER2(2), CALCOCO2(1), SH2D3C(3), TMEM47(3), PBX1(4), ZBTB38(7), FRY(6), FGF7(8), WISP1(7), PKD2(4), CLEC2B(2), PCDHB7(3), NAALADL1(1), MBNL1(5), GNG12(9), N4BP2L1(3), PLN(4), NEXN(3), SLC45A1(1), CCL14(3), FBN1(1), ATOH8(4), TCEAL1(3), SLCO2A1(3), HSPB7(6), VIPR2(1), CSDC2(3), MBNL2(2), ECM2(3), FXYD6(4), ANK2(1), ZDHHC14(1), C1orf150(4), MICAL2(3), CD93(5), TCF23(3), TNFAIP8L3(7), P2RY1(3), CDC42EP3(3), ARID5B(1), SEPT7(2), TEF(3), OLFML1(3), SNAI2(2), TSHZ3(3), LOC285830(1), SEPP1(2), PRELP(2), MARVELD1(1), MSRB3(7), PEG3(2), PRKG1(3), RBPMS2(1), CAV1(3), FLNA(4), PDGFRA(1), SPEG(4), HLF(3), ACVRL1(4), PDE8B(5), PLIN4(2), DIRAS1(10), C4orf12(1), GPR1(1), FILIP1L(5), MCAM(2), NR3C2(2), JMY(1), CACNB2(3), RAPGEF4(2), SYTL4(3), ECSCR(4), PCDHGA12(5), PODN(2), SYNPO2(6), FBLN5(10), SRF(4), C5orf4(5), CFL2(4), FBXL3(2), KLHL33(3), PRX(5), NAP1L2(2), SMTN(7), C12orf53(1), STARD13(3), C4orf49(2), RASL12(7), SYT15(3), LAYN(2), ADAMTSL1(3), MYH11(3), MXI1(1), MASP1(6), SELP(6), LOC144571(1), DPP6(3), NPY1R(3), CYBRD1(3), EZH1(3), PDE7B(5), SLC8A1(1), PPP3CB(1), MYOCD(2), SDPR(2), FAM13C(2), ABCC9(5), ZEB2(4), ZNF483(5), SORBS1(3), ENPP2(6), ILK(4), GLI3(6), CBFA2T3(1), FEZ1(5), MAN1C1(3), CCDC48(1), PRKCH(1), DNASE1L3(2), TM4SF18(2), RUNX1T1(2), GPM6A(4), MEIS2(1), STARD8(2), SHANK3(4), DPYSL3(5), CALCOCO1(1), SNRK(7), RAB11FIP5(2), HGF(2), SERINC1(1), ZBTB4(1), PPM1F(1), ELTD1(2), MMRN1(1), PTPRB(5), FZD4(5), ACACB(2), PECAM1(1), SLC16A7(2), CLEC1A(1), PDLIM3(5), RNF38(2), PAPPA(3), CALCRL(4), ABI3BP(5), EDNRB(3), AVPR2(1), KL(3), PCDH12(1), LRRC8C(2), LRRC70(2), SNCA(3), GRRP1(4), PPP1R16B(2), HYAL1(1), LRRC32(2), HSPB2(2), S1PR1(3), PLVAP(2), LIFR(1), SCARA3(1), LIMS2(4), PCDHGA7(1), TRPC1(3), OSTM1(1), SYNE1(1), AXL(2), NBL1(1), SCN3B(1), OR5K2(3), COLEC12(3), MXRA8(2), KCNMB1(3), CXCL12(2), TNFSF12(1), MAPK10(1), GJA5(1), PTGDR(1), PLXDC1(2), DIO3(1), PER3(2), GRK5(2), LRRC2(2), RASGRP2(1), CMYA5(1), KCND2(1), THSD1(1), HPGDS(1), TUB(1), C1QTNF1(1), RASD2(1), MATN2(2), ANGPTL1(2), P2RX7(1), OSR2(1), TBX3(2), SERPINF1(1), DOCK4(1), CASP12(3), HCFC2(1), SLC8A2(1), ENPEP(3), NFASC(2), CYP1B1(1), RAMP3(1), RFTN2(1), EDIL3(1), NR3C1(1), FAM175A(1), ABCA8(1), NCAM1(1), GRINL1A(1), CDON(1), SLC1A7(1), RAB23(3), CNN1(1), CSRP1(2), ADRA1D(1), TAGLN(1), BCAP29(1), AQP1(1), VGLL3(1), TRPC4(2), GLI2(1), ARHGAP24(1), CSPG4(1), ERVFRDE1(3), CTNNA3(1), CCDC141(1), HOXD10(1), OGN(1), ATP2B4(2), ITM2A(1), DKK3(1), SNAP25(1), CCDC80(1), ACTA2(1), FAM198B(1), JPH2(2), ENOX1(1), ADAMTS5(1), SLC35F1(1), SOX15(1), KLHL4(1), MS4A2(1), EXOC3L2(1), FXYD1(1), TCEAL4(1), C4orf32(1), MYOZ2(1), KIT(1), NRK(1), KCNB1(1), FLNC(1), PRUNE2(2), CNTN4(1), LOC145820(1), ADARB1(2), ITGA11(1), SBDS(1), AOC3(1), EHBP1L1(1), SGCE(1), PLSCR4(2), PROCR(1), MYLK(1), NPY5R(1), GIMAP7(1), KLF17(1), SGCA(1), FAM131B(2), WSCD2(1), COL15A1(1), PDE1A(1), SYPL2(1), ABCA6(1), ZNF208(1), FLJ35390(1), EPAS1(2), DCP1B(1), C20orf160(1), VAMP3(1), ZNF676(2), DST(1), VCL(1), TSPAN7(1), KLF7(1), KANK1(1), PDLIM5(1), PCDHB15(1), PRLR(1), LCN6(1), LUM(1), ZNF366(1), PCDHB5(1), CDH13(1), ETS1(1), KCNQ4(1), GNG7(1), FYCO1(1)</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>437.0</v>
+        <v>591.0</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6000026112412369</v>
+        <v>-0.6000016404978636</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.7439880189571706</v>
+        <v>-0.7713919482792742</v>
       </c>
       <c r="H3" t="n">
-        <v>4523.0</v>
+        <v>5235.0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.62932263576385</v>
+        <v>-0.6308917089712635</v>
       </c>
       <c r="J3" t="n">
-        <v>21.33490566037736</v>
+        <v>24.013761467889907</v>
       </c>
     </row>
     <row r="4">
@@ -192,543 +192,543 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.0</v>
+        <v>211.0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>JAM3(27), TIMP2(65), CALHM2(54), ZBTB4(4), SAP30L(35), FLT4(37), LRRN4CL(34), ANTXR2(13), GHR(11), GLT8D2(23), PPAPDC3(20), TGFB3(3), TIMP3(14), MEF2C(31), SNRK(2), SPARCL1(12), C1QTNF7(3), TMOD2(2), TACC1(18), GPRASP1(17), TSHZ3(16), PCDHGA2(6), GPRASP2(21), PEAR1(21), APBB1(26), CLIC2(8), PTRF(3), PABPC5(13), DIXDC1(15), ENPP1(1), PMP22(26), C14orf28(1), CNRIP1(54), RASSF8(14), KANK3(6), KIAA1462(29), C16orf45(51), TRPC1(3), PRX(10), FGF2(33), C1orf70(12), AKT3(44), SERPINF1(2), ZAK(57), LTBP4(32), ZEB1(22), GNG11(7), PRDM8(45), EHD2(7), SLC24A3(76), KANK2(53), ZCCHC24(37), TMEM200B(5), TNXB(10), PCDHGA6(30), HSPA12B(15), SVIL(18), TMEM88(1), STAT5B(76), ADCY2(3), KATNAL1(12), TCEAL7(36), RHOJ(57), ASAM(15), ZEB2(10), ILK(3), GPR124(21), RECK(8), ARHGEF6(2), GYPC(9), GLI3(7), AHNAK(2), FBN1(7), PCDHGA5(4), ANO6(10), PRNP(6), PJA2(8), FAT4(1), NEDD4(6), TCF4(1), MEIS3(30), SCN3B(4), ARHGAP6(12), LOH3CR2A(6), TNFSF12(1), DHH(1), PDE10A(4), ZNF25(5), ST5(7), MID2(10), RFTN1(11), DCHS1(4), FOXN3(3), ABI3BP(5), TBL1X(17), MAPK10(1), PDE5A(4), ST8SIA1(1), CRTAP(5), TIE1(4), ANKRD29(10), FKBP7(8), NRIP2(3), KLHDC1(8), BNC2(13), TMEM204(9), TENC1(10), GAB1(5), KIAA1614(6), CALD1(2), KCNMA1(5), PCDHGA3(11), PCDHGB6(3), CBX7(7), MAOB(19), FRMD6(5), ARHGAP31(6), EMILIN1(17), SHANK3(1), TSPAN18(5), KCTD7(6), NKAPL(10), MFAP4(14), FXYD6(2), RAB8B(11), SH3BP5(9), TGFBR3(6), WT1(7), CDO1(1), SSC5D(2), NXPH3(2), FXYD1(1), HEPH(1), NECAB1(10), TBX3(4), SNED1(1), MAMDC2(7), GNAL(2), CACNA1H(4), RFTN2(3), MYADM(11), MEF2D(12), RNF38(2), CLIP3(26), VAMP3(4), TMEM55A(8), PPP1R12A(1), PCDHB4(10), TLN1(5), STON1(6), SETD7(6), UBL3(5), C21orf34(8), SH3BGRL(5), MAGI2(2), ADARB1(2), PALM2-AKAP2(1), LRCH1(9), CEP68(4), PCDHB15(1), MAN1C1(3), TBC1D2B(9), CCND2(7), DPYD(8), DACT3(5), NDN(12), TGFB1I1(7), RASL12(3), AXL(2), CLEC2B(2), CXorf36(3), MYCT1(5), TXNIP(1), ARHGEF15(2), MDFIC(5), TEK(2), RASA4(2), ROBO4(3), MARVELD1(2), SRF(11), ADD1(6), PRKCA(3), ZFYVE20(1), PPP1R12C(3), LIX1L(6), TRIM35(1), TUB(3), ZNF521(2), ESD(1), FEM1B(3), FBXL3(1), NR3C1(1), MDGA1(1), PGCP(1), FLI1(1), CD99L2(1), ZNF208(1), SHE(2), RGMA(2), FGD5(2), PROS1(3), DDR2(2), BACH2(1), CACNB2(3), STOM(1), PCDHGA11(1), FAM69A(1), C7orf58(2), HEG1(1), CACNA1C(4), LATS2(1), FEZ2(1), CD302(1), CCDC50(1), MAP3K3(4), UST(1), NBEA(1), KCTD12(4), SYNE1(1), DIRAS1(2), NAP1L3(1), LAYN(3), EHBP1(1), ANK2(1), THRA(3), TEF(2), RSPO1(3), KCNJ8(2), PCDH12(1), COL6A3(3), PDE7B(4), ESAM(1), GRID1(1), ACACB(1), AEBP1(1), SETBP1(1), CYYR1(1), PCDHGB7(1), MAF(1), INSR(2), GNG7(2), PTPN21(1), VAMP2(5), LRP1(1), GEFT(2), ZYX(1), SFMBT2(2), PLAT(1), SOX7(3), NOSTRIN(2), ATOH8(1), TCEAL1(1), ADRA1D(1), ITGA8(1), ERVFRDE1(1), PTGIS(1), SSPN(1), PPP1R12B(1), ATL1(1), OLFML1(1), SNAI2(1), PAPPA(3), LMOD1(1), LRRK2(2), SOX15(1), TBXA2R(2), PCDHB18(1), SH2D3C(2), NR3C2(1), KLHL10(1), FEZ1(1), FBLN5(1), C5orf4(1), PGM5P2(1), OLFML2A(2), LDB2(2), KL(1), EFEMP1(1), PGM5(1), CA11(1), CASP12(1), MRGPRF(2), EMCN(1), PDE2A(1), ABCG2(1), CYP1B1(1), SLC9A9(1), SMOC2(1), FAM13C(1), COL15A1(1), C1orf21(1), FBXO32(2), CBX6(1), CDH5(1), WHAMML1(1), ISLR(1), HAAO(1), JPH4(2), LOC100130776(1), SCARA3(1), TMEM200A(1), SCARF1(1), DENND2A(2), MXRA8(1), PKD1(1), ZNF676(1), DFNA5(1)</t>
+          <t>SAP30L(37), FLT4(36), GYPC(13), LRRN4CL(31), ANTXR2(19), GHR(17), GLT8D2(26), PPAPDC3(22), TIMP2(54), TIMP3(15), MFAP4(19), MEF2C(26), ARHGAP6(16), TMOD2(4), TACC1(14), GPRASP1(23), GPRASP2(21), PEAR1(20), MID2(6), DIRAS1(6), CNRIP1(48), RASSF8(20), KIAA1462(37), FBLN5(3), SRF(11), CALHM2(35), C16orf45(40), ANKRD29(14), C1orf70(12), DENND2A(2), AKT3(41), ZAK(48), LTBP4(18), PRDM8(37), TENC1(12), MDFIC(12), SLC24A3(60), CBX7(17), KANK2(34), ZCCHC24(22), TNXB(18), MAOB(22), PCDHGA6(30), HSPA12B(15), STAT5B(75), TCEAL7(33), RHOJ(52), MYADM(13), GPR124(17), RECK(10), FAM55C(1), PMP22(24), TBL1X(18), FGF2(19), KATNAL1(10), ASAM(18), ANO6(11), MEIS3(23), WT1(4), APBB1(18), EMILIN1(13), LRCH1(7), BNC2(15), PCDHGA3(10), SVIL(18), RGMA(6), PRKCA(6), TBC1D2B(8), CCND2(4), FBN1(3), CBX6(2), FKBP7(6), ARHGAP31(9), STON1(7), KCTD12(8), SH3BP5(6), WHAMML1(3), TUB(4), CLIC2(10), PTRF(4), DIXDC1(14), MEF2D(10), ZEB1(16), TMEM55A(6), TLN1(8), ZEB2(5), ZNF25(8), TMEM204(9), LIX1L(8), TSPAN18(11), NES(2), JAM3(16), NKAPL(13), PHF15(1), FXYD6(4), SPARCL1(13), DPYD(8), TGFBR3(6), TSHZ3(17), NDN(7), CDO1(1), C21orf34(5), RSPO1(5), KANK3(3), NECAB1(10), C10orf54(1), CLIP3(16), ARHGEF15(6), MAMDC2(11), PCDHB4(9), ADCY2(6), KCTD7(4), FERMT2(3), GEFT(5), SCARF1(3), JAM2(4), AHNAK(3), PGCP(3), PCDHGA5(2), SCARA3(1), GRK5(1), NEDD4(6), FLI1(4), KCTD10(1), PTGIS(2), LOH3CR2A(5), ELK3(1), DACT3(6), SETD7(9), PCDHGA2(8), CLIC4(5), PAPPA(4), LMOD1(3), SSC5D(6), PCDHGA4(1), SH3BGRL(4), PROS1(3), KCNJ8(8), SOX7(5), PABPC5(16), FOXN3(8), PCDHB18(2), KLHL10(1), CACNB2(7), HEPH(4), OSR2(4), TRPC1(2), LDB2(5), PCDHGA11(2), PALM2-AKAP2(3), C7orf58(6), PRX(5), AEBP1(1), KLHDC1(7), CASP12(1), LAYN(2), ZNF676(2), CALD1(9), SGCE(2), CACNA1H(6), CACNA1C(6), PCDHB15(3), TMEM200B(4), FRMD6(7), SMOC2(6), PCDHB7(3), CD302(3), RFTN2(3), RASA4(2), PCDH18(1), FBXO32(1), ST6GALNAC3(1), ADD1(3), ACOX2(1), ZNF521(3), RFTN1(4), ADARB1(6), UBL3(6), IGFBP4(1), SPTBN1(3), NXPH3(6), DCHS1(5), PDE5A(6), C20orf160(1), CRTAP(4), NRIP2(3), GNG11(7), PKD1(1), SERINC1(1), RAB8B(3), OLFML1(4), KIAA1614(3), RBM9(1), ARHGEF6(1), PRNP(5), PJA2(3), TGFB3(2), DMD(2), SNRK(2), GNG7(2), PDE10A(1), C1orf133(1), ST5(5), LRRK2(1), SYNE1(3), FEZ1(1), ETS1(1), TBX3(2), GAB1(4), GNAL(2), TMEM200A(5), MAN1C1(2), PDE7B(5), TEF(2), FBXL3(2), EZH1(2), UST(1), C5orf53(5), NBEA(1), ITPKB(1), CEP68(1), C1orf21(3), GLI3(4), ABI3BP(2), TAL1(1), RAB3IL1(2), BCL6B(1), VAMP2(2), MXRA8(1), CRISPLD2(1), COL6A3(1), GNG2(1), CXorf36(4), PCDHGB7(4), LHFP(1), TIE1(5), KL(1), ERG(2), EFEMP1(2), GPR116(3), KCNMA1(4), RNF144A(2), ROBO4(4), RAB11FIP5(1), PPM1F(1), MAP3K3(4), C10orf72(1), HAAO(2), AXL(3), NBL1(1), NAALADL1(1), TGFB1I1(2), EHD2(3), SYNPO(1), DDR2(2), SH2D3C(1), SBDS(1), SHANK3(1), AFAP1L1(1), FZD4(1), FEM1B(1), RASGRP2(1), KCNQ4(1), MMRN2(2), DHH(2), MYCT1(3), RNF38(1), ACVRL1(1), ABCB1(2), C1QTNF1(1), TBXA2R(1), STOM(1), RAMP1(1), PGM5P2(2), ZBTB38(2), CLEC14A(1), SERPINF1(1), CDH5(1), A2M(1), PCDH12(1), HCFC2(1), MRGPRF(2), PDE2A(2), TEK(2), ESAM(2), GRID1(3), ZNF208(1), VAMP3(2), SSPN(3), NAP1L3(2), PCDHB5(1), GIMAP1(2), SHE(2), GIMAP4(2), TMEM88(1), RUNX1T1(1), SRL(1), CD34(1), TCEAL1(1), ECM2(1), ITGA8(1), CD93(1), ERVFRDE1(1), C1QTNF7(1), TCF23(1), REM1(1), LOC134466(1), FBXO31(1), THRA(1), PPP1R12B(1), GAS6(1), HAND2(1), PRELP(1), ITPR1(1), AKAP2(1), HLF(1), DST(1), CCDC69(1), FXYD1(1), ISLR(1), CAV2(1), TMEM47(1), C5orf4(1), OLFML2A(1), COX7A1(1), PGM5(1), FLJ35390(1), LEPR(1), TIPARP(1), LRRC8C(1), PTGDR(1), GIMAP5(1), PLSCR4(1), HEG1(1), EMCN(1), ABCG2(1), CYP1B1(1), FEZ2(1), TNS1(1), CLEC2B(1), FAM13C(1), ZNF483(1), MBNL1(1), WIT1(1), COL15A1(1)</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>307.0</v>
+        <v>345.0</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6000060000128721</v>
+        <v>-0.6000070787224069</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.714826091601222</v>
+        <v>-0.7126759422665888</v>
       </c>
       <c r="H4" t="n">
-        <v>2372.0</v>
+        <v>2348.0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6214614047085721</v>
+        <v>-0.6234175017280382</v>
       </c>
       <c r="J4" t="n">
-        <v>11.800995024875622</v>
+        <v>11.127962085308058</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hsa-miR-15b-5p</t>
+          <t>hsa-miR-151a-5p</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>183.0</v>
+        <v>207.0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.83</v>
+        <v>2.07</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ANO6(65), DHH(4), RFTN1(10), KIAA1462(81), PRDM8(46), MDFIC(32), PCDHGA6(67), SVIL(73), STAT5B(89), RHOJ(79), ZBTB4(5), CXorf36(39), SAP30L(42), ARHGEF6(21), FLT4(65), STON1(38), LRRN4CL(63), ANTXR2(63), GHR(32), KDR(18), C5orf53(33), PCDHGA5(24), TIMP2(60), TBC1D1(7), MEF2C(81), HSD17B6(6), DMD(30), SNRK(20), SPARCL1(55), FLI1(22), ERVFRDE1(9), ARHGAP6(51), C1QTNF7(26), DPYD(27), TACC1(74), GPRASP1(52), MYCT1(41), PPP1R12B(22), SETD7(55), PCDHGA2(38), GPRASP2(31), LMOD1(20), C1orf133(36), PEAR1(49), VAMP2(4), APBB1(19), SH3BGRL(41), NXPH3(33), CLIC2(44), ABCB1(16), PABPC5(35), CCDC69(12), ABI3BP(23), DIXDC1(70), C14orf28(14), TBL1X(34), CNRIP1(53), RASSF8(41), KANK3(19), PDE5A(16), TIE1(45), PGM5P2(18), CALHM2(46), C16orf45(46), TRPC1(3), LDB2(36), PALLD(21), ANKRD29(45), C7orf58(23), LRCH1(66), FGF2(67), NAP1L2(4), TXNIP(38), AKT3(57), ZAK(82), LEPR(20), LTBP4(27), ZEB1(40), GNG11(8), BNC2(54), TMEM204(30), TENC1(22), TMEM55A(29), CYP2U1(4), MAMDC2(39), KCNMA1(27), SLC24A3(82), CBX7(47), CACNA1C(31), TMEM200A(28), KANK2(45), EMCN(27), ABCG2(30), ZCCHC24(26), TMEM200B(25), TEK(41), MAOB(47), HSPA12B(18), TMEM88(1), SMOC2(22), ADCY2(21), KATNAL1(24), CD302(14), TCEAL7(58), FAM13C(10), ASAM(50), ZNF483(5), C1orf21(8), PJA2(55), UBL3(35), C4orf12(11), DNAJC27(2), FBXL3(14), KLHDC1(27), MYADM(22), GNG12(39), GLI3(12), ZNF521(11), MEF2D(27), SHANK3(6), AHNAK(44), MBNL2(29), TIMP3(43), MFAP4(50), MEIS3(28), LOH3CR2A(42), TGFBR3(14), WT1(16), CDO1(2), ST5(46), SSC5D(15), PMP22(30), PCDHGB7(13), CAV2(12), CRTAP(8), PRX(9), SNED1(2), CALD1(42), TNXB(29), JAM3(20), PDE10A(11), RNF38(11), NOSTRIN(16), TSPAN18(21), GRINL1A(8), GLT8D2(29), TCEAL1(6), NKAPL(15), IL33(16), NEDD4(19), SH3BP5(27), SSPN(10), P2RY1(2), TSHZ3(12), AKAP2(18), RSPO1(38), MID2(33), DST(2), PROS1(31), PCDHB18(5), NR3C2(5), MAPK10(6), HEPH(4), NPTN(6), FBLN5(6), C5orf4(21), ADD1(11), ZBTB38(31), A2M(18), SH3D19(17), GPR116(13), CASP12(10), GAB1(22), PPP1R12A(12), PCDHGA3(21), TNS1(13), MBNL1(5), MMRN2(15), C21orf34(23), PTGER2(3), KIAA1614(12), FRMD6(30), ARHGAP31(34), FAM175A(7), KCTD7(11), JAM2(16), DPYSL3(3), GRK5(2), ITGA8(6), SYNPO(12), PTGIS(8), CLIC4(11), PAPPA(13), SOX7(19), PTRF(15), DDR2(5), EMILIN1(13), FOXN3(13), DSTN(8), FERMT2(5), NECAB1(9), TSPAN2(10), OLFML2A(28), PALM2-AKAP2(22), CLIP3(27), FGF7(7), RUNX1T1(2), VAMP3(6), LAYN(6), GNAL(9), WISP1(5), PCDHB4(18), PDE2A(8), RNF144A(5), LIX1L(14), PDE7B(18), KIAA1644(9), CLEC2B(5), RASA4(16), MITF(15), FBXO32(16), RECK(21), PPAPDC3(17), PRNP(14), GUCY1A3(1), RASL11A(1), ELK3(27), CYYR1(11), KCNJ8(13), STOM(21), MAGI2(1), PCDHGA11(7), ERG(6), ADARB1(4), STARD13(5), GIMAP4(7), PCDHB15(3), MAN1C1(7), ZEB2(8), ST6GALNAC3(3), AKAP13(7), ENTPD1(3), ARHGAP24(1), TMOD2(9), THSD1(5), DACT3(7), ATL1(9), MARVELD1(2), ZNF25(10), LRRK2(15), FAM198B(7), FGD5(13), DCHS1(10), FEZ1(2), AEBP1(3), CDKL1(1), PCDHB7(1), GPR124(19), ROBO4(17), SRL(5), ATOH8(3), LRRC2(5), KLF11(2), FAM65B(15), KCNQ4(2), TNFAIP8L3(3), SHE(10), SPTBN1(9), ENAM(1), WHAMML1(5), CACNB2(4), ANGPTL1(2), TMEM109(1), RAMP1(1), C5orf41(8), C1orf70(8), PGM5(7), RERG(8), ITPKB(8), CACNA1H(8), CYBRD1(10), EZH1(5), PCDHGA9(6), SFMBT2(4), SERINC1(3), PHLDB2(17), SCARF1(11), CCND2(9), RAB8B(7), NDN(16), AXL(3), SLCO2A1(2), ZNF208(5), KCTD12(17), THRA(9), PEG3(1), SYTL4(3), FRY(11), ARHGEF15(16), ESAM(8), EPM2A(6), KLHL38(5), GPM6A(3), CLEC1A(2), GIMAP8(7), NR1D1(1), CRY2(1), STARD8(1), EHD2(5), PLSCR4(6), CEP68(14), SDPR(2), ABCC9(4), TCF4(3), FKBP7(13), NRIP2(9), PCDHB12(1), FXYD6(10), DKK3(1), BACH2(2), PCDHGA7(1), ZDBF2(3), CDH5(10), SLC8A1(2), GRID1(6), MXRA7(4), RAB31(5), ANK2(1), BCAP29(1), PRKCA(5), RFTN2(4), FEM1B(8), TBC1D2B(10), AFAP1L1(3), DFNA5(6), CDK17(6), PGCP(7), BMPR2(1), GIMAP6(7), CD93(3), GNG7(2), SCN3B(5), SPEG(1), COLEC12(2), PDE8B(2), LHFP(4), TGFB1I1(5), PTPN21(4), JPH4(2), CXCL12(2), CLEC14A(6), EFEMP1(2), COL6A3(1), HEG1(10), MRGPRF(5), NBEA(4), N4BP2L1(2), NR3C1(3), FOXO1(1), ECM2(3), SH2D3C(1), P2RX7(2), PCDHA3(1), PCDHGA8(1), AMIGO1(1), FAM55C(2), ENPP1(1), PKD2(3), MICAL2(3), RGMA(1), USP31(5), PCDHGB6(2), LATS2(2), CCDC50(2), MAP3K3(6), ZNF34(1), UST(1), PLN(1), NEXN(1), GIMAP1(3), NCAM1(1), RAB23(1), PTPRB(1), FBN1(2), HSPB7(1), LAMA4(1), FZD4(2), TGFB3(1), SOCS2(3), RPS6KA2(1), C1orf150(1), SLC16A7(1), PRKCH(2), TCF23(1), KCNAB1(2), TSPAN7(1), DLL4(1), OGN(1), SNAI2(1), ITM2A(1), SEPP1(2), PRELP(2), MSRB3(2), ITPR1(8), PRKG1(1), LONRF2(1), OR5K2(1), CAV1(2), HLF(1), TUB(1), SYNE1(1), PLIN4(1), DIRAS1(3), DNAJB4(1), GPR1(2), RASD2(1), FILIP1L(1), KLHL13(1), TCEAL4(1), C4orf32(2), RAPGEF4(1), NAP1L3(3), PCDHGA12(1), ASPA(1), PODN(1), SYNPO2(1), KCNB1(1), TMEM47(3), CFL2(1), PRUNE2(2), HTR2B(2), ARL15(1), KL(4), ETS1(1), KLHL33(1), FAM69A(2), SMTN(2), SERPINF1(1), SBDS(2), PDLIM5(1), FLJ35390(1), FHL1(4), TIPARP(2), RASL12(2), GEFT(1), SYT15(1), ADAMTSL1(2), MYH11(1), MASP1(1), GIMAP5(2), SGCE(1), HGF(1), LRRC70(1), SNCA(1), ENPEP(1), TLN1(8), PRR16(1), CYP1B1(2), DUSP3(1), FEZ2(5), GNAO1(1), GIMAP7(2), EHBP1(1), KLF17(1), MYOCD(1), PPM1K(1), S1PR1(1), FAM49A(1), PDE1A(1), ENPP2(1), CHURC1(1), ILK(1), MBTPS1(1), GJC3(1), ZNF676(4), PLAT(3), IGFBP4(1), CALCOCO2(1), PCDHGA4(1), PBX1(2), HPGDS(1), FYCO1(3), KRT222(2), FBXO31(1), CBX6(2), CGNL1(3), LOC728392(1), CALCOCO1(1), FOXO4(1), KLHL10(2), DOCK4(2), PLXDC1(1), LRCH2(2), SETBP1(1), MAF(1), INSR(2), C9orf5(2), LPCAT2(1), PTGDR(1), IRS1(1), MEIS2(3), CCDC136(1), SCARA3(2), PER3(1), GAS6(1), MACF1(1), HIPK3(1), WIT1(1), KIAA0430(1), ELTD1(1), LIFR(1), EFHA2(1), ACACB(2), REM1(1), RBM43(1), TEF(1), YPEL4(1), CCDC48(1)</t>
+          <t>CXorf36(60), SAP30L(59), NOSTRIN(28), FLT4(59), STON1(41), LRRN4CL(67), TSPAN18(40), ANTXR2(67), GHR(39), POU6F1(3), JAM2(28), DPYSL3(28), AHNAK(28), C5orf53(36), RAB9B(7), TCEAL1(25), PPAPDC3(16), HSPB7(22), NKAPL(20), TIMP2(56), TBC1D1(42), MFAP4(39), MEF2C(73), HSD17B6(37), DMD(39), SNRK(12), GPM6A(7), FAM65B(24), SPARCL1(73), ITGA8(29), FLI1(31), ENTPD1(12), ZNF208(5), ARHGAP6(54), PTGIS(29), C1QTNF7(18), LOH3CR2A(35), MMRN2(40), TNFAIP8L3(26), SH3BP5(39), SSPN(13), SHE(23), TACC1(72), GPRASP1(47), MYCT1(62), PPP1R12B(43), ATL1(7), SPTBN1(2), SETD7(48), PCDHGA2(30), NEURL1B(18), GPRASP2(24), MSRB3(23), ITPR1(27), LMOD1(52), LSM11(2), ST5(63), PEAR1(52), RSPO1(59), MID2(38), SH3BGRL(49), NXPH3(41), CLIC2(52), PROS1(27), KCNJ8(26), DIRAS1(11), PTRF(34), PABPC5(30), CCDC69(35), ABI3BP(34), DIXDC1(69), TBL1X(43), CNRIP1(51), DSTN(35), RASSF8(29), KANK3(47), TGFB1I1(22), PDE5A(23), KIAA1462(72), TIE1(60), SYNPO2(20), FBLN5(18), TSPAN2(37), PGM5P2(41), CALHM2(45), C16orf45(67), TRPC1(10), ADD1(9), ZBTB38(21), FBXL3(5), LDB2(43), PALLD(31), ANKRD29(34), ERG(10), PALM2-AKAP2(51), LRCH1(34), FGF2(57), C1orf70(13), SMTN(25), FRY(32), CLEC14A(27), AKT3(64), ZAK(78), PGM5(35), LTBP4(22), FHL1(29), STARD13(13), ZEB1(48), FGF7(26), PRDM8(39), RERG(32), BNC2(69), TMEM204(28), TENC1(33), ARHGEF15(36), ADAMTSL1(8), MDFIC(30), CYP2U1(11), MAMDC2(52), GNAL(17), CALD1(59), KCNMA1(71), SLC24A3(83), PLSCR4(26), CBX7(60), CACNA1C(36), MRGPRF(26), KANK2(52), EMCN(53), PDE2A(31), ABCG2(41), ZCCHC24(31), TMEM200B(27), TEK(45), TNXB(47), MAOB(53), PCDHGA6(55), HSPA12B(22), MAN1C1(8), KIAA1644(26), STAT5B(91), TNS1(42), SMOC2(40), ADCY2(26), TCEAL7(52), ESAM(36), FAM13C(16), ABCC9(17), RHOJ(79), ASAM(60), RASA4(19), PHLDB2(13), C1orf21(11), ILK(26), GRID1(30), MYADM(21), ARHGAP31(40), ROBO4(42), RECK(23), KDR(23), PCDHGA5(17), ANO6(36), PJA2(35), TIMP3(49), ANK2(3), IL33(19), CD93(16), DPYD(21), TMOD2(25), GIMAP8(27), TGFBR3(26), AKAP2(36), C1orf133(39), ZNF25(19), UBL3(33), C21orf34(39), ABCB1(23), SOX7(26), PMP22(27), C14orf28(19), FERMT2(39), STOM(25), TMEM47(11), PRUNE2(23), OLFML2A(28), TXNIP(43), A2M(22), GAB1(23), USP31(17), CEP68(12), SVIL(57), ZNF483(7), FBXO32(28), SHANK3(7), SRL(11), CD34(9), AFAP1L1(4), PLN(12), SCARF1(20), NEXN(15), GIMAP1(18), APOL3(3), ELTD1(8), CCL14(12), RAB31(6), GLT8D2(29), RAB23(7), CNN1(7), LAMA4(16), GRK5(7), SOCS2(19), ECM2(14), CSRP1(8), FXYD6(7), RASGRP2(4), GIMAP6(17), KLHL38(20), C1orf150(9), MEIS3(31), MICAL2(13), TRPC4(7), GNG7(5), TCF23(7), REM1(3), DACT3(16), PDLIM3(17), WT1(11), TSHZ3(10), PRELP(13), CLIC4(26), PAPPA(13), CCDC80(7), PRKG1(6), WHAMML1(6), SSC5D(21), CAV1(14), APBB1(20), FLNA(4), JPH2(5), PTGER2(8), SPEG(4), ENOX1(1), PDE8B(16), PLIN4(5), GPR1(11), EMILIN1(20), LIMS2(5), FILIP1L(10), FOXN3(14), TBXA2R(11), FXYD1(6), C4orf32(5), MYOZ2(6), KCNMB1(6), CACNB2(17), ANGPTL1(6), LHFP(18), STARD8(8), NPTN(6), ASPA(4), FLNC(6), SRF(12), RAMP1(9), CFL2(12), HTR2B(7), JPH4(16), PBX1(10), FAM69A(12), ADARB1(14), C7orf58(18), PRX(4), CLIP3(24), ITGA11(7), LEPR(12), GNG11(21), GPR116(26), RASL12(19), HTRA3(3), ARRB1(2), SYT15(9), TMEM55A(26), CASP12(13), TAL1(11), ZNF676(5), MYH11(12), KIAA1614(12), MASP1(11), GSN(5), SELP(14), GIMAP4(13), PCDHGA3(11), LMCD1(4), GIMAP5(12), HGF(2), LRRC70(9), DPP6(7), CACNA1H(20), HEG1(9), GRRP1(8), TMEM200A(18), ENPEP(4), ARSI(2), CAMK2A(5), PCDHB4(12), TLN1(18), PPP1R16B(5), TCEAL6(4), MYLK(5), CLEC2B(10), KLF17(6), MYOCD(6), KATNAL1(30), SDPR(6), S1PR1(7), SORBS1(7), MITF(11), LIFR(3), MXRA7(4), GPR124(10), ZNF521(8), KCTD12(20), DHH(15), CALCOCO1(2), LRRK2(17), SH2D3C(13), MEF2D(15), KLHDC1(20), LIX1L(19), MAPK10(5), SLCO2A1(6), TNFSF12(2), EPAS1(6), PRKCA(3), PCDHGA4(10), CYYR1(21), VAMP3(4), CYBRD1(10), DFNA5(4), ARHGEF6(17), TBC1D2B(8), FILIP1(3), CLEC3B(7), GYPC(8), NES(1), KCTD7(10), EPM2A(15), JAM3(18), PTPRB(6), FZD4(11), PHF15(1), LRRC2(3), NEDD4(22), KCTD10(3), ELK3(12), THSD1(8), DLL4(2), OGN(4), ITM2A(4), NDN(6), MEIS2(4), CDO1(2), BCL6B(1), PHYHIP(6), HPGDS(2), FGD5(12), CALCRL(2), TUB(5), DDR2(5), KRT222(4), FOXO4(1), MS4A2(6), PCDHB18(4), TCEAL4(5), CAMK2G(1), RAPGEF4(5), NAP1L3(6), HEPH(13), SYTL4(9), NECAB1(8), PCDHGA12(6), ACTN1(2), KCNB1(9), GIPC3(2), C5orf4(18), C10orf54(1), NRIP2(14), CDH5(10), PI15(1), DOCK4(3), GEFT(11), BCL2L2(1), LAYN(6), LRRC8C(3), PPP1R12A(10), ITPKB(4), SGCE(1), PKD2(13), SLMAP(3), SFMBT2(4), FRMD6(32), PDE7B(13), GIMAP7(5), LOC283856(3), CD302(21), EBF1(1), HSPB2(5), LOC283174(4), ZEB2(8), ADCY4(6), MBNL1(24), PGCP(8), MBNL2(9), GUCY1A3(2), SYNPO(18), RGMA(5), TSPAN7(3), ACVRL1(7), C1QTNF1(2), ENPP1(15), KLHL10(2), CAV2(10), SNCA(5), WISP1(6), NFASC(20), EZH1(12), LRRC32(5), COL15A1(5), GNG12(14), CCND2(5), DST(5), MAP3K3(10), FEZ2(7), SH3D19(6), CCDC136(5), SCARA3(3), AKAP13(3), VIPR2(1), SLC16A7(5), ERVFRDE1(9), PRKCH(2), CTNNA3(2), TGFBR2(3), OLFML1(3), ATP2B4(1), FAM70B(5), YPEL4(3), FAM198B(3), BACH2(3), FRMD3(1), NR3C2(1), JAZF1(3), EDNRB(1), C20orf160(5), DCAF12L2(1), THBS2(3), OSR2(3), PCDHGA11(3), NAP1L2(5), SERPINF1(3), AEBP1(1), EHBP1L1(2), TPSAB1(1), NPY1R(4), PCDHB15(3), TPSB2(4), GNAO1(2), SLC8A1(2), PCDHB7(4), RFTN2(1), PCDH18(1), LUM(1), ST6GALNAC3(1), FOXF1(1), OSTM1(4), PLAT(1), N4BP2L1(3), ACOX2(1), CSDC2(4), PDE10A(22), PCDHA10(1), HAND2(2), RFTN1(5), C4orf12(2), PCDHGB7(10), CRTAP(14), PODN(3), TM4SF18(2), SBDS(3), EHD2(5), PTGDR(4), LOC144571(8), PCDHGA9(1), NAV3(1), ZNF575(1), CDK17(3), PRNP(8), FEM1B(6), BMPR2(1), TCF4(3), THRA(8), RNF38(2), RSPO3(7), DCHS1(7), PKD1(1), LRCH2(1), TMEM88(7), EHBP1(1), GRINL1A(4), SERINC1(3), RBM9(1), ACACB(3), NBEA(7), CLEC1A(3), OSBPL5(1), CCDC85A(2), BEGAIN(1), SCN1B(1), VAMP2(5), OR5K2(9), ECSCR(6), VIP(2), PLA2G4C(2), DKFZp434J0226(1), OLFML3(1), PDE1A(1), TGFB3(2), NR3C1(4), SYNE1(2), PPAP2A(1), KLHL13(1), FEZ1(4), EFEMP1(4), DUSP3(5), CALCOCO2(1), NAALADL1(3), GLI3(9), FAM55C(2), LOC90586(1), TMEM109(3), KL(2), ATOH8(6), KCNQ4(1), TRIM23(2), ZBTB4(1), RNF144A(3), KALRN(1), PPM1F(1), CHURC1(1), GAS6(4), RAB11FIP5(2), FKBP7(3), RAB8B(4), DNASE1L3(1), RAB11FIP2(1), SCN4B(4), C5orf41(1), MACF1(1), UST(2), TFPI(2), SLC45A1(1), SLC1A7(1), FBN1(1), FAT4(1), TDRD10(1), PEG3(1), LOC154822(1), CRY2(1), C10orf72(1), P2RX7(1), HAAO(1), AXL(3), PRR16(1), NBL1(1), PLXDC1(2), PDZRN3(1), IGFBP4(2), RIC3(1), RASD2(1), GJA5(1), PDLIM5(2), KIAA1755(1), REEP1(3), EDIL3(1), CACNA2D1(3), NCAM1(1), HIGD1B(2), VGLL3(3), CDC42EP3(3), HSPB8(1), SEPP1(1), LONRF2(3), TNNI3K(2), ADAMTS5(2), EXOC3L2(2), MATN2(2), ALDH1A2(1), ARL15(1), TBX3(1), KLHL33(2), FREM1(1), PCDH17(1), TIPARP(2), NTRK3(1), CYP1B1(3), NPY5R(1), FAM65C(2), ENPP2(3), TEF(4), FAM175A(3), SIGLECP3(1), PER3(1), CSPG4(2), PURG(1), KLHL21(1), PLCL1(1), RUNDC3B(1), MCAM(2), C21orf7(1), MXI1(1), AOC3(2), TRIM9(2), STARD5(1), FAM26E(1), SGCA(1), GLP2R(1), DCP1B(1), MBLAC2(1), CDON(1), MMRN1(1), ADRA1D(1), TAGLN(1), AQP1(1), C1orf183(1), SEPT7(1), HOXD10(1), ACTA2(1), INPP5A(1), PID1(1), GJC3(1), METTL7A(1), AVPR2(1), DENND2A(1), PCDH12(1), MMP28(1), PROCR(1), WSCD2(1), PPP1R12C(1), DNAJC27(1), C9orf5(1), PCDHB5(1), PECAM1(1), LOC728264(1), FOXO1(1), FYCO1(1)</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>518.0</v>
+        <v>654.0</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6000063353359872</v>
+        <v>-0.6000017461193333</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.789244077803123</v>
+        <v>-0.7823790631482962</v>
       </c>
       <c r="H5" t="n">
-        <v>6780.0</v>
+        <v>9392.0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6288275660419733</v>
+        <v>-0.6357103505411076</v>
       </c>
       <c r="J5" t="n">
-        <v>37.049180327868854</v>
+        <v>45.371980676328505</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hsa-miR-128</t>
+          <t>hsa-miR-200c-3p</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>170.0</v>
+        <v>203.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.7</v>
+        <v>2.03</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FLT4(51), ANO6(11), MEF2C(38), SH3BP5(7), RFTN1(10), DIXDC1(28), KIAA1462(33), FGF2(36), NRIP2(9), MDFIC(26), SLC24A3(62), PCDHGA6(18), SVIL(10), STAT5B(62), TCEAL7(37), RHOJ(50), ZBTB4(4), C5orf53(27), VAMP2(2), C14orf28(3), CNRIP1(45), C16orf45(26), C1orf70(9), AKT3(33), ZAK(39), C1orf21(13), SAP30L(18), LRRN4CL(37), SCARF1(4), SPARCL1(20), TSHZ3(22), PEAR1(34), SH3BGRL(20), PABPC5(21), ABI3BP(6), ANKRD29(19), LRCH1(7), MEF2D(14), TXNIP(8), LTBP4(20), KLHDC1(17), PRDM8(34), BNC2(16), ARHGEF15(14), CBX7(14), KANK2(25), PCDHB4(5), TNXB(28), MAOB(26), NOSTRIN(9), POU6F1(2), JAM3(18), PJA2(7), MEIS3(26), TACC1(31), PDE10A(5), RNF38(2), SETD7(23), C1orf133(11), CLIC2(31), DIRAS1(4), PMP22(14), RASSF8(8), FBXL3(1), DENND2A(2), ZEB1(25), TENC1(21), KIAA1614(3), ZCCHC24(21), HSPA12B(16), LIX1L(13), MAN1C1(4), INSR(7), KATNAL1(8), GPR124(21), GHR(7), NKAPL(8), TBC1D1(7), FLI1(12), ARHGAP6(9), REM1(4), GPRASP1(16), MYCT1(14), UBL3(16), KANK3(9), TIE1(19), LDB2(10), CRISPLD2(1), NFASC(1), TEK(10), SMOC2(13), RASA4(9), MYADM(5), ROBO4(10), GYPC(15), FAM175A(2), ANTXR2(17), KCTD7(5), GLT8D2(13), TIMP2(22), TIMP3(10), MFAP4(15), OLFML1(10), CDO1(4), SSC5D(2), EMILIN1(8), TBXA2R(3), TBL1X(6), FBLN5(3), OSR2(7), CALHM2(28), OLFML2A(10), TBX3(8), CLIP3(17), RUNX1T1(3), LAYN(2), CALD1(10), KCNMA1(5), PCDHGA3(6), TMEM200A(10), TMEM200B(9), CLEC2B(4), LOC728264(3), ASAM(15), GRID1(7), RECK(8), GLI3(2), PRNP(3), NEDD4(7), LOH3CR2A(15), ST5(11), WHAMML1(5), LRRK2(6), APBB1(7), TUB(3), SH3D19(4), EHD2(5), EZH1(5), MITF(5), CXorf36(9), N4BP2L1(3), ARHGEF6(4), TBC1D2B(6), SRL(1), TSPAN18(8), CCND2(5), FBN1(4), ATOH8(1), SCARA3(2), MBNL2(5), SOCS2(2), DMD(4), RAB8B(5), C1QTNF7(5), DPYD(12), SSPN(6), DACT3(4), RGMA(1), PCDHGA2(7), NDN(10), GPRASP2(8), PAPPA(7), LMOD1(3), PSD(2), OR5K2(3), FAM198B(4), RSPO1(11), FGD5(4), PDE8B(1), KCNJ8(4), SOX7(5), SOX15(4), CCDC69(1), SH2D3C(7), FXYD1(3), MXRA8(1), PCDHGB7(9), CAV2(3), FERMT2(2), KCNMB1(1), CACNB2(5), TGFB1I1(6), PDE5A(8), ALDH1A2(1), NECAB1(2), C5orf4(4), JPH4(2), ZBTB38(5), CXCL12(1), PALLD(3), FKBP7(4), C7orf58(4), SMTN(1), RASL12(4), GEFT(1), TMEM204(9), MAMDC2(7), AXL(2), CACNA1C(5), MRGPRF(4), SFMBT2(1), FRMD6(3), PDE7B(3), KIAA1644(1), PCDHB7(2), ADCY2(6), HSPB2(2), FAM13C(2), FAM131B(1), FAM65C(1), ZEB2(9), ARHGAP31(4), GNG12(2), CRTAP(4), TRPC1(5), SHANK3(2), PPAP2A(3), PPP1R12C(3), DFNA5(2), SNRK(8), RAB31(2), EPM2A(2), ZNF521(2), IL33(3), NBEA(1), KCTD12(2), WT1(4), ZNF25(7), C21orf34(5), NXPH3(6), PROS1(6), DCHS1(5), CGNL1(2), STOM(5), PCDHGA11(3), TMEM55A(7), ITPKB(2), CD302(4), COL15A1(4), MBNL1(3), WIT1(2), JAM2(3), SLC45A1(2), PPAPDC3(5), FZD4(1), TCF4(1), TGFBR3(4), PTRF(3), DDR2(2), PCDHB18(1), HAAO(1), SERPINF1(2), EMCN(3), PHLDB2(2), ILK(2), PCDHB12(1), MID2(6), PCDHGA7(1), ADARB1(3), ZDBF2(2), FBXO31(1), FOXO1(1), MXRA7(3), ST6GALNAC3(2), STON1(2), AFAP1L1(2), GRINL1A(1), AHNAK(2), PCDHGA5(3), ECM2(2), ZNF208(3), ERVFRDE1(1), NAP1L6(1), MMRN2(2), SHE(2), TMOD2(2), PPP1R12B(1), OGN(1), CLIC4(1), MEIS2(2), ITPR1(1), PTGER2(1), CYYR1(3), NID1(1), ABCB1(2), FOXN3(1), C4orf32(1), LHFP(1), NAP1L3(2), EDNRB(1), PALM2-AKAP2(2), STARD13(1), TIPARP(1), GNG11(4), GPR116(3), RERG(1), ZNF676(2), USP31(3), PPP1R12A(1), PLSCR4(2), CEP68(2), PCDHB15(4), CYBRD1(1), TLN1(1), PDE2A(2), GNAO1(1), KIAA1755(1), LOC283856(1), PLAT(2), ESAM(3), PER2(1), FBXO32(2), IGFBP4(1), CALCOCO2(1), C21orf7(1), PGCP(1), RFTN2(1), APBA1(1), ZNF540(1), PRKCA(1), FYCO1(2), PRKCDBP(2), CD34(1), TCEAL1(1), LAMA4(1), DAB2(1), ACACB(1), ZNF835(1), ANK2(1), ITGA8(1), PTGIS(1), THSD1(1), GIMAP8(1), THRA(1), GAS6(1), CCDC85A(1), FAM70B(1), SEPP1(1), PHYHIP(2), PCDHGA4(1), ACVRL1(1), DST(1), GPR1(1), C1S(1), JAZF1(1), JMY(1), TCEAL4(1), STARD8(1), VIP(1), ACTN1(1), TSPAN2(1), RAMP1(2), PRX(4), HIC1(1), CLEC14A(1), EFEMP1(1), A2M(1), FGF7(1), CASP12(1), TAL1(1), GAB1(1), GIMAP4(1), GIMAP5(1), LOC144571(1), LRRC70(1), CACNA1H(3), ABCG2(1), CYP1B1(1), PPP1R16B(1), TNS1(1), NT5DC3(1), ABCC9(1), ADCY4(2), GNG7(3), SETBP1(1), TEF(1), MAF(1), CDH5(2), HEG1(1), MAP3K3(3), LPCAT2(1), RASGRP2(1), ADRA1D(1), C20orf160(1), COL6A2(1), GNAL(1), TMEM88(1), LOC728392(1), ZNF781(1), RBM9(1), ISLR(2), RORA(1), TMEM109(1), COL6A3(1), KDELC2(1), EFHA2(1), CCDC48(1), CD99L2(1), PLA2G4C(1)</t>
+          <t>SLC24A3(75), STAT5B(78), SHANK3(7), CXorf36(27), SAP30L(35), SRL(9), FLT4(61), CD34(7), GYPC(28), STON1(27), LRRN4CL(60), FAM175A(5), TSPAN18(24), SCARF1(15), ANTXR2(46), GIMAP1(6), SLC45A1(5), RAB31(8), GLT8D2(62), AHNAK(13), PGCP(18), PCDHGA5(13), ATOH8(8), TCEAL1(10), ANO6(30), PPAPDC3(33), NKAPL(33), VIPR2(5), LAMA4(5), DAB2(4), MBNL2(21), GRK5(7), TIMP2(67), SOCS2(7), ECM2(8), TIMP3(44), ZNF835(1), MEF2C(56), FXYD6(20), HSD17B6(7), DMD(10), GPM6A(3), SPARCL1(40), ITGA8(7), FLI1(17), MEIS3(35), GLI2(12), ZNF208(3), GNG7(9), ARHGAP6(36), PTGIS(13), C1QTNF7(26), LOH3CR2A(33), TCF23(4), MMRN2(10), REM1(4), SSPN(20), SHE(16), TMOD2(16), TACC1(48), GPR133(2), THSD1(6), DACT3(33), GIMAP8(6), GPRASP1(54), MYCT1(31), THRA(7), PPP1R12B(9), TGFBR3(23), WT1(10), TEF(9), OGN(4), OLFML1(27), SETD7(29), TSHZ3(55), PCDHGA2(29), PRELP(6), RAB3IL1(8), CLIC4(11), GPRASP2(45), PAPPA(17), LMOD1(13), AKAP2(5), ST5(33), WHAMML1(7), SSC5D(14), PEAR1(56), PHYHIP(7), CAV1(3), APBB1(21), C21orf34(20), RSPO1(18), HLF(5), ENOX1(4), NXPH3(24), TUB(12), KCNJ8(29), DIRAS1(15), PTRF(29), GPR1(9), PABPC5(50), C1QTNF1(6), EMILIN1(25), FOXN3(16), TBXA2R(7), ABI3BP(23), DIXDC1(43), PCDHB18(17), FXYD1(11), TBL1X(45), TCEAL4(4), CNRIP1(67), C4orf32(3), DSTN(3), RASSF8(41), KANK3(24), FERMT2(25), CACNB2(30), ANGPTL1(3), LHFP(14), TGFB1I1(19), STARD8(3), SYTL4(5), KIAA1462(62), C10orf72(9), TIE1(39), PCDHGA12(2), ASPA(3), PODN(7), TSPAN2(4), SRF(21), C5orf4(16), RAMP1(6), PGM5P2(10), CFL2(6), OSR2(21), CALHM2(44), JPH4(8), C16orf45(53), OLFML2A(17), TRPC1(12), ADD1(6), ZBTB38(8), LDB2(27), ANKRD29(39), TBX3(11), FAM69A(5), ADARB1(13), PALM2-AKAP2(21), C7orf58(27), LRCH1(23), PRX(13), FGF2(48), C1orf70(26), SMTN(8), HIC1(4), TXNIP(9), AKT3(61), CLIP3(29), ZAK(67), PGM5(8), LTBP4(45), FHL1(4), ZEB1(58), GNG11(32), GPR116(14), RASL12(11), FGF7(6), PRDM8(54), GEFT(32), RERG(3), BNC2(42), ARRB1(2), TMEM204(28), TENC1(32), TMEM55A(16), CASP12(7), LAYN(21), ARHGEF15(39), TAL1(6), LRRC8C(4), ZNF676(5), GAB1(15), KIAA1614(7), CYP2U1(3), MAMDC2(37), GNAL(11), CALD1(37), KCNMA1(24), PCDHGA3(20), LMCD1(4), GIMAP5(4), HGF(2), CBX7(39), LRRC70(2), CACNA1H(31), WISP1(4), CACNA1C(16), TMEM200A(37), PCDHB15(12), MRGPRF(19), ARSI(1), KANK2(56), EMCN(16), CYBRD1(3), PCDHB4(15), TLN1(15), PDE2A(9), ABCG2(15), CYP1B1(5), ZCCHC24(30), TMEM200B(31), TEK(18), TNXB(47), PCDHGA6(45), GNAO1(7), HSPA12B(31), RNF144A(9), FRMD6(22), SVIL(41), MAN1C1(7), TCEAL6(3), KIAA1644(5), SLC8A1(3), TNS1(9), CLEC2B(10), LOC283856(8), SMOC2(19), ADCY2(26), KATNAL1(32), TCEAL7(66), ESAM(14), ABCC9(3), RHOJ(70), ASAM(49), RASA4(14), COL15A1(24), MITF(8), LIFR(1), C1orf21(10), ILK(11), GRID1(26), MYADM(21), ARHGAP31(32), MXRA7(4), WIT1(3), FBXO32(5), GPR124(38), ROBO4(30), ARHGEF6(15), NOSTRIN(15), AFAP1L1(7), GHR(33), FBN1(25), PRNP(14), PJA2(23), MFAP4(44), IL33(3), NEDD4(40), ARHGAP24(1), DHH(11), SH3BP5(21), RGMA(11), SNAI2(8), LRRK2(11), UBL3(13), PROS1(19), ABCB1(5), PMP22(36), C14orf28(10), PDE5A(29), NECAB1(23), FBLN5(12), TMEM47(3), ERG(9), CLEC14A(6), A2M(6), STARD13(5), MDFIC(27), GIMAP4(5), HEG1(8), MAOB(51), LIX1L(23), PDE7B(21), CD302(16), RFTN2(11), ZEB2(36), RECK(30), TBC1D2B(7), CCND2(7), CBX6(2), PDE10A(16), BCL6B(2), MID2(21), SOX7(19), FKBP7(18), CDH5(13), KLHDC1(25), VAMP3(3), MEF2D(14), TNFSF12(3), FZD4(4), TBC1D1(6), SNRK(6), RAB8B(10), DPYD(23), KCTD12(13), GAS6(4), ZNF25(16), SH3BGRL(14), DST(3), CLIC2(43), DDR2(9), BACH2(6), SOX15(10), NAP1L3(19), FBXL3(4), RUNX1T1(5), PPP1R12A(9), NES(2), JAM2(22), JAM3(25), PHF15(1), CBFA2T3(2), DLL4(4), HOXD10(2), FAM70B(4), NDN(11), CDO1(3), YPEL4(3), FOXO4(1), PPAP2A(1), SH2D3C(12), HEPH(7), C10orf54(1), NRIP2(10), FREM1(5), LEPR(8), PLSCR4(6), SFMBT2(2), EBF1(1), ADCY4(1), MBNL1(5), FAM55C(2), POU6F1(3), C5orf53(25), ANK2(3), ZNF521(4), FBXO31(2), SPTBN1(5), FGD5(5), CCDC69(6), MAP3K3(7), HAAO(7), SERPINF1(10), EHD2(16), EZH1(12), CCDC136(2), CLEC3B(2), PLN(1), NEXN(1), KCTD7(9), KDR(5), DPYSL3(1), ELTD1(1), CCL14(1), PLXDC1(4), PTPRB(1), RAB9B(2), SCARA3(1), HSPB7(2), CSRP1(1), ADRA1D(3), GIMAP6(2), KLHL38(2), VGLL3(1), CD93(1), SYNPO(6), KCTD10(2), SLC16A7(2), ERVFRDE1(5), TNFAIP8L3(2), ELK3(3), LOC134466(2), PDLIM3(1), EPAS1(1), EDNRA(1), ITM2A(1), NEURL1B(2), MSRB3(2), ITPR1(6), C1orf133(3), FAM198B(5), PCDHGA4(1), FLNA(1), SPEG(1), ADAMTSL4(1), ACVRL1(5), CALCRL(1), C15orf51(1), CYYR1(11), C4orf12(7), C1S(1), PID1(1), FILIP1L(2), KLHL4(1), MCAM(2), ENPP1(3), NR3C2(1), JAZF1(1), PCDHGB7(10), KLHL10(3), MYOZ2(1), F10(2), DKFZp566F0947(2), C20orf160(3), DCAF12L2(1), THBS2(3), SYNPO2(2), HTR2B(3), PALLD(4), PCDHGA11(4), KLHL33(2), NAP1L2(2), AEBP1(1), SH3D19(1), LPAR4(1), HTRA3(3), MYH11(2), NTRK3(3), USP31(2), SELP(1), EHBP1L1(2), TPSAB1(1), SGCE(6), CEP68(8), SNCA(1), ENPEP(2), TPSB2(1), PKD2(5), PROCR(2), GIMAP7(2), FLRT2(2), NT5DC3(1), PCDHB7(7), SDPR(1), LRRC32(1), HSPB2(3), FAM13C(5), C6orf208(1), PCDH18(6), ARHGAP20(2), PCDHGB3(2), GNG12(5), ST6GALNAC3(1), NBEA(6), ZFYVE20(1), UST(3), CD99L2(1), PARM1(1), FEZ2(7), PLAT(1), RFTN1(9), CRTAP(12), IGFBP4(4), DCHS1(6), PKD1(1), EHBP1(1), SERINC1(4), RBM9(1), PRKCA(6), DKK3(3), CALCOCO2(1), NAALADL1(2), N4BP2L1(3), PRKCDBP(3), SLC1A7(3), CSDC2(2), LOC285830(1), MARVELD1(3), PEG3(2), RBPMS2(1), PDGFRA(1), CCDC152(1), PBX1(2), COX7A1(3), GSTM5(1), C12orf53(1), CNTNAP1(4), C4orf49(2), LOC144571(6), ZNF483(2), LSM11(2), FEZ1(1), GLI3(7), FEM1B(6), ATL1(3), ZNF438(1), CCDC48(1), PCBP3(1), FAM65B(2), CLEC1A(3), MEIS2(1), NID1(4), VIP(1), KL(5), FRY(4), EFEMP1(4), LATS2(2), PHLDB2(5), DFNA5(2), TGFB3(2), PKNOX2(1), OR5K2(2), LRP1(1), MXRA8(3), RAPGEF4(4), CRISPLD2(1), COL6A2(1), COL6A3(1), GNG2(2), APBA1(1), CALCOCO1(1), TRIM23(2), STOM(6), RAB11FIP5(4), ZBTB4(1), EPM2A(2), VAMP2(1), KRT222(2), CAV2(9), C1QTNF4(1), PPM1F(1), C21orf7(1), SBDS(4), ITPKB(1), TMEM88(4), SLC26A4(1), MACF1(1), FAT4(1), TDRD10(1), LOC154822(1), PDE8B(1), CRY2(1), SYNE1(2), CABP1(1), ALDH1A2(2), FOXF1(2), GLT1D1(1), TM4SF18(4), LOC145820(1), PLA2G4C(1), S1PR3(1), AXL(3), PRR16(1), NBL1(1), ANXA6(1), PPP1R12C(1), SCN3B(1), CGNL1(1), HIPK4(1), DUSP3(1), PDZRN3(1), RIC3(1), PTGDR(2), C3orf54(1), RASGRP2(1), KCNQ4(1), RNF38(2), HCFC2(1), PPAP2B(1), ECSCR(1), HAND2(2), INSR(3), APOL3(1), GJD3(1), IRS1(1), PER3(1), VCL(1), TSPAN7(1), ATP2B4(1), SEPP1(1), PCDHB5(1), TMEM100(1), LOC728264(1), ISLR(1), MAGI2(1), FAM162B(1)</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>399.0</v>
+        <v>588.0</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6000247503035429</v>
+        <v>-0.6000032098568463</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7342342771969577</v>
+        <v>-0.7751386512478418</v>
       </c>
       <c r="H6" t="n">
-        <v>2640.0</v>
+        <v>6957.0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.6254291475237465</v>
+        <v>-0.6347200792944968</v>
       </c>
       <c r="J6" t="n">
-        <v>15.529411764705882</v>
+        <v>34.27093596059113</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>hsa-miR-423-3p</t>
+          <t>hsa-miR-1976</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169.0</v>
+        <v>174.0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TSPAN18(46), SPARCL1(60), FLI1(28), TACC1(72), CLIC2(47), RFTN1(11), DIXDC1(55), KIAA1462(68), MDFIC(39), SLC24A3(87), PCDHGA6(39), SVIL(62), RHOJ(77), FLT4(70), STAT5B(76), CXorf36(50), STON1(30), LRRN4CL(42), FAM175A(1), SCARF1(16), ANTXR2(52), GHR(33), KDR(23), JAM2(32), GLT8D2(18), PGCP(10), C5orf53(17), ANO6(20), PPAPDC3(9), NKAPL(9), PRNP(15), TIMP2(57), TBC1D1(26), TIMP3(61), MFAP4(33), MEF2C(61), FXYD6(4), KLHL38(18), IL33(17), NEDD4(26), MEIS3(36), SYNPO(11), ARHGAP6(41), LOH3CR2A(22), DPYD(16), KCTD12(13), MMRN2(26), DHH(18), SH3BP5(29), ELK3(15), TMOD2(13), DACT3(29), GPRASP1(24), PDE10A(19), MYCT1(47), PPP1R12B(32), TGFBR3(11), PCDHGA2(28), CLIC4(26), GPRASP2(10), LMOD1(32), AKAP2(30), C1orf133(40), ZNF25(9), ST5(27), SSC5D(20), UBL3(28), PEAR1(47), VAMP2(3), APBB1(15), RSPO1(29), FGD5(20), MID2(34), SH3BGRL(30), NXPH3(31), PROS1(18), KCNJ8(13), PABPC5(14), EMILIN1(19), FOXN3(12), PMP22(30), TBL1X(25), CNRIP1(35), STOM(16), PDE5A(13), SYTL4(3), TIE1(55), TSPAN2(27), CALHM2(47), C16orf45(50), OLFML2A(37), TRPC1(11), FBXL3(6), LDB2(37), PALLD(23), ANKRD29(29), PALM2-AKAP2(50), C7orf58(6), LRCH1(37), FGF2(46), NRIP2(13), AKT3(58), CLIP3(26), ZAK(67), A2M(24), KLHDC1(7), ZEB1(40), GPR116(24), BNC2(44), TMEM204(29), TMEM55A(18), ARHGEF15(35), MAMDC2(34), USP31(15), CALD1(36), KCNMA1(43), PCDHGA3(10), CEP68(15), HEG1(12), CACNA1C(46), KANK2(55), EMCN(35), PDE2A(29), TMEM200B(25), TEK(46), RNF144A(13), FRMD6(34), KATNAL1(28), CD302(14), TCEAL7(50), ESAM(33), ASAM(54), ZEB2(2), MBNL1(15), GRID1(14), MYADM(19), ARHGAP31(35), FBXO32(37), ROBO4(36), RECK(31), SAP30L(33), ARHGEF6(14), GIMAP1(10), GLI3(10), AHNAK(18), JAM3(30), PCDHGA5(21), PJA2(25), FAT4(1), GIMAP6(18), SNRK(17), TCF4(5), ITGA8(26), SCN3B(7), SHE(19), GIMAP8(24), NEURL1B(12), ABCB1(17), DCHS1(14), FEZ1(6), RASSF8(25), MAPK10(3), ST8SIA1(1), CRTAP(5), PGM5P2(33), ERG(21), FKBP7(8), CLEC14A(19), FREM1(2), PGM5(26), CDH5(11), TENC1(19), GAB1(16), KIAA1614(10), GIMAP4(10), GIMAP5(6), CBX7(28), TMEM200A(23), ABCG2(24), ZCCHC24(28), HSPA12B(22), TNS1(19), RASA4(18), GPR124(16), C21orf34(19), KANK3(31), PCDHB4(14), MEF2D(25), TXNIP(26), LIX1L(13), DMD(15), PCDHGB7(7), ECSCR(5), PPP1R12A(6), SETD7(40), PCDHGA11(5), GNG12(8), SRL(6), NOSTRIN(7), ATOH8(11), SLCO2A1(3), HSPB7(10), HSD17B6(17), PTGIS(15), C1QTNF7(9), TNFAIP8L3(11), THSD1(4), RSPO3(8), PURG(3), MARVELD1(2), MSRB3(10), ITPR1(13), LRRK2(10), CYYR1(18), SOX7(31), PTRF(19), GPR1(2), CCDC69(7), SH2D3C(7), DSTN(15), LHFP(16), TGFB1I1(15), NECAB1(6), FBLN5(15), C5orf4(7), CFL2(9), HTR2B(11), JPH4(12), PBX1(2), C1orf70(8), AEBP1(3), LTBP4(10), FHL1(13), GNG11(7), RASL12(15), PRDM8(39), GEFT(10), RERG(14), LAYN(6), GNAL(12), NPY1R(4), ENPEP(3), MRGPRF(16), CYBRD1(7), TNXB(24), MAOB(12), KIAA1644(22), GIMAP7(5), CDKL1(1), SMOC2(26), PCDHB7(3), ADCY2(9), ZFYVE20(3), C1orf21(11), ITPKB(11), FAM65B(6), TSHZ3(4), PEG3(1), ACVRL1(4), C4orf12(2), DDR2(7), JAZF1(1), CACNB2(2), OSR2(1), CASP12(1), ADAMTSL1(2), CYP2U1(6), CACNA1H(3), FEZ2(9), PDE7B(3), ZNF483(3), SHANK3(3), CD34(5), AFAP1L1(2), KCTD7(6), DPYSL3(14), ELTD1(5), CCL14(3), EPM2A(6), PTPRB(7), LAMA4(5), SOCS2(7), LRRC2(3), VCL(2), KLF11(2), GPM6A(6), MICAL2(3), CD93(13), CSPG4(2), CLEC1A(5), RGMA(11), PDLIM3(6), CCDC85A(1), NDN(7), PAPPA(4), CAV1(5), FLNA(1), TUB(3), PDE8B(11), FILIP1L(6), TBXA2R(6), GAS1(1), MCAM(2), ABI3BP(6), PCDHB18(2), EXOC3L2(3), C4orf32(5), PPP1R12C(4), FERMT2(12), ANGPTL1(7), RAPGEF4(1), STARD8(2), SYNPO2(7), ACTN1(4), RAMP1(3), AVPR2(1), KL(4), SMTN(9), ITGA11(5), LEPR(9), SH3D19(3), SNED1(1), EHD2(3), TAL1(11), MYH11(3), MASP1(7), SELP(10), S1PR3(2), PLSCR4(3), LRRC70(5), DPP6(2), GRRP1(3), PCDHB15(1), PCDHGA9(3), MAN1C1(5), LCN6(2), SERINC1(3), SDPR(2), S1PR1(3), ABCC9(8), PHLDB2(11), COL15A1(2), TGM2(1), LIFR(3), ILK(8), DFNA5(4), CDK17(2), MBNL2(1), ENTPD1(5), RAB8B(3), ERVFRDE1(10), SSPN(14), FAM70B(4), RAB33B(1), TRIM23(2), NR3C1(1), PLN(3), NEXN(5), RAB31(7), RAB23(5), CCND2(7), FZD4(6), CSRP1(3), ZNF521(12), C1orf150(3), NBEA(5), KCNQ4(1), RNF38(2), WT1(6), CCDC80(2), PRKG1(2), RBPMS2(2), HPGDS(1), DIRAS1(7), CGNL1(2), NPTN(1), SRF(3), ZBTB38(8), C5orf41(2), ADARB1(4), FGF7(9), SGCE(1), WISP1(6), TLN1(8), PKD2(4), SGCA(2), SORBS1(1), MITF(11), CCDC136(2), PCDHB12(1), BACH2(2), NAP1L3(3), PCDHGA7(1), FRY(6), SBDS(1), ZDBF2(3), SLC8A1(3), HEPH(3), MXRA7(2), EPAS1(3), BMPR2(1), PECAM1(2), CDH13(2), OR5K2(3), COLEC12(1), KCNMB1(4), CXCL12(4), EFEMP1(2), PCDH17(1), PCDH12(4), VAMP3(1), PPP1R16B(4), CLEC2B(3), LRRC32(4), RFTN2(3), PRX(5), ADCY4(4), GJC3(1), ATL1(2), WHAMML1(3), ESD(1), C14orf28(6), TMEM47(5), TM4SF18(1), HGF(3), EZH1(1), FAM55C(2), FEM1B(3), DST(4), PCDHGA4(6), PCDHGA12(5), SEPT7(1), MAP3K3(2), ETS1(3), HIGD1B(1), TCEAL1(4), RASGRP2(2), REM1(3), MEIS2(6), YPEL4(2), HCG11(1), LIMS2(3), EDNRB(2), C10orf54(1), FAM69A(7), DOCK4(2), SOX18(1), EHBP1L1(4), ZYX(1), PDE1A(1), TGFB3(4), RPS6KA2(1), TSPAN7(1), SYNE1(1), EHBP1(1), FAM49A(1), TBC1D2B(4), SLC1A7(1), FBN1(1), CSDC2(1), ECM2(2), ANK2(1), SAMD4A(1), SPTBN1(1), TEF(1), ITM2A(1), PRELP(2), HLF(1), CALCRL(4), C1QTNF1(1), CAV2(2), PODN(1), P2RX7(1), KLHL33(1), C4orf49(1), HTRA3(2), COL6A3(2), NFASC(3), ENPP2(2), ZBTB4(3), RUNX1T1(1), NAP1L2(2), CRISPLD2(3), LRRC8C(2), TPSAB1(1), TPSB2(1), FYCO1(1), DUSP3(2), PLAT(3), CALCOCO1(1), RAMP2(1), ATP2B4(1), C9orf5(2), KCTD10(1), GNG7(3), PRKCH(2), MS4A2(2), FOXF1(1), PRUNE2(1), C12orf53(1), STARD13(1), LOC644538(1), FAM198B(2), KANK1(2), SYN2(1), ENPP1(2), ADD1(2), FAM131B(2), TMEM88(1), TMEM109(3), SYT11(1), RBM9(1), ANXA6(1), ST6GALNAC3(1), LRP1(1), ACACB(2), GIPC3(1), PRR16(1), APOL3(1), SNAI2(1), DNASE1L3(1), SPEG(1), LRCH2(1), LATS2(1), RORA(1), RASD2(1), EDIL3(1), SLC45A1(1), PLXDC1(1), MMRN1(1), CNN1(1), TAGLN(1), FBXL22(1), TRPC4(1), SEPP1(1), PSD(1), ACTA2(1), CPA3(1), FXYD1(1), MYOZ2(1), THBS2(1), TACR1(1), HIPK4(1), SYT15(1), RGS13(1), C3orf70(1), SNCA(1), CYP1B1(1), MYLK(1), NPY5R(1), MYOCD(1), FAM26E(1), PLVAP(1), GJC1(1), LUM(1), CBFA2T3(1), C20orf160(1), PCDHGB6(1), CD99L2(1), DENND2A(1), PLA2G4C(1), PELI3(1)</t>
+          <t>SAP30L(34), FLT4(38), GYPC(18), LRRN4CL(43), GHR(17), POU6F1(2), C5orf53(12), PPAPDC3(24), MBNL2(8), TIMP2(53), MEF2C(34), LOH3CR2A(33), SH3BP5(18), SSPN(21), GPRASP1(39), TSHZ3(40), PCDHGA2(23), GPRASP2(41), PABPC5(44), CNRIP1(51), RASSF8(33), KIAA1462(37), NECAB1(21), HAAO(12), CALHM2(42), TRPC1(8), FBXL3(5), ANKRD29(32), C1orf70(17), DENND2A(3), AKT3(32), ZAK(46), LTBP4(32), PRDM8(29), TENC1(23), CYP2U1(3), SLC24A3(58), KANK2(34), ZCCHC24(19), TNXB(28), MAOB(24), HSPA12B(22), SVIL(23), TCEAL7(48), RHOJ(40), CXorf36(14), STON1(18), ANTXR2(28), FAM55C(2), NCAM1(1), JAM2(2), DPYSL3(1), GLT8D2(32), AHNAK(2), PCDHGA5(6), TCEAL1(9), ANO6(17), HSPB7(1), FZD4(3), PJA2(9), ECM2(4), TIMP3(22), FXYD6(22), ANK2(3), HSD17B6(3), SPARCL1(25), ITGA8(2), RAB8B(5), ARHGAP6(29), PTGIS(3), C1QTNF7(13), DPYD(8), TMOD2(4), TACC1(25), LOC134466(5), DACT3(13), CDC42EP3(1), TSPAN7(1), PDE10A(7), MYCT1(14), THRA(8), PPP1R12B(5), TGFBR3(14), TEF(4), OLFML1(10), CLIC4(6), LMOD1(7), C1orf133(11), ZNF25(13), ST5(9), PEAR1(30), C21orf34(32), PLCL1(1), RSPO1(15), NXPH3(16), CLIC2(25), KCNJ8(25), SOX7(8), PTRF(4), BACH2(6), SOX15(6), FILIP1L(1), ABI3BP(9), DIXDC1(24), ENPP1(1), PMP22(21), PCDHB18(5), C14orf28(10), JAZF1(2), TBL1X(12), KLHL10(9), FERMT2(3), CACNB2(21), NAP1L3(22), TIE1(17), SYNPO2(1), FBLN5(4), SRF(8), C5orf4(19), PGM5P2(1), OLFML2A(20), ZBTB38(4), LDB2(15), PALLD(2), ERG(3), PALM2-AKAP2(8), C7orf58(16), LRCH1(8), FGF2(28), FREM1(6), PGM5(1), LEPR(4), STARD13(1), GNG11(8), LPAR4(2), GEFT(13), BNC2(27), CASP12(11), GAB1(4), MDFIC(9), MAMDC2(22), USP31(1), CALD1(20), KCNMA1(13), CBX7(18), CEP68(9), CACNA1H(14), SNCA(1), PCDHB15(19), MRGPRF(7), EMCN(6), NAALAD2(1), CYBRD1(3), PDE2A(2), ABCG2(10), TMEM200B(22), TEK(10), PCDHGA6(21), RNF144A(3), FRMD6(11), PDE7B(2), KIAA1644(4), STAT5B(41), TNS1(5), SMOC2(15), ADCY2(13), KATNAL1(20), CD302(12), PPAP2B(1), ASAM(26), RASA4(3), ZNF483(4), MYADM(11), ARHGAP31(8), ROBO4(10), RECK(16), NDN(8), CDO1(3), APBB1(21), CRTAP(13), CLIP3(23), TBC1D2B(4), GRINL1A(1), IL11RA(1), ZNF521(5), WT1(19), SETD7(11), UBL3(6), TUB(10), EMILIN1(8), PDE5A(8), OSR2(21), C16orf45(24), FKBP7(13), MEF2D(7), PRKCA(4), KLHDC1(22), ZEB1(29), PCDHGA3(11), TMEM200A(15), PCDHB4(20), GPR124(25), FAM162B(3), JAM3(16), NKAPL(17), MFAP4(26), MEIS3(23), RGMA(8), VAMP2(1), RFTN1(5), DCHS1(4), PCDHGB7(7), RAMP1(5), PLEKHH2(1), MAGI2(3), TBX3(16), RUNX1T1(4), TMEM55A(8), EHD2(8), EZH1(6), LOC728264(2), RFTN2(10), ZEB2(12), GRID1(5), MXRA7(2), WIT1(6), NOSTRIN(10), PAPPA(9), FAM198B(2), TMEM204(7), LAYN(14), ARHGEF15(20), KIAA1614(2), CACNA1C(10), INSR(2), C1orf21(14), EPM2A(4), IRS2(1), SNRK(6), NEDD4(7), KCTD12(7), DDR2(3), SERPINF1(3), LIX1L(5), CLEC2B(3), TSPAN18(16), TBXA2R(2), KANK3(10), HEPH(5), GLI2(8), FAM175A(3), TGFB3(2), NBEA(3), KCTD10(1), WHAMML1(5), ENOX1(3), PPP1R12C(2), TGFB1I1(4), RAPGEF4(3), PCDHGA11(1), SGCE(2), HGF(2), LATS2(1), SFMBT2(1), ZFYVE20(1), PRX(6), N4BP2L1(4), ARHGEF6(6), SRL(1), SLC1A7(1), ATOH8(4), SOCS2(3), PURG(1), PEG3(1), YPEL4(2), PDGFRA(1), SPEG(2), SH3BGRL(4), TCEAL4(5), SYTL4(2), C10orf72(2), P2RX7(1), JPH4(2), KL(1), GSTM5(1), CDH5(1), RASL12(1), DPYSL2(1), ENPEP(1), FYCO1(1), FEZ2(2), PHLDB2(2), LOC644538(1), MITF(1), GNG12(1), NES(1), DKK3(3), DIRAS1(4), RBM9(1), IGFBP4(5), LOC144571(5), OLFML3(1), TCF4(1), FBXL7(1), NRIP2(6), KDR(1), PLXDC1(2), VIPR2(1), DAB2(1), REM1(4), SHE(2), PRELP(1), RAB3IL1(2), ACVRL1(2), C1S(1), SNCAIP(1), CALCOCO2(1), SH2D3C(3), FXYD1(2), MATN2(6), SIRT1(1), PODN(2), CFL2(1), FAM69A(4), COX7A1(1), EFEMP1(1), GPR116(3), LRRC8C(1), PPP1R12A(1), PLSCR4(1), TLN1(4), CYP1B1(1), PKD2(1), KIAA1755(1), PCDHB7(3), HSPB2(1), NAALADL1(2), ESAM(3), FAM65C(1), COL15A1(2), MBNL1(1), CCND2(1), FBN1(3), PRNP(5), TBC1D1(3), OGN(1), SNAI2(2), LSM11(2), MID2(2), CYYR1(1), PDE8B(1), CRY2(1), PPAP2A(1), FEZ1(2), MAPK10(3), ALDH1A2(1), GPR146(1), NTRK3(2), GNAO1(2), LOC283856(1), FAM13C(1), DFNA5(2), KCTD7(4), MAP3K3(4), TRIM23(2), SSC5D(6), FEM1B(1), ATL1(1), GFPT2(1), FOXN3(2), SYNE1(2), AXL(3), TMEM88(1), FGD5(1), ADARB1(3), SCARF1(1), SLC45A1(2), GLI3(4), SCN3B(1), RNF38(2), OSBPL1A(1), TIPARP(2), LOC728392(1), GNG7(1), IRS1(1), RAB11FIP5(1), ZNF676(1), MARVELD1(1), PHYHIP(1), NMT2(1), MAN1C1(3), ATP1B2(1), NEURL1B(1), AKAP2(1), NAP1L2(2), PCDH18(1), PDZRN3(1), DNAJC27(1), EBF1(1), PGCP(1), NID1(1), PROS1(1), INPP5F(1), FLI1(1), ERVFRDE1(1), MMRN2(1), FBXO31(1), HAND2(2), DST(2), TMEM47(2), ZNF208(1), ZNF540(1), DMD(1)</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>562.0</v>
+        <v>413.0</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6000044733632215</v>
+        <v>-0.6000106094754926</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.7494907540505636</v>
+        <v>-0.7320902446391092</v>
       </c>
       <c r="H7" t="n">
-        <v>6711.0</v>
+        <v>3666.0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.6301226324012792</v>
+        <v>-0.6299065064712708</v>
       </c>
       <c r="J7" t="n">
-        <v>39.710059171597635</v>
+        <v>21.06896551724138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>hsa-miR-141-5p</t>
+          <t>hsa-miR-16-5p</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>165.0</v>
+        <v>166.0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>GLT8D2(52), JAM3(32), TIMP2(62), PMP22(48), CNRIP1(70), KIAA1462(56), C16orf45(42), FGF2(52), AKT3(55), ZAK(65), SLC24A3(71), HEG1(9), ZCCHC24(36), STAT5B(77), RHOJ(67), ZBTB4(3), SCARF1(9), PPAPDC3(22), PRNP(13), MEIS3(40), DPYD(24), GPRASP2(39), ZNF25(14), APBB1(28), PABPC5(39), LRCH1(31), CLIP3(32), KLHDC1(28), TMEM55A(18), ZEB2(27), SAP30L(42), KIAA1614(9), FLT4(51), LRRN4CL(59), FAM175A(8), ANTXR2(39), C5orf53(22), TIMP3(34), MFAP4(43), MEF2C(51), NEDD4(35), SPARCL1(36), ARHGAP6(37), TACC1(44), GPRASP1(44), TSHZ3(36), ST5(22), PEAR1(45), SH3BGRL(29), RFTN1(9), KCNJ8(27), EMILIN1(22), DIXDC1(40), RASSF8(31), CACNB2(27), NAP1L3(17), NECAB1(21), CALHM2(47), PRX(15), PRKCA(3), LTBP4(40), ZEB1(43), PRDM8(52), BNC2(35), LAYN(15), MDFIC(20), MAMDC2(31), KCNMA1(13), CBX7(29), KANK2(42), MAOB(46), PCDHGA6(41), FRMD6(31), SVIL(38), PDE7B(27), TCEAL7(52), RFTN2(4), ASAM(40), RECK(36), SH3BP5(21), CDO1(6), UBL3(25), HEPH(4), CRTAP(9), FKBP7(16), SNED1(3), GPR124(34), POU6F1(2), PDE10A(13), PCDHGA2(29), CLIC2(38), ANKRD29(29), DENND2A(3), GNG11(23), TENC1(27), HSPA12B(25), LIX1L(15), INSR(3), KATNAL1(29), RASA4(12), MYADM(15), ARHGEF6(8), PCDHGB7(8), ARHGAP31(25), GYPC(24), GHR(26), PGCP(14), FBN1(14), NKAPL(31), SETD7(21), NXPH3(20), PROS1(24), TBL1X(22), KANK3(18), C1orf70(15), RUNX1T1(3), PCDHGA3(19), TMEM200A(22), PCDHB4(15), TNXB(29), CLEC2B(5), CD302(13), SNRK(8), FEZ1(4), PDE5A(16), ZFYVE20(2), C1orf21(10), SHANK3(6), KCTD7(14), JAM2(16), GLI3(8), PJA2(17), RNF38(7), PAPPA(10), WHAMML1(6), SSC5D(15), LRRK2(8), FGD5(8), MID2(17), SOX7(8), TRPC1(13), ADARB1(6), TXNIP(10), EHD2(16), GAB1(10), CALD1(32), PPP1R12A(9), ITPKB(1), CACNA1H(24), EZH1(3), SFMBT2(6), SMOC2(21), SERINC1(3), ADCY2(15), MITF(5), TBC1D2B(8), CCND2(9), RAB8B(11), NDN(12), AXL(2), GNG12(6), CXorf36(17), CD34(3), TSPAN18(16), KDR(4), SLC45A1(3), AHNAK(11), PCDHGA5(13), AKAP13(2), ANO6(30), SLCO2A1(1), MBNL2(18), RASGRP2(2), FAM65B(3), ITGA8(5), FLI1(16), CD93(4), ZNF208(2), C1QTNF7(18), KCTD12(6), MMRN2(5), ELK3(4), SSPN(17), SHE(15), DACT3(21), MYCT1(22), THRA(6), PPP1R12B(8), CLIC4(9), LMOD1(14), AKAP2(5), PEG3(2), RSPO1(15), CYYR1(8), ABCB1(2), C4orf12(2), FOXN3(12), ABI3BP(17), SYTL4(5), TIE1(21), C5orf4(17), PGM5P2(6), OSR2(9), LDB2(21), PALLD(5), ERG(4), PALM2-AKAP2(11), C7orf58(21), CLEC14A(3), FREM1(1), PGM5(4), A2M(8), GPR116(5), TMEM204(20), CASP12(8), ARHGEF15(18), CYP2U1(6), CACNA1C(14), EMCN(11), TLN1(8), PDE2A(9), ABCG2(12), TEK(14), ESAM(6), COL15A1(11), MBNL1(8), GRID1(13), ROBO4(16), STON1(18), ATOH8(5), GRK5(10), FXYD6(17), LOH3CR2A(16), DHH(7), CLEC1A(3), TGFBR3(18), TEF(7), MARVELD1(3), C21orf34(17), ACVRL1(1), ENOX1(4), TUB(8), DIRAS1(9), PTRF(11), TBXA2R(4), PCDHB18(9), SH2D3C(4), SRF(10), TBX3(6), MEF2D(9), TAL1(4), PLSCR4(9), PCDHB15(6), CYBRD1(10), MAN1C1(9), SDPR(1), C14orf28(13), ADD1(7), RAB31(12), DCHS1(9), HAAO(7), NRIP2(11), ZNF521(6), NBEA(6), UST(1), NOSTRIN(5), GIMAP1(2), TCEAL1(13), SOCS2(5), ECM2(6), ADRA1D(2), IL33(5), TCF4(4), GLI2(3), PTGIS(8), TCF23(1), REM1(3), WT1(10), OLFML1(10), DKK3(3), MEIS2(2), C1orf133(8), YPEL4(3), PHYHIP(2), FAM198B(6), DDR2(12), KLHL10(3), FERMT2(13), ANGPTL1(2), LHFP(9), TGFB1I1(7), PODN(5), FBLN5(4), CFL2(6), JPH4(3), OLFML2A(12), SMTN(2), SERPINF1(5), CDH5(6), FGF7(3), DOCK4(1), GEFT(13), GIMAP4(2), GIMAP5(1), CEP68(11), MRGPRF(6), CYP1B1(3), TMEM200B(18), FEZ2(7), PCDHGA9(3), RNF144A(4), TNS1(10), FAM13C(6), PHLDB2(5), ADCY4(3), ILK(1), CCDC136(2), PCDHB12(1), EPM2A(2), HSD17B6(3), DMD(5), TMOD2(11), SEPT7(1), SNAI2(6), PRELP(2), SCN2B(1), NID1(3), GPR1(6), BACH2(6), C1QTNF1(4), SNCAIP(1), NR3C2(2), FXYD1(3), PCDHGA12(2), PCDHGA7(1), ZBTB38(9), PCDHGA11(2), LEPR(4), ZDBF2(2), SH3D19(4), LPAR4(4), RASL12(6), WISP1(3), MBLAC2(1), SLC8A1(1), NES(1), MXRA7(5), WIT1(5), DAB2(2), LOC154822(1), CCDC69(5), LOC728392(1), SCN3B(6), ATL1(6), SRL(6), AFAP1L1(4), FOXO1(1), SLC1A7(4), LAMA4(2), FEM1B(4), THSD1(2), GIMAP8(3), DLL4(1), SPTBN1(1), PDGFRA(1), KRT222(1), MCAM(1), CAV2(7), STOM(4), RAPGEF4(4), PCDHA3(1), FBXL3(7), TM4SF18(1), FAM69A(6), PCDHGA8(1), CRISPLD2(3), PCDH12(1), VAMP3(3), LMCD1(1), ENPEP(2), GNAO1(1), PROCR(1), HSPB2(3), DFNA5(1), ESD(1), RAMP1(4), GRINL1A(2), SCARA3(1), TBC1D1(2), LRRC2(1), ERVFRDE1(3), SEPP1(4), ITPR1(5), TCEAL4(2), MAGI2(2), ARL15(1), KL(1), KLHL33(1), NAP1L2(1), EFEMP1(7), STARD13(1), SLC9A9(1), PKD2(4), FAM49A(1), CCDC50(4), ST6GALNAC3(1), FAM55C(3), PLXDC1(2), GNG7(4), C4orf32(1), C5orf41(2), NR3C1(1), MDGA1(1), PRRG3(1), CD99L2(2), TMEM109(3), AEBP1(3), TIPARP(1), GNAL(2), PCDHGB6(2), ENPP2(1), IL11RA(1), MAP3K3(4), ZNF34(1), FZD4(4), METTL7A(1), SYNE1(1), EHBP1(1), PLAT(3), ANK2(2), FAM162B(1), N4BP2L1(4), DPYSL3(1), ZNF835(1), GIMAP6(1), GAS6(1), PCDHGA4(3), SPEG(2), SOX15(1), DCAF12L2(1), LRRC8C(2), LRRC32(1), RAB3IL1(2), FILIP1L(1), KLHL13(1), FYCO1(2), ACACB(3), KLHL21(1), ROR1(1), C10orf72(4), ACTN1(1), LOC144571(1), LRRC70(2), DUSP3(1), ABCC9(2), OSTM1(1), SETBP1(1), MAF(1), PPP1R12C(1), SYNPO(1), TMEM47(2), IRS1(1), RAB11FIP5(1), PCDHB7(1), ZNF676(1), OTUD7A(1), KCTD10(1), RGMA(2), CAV1(1), C1S(1), SYT11(1), FHL1(1), ZNF781(1), RERG(1), EHBP1L1(1), SGCE(2), RBM9(1), ANXA6(1), SOCS5(1), VAMP2(2), LRP1(1), TRIM23(1), KIAA0430(1), TMEM88(1), SLC26A4(1), ITM2A(1), ZBTB16(1), LOC158572(1), LOC283856(1), ZNF483(2), LIFR(1), ETS1(1), COL6A3(1), KDELC2(1), EFHA2(1), PTPN21(1), TGFB3(1), EBF1(1)</t>
+          <t>SAP30L(41), ATL1(8), SETD7(51), ADD1(7), GNG12(39), FGF2(36), TSPAN18(15), ANTXR2(55), ANO6(51), TIMP2(36), DMD(37), SPARCL1(37), ARHGAP6(45), TACC1(63), WT1(10), CLIC4(11), GPRASP2(20), APBB1(6), C21orf34(11), TBL1X(25), RASSF8(35), KIAA1462(47), C16orf45(23), PALLD(17), LRCH1(37), AKT3(41), ZAK(64), BNC2(41), TMEM55A(8), GAB1(20), CYP2U1(6), MAMDC2(23), GNAL(13), SLC24A3(37), SVIL(58), STAT5B(61), RHOJ(36), ASAM(37), PJA2(39), MEF2C(41), IL33(6), SH3BP5(35), PCDHGA2(22), UBL3(30), SH3BGRL(27), PROS1(13), ABCB1(10), DDR2(5), FOXN3(14), DIXDC1(48), CALHM2(22), ZBTB38(31), MDFIC(23), CEP68(16), KANK2(25), PCDHGA6(50), PDE7B(15), ZNF521(11), KCTD12(15), C1orf133(27), KLHDC1(20), TRIM23(2), SHE(6), CBX6(1), MID2(27), PCDHGB7(15), STON1(25), DPYSL3(5), AHNAK(20), PCDHGA5(11), TCEAL1(4), HSD17B6(7), SSPN(12), RGMA(2), GPRASP1(24), SEPP1(1), LMOD1(7), NXPH3(18), C4orf12(5), DSTN(5), NPTN(10), ANKRD29(17), C5orf41(8), MEF2D(10), TXNIP(11), CBX7(27), TLN1(3), FEZ2(8), TEK(25), MAOB(30), RNF144A(3), TNS1(9), FAM13C(2), RASA4(7), FLT4(18), LRRN4CL(30), MFAP4(24), C1QTNF7(13), MYCT1(18), PPP1R12B(14), ST5(14), PEAR1(13), RSPO1(17), CLIC2(15), PABPC5(10), CNRIP1(10), MATN2(3), TIE1(12), FBLN5(4), OLFML2A(12), PRKCA(2), CLIP3(10), TENC1(8), CASP12(3), KIAA1614(5), CALD1(23), CACNA1C(18), ABCG2(11), TMEM200B(8), TCEAL7(12), FBXO32(6), LRRK2(10), PCDHGA4(2), SERINC1(6), CXorf36(6), ARHGEF6(4), TBC1D2B(2), SRL(1), FILIP1(2), SCARF1(6), GHR(7), KCTD7(6), KDR(10), JAM2(3), RAB31(4), GLT8D2(8), JAM3(12), NKAPL(5), PHF15(1), TBC1D1(7), TIMP3(20), KLHL38(6), FAM65B(4), NEDD4(7), ITGA8(2), FLI1(5), SYNPO(3), LOH3CR2A(7), DPYD(14), MMRN2(2), ELK3(18), TGFBR3(9), SPTBN1(7), NDN(4), MEIS2(1), ITPR1(3), CDO1(1), FGD5(3), CALCRL(1), KCNJ8(5), FILIP1L(2), CCDC69(4), ABI3BP(3), PMP22(14), C14orf28(5), FERMT2(8), ANGPTL1(3), STOM(2), RAPGEF4(1), HEPH(5), SYNPO2(1), ACTN1(1), TSPAN2(4), C5orf4(5), PGM5P2(12), C10orf54(1), LDB2(5), FAM69A(3), PALM2-AKAP2(11), C7orf58(10), NAP1L2(6), NRIP2(5), FRY(4), CLEC14A(2), PDLIM5(1), PGM5(3), LEPR(5), A2M(2), ZEB1(6), GPR116(4), PRDM8(23), DOCK4(1), RERG(4), BCL2L2(1), PPP1R12A(7), KCNMA1(13), PCDHGA3(6), ITPKB(3), PLSCR4(1), SNCA(2), HEG1(3), TMEM200A(7), EMCN(7), CYBRD1(1), PCDHB4(7), PDE2A(4), ZCCHC24(8), SFMBT2(6), FRMD6(13), KIAA1644(4), SMOC2(7), ADCY2(11), CD302(4), PPM1K(1), ESAM(2), ABCC9(2), MITF(3), MBNL1(6), MYADM(11), ARHGAP31(8), ROBO4(2), RECK(14), VAMP3(3), SLC16A7(2), ERVFRDE1(4), KRT222(2), SIRT1(1), FKBP7(4), SH3D19(5), FAM175A(2), PGCP(1), RAB9B(1), PPAPDC3(2), FXYD6(4), MEIS3(7), KCTD10(1), ZNF208(2), NFATC2(1), P2RY1(2), DACT3(1), TSHZ3(1), PAPPA(1), AKAP2(11), SSC5D(4), FAM198B(2), SOX7(6), GPR1(1), BACH2(2), PCDHB18(1), PDE5A(2), DCAF12L2(1), NECAB1(1), PCDHGA11(3), PRX(1), AEBP1(1), LTBP4(1), TMEM204(3), ZNF676(2), USP31(1), WISP1(3), PCDHB15(1), PKD2(1), PCDHGA9(3), TNXB(3), HSPA12B(2), PCDHB7(2), KATNAL1(2), RFTN2(3), ZEB2(1), COL15A1(1), MXRA7(1), GPR124(1), ST6GALNAC3(1), EPM2A(10), C5orf53(8), TGFB3(3), MICAL2(1), NBEA(7), ATP2B4(1), CYYR1(2), KANK3(1), FBXL3(4), ZFYVE20(1), DHH(5), CDH5(1), OSTM1(1), PHLDB2(10), CHURC1(1), N4BP2L1(1), ACOX2(1), SLCO2A1(2), MBNL2(4), PCDHA10(1), RFTN1(2), CACNB2(2), CRTAP(3), EHD2(1), PTGDR(1), CACNA1H(5), LIX1L(3), SNRK(7), PDE10A(8), CRY2(3), P2RX7(2), SGCE(1), FYCO1(1), CCND2(2), PRNP(6), TCF4(1), RNF38(8), ZNF25(7), ADARB1(1), LRCH2(1), RBM9(1), REM1(1), WHAMML1(2), MAPK10(3), TMEM109(2), CDK17(2), GNG7(1), SYNE1(3), KLHL13(1), BCL2(1), LRRC2(2), RBM43(2), NR3C2(1), DNAJC27(1), CCDC48(1), GLI3(4), GNG2(1), KCNQ4(2), THRA(1), CALCOCO1(1), MAP3K3(2), ZBTB4(1), PTGER2(2), KALRN(1), DCHS1(1), PPM1F(1), FEM1B(5), RAB11FIP2(2), FBXO31(1), SCN3B(1), AXL(2), OSBPL1A(1), HCFC2(1), EFEMP1(1), EZH1(2), RAB30(1), MARVELD1(1), EMILIN1(1), NAP1L3(1), PBX1(1), DFNA5(1), MAGI2(1), TIPARP(1), OTUD1(1), IRS1(1), TJP1(1), CCDC50(1), DST(2), C9orf5(1), PCDHB5(1), RAB11FIP5(1), ENPP1(2), CAV2(1), WIT1(1), RAB23(1), HSPB7(1), ECM2(1), PTGIS(1), CTNNA3(1), TNFAIP8L3(1), RSPO3(1), ZNF540(1), TMEM47(1), KL(1), STARD13(1), FGF7(1), ARHGEF15(1), INSR(1)</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>498.0</v>
+        <v>381.0</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6000025024692088</v>
+        <v>-0.6000009550454198</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.7485718744421195</v>
+        <v>-0.7502784356752024</v>
       </c>
       <c r="H8" t="n">
-        <v>5561.0</v>
+        <v>3344.0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.6300351185577218</v>
+        <v>-0.6230435279951737</v>
       </c>
       <c r="J8" t="n">
-        <v>33.7030303030303</v>
+        <v>20.14457831325301</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>hsa-miR-21-5p</t>
+          <t>hsa-miR-200b-3p</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>154.0</v>
+        <v>165.0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>GPRASP2(24), C21orf34(24), ZAK(31), LTBP4(32), LIX1L(5), FLT4(23), GHR(8), PPAPDC3(10), PKNOX2(4), THRA(12), VAMP2(5), APBB1(21), ABI3BP(4), CNRIP1(35), OSR2(13), ANKRD29(10), PRX(7), C1orf70(32), PRDM8(9), SLC24A3(34), KANK2(11), ZCCHC24(6), MAOB(16), HSPA12B(12), TMEM88(2), STAT5B(22), LOC728392(7), KATNAL1(3), RHOJ(18), ZBTB4(3), C1orf21(31), GPR124(11), SAP30L(10), JAM3(15), TGFBR3(10), TUB(19), TENC1(15), KIAA1614(4), LRRN4CL(16), C16orf45(13), KLHDC1(13), CDO1(7), PABPC5(23), SNED1(4), GNG7(3), GPRASP1(13), PMP22(14), FGF2(11), LOC144571(4), PCDHGA6(3), GYPC(8), FAM175A(3), SLC45A1(6), KCNJ8(2), C5orf4(18), TRPC1(9), CLIP3(10), CEP68(6), ZFYVE20(1), EPM2A(1), LOH3CR2A(4), WT1(3), CYP2U1(5), CGNL1(2), WIT1(6), ZNF25(5), TBC1D2B(2), NKAPL(4), TBC1D1(2), MFAP4(2), MEF2C(1), SPARCL1(1), MEIS3(8), PTPRN2(1), ARHGAP6(3), REM1(1), SSPN(1), GPR133(2), LOC134466(2), THSD1(1), RGMA(7), FBXO31(2), TSHZ3(11), NDN(8), RAB3IL1(1), ST5(1), PEAR1(3), RSPO1(3), NBLA00301(1), CLIC2(1), RFTN1(2), DIXDC1(3), PPAP2A(1), TCEAL4(1), F10(2), RASSF8(5), PPP1R12C(1), KANK3(1), CACNB2(2), NAP1L3(2), PDE5A(2), ALDH1A2(1), KIAA1462(13), TBX3(1), C1QTNF4(1), HIC1(1), SERPINF1(2), GNG11(1), AKNA(1), GEFT(4), NTRK3(1), MAMDC2(1), CBX7(2), CACNA1H(1), TNXB(4), GNAO1(1), CD302(3), TCEAL7(13), FAM13C(1), PCDH18(1), GRID1(2), C5orf53(3), IL11RA(2), N4BP2L1(2), SCARA3(1), SNRK(1), WHAMML1(3), SOX7(1), SOX15(3), CRTAP(2), CALHM2(5), MDFIC(2), ITPKB(1), MAGI2(1), MAP3K3(1), NRIP2(2), KCTD7(3), GLI3(2), TMEM55A(1), RAMP1(1), EHD2(1), CTSF(2), AKT3(2), CA11(1), FEM1B(1), MEIS2(1), EZH1(2), ACACB(2), FLJ36777(1), CALCOCO1(2), FOXO4(1), POU6F1(1), GLT8D2(2), TIMP3(1), GLI2(1), ZNF208(1), C1QTNF7(2), SH3BP5(1), TEF(1), PHYHIP(2), MID2(2), EMILIN1(1), HAAO(5), ADARB1(2), FLJ35390(1), ZNF676(1), MXI1(1), MAN1C1(2), ANKDD1A(1), FAM162B(1), SH3BGRL(1), NECAB1(2), PCDHGA3(2), LOC92973(1), SMOC2(1), EBF1(2), EFHA2(1), PGCP(1), ZNF835(1), TMOD2(1), RNF38(1), DCHS1(1), DENND2A(1), PKD1(1), NFASC(1), ADCY2(1), ZNF483(1), CCND2(1), SCN3B(1), FXYD1(1), PELI3(1)</t>
+          <t>SAP30L(11), SRL(8), FLT4(66), GYPC(33), LRRN4CL(54), TSPAN18(28), ANTXR2(29), GLT8D2(40), ATOH8(11), ANO6(19), PPAPDC3(33), NKAPL(31), TIMP2(64), TIMP3(30), MFAP4(22), MEF2C(44), FXYD6(12), ANK2(3), NEDD4(17), SPARCL1(30), ARHGAP6(34), LOH3CR2A(31), SH3BP5(7), SSPN(18), TACC1(35), DACT3(21), GPRASP1(41), TGFBR3(13), OLFML1(22), SETD7(22), TSHZ3(54), PCDHGA2(17), GPRASP2(48), PAPPA(8), ST5(12), PEAR1(49), RSPO1(15), CLIC2(37), PROS1(14), KCNJ8(21), DIRAS1(11), PTRF(27), PABPC5(51), DIXDC1(30), TBL1X(18), CNRIP1(73), RASSF8(37), KANK3(30), KIAA1462(61), NECAB1(33), FBLN5(11), SRF(20), HAAO(16), OSR2(31), CALHM2(61), C16orf45(44), FBXL3(1), ANKRD29(38), FKBP7(12), FGF2(52), C1orf70(27), DENND2A(2), AKT3(50), SERPINF1(12), ZAK(53), LTBP4(42), ZEB1(39), PRDM8(45), GEFT(18), BNC2(29), TENC1(26), TMEM55A(15), LAYN(28), ARHGEF15(33), MDFIC(19), MAMDC2(23), CALD1(20), KCNMA1(17), SLC24A3(74), SGCE(2), CBX7(26), KANK2(44), ZCCHC24(32), TNXB(49), MAOB(38), HSPA12B(34), SVIL(25), STAT5B(70), CLEC2B(11), SMOC2(12), ADCY2(12), TCEAL7(67), RHOJ(65), ASAM(36), RASA4(15), ZEB2(31), MYADM(13), GPR124(40), RECK(26), FAM55C(2), PMP22(31), KATNAL1(37), SHANK3(4), SCARF1(14), SLC45A1(7), MEIS3(38), GLI2(14), GNG7(10), REM1(8), TMOD2(4), WT1(13), RAB3IL1(13), WHAMML1(2), SSC5D(10), APBB1(26), C21orf34(20), TUB(12), EMILIN1(29), FOXN3(13), ABI3BP(11), TCEAL4(6), TIE1(35), TRPC1(11), ADD1(2), LDB2(15), TBX3(15), ADARB1(9), LRCH1(12), PRX(15), CLIP3(33), TMEM204(16), TAL1(3), PCDHGA3(22), PCDHB15(5), PCDHB4(16), TMEM200B(23), MAN1C1(7), GRID1(20), MXRA7(3), WIT1(5), CXorf36(18), ARHGEF6(7), NOSTRIN(15), CLEC3B(3), CD34(3), GHR(25), GIMAP1(6), PGCP(9), FBN1(14), TCEAL1(9), PRNP(12), DAB2(4), MBNL2(8), PJA2(6), ECM2(7), IL33(1), FLI1(10), C1QTNF7(13), MMRN2(4), SHE(6), LOC134466(4), RGMA(8), MYCT1(15), PPP1R12B(4), TEF(6), OGN(4), SEPP1(1), LMOD1(6), LRRK2(5), UBL3(4), NBLA00301(5), ACVRL1(12), SH3BGRL(8), NXPH3(18), ABCB1(3), TBXA2R(7), CCDC69(7), C14orf28(11), JAZF1(4), CACNB2(21), LHFP(4), STOM(6), TGFB1I1(8), PDE5A(9), TMEM47(1), C5orf4(12), PGM5P2(3), ERG(7), C7orf58(13), CLEC14A(3), EFEMP1(3), A2M(4), GNG11(16), GPR116(4), CASP12(7), GIMAP4(6), GIMAP5(4), CACNA1H(16), CACNA1C(14), TMEM200A(18), MRGPRF(12), EMCN(7), TLN1(11), PDE2A(6), ABCG2(8), TEK(9), PCDHGA6(19), LIX1L(13), PDE7B(5), TNS1(5), CD302(14), ESAM(5), RFTN2(9), COL15A1(14), MITF(7), ILK(6), ARHGAP31(20), ROBO4(19), NDN(13), CDO1(4), FAM175A(4), VIPR2(2), DPYD(13), GULP1(1), RAMP1(8), EHD2(19), LOC144571(4), FRMD6(11), PCDH18(5), C1orf21(8), TBC1D2B(10), RAB31(10), KCTD12(9), SH2D3C(13), NAP1L3(13), MEF2D(10), PRKCA(6), KLHDC1(14), N4BP2L1(4), NES(2), KCTD7(7), JAM2(8), APOL3(2), AHNAK(3), JAM3(24), PCDHGA5(5), PHF15(1), SOCS2(5), TBC1D1(4), TDRD10(3), SYNPO(5), CBFA2T3(3), GPR133(2), THSD1(2), FAM70B(3), PURG(2), NEURL1B(2), MEIS2(1), YPEL4(5), PHYHIP(7), FGD5(2), CYYR1(3), SOX7(4), DDR2(1), FOXO4(1), PPAP2A(4), SNCAIP(2), PCDHB18(5), MATN2(1), FERMT2(5), DKFZp566F0947(4), HEPH(6), ALDH1A2(3), C10orf72(6), NRXN2(2), GIPC3(1), CFL2(5), GLT1D1(3), HTR2B(3), JPH4(5), OLFML2A(10), C10orf54(2), FAM69A(5), C1QTNF4(2), SMTN(3), NRIP2(8), HIC1(6), FREM1(1), LEPR(2), RASL12(6), ARRB1(1), GNAL(5), PLSCR4(2), CYBRD1(4), FEZ2(3), GNAO1(6), RNF144A(3), SFMBT2(2), KIAA1755(1), LOC283856(2), EBF1(1), FAM131B(2), ADCY4(1), MBNL1(4), ARHGAP20(3), POU6F1(2), MAP3K3(6), AKNA(1), STON1(6), AFAP1L1(4), SOX15(6), FXYD1(6), PPP1R12C(1), CAV2(5), KIAA1614(1), GJD3(2), HSPB2(5), CCDC136(2), SCARA3(1), GRK5(1), DMD(3), KCTD10(1), ZNF208(2), ERVFRDE1(2), PTGIS(3), CLIC4(3), ITPR1(3), AKAP2(2), C1orf133(4), FAM198B(6), MID2(7), ADAMTSL4(2), GPR1(2), BACH2(2), PCDHGB7(6), KLHL10(3), C20orf160(3), DCAF12L2(1), ZBTB38(3), PCDHGA11(1), PALM2-AKAP2(3), NAP1L2(3), AEBP1(2), LPAR4(2), ZNF676(2), LMCD1(4), CEP68(1), FLRT2(3), ST6GALNAC3(1), RASGRP2(3), CCDC50(1), ACOX2(1), ZNF521(3), HAND2(2), RFTN1(9), CRTAP(8), CNTNAP1(1), EZH1(4), NAV3(1), ZNF575(1), C5orf53(8), SERINC1(1), DKK3(1), DCHS1(5), CCND2(6), ACACB(1), CBX6(1), OSBPL5(1), PLA2G4C(4), MRC1(1), OLFML3(3), SLC9A9(1), C12orf53(1), NR3C1(1), PLXDC1(2), FZD4(4), TGFB3(4), DHH(2), PDE10A(4), SYNE1(4), KLHL13(1), FEZ1(3), RAPGEF4(2), NTRK3(2), PROCR(2), SLC8A1(1), PCDHB7(1), IGFBP4(3), THRA(1), VAMP2(3), FBXL7(1), PLAT(1), UST(1), GLI3(6), NBEA(1), SNAI2(5), ZNF25(3), GAB1(1), TMEM88(4), INSR(2), ZNF438(1), CCDC48(1), PCBP3(1), GIMAP6(2), C12orf68(1), GIMAP8(3), DNASE1L3(1), C15orf51(4), C1QTNF1(2), GPR146(1), FOXF1(1), TM4SF18(2), KL(3), C10orf116(1), FHL1(2), HTRA3(1), RUNX1T1(2), SOX18(1), HGF(1), ENPEP(2), LOC728264(1), FAM13C(1), DFNA5(3), PRKCDBP(1), PKNOX2(1), SAMD4A(1), BCL6B(1), OR5K2(3), LRP1(1), MXRA8(2), CRISPLD2(1), COL6A2(2), COL6A3(1), GNG2(1), APBA1(1), FAM162B(1), RAB8B(6), SBDS(1), LATS2(1), MARVELD1(3), FEM1B(3), KDR(1), EPM2A(1), SLC1A7(1), XYLT1(1), HSPB7(1), CSDC2(1), LAMA4(1), FAT4(1), HSD17B6(1), KLHL38(1), SNRK(2), ITGA8(1), TNFAIP8L3(1), PDLIM3(1), PRELP(1), MSRB3(1), PEG3(1), CPEB1(1), CAV1(1), HPGDS(1), HLF(1), CRY2(1), CABP1(1), ENPP1(1), C4orf32(1), MYOZ2(1), DSTN(1), SYTL4(1), THBS2(1), PODN(1), VIP(1), TSPAN2(1), P2RX7(1), PRUNE2(1), KLHL33(1), TXNIP(1), PGM5(1), CDH5(1), STARD13(1), FGF7(1), RERG(1), MYH11(1), CYP2U1(1), USP31(1), S1PR3(1), EHBP1L1(1), AXL(3), PRR16(1), KIAA1644(1), GIMAP7(1), NT5DC3(1), NBL1(1), LRRC32(1), PHLDB2(1), FBXO32(1), NAALADL1(1), ADRA1D(1), SCN3B(1), DLL4(1), PSD(1), CGNL1(1), CXCL12(1), COX7A1(2), HOXD9(1), FAM65C(1), C3orf54(1), MAGI2(1), NID1(2), IRS1(1), RAB11FIP5(2), VAMP3(2), GAS6(1), PCDHB5(1), SPTBN1(1), INPP5F(1), FBXO31(1), DST(1), ISLR(1), PTGDR(1)</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>191.0</v>
+        <v>520.0</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6000170838339395</v>
+        <v>-0.6000108727378857</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.7231395340257687</v>
+        <v>-0.7575424615712489</v>
       </c>
       <c r="H9" t="n">
-        <v>1023.0</v>
+        <v>5097.0</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.6208987812808411</v>
+        <v>-0.6311843382886081</v>
       </c>
       <c r="J9" t="n">
-        <v>6.642857142857143</v>
+        <v>30.89090909090909</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hsa-miR-16-5p</t>
+          <t>hsa-miR-106b-5p</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>147.0</v>
+        <v>160.0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DHH(3), TACC1(65), SETD7(46), KIAA1462(42), FGF2(49), ZAK(60), PRDM8(18), MDFIC(18), SVIL(61), STAT5B(53), ZBTB4(3), ANTXR2(50), TBC1D1(2), MEF2C(38), DMD(29), RHOJ(30), ANO6(61), TIMP2(41), ELK3(24), UBL3(33), MID2(32), LRCH1(41), GNG12(33), SAP30L(46), PJA2(39), SNRK(14), RASSF8(35), AKT3(41), KLHDC1(18), GAB1(16), KIAA1614(5), SLC24A3(30), PCDHGA6(47), ASAM(33), STON1(19), LRRN4CL(27), TSPAN18(18), C5orf53(11), ZNF521(7), SPARCL1(35), SH3BP5(30), PDE10A(10), WT1(9), SH3BGRL(26), DIXDC1(47), C16orf45(23), ZBTB38(21), C5orf41(8), MEF2D(14), BNC2(36), MAMDC2(17), CBX7(16), TEK(20), ARHGAP6(38), CXorf36(3), FLT4(15), KDR(7), AHNAK(13), JAM3(14), SLCO2A1(2), KLHL38(4), C1QTNF7(8), DPYD(9), KCTD12(14), SHE(7), GPRASP1(16), MYCT1(12), PPP1R12B(9), RNF38(12), TGFBR3(6), PCDHGA2(16), ITPR1(6), AKAP2(12), C1orf133(25), ST5(16), RSPO1(16), FGD5(5), NXPH3(12), TBL1X(22), TIE1(9), PGM5P2(7), PBX1(4), FBXL3(10), PALLD(14), ANKRD29(13), TXNIP(12), PCDH17(4), RERG(7), GNAL(9), CALD1(19), PPP1R12A(5), KCNMA1(13), CACNA1C(14), EMCN(4), ABCG2(6), MAOB(20), LIX1L(2), FRMD6(11), PDE7B(10), TNS1(6), ADCY2(7), ARHGAP31(7), RECK(10), NOSTRIN(2), GHR(8), MFAP4(18), IL33(7), LOH3CR2A(6), SSPN(9), DST(3), PROS1(10), HEPH(3), NPTN(10), C5orf4(5), NAP1L2(6), SH3D19(6), KANK2(14), CD302(3), TCEAL7(12), ARHGEF6(6), JAM2(6), GLT8D2(4), PCDHGA5(9), TIMP3(13), CLIC4(9), C21orf34(13), PTGER2(4), CLIC2(11), ABCB1(6), DDR2(4), FOXN3(12), PMP22(5), CNRIP1(5), PCDHGB7(10), CALHM2(14), OLFML2A(6), LDB2(6), ERG(2), C7orf58(6), LEPR(4), GPR116(3), USP31(3), WISP1(4), TMEM200A(6), ZCCHC24(5), PKD2(3), MBNL1(9), VAMP3(3), EPM2A(8), TSPAN7(2), PEAR1(12), MAGI2(1), PALM2-AKAP2(8), GNG11(1), TMEM55A(11), CEP68(19), PCDHB4(4), HECA(1), MYADM(8), FAM175A(4), GLI3(8), ATL1(9), ZNF25(5), APBB1(8), GRINL1A(2), KCNQ4(2), WHAMML1(1), LRRK2(6), ITPKB(6), SERINC1(3), PHLDB2(8), DSTN(4), NECAB1(2), GPRASP2(10), KLF11(1), GPM6A(1), NDN(4), SSC5D(3), SOX7(4), PABPC5(6), ABI3BP(8), TSPAN2(5), PCDHGA3(8), PLSCR4(4), CYBRD1(3), PCDHGA9(2), SDPR(1), ABCC9(3), LIFR(3), FBXO32(7), MBNL2(7), C14orf28(4), RNF11(2), TRIM23(1), NBEA(6), CLIP3(8), PRNP(6), FEZ2(6), PCDHGA7(1), PCDHGA11(4), ZDBF2(3), SLC8A1(3), ADD1(7), FZD4(1), TCF4(1), NRIP2(3), FRY(5), CCND2(3), FEM1B(7), DFNA5(2), FOXO1(1), SPTBN1(3), MEIS3(3), SCN3B(5), SMOC2(4), DPYSL3(2), TGFB3(1), PRRG3(1), FXYD6(4), HSD17B6(3), C1orf150(3), FAM65B(2), NEDD4(4), ITGA8(3), MICAL2(1), CD99L2(1), SYNPO(1), ZNF208(2), PTGIS(2), MMRN2(2), TMOD2(2), RGMA(2), SEPP1(2), PRELP(1), PAPPA(1), LMOD1(3), PRKG1(2), PCDHGA4(2), CYYR1(2), ENPP1(1), FRMD3(1), FERMT2(3), ANGPTL1(2), PCDHGA12(1), PRUNE2(2), PRX(2), EFEMP1(2), PDLIM5(1), CDH5(3), TENC1(2), CASP12(4), PCDHGB6(1), CACNA1H(2), TLN1(3), LATS2(1), KIAA1644(3), CCDC50(2), MAP3K3(2), CYP2U1(2), RBM43(1), CDK17(4), TBC1D2B(2), SRL(1), UST(1), SCARF1(1), KCTD7(4), PGCP(4), RAB9B(1), TCEAL1(3), HSPB7(1), RPS6KA2(1), SLC16A7(2), TNFAIP8L3(1), THRA(1), SYNE1(1), KCNJ8(1), C4orf12(3), GPR1(1), KLHL13(1), MAPK10(2), RAPGEF4(2), NAP1L3(1), KCNB1(1), TMEM47(2), CFL2(1), FAM69A(2), FKBP7(4), SBDS(1), PGM5(2), ZEB1(4), TIPARP(1), ADAMTSL1(1), PLA2R1(1), SGCE(1), TMEM200B(5), EHBP1(1), KATNAL1(2), RASA4(2), CHURC1(2), A2M(1), TAL1(1), FLI1(1), P2RY1(2), FAM198B(1), CCDC69(1), NR3C2(2), OSTM1(1), TPSB2(1), FAM13C(3), MITF(2), PCDHGB3(1), CBX6(1), CALCOCO1(1), DNAJC27(1), PLXDC1(1), MEIS2(2), VAMP2(1), PDE5A(3), TMEM204(2), ZNF676(1), LRCH2(2), PLAT(1), HEG1(2), TJP1(1), C9orf5(3), MXRA7(1), ACACB(1), IRS1(1), PCDHB7(1), LRRC2(1), ERVFRDE1(1), CLEC1A(1), MATN2(1), PDE8B(1), KANK1(1), KLHL10(1), CAV2(1), PTPN21(1), KL(2), FYCO1(1), RNF144A(2), ST6GALNAC3(1), CCDC48(1), TMEM109(1), AEBP1(1), RAB23(1), GNG7(1), KCND2(1), BACH2(1), DCHS1(1), FILIP1L(1), FEZ1(1), SYNPO2(1), ACTN1(1), TRPC1(1)</t>
+          <t>UBL3(18), C14orf28(5), SHANK3(1), FLT4(12), LRRN4CL(21), TSPAN18(4), ANTXR2(18), ANO6(13), PPAPDC3(4), TIMP2(15), SPARCL1(14), MEIS3(5), ARHGAP6(13), TACC1(19), GPRASP1(13), TGFBR3(8), WT1(6), SETD7(20), WHAMML1(3), PEAR1(11), APBB1(2), C21orf34(5), FOXN3(5), DIXDC1(14), CNRIP1(16), KIAA1462(20), CALHM2(14), C16orf45(13), ANKRD29(8), LRCH1(8), FGF2(17), TXNIP(6), AKT3(22), ZAK(24), ZEB1(9), PRDM8(14), BNC2(14), TENC1(8), ZNF676(1), KIAA1614(5), CYP2U1(4), MAMDC2(8), SLC24A3(26), PCDHGA3(5), CBX7(13), KANK2(10), TLN1(5), ZCCHC24(8), PCDHGA6(15), SVIL(13), STAT5B(33), TCEAL7(8), RHOJ(16), ASAM(10), MEF2C(19), SH3BP5(10), ST5(12), PMP22(8), MDFIC(12), LIX1L(5), SAP30L(22), FAM175A(2), GHR(10), GLT8D2(6), C5orf53(11), SCARA3(1), PCDHGA2(8), C1orf133(5), VAMP2(2), NXPH3(9), CLIC2(9), PROS1(5), PABPC5(7), TBL1X(7), PCDHGB7(5), RASSF8(6), MAGI2(1), KLHDC1(9), MAOB(15), HSPA12B(3), MYADM(10), MXRA7(1), CXorf36(6), NOSTRIN(6), PGCP(5), PCDHGA5(6), NKAPL(5), TIMP3(7), MFAP4(5), DMD(8), SNRK(4), C1QTNF7(3), TNFSF12(1), DACT3(1), MYCT1(7), TSHZ3(3), GPRASP2(5), PAPPA(3), ITPR1(5), LMOD1(5), CDO1(2), FAM198B(2), RSPO1(7), SH3BGRL(13), KCNJ8(4), ABI3BP(3), TIE1(3), LDB2(4), PALLD(4), C7orf58(6), PRKCA(3), CLIP3(5), PGM5(2), LTBP4(2), GNG11(5), TMEM204(3), CASP12(1), GAB1(3), CALD1(9), CACNA1H(7), CACNA1C(3), TMEM200A(2), PCDHB4(5), ABCG2(5), TMEM200B(4), TEK(6), TNXB(6), MAN1C1(1), TNS1(5), SMOC2(5), FAM13C(3), C1orf21(1), GRID1(1), GPR124(3), ROBO4(4), RECK(4), ARHGEF6(5), TBC1D2B(2), SCARF1(2), KCTD7(3), AHNAK(4), JAM3(4), TCEAL1(5), PHF15(1), ZNF521(2), FAM65B(1), NEDD4(4), FLI1(5), LOH3CR2A(4), DPYD(6), SHE(1), PPP1R12B(4), SPTBN1(4), NDN(2), MEIS2(1), FGD5(1), MID2(9), ABCB1(3), DDR2(1), EMILIN1(1), FOXO4(1), CCDC69(2), KANK3(2), CACNB2(3), STOM(3), NECAB1(1), PGM5P2(5), OLFML2A(4), C10orf54(1), ADD1(5), ADARB1(3), NRIP2(2), CDH5(1), A2M(2), DOCK4(2), RERG(2), GNAL(3), KCNMA1(5), PLSCR4(3), EMCN(2), PDE2A(5), FEZ2(2), SFMBT2(2), FRMD6(4), PDE7B(3), ADCY2(2), CD302(2), ZEB2(3), ZNF483(1), MITF(2), MBNL1(3), ARHGAP31(5), FBXO32(5), FBXL3(1), OSTM1(1), RFTN1(2), CRTAP(3), FYCO1(1), CCND2(2), PRNP(2), ZNF25(3), PKD1(1), PJA2(8), RBM9(1), SH3D19(3), MEF2D(1), GIMAP1(1), KDR(1), FZD4(1), TBC1D1(1), ECM2(1), LRRC2(1), HSD17B6(3), GIMAP6(1), ITGA8(2), RAB8B(2), PRKCH(2), PTGIS(1), MMRN2(1), SSPN(2), GIMAP8(1), PRELP(2), PTGER2(1), SOX7(3), PTRF(1), ENPP1(1), CAV2(1), NAP1L3(1), SYTL4(1), RNASE4(1), C5orf4(1), ZBTB38(5), KLHL33(1), ERG(1), PRX(2), NAP1L2(1), CLEC14A(1), EFEMP1(1), GPR116(3), FGF7(1), ARHGEF15(1), GIMAP4(1), LMCD1(1), GIMAP5(1), ESAM(1), RFTN2(1), ABCC9(2), RASA4(2), STON1(3), JAM2(2), GRK5(1), IL33(2), TMOD2(2), TEF(1), SEPP1(1), AKAP2(2), C4orf12(2), GPR1(1), LEPR(1), NR3C1(1), DPYSL3(1), FEM1B(2), KCTD12(3), TNFAIP8L3(1), RBM43(1), EPAS1(1), ATL1(1), CLIC4(1), RAB11FIP2(1), DNAJB4(1), C4orf32(1), DSTN(1), FERMT2(1), NPTN(2), MAP3K3(3), ACTN1(1), TMEM47(1), KL(1), C5orf41(1), FAM69A(1), FRY(1), TIPARP(1), TMEM55A(4), MXI1(1), PPP1R12A(1), CEP68(1), CYBRD1(1), EZH1(2), PKD2(1), SERINC1(1), KATNAL1(2), GNG12(5), MICAL2(1), AKNA(1), CLEC2B(1), SYNE1(2), FBXO31(1), GLI3(1), BCAP29(1), NBEA(1), ERVFRDE1(1), CYYR1(1), KLHL10(1), PCDHGA11(1), PALM2-AKAP2(1), SBDS(1), VAMP3(1), MBNL2(1), PDE5A(1), P2RX7(1), MBLAC2(1), TMEM109(1), RNF38(2), LRRK2(1), C9orf5(1), ZNF208(1)</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>355.0</v>
+        <v>316.0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6000038083210177</v>
+        <v>-0.6000356982639867</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.7449506446178744</v>
+        <v>-0.7173896073273155</v>
       </c>
       <c r="H10" t="n">
-        <v>2950.0</v>
+        <v>1420.0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.6235026814438397</v>
+        <v>-0.6240287564177369</v>
       </c>
       <c r="J10" t="n">
-        <v>20.068027210884352</v>
+        <v>8.875</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>hsa-miR-484</t>
+          <t>hsa-miR-128</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>146.0</v>
+        <v>147.0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>TIMP2(30), SAP30L(34), LRRN4CL(21), ANO6(21), PRNP(10), MEF2C(24), DPYD(9), KCTD12(8), TACC1(24), GPRASP1(15), UBL3(15), C21orf34(14), MID2(10), CLIC2(7), PROS1(10), TBL1X(10), DNAJC27(1), KIAA1462(20), C16orf45(23), LRCH1(16), ZAK(35), KLHDC1(18), SLC24A3(34), SVIL(27), STAT5B(37), ASAM(14), FGF2(22), MEF2D(11), AKT3(28), PCDHGA6(30), KCTD7(8), SETD7(20), RNF11(2), CXorf36(1), N4BP2L1(1), NOSTRIN(1), FLT4(14), STON1(14), TSPAN18(4), ANTXR2(17), GHR(10), KDR(1), JAM2(2), GRINL1A(3), GLT8D2(7), AHNAK(9), PGCP(4), PCDHGA5(11), RAB9B(1), SCARA3(1), AKAP13(1), TCEAL1(1), NKAPL(1), MBNL2(2), MESTIT1(1), PJA2(14), TBC1D1(2), TIMP3(11), MFAP4(12), FXYD6(5), HSD17B6(2), DMD(4), IL33(1), NEDD4(5), SPARCL1(13), ITGA8(1), MEIS3(4), SYNPO(1), ARHGAP6(10), PTGIS(1), C1QTNF7(2), LOH3CR2A(4), SH3BP5(15), SSPN(8), SHE(2), P2RY1(1), DACT3(1), MYCT1(2), THRA(1), PPP1R12B(1), TGFBR3(4), RSPO3(1), TEF(1), OLFML1(1), TSHZ3(1), PCDHGA2(13), AFAP1(1), SEPP1(3), CLIC4(3), LMOD1(2), AKAP2(2), C1orf133(11), ST5(7), SSC5D(3), PEAR1(9), APBB1(21), RSPO1(3), SH3BGRL(8), NXPH3(7), DST(2), KCNJ8(3), DDR2(5), GPR1(1), BACH2(5), PABPC5(9), SOX15(1), FOXN3(9), ABI3BP(3), DIXDC1(15), PCDHB18(2), NR3C2(1), CNRIP1(12), KLHL10(1), RASSF8(24), CAV2(1), KANK3(2), MAPK10(1), LHFP(1), NAP1L3(2), HEPH(2), TIE1(2), PCDHGA12(1), FBLN5(1), TMEM47(1), TSPAN2(1), C5orf4(2), PGM5P2(1), CALHM2(20), JPH4(1), OLFML2A(4), PBX1(1), ADD1(6), ZBTB38(3), FBXL3(9), LDB2(1), PALLD(2), ANKRD29(13), KLHL33(1), PALM2-AKAP2(2), C7orf58(3), NAP1L2(3), AEBP1(1), FREM1(1), PGM5(1), LEPR(2), SH3D19(3), LPAR4(2), PRDM8(10), RERG(1), BNC2(17), TENC1(2), CASP12(1), LAYN(4), GAB1(3), MAMDC2(9), GNAL(4), CALD1(9), PPP1R12A(2), KCNMA1(8), PCDHGA3(12), PLSCR4(1), CBX7(14), SNCA(1), CACNA1C(3), TMEM200A(7), ENPEP(1), MRGPRF(1), KANK2(20), CYBRD1(2), PDE2A(2), ABCG2(3), TMEM200B(3), FEZ2(4), TEK(3), TNXB(1), MAOB(8), FRMD6(6), KIAA1644(1), TNS1(2), SMOC2(1), ADCY2(8), CD302(4), TCEAL7(12), ABCC9(1), RHOJ(22), RASA4(7), PHLDB2(1), ZNF483(3), MBNL1(2), C1orf21(1), MYADM(5), ARHGAP31(6), GNG12(8), FBXO32(1), RECK(7), FAM175A(10), JAM3(9), GNG7(2), RNF38(7), GPRASP2(17), CDO1(1), TUB(3), EMILIN1(2), PMP22(9), FERMT2(1), NECAB1(5), C1orf70(5), CLIP3(10), RUNX1T1(1), VAMP3(2), TMEM55A(7), MXI1(1), KIAA1614(3), CEP68(9), PCDHB4(9), TLN1(2), ZCCHC24(8), RNF144A(3), LIX1L(2), KATNAL1(2), ARHGEF6(5), APOL3(1), RAB31(1), FLI1(2), WT1(7), MAGI2(3), PCDHGA11(3), PCDHB15(2), ZEB2(1), PPAPDC3(5), ATL1(6), ZNF25(4), MDFIC(13), GLI3(7), KLF11(1), KCNQ4(1), WHAMML1(1), FGD5(3), FAM69A(4), ITPKB(2), SERINC1(1), PRKCA(2), CCND2(2), NBEA(3), FEM1B(2), ZNF521(4), EPM2A(3), RAB8B(3), CCDC50(2), ST6GALNAC3(2), SCN3B(5), C5orf53(3), CD99L2(1), TMOD2(2), PDE10A(1), PRX(3), HSPA12B(2), PDE5A(2), MAP3K3(3), FKBP7(4), RBM43(1), METTL7A(1), CDK17(1), TBC1D2B(2), SCARF1(1), SNRK(2), SYNE1(1), C5orf41(3), TXNIP(4), TIPARP(1), CYP2U1(1), PCDHGA9(1), EHBP1(1), FAM55C(1), ELK3(2), NDN(2), DCHS1(4), GJC3(1), TMEM204(1), PLAT(2), GPR124(1), ZBTB4(3), LRRK2(3), RIC3(1), SOX7(2), PTRF(1), C14orf28(2), FYCO1(1), FAM13C(1), ZFYVE20(1), CBX6(1), HEG1(2), ACACB(2), CLEC1A(1), IRS1(1), NRIP2(1), C9orf5(2), PER3(1), RGMA(2), NEURL1B(1), LRCH2(1), PCDHGB7(1), RORA(1), LIFR(1), PCDHGA4(1), INSR(1), CALCOCO1(1), CRTAP(1), FEZ1(1), ACTN1(1)</t>
+          <t>NOSTRIN(15), FLT4(43), GYPC(16), LRRN4CL(34), C5orf53(15), TIMP2(24), MFAP4(11), MEF2C(38), SPARCL1(21), ARHGAP6(12), TACC1(29), GPRASP1(25), MYCT1(18), SETD7(20), ST5(11), PEAR1(33), SH3BGRL(17), CLIC2(32), PABPC5(20), CNRIP1(36), KANK3(12), PDE5A(13), KIAA1462(33), CALHM2(26), C16orf45(26), ANKRD29(25), FGF2(30), DENND2A(3), AKT3(31), ZAK(33), ZEB1(25), PRDM8(26), TENC1(17), ARHGEF15(18), MDFIC(21), SLC24A3(56), KANK2(19), ZCCHC24(15), TNXB(28), MAOB(20), HSPA12B(18), STAT5B(53), CLEC2B(1), SMOC2(14), TCEAL7(33), RHOJ(42), RASA4(9), GNG12(3), ANK2(1), UBL3(12), C14orf28(6), SVIL(15), SHANK3(4), SCARF1(8), WHAMML1(6), C21orf34(12), TRPC1(7), TXNIP(9), CLIP3(15), LTBP4(19), GNG11(11), BNC2(14), ZNF676(5), PCDHGA6(22), ASAM(15), MXRA7(4), PRKCH(1), DPYD(11), NDN(6), CDO1(6), C1orf21(16), MEF2D(7), CXorf36(15), SAP30L(14), CDK17(1), ARHGEF6(6), TBC1D2B(6), TSPAN18(8), ANTXR2(19), GHR(12), RAB31(3), GLT8D2(12), CCND2(4), FBN1(5), ANO6(11), PPAPDC3(9), NKAPL(13), PER3(1), PRNP(3), PJA2(9), SOCS2(3), TBC1D1(6), TIMP3(12), ZNF521(2), NEDD4(11), FLI1(13), LOH3CR2A(15), MMRN2(4), SH3BP5(5), SSPN(5), SHE(5), CBX6(1), DACT3(5), PDE10A(6), TGFBR3(8), TEF(4), OLFML1(8), TSHZ3(20), GPRASP2(11), PAPPA(4), C1orf133(8), BCL6B(1), OR5K2(5), RSPO1(12), MID2(5), PROS1(1), ABCB1(6), SOX7(11), EMILIN1(10), ABI3BP(6), DIXDC1(24), PMP22(9), PARM1(1), TBL1X(9), PCDHGB7(4), RASSF8(11), STOM(8), TIE1(19), C5orf4(4), OSR2(11), OLFML2A(8), LDB2(14), KL(3), TBX3(6), FKBP7(7), SERPINF1(7), CDH5(4), KLHDC1(9), GPR116(9), CRISPLD2(1), TMEM204(11), VAMP3(1), TMEM55A(8), KIAA1614(6), MAMDC2(10), USP31(4), GNAL(1), CALD1(10), CBX7(12), HEG1(1), TMEM200A(12), ENPEP(1), EMCN(8), TMEM200B(10), TEK(12), KATNAL1(10), RFTN2(3), ZEB2(10), MITF(4), MBNL1(4), GRID1(8), ARHGAP31(8), RECK(7), FAM198B(5), SNRK(6), TNFSF12(2), PRKCA(2), INSR(2), ZNF25(7), LIX1L(10), JAM3(15), MEIS3(19), ADD1(2), C1orf70(13), NRIP2(7), PCDHGA3(6), PCDHB4(7), ADCY2(6), CD302(9), EBF1(1), MYADM(5), GPR124(15), POU6F1(2), C1QTNF7(6), FBXO31(2), FGD5(6), TUB(2), PPAP2A(2), SH2D3C(5), MAP3K3(4), HAAO(5), AKNA(3), EHD2(4), EZH1(6), ADCY4(3), TGM2(1), ROBO4(14), AFAP1L1(1), ATOH8(3), LRRK2(1), KRT222(2), PPP1R12C(2), CACNA1C(8), JAM2(4), PGCP(5), GUCY1A3(1), DMD(3), ZNF208(3), REM1(2), DLL4(1), SSC5D(3), ACVRL1(3), FOXN3(5), PCDHB18(6), FBLN5(3), RAMP1(4), ERG(6), AEBP1(1), KCNMA1(4), ESAM(3), RFTN1(5), IGFBP4(1), MBNL2(3), FEM1B(3), BMPR2(1), CRTAP(5), LRCH1(7), EHBP1(1), LOC144571(3), GLI3(5), CCDC48(1), MEIS2(1), PRX(1), ABCG2(5), KCTD7(4), THSD1(1), PPP1R12B(3), WT1(4), PCDHGA2(7), CLIC4(4), LMOD1(4), NXPH3(5), CACNB2(4), TGFB1I1(3), PALLD(6), PALM2-AKAP2(3), CEP68(1), TLN1(2), FRMD6(4), MAN1C1(4), N4BP2L1(5), NES(1), VIPR2(2), FZD4(2), ITGA8(2), CBFA2T3(2), SLC16A7(1), PTGIS(3), LOC134466(2), HAND2(2), APBB1(3), LOC154822(1), CYYR1(4), PTRF(4), TBXA2R(2), CCDC69(2), FEZ1(2), TMEM47(1), PGM5P2(3), C7orf58(4), NAP1L2(1), LAYN(2), PTGDR(2), NFASC(1), PDE2A(3), PRKCDBP(1), SRL(2), STON1(1), KDR(2), SLC45A1(1), PLXDC1(1), AHNAK(2), AKAP13(1), ECM2(3), HSD17B6(2), ZNF385D(1), ADRA1D(2), ERVFRDE1(3), KCTD12(3), TMOD2(1), GAS6(1), ATL1(1), FAM70B(1), MARVELD1(1), ITPR1(1), VAMP2(2), PHYHIP(1), HPGDS(1), NID1(1), KCNJ8(3), DIRAS1(3), DDR2(1), DCHS1(2), SNCAIP(2), FXYD1(2), CAV2(1), FERMT2(2), LHFP(2), NECAB1(2), PCDHGA12(1), SRF(1), JPH4(1), ZBTB38(5), FAM69A(1), ADARB1(1), PPM1F(1), HIC1(1), C21orf7(1), SBDS(1), LEPR(2), FHL1(2), STARD13(3), RASL12(3), FGF7(2), GEFT(2), RERG(2), CASP12(2), GAB1(2), PPP1R12A(1), ITPKB(1), PLSCR4(2), HGF(1), CACNA1H(4), PCDHB15(1), MRGPRF(3), CYBRD1(2), CYP1B1(2), PKD2(2), GNAO1(1), RNF144A(1), SFMBT2(1), PDE7B(2), TMEM88(1), TNS1(2), LOC283856(1), PHLDB2(1), COL15A1(3), ZNF483(2), FBXO32(1), DAB2(1), IL33(2), CLEC1A(1), GIMAP8(1), VIP(1), TAL1(1), LRRC70(1), SYNE1(2), RAB8B(3), DIO3(1), RASGRP2(1), DHH(1), JAZF1(2), SYTL4(2), HCFC2(1), PRR16(1), FAM13C(3), ILK(1), DOCK4(1), BCAP29(1), PCDHGA11(1), FAM175A(1), DPYSL3(1), EPM2A(1), PCDHGA5(2), KLHL38(1), FAM65B(1), TNFAIP8L3(1), THRA(1), OGN(1), NEURL1B(1), KLHL21(1), PTGER2(1), NBLA00301(1), PDE8B(1), RAPGEF4(1), GIPC3(1), TMEM109(1), HTR2B(1), FREM1(1), PGM5(1), ADAMTSL1(1), DPP6(1), KIAA1644(1), LOC728392(1), ABCC9(1), NPTN(1), NR3C1(1), TCEAL1(1), TCF4(1), KCNQ4(1), GNG7(2), DST(1), ENPP1(1), FRY(1), MXI1(1), PCDHGB6(1), FOXO1(1), SOX15(1), AXL(1)</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>310.0</v>
+        <v>409.0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6000141893281744</v>
+        <v>-0.6000214043732617</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.74660780602435</v>
+        <v>-0.725944283806323</v>
       </c>
       <c r="H11" t="n">
-        <v>1708.0</v>
+        <v>2676.0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.6244946190326132</v>
+        <v>-0.6266475022604253</v>
       </c>
       <c r="J11" t="n">
-        <v>11.698630136986301</v>
+        <v>18.20408163265306</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hsa-miR-200c-3p</t>
+          <t>hsa-miR-484</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>145.0</v>
+        <v>146.0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>JAM3(30), TIMP2(70), CALHM2(47), AKT3(61), ZAK(67), STAT5B(78), ZBTB4(3), CXorf36(25), SRL(7), FLT4(56), CD34(8), GYPC(24), LRRN4CL(56), SCARF1(8), GHR(30), GLT8D2(56), C5orf53(18), ANO6(26), PPAPDC3(25), NKAPL(33), PRNP(11), PJA2(19), TIMP3(37), MFAP4(43), MEF2C(58), IL33(4), NEDD4(38), SPARCL1(37), MEIS3(37), ARHGAP6(36), DPYD(13), KCTD12(13), DHH(10), REM1(9), SH3BP5(14), TACC1(46), DACT3(28), GPRASP1(50), PDE10A(13), MYCT1(28), TSHZ3(51), CLIC4(7), GPRASP2(36), ZNF25(15), SSC5D(15), APBB1(22), PDGFRA(1), FGD5(9), ACVRL1(9), CLIC2(32), PROS1(22), KCNJ8(29), PTRF(23), PABPC5(47), EMILIN1(23), TBXA2R(14), DIXDC1(42), PMP22(37), TBL1X(37), CNRIP1(64), FERMT2(18), NAP1L3(20), PDE5A(25), KIAA1462(55), TIE1(34), C16orf45(50), FBXL3(5), LDB2(27), PALM2-AKAP2(16), LRCH1(20), FGF2(48), NRIP2(10), CLIP3(34), LTBP4(46), A2M(6), KLHDC1(19), ZEB1(55), GNG11(27), GPR116(10), BNC2(36), TMEM55A(25), ARHGEF15(34), CALD1(32), GIMAP4(3), PPP1R12A(7), SLC24A3(70), PCDHGA3(14), CACNA1H(27), TMEM200A(31), KANK2(51), TEK(15), PCDHGA6(42), SVIL(32), KATNAL1(31), TCEAL7(62), ASAM(43), ZEB2(29), COL15A1(23), GRID1(24), MYADM(22), ARHGAP31(24), ROBO4(28), N4BP2L1(1), NR3C1(2), SAP30L(37), ARHGEF6(13), ANTXR2(41), KDR(4), JAM2(19), IGFBP4(1), DPYSL3(2), PLXDC1(8), GLI3(9), AHNAK(11), PGCP(11), PTPRB(2), FBN1(25), PCDHGA5(15), TCEAL1(12), VIPR2(6), DAB2(7), MBNL2(16), FZD4(6), GRK5(12), FAT4(1), TBC1D1(3), ECM2(11), HSD17B6(5), KLHL38(4), SNRK(6), FAM65B(4), TCF4(1), ITGA8(8), FLI1(19), CD93(5), SYNPO(5), GLI2(10), KCTD10(2), PKNOX2(3), SCN3B(4), PTGIS(14), C1QTNF7(23), LOH3CR2A(25), TNFSF12(1), MMRN2(9), SSPN(9), SHE(14), TMOD2(13), P2RY1(1), RBMS3(2), PPP1R12B(11), TGFBR3(21), TEF(9), OLFML1(23), SNAI2(11), PCDHGA2(26), NEURL1B(3), PAPPA(16), MSRB3(3), ITPR1(6), LMOD1(14), AKAP2(5), C1orf133(6), ST5(27), PEAR1(51), PHYHIP(8), OR5K2(1), FLNA(1), NR1D1(3), RSPO1(18), MID2(12), HLF(4), C15orf51(2), SH3BGRL(20), NXPH3(24), TUB(10), RFTN1(8), ABCB1(4), DDR2(8), GPR1(7), BACH2(4), C1QTNF1(4), DCHS1(13), FILIP1L(3), FOXN3(12), ABI3BP(24), ENPP1(4), C14orf28(6), SH2D3C(14), FEZ1(4), RASSF8(28), MAPK10(1), CACNB2(28), LHFP(11), STOM(9), RAPGEF4(6), SYTL4(4), ST8SIA1(1), C10orf72(10), CRTAP(8), PCDHGA12(2), PODN(10), SYNPO2(1), SRF(20), C5orf4(15), RAMP1(7), PGM5P2(7), OSR2(19), OLFML2A(14), TRPC1(14), ARL15(2), ZBTB38(5), PALLD(2), ANKRD29(39), TBX3(20), KLHL33(2), FAM69A(3), ERG(10), FKBP7(14), C7orf58(23), PRX(18), SMTN(7), HIC1(3), FRY(6), CLEC14A(6), TXNIP(12), SERPINF1(15), FREM1(6), PGM5(6), FLJ35390(3), LEPR(9), CDH5(7), FHL1(6), CNTNAP1(5), LPAR4(3), COL6A2(4), GEFT(25), RERG(5), TMEM204(29), TENC1(30), EHD2(14), CASP12(12), GAB1(7), KIAA1614(8), MAMDC2(29), USP31(3), KCNMA1(21), LMCD1(4), LOC144571(3), PCDHGB6(3), PLSCR4(6), CBX7(32), HEG1(9), CACNA1C(17), MRGPRF(20), KDELC2(1), EMCN(18), CYBRD1(4), TLN1(12), PDE2A(11), ABCG2(14), CYP1B1(7), ZCCHC24(31), TMEM200B(28), PKD2(4), TNXB(45), MAOB(43), GNAO1(6), HSPA12B(27), FRMD6(23), PDE7B(23), TNS1(12), KIAA1755(3), FLRT2(1), LOC283856(8), SMOC2(17), CD302(16), EBF1(2), ESAM(16), FAM13C(6), ABCC9(6), RHOJ(59), RASA4(14), ZNF483(1), MBNL1(6), PCDH18(3), FBXO32(6), GPR124(40), RECK(28), C21orf34(16), KANK3(21), RUNX1T1(3), LAYN(14), PCDHB4(16), NOSTRIN(13), POU6F1(3), TGFB3(6), RNF38(2), SETD7(24), UBL3(15), C1orf70(25), DENND2A(4), PRDM8(39), MDFIC(19), LIX1L(16), MAN1C1(14), INSR(2), PCDHGB7(3), STON1(16), TSPAN18(19), EPM2A(3), GUCY1A3(1), FXYD6(18), DMD(5), WT1(7), PRELP(4), CYYR1(6), NID1(6), DIRAS1(9), FBLN5(12), MAGI2(2), PCDHGA11(5), ADARB1(12), MEF2D(15), STARD13(5), GNAL(6), CEP68(5), PCDHB15(9), OSTM1(1), RNF144A(4), ADCY2(17), GNG12(4), ST6GALNAC3(1), SHANK3(3), LRRK2(11), CCDC136(4), CLEC3B(2), GIMAP1(2), ELTD1(2), SLC45A1(7), SLC1A7(3), AKAP13(1), SLCO2A1(1), LAMA4(6), SOCS2(8), RASGRP2(3), GIMAP6(3), ZNF208(2), ELK3(2), LOC134466(3), GIMAP8(5), THRA(8), HAND2(1), FAM70B(5), PEG3(1), FAM198B(9), C4orf12(2), RASD2(1), CCDC69(8), EXOC3L2(1), JAZF1(1), TGFB1I1(19), ECSCR(3), TSPAN2(4), PRUNE2(2), JPH4(11), RASL12(12), TAL1(5), CYP2U1(3), GIMAP5(2), FEZ2(4), PPP1R16B(1), KIAA1644(5), GIMAP7(1), MITF(9), ENPP2(2), KCTD7(6), ATOH8(8), CLEC1A(5), MARVELD1(2), NDN(13), PCDHB18(8), SERINC1(2), SDPR(2), RAB31(9), RAB8B(12), DKK3(1), RAB3IL1(5), SOX7(17), SBDS(2), TRIM23(1), C1orf21(8), SULF2(1), ADD1(6), HAAO(13), CCND2(6), PCDHB12(1), PCDHGA7(1), ZFYVE20(2), NECAB1(18), PRKCA(5), RFTN2(9), DFNA5(3), TBC1D2B(11), NES(1), THSD1(5), TFPI(1), SOX15(6), PPP1R12C(2), CAV2(6), STARD8(2), ARRB1(1), LRRC70(2), GRRP1(1), LOC728264(1), ILK(6), MXRA7(3), FAM162B(4), AFAP1L1(7), BCAP29(1), SPTBN1(2), CDO1(4), FEM1B(4), ZNF521(4), CD99L2(4), ERVFRDE1(4), YPEL4(2), DST(3), FXYD1(8), MXRA8(1), VAMP3(4), EZH1(4), RAMP2(3), PRRG3(2), ANK2(2), SAMD4A(1), RGMA(4), HOXD10(1), MCAM(1), HEPH(3), ALDH1A2(1), NRXN2(1), CFL2(4), TM4SF18(4), KL(3), EFEMP1(7), SNED1(1), LRRC8C(2), NTRK3(1), NUAK1(1), LOC728392(3), HSPB2(4), COL6A3(4), EPDR1(1), FAM175A(4), ESD(1), FAM55C(3), OMD(1), GRINL1A(1), VGLL3(1), GNG7(6), GPR133(3), OGN(1), PURG(1), CAV1(3), ENOX1(4), GAS1(1), ANGPTL1(2), SUGT1P1(1), TMEM47(1), C5orf41(1), C21orf7(1), SGCE(2), CLEC2B(4), NBL1(1), NCAM1(1), MDGA1(1), SCARA3(1), HSPB7(2), TUBB6(1), IL11RA(2), ADRA1D(7), TCF23(3), TNFAIP8L3(1), ATL1(2), ITM2A(2), SEPP1(1), PCDHGA4(2), SCN2B(1), NBLA00301(2), PDE8B(1), TCEAL4(3), KLHL10(2), DSTN(2), ASPA(2), AEBP1(3), SH3D19(3), HGF(1), SNCA(1), LATS2(2), SLC8A1(1), PPM1K(1), CCDC50(1), PRKCDBP(1), APOL3(3), LRRC2(1), ENTPD1(1), THBS2(2), PCDH12(2), GSN(1), WISP1(1), NFASC(1), PHLDB2(3), MAP3K3(2), METTL7A(1), ZYX(2), UST(1), NBEA(2), SYNE1(1), EHBP1(1), CALCOCO2(1), ZNF835(1), GAS6(1), DCAF12L2(1), CRISPLD2(1), ENPEP(1), WIT1(1), MPRIP(1), CBX6(3), SPEG(2), CGNL1(1), PLAT(3), FAM65C(1), VAMP2(5), LRCH2(1), WHAMML1(3), PTPN21(1), PCDHGA9(1), ACACB(2), IRS1(1), RAB11FIP5(1), PCDHB7(2), SFMBT2(3), PSD(1), RIC3(1), GIPC3(1), HTR2B(1), COX7A1(2), KIAA0430(1), TMEM88(1), NR3C2(1), CA11(2), BST1(1), AXL(2), SLC9A9(1), PROCR(1), GPM6A(1), MEIS2(1), TCEAL6(1), LIFR(1), PPAP2A(1), ISLR(3), CXCL12(1), ETS1(1), LOC100130776(1), CCDC48(1), HIPK4(1), PKD1(2), HTRA3(1), DLL4(1), ZNF676(1)</t>
+          <t>SAP30L(31), FLT4(15), STON1(12), LRRN4CL(25), ANTXR2(20), GHR(13), POU6F1(2), JAM2(7), PGCP(6), C5orf53(8), RAB9B(4), TIMP2(30), MFAP4(12), MEF2C(27), FXYD6(9), DMD(9), SPARCL1(17), SH3BP5(18), SSPN(11), TACC1(29), GPRASP1(19), MYCT1(6), ATL1(2), TEF(5), SETD7(24), ATP2B4(1), PCDHGA2(17), NEURL1B(3), GPRASP2(20), ST5(10), PEAR1(10), RSPO1(8), NXPH3(10), CLIC2(16), PROS1(13), PABPC5(14), DIXDC1(20), TBL1X(18), CNRIP1(18), RASSF8(19), KIAA1462(25), NECAB1(4), CALHM2(14), C16orf45(28), FBXL3(2), ANKRD29(15), FGF2(20), AKT3(29), ZAK(34), LTBP4(6), SH3D19(9), BNC2(19), TENC1(7), TMEM55A(9), LAYN(7), MDFIC(17), CYP2U1(5), MAMDC2(14), GNAL(5), KCNMA1(11), SLC24A3(33), PCDHGA3(14), CBX7(20), KANK2(23), ZCCHC24(10), MAOB(15), PCDHGA6(33), HSPA12B(4), SVIL(30), STAT5B(38), SMOC2(6), ADCY2(15), TCEAL7(19), RHOJ(23), ASAM(21), RASA4(7), ZNF483(2), GNG12(11), WHAMML1(3), APBB1(14), C21orf34(14), LRCH1(21), PCDHB4(12), ANO6(22), UBL3(17), NDN(4), PTPN21(1), CRTAP(6), TBC1D2B(7), FAM175A(5), TSPAN18(8), SCARF1(4), KDR(4), GLT8D2(12), AHNAK(10), PCDHGA5(12), PPAPDC3(8), MBNL2(4), PJA2(20), ECM2(2), TIMP3(14), ZNF521(5), KLHL38(3), FAM65B(5), NEDD4(11), FLI1(3), SYNPO(2), KCTD10(1), KCND2(2), ARHGAP6(10), C1QTNF7(5), LOH3CR2A(9), KCTD12(6), ELK3(6), SHE(6), PPP1R12B(6), WT1(4), TSHZ3(5), PAPPA(2), AKAP2(4), CALCOCO1(2), C1orf133(11), LRRK2(7), PCDHGA4(5), FGD5(3), TUB(6), CRY2(2), KCNJ8(6), ABCB1(4), SOX7(8), DDR2(4), BACH2(9), EMILIN1(3), FOXN3(10), GJC3(1), RCAN2(1), LHFP(1), NAP1L3(3), PDE5A(5), TIE1(5), PCDHGA12(2), TSPAN2(4), SRF(1), C5orf4(8), HTR2B(2), OLFML2A(8), LDB2(7), KL(2), C5orf41(3), PCDHGA11(3), FAM69A(5), ADARB1(2), PALM2-AKAP2(7), FKBP7(5), C7orf58(10), PRX(3), MEF2D(7), PRKCA(4), LEPR(5), KLHDC1(16), ZEB1(9), PRDM8(13), DOCK4(4), TMEM204(7), CALD1(13), PPP1R12A(3), PLSCR4(5), CACNA1H(4), SNCA(4), HEG1(3), CACNA1C(9), TMEM200A(13), PCDHB15(3), CYBRD1(6), ABCG2(5), TMEM200B(8), TEK(10), RNF144A(6), LIX1L(4), SFMBT2(2), FRMD6(12), PDE7B(7), KATNAL1(7), CD302(6), ZEB2(4), PHLDB2(1), GPR124(2), ROBO4(2), RECK(10), THRA(5), MAGI2(1), MXRA7(2), VAMP3(1), DFNA5(3), ARHGEF6(2), KCTD7(6), EPM2A(3), JAM3(6), MEIS3(6), DPYD(11), MID2(13), CYYR1(5), SH3BGRL(9), FOXO4(1), PMP22(7), NRIP2(4), CLIP3(10), CCDC136(1), CXorf36(2), NOSTRIN(2), DPYSL3(3), RAB31(1), SCARA3(4), TCEAL1(3), NKAPL(4), GRK5(1), TBC1D1(5), HSD17B6(3), ITGA8(3), MICAL2(2), GLI2(1), ZNF208(1), ERVFRDE1(2), PTGIS(4), MMRN2(2), TNFAIP8L3(1), REM1(1), DACT3(1), GIMAP8(2), OLFML1(1), SEPP1(4), PRELP(2), CLIC4(7), LMOD1(4), SSC5D(3), PHYHIP(1), FAM198B(4), PTGER2(3), PDE8B(1), C4orf12(3), GPR1(1), SOX15(1), CCDC69(3), ABI3BP(5), ENPP1(2), PCDHB18(3), C14orf28(3), NR3C2(3), FXYD1(1), KLHL10(2), DSTN(1), KANK3(2), DKFZp566F0947(1), CACNB2(1), ANGPTL1(1), TGFB1I1(1), HEPH(4), C20orf160(1), DCAF12L2(1), RAMP1(1), PGM5P2(5), JPH4(1), PBX1(1), TRPC1(4), ZBTB38(8), PALLD(2), TBX3(1), KLHL33(1), NAP1L2(4), C1orf70(4), FRY(2), TXNIP(7), AEBP1(1), PGM5(2), FHL1(1), GNG11(2), LPAR4(1), GPR116(1), RASL12(1), FGF7(2), RERG(2), CASP12(3), ARHGEF15(2), ZNF676(1), CEP68(9), WISP1(4), MRGPRF(2), EMCN(2), TLN1(4), PDE2A(4), TNXB(3), GNAO1(1), KIAA1644(4), TNS1(4), LOC283856(1), PCDHB7(2), ESAM(1), RFTN2(2), FAM13C(2), ABCC9(2), COL15A1(1), MITF(2), MBNL1(5), C1orf21(2), ILK(1), GRID1(1), MYADM(4), ARHGAP31(4), FBXO32(6), ST6GALNAC3(1), IL33(1), ADD1(2), FEZ2(8), PLAT(1), ACOX2(1), RFTN1(1), PCDHGB7(2), EZH1(3), SERINC1(4), CCND2(2), ACACB(1), TCF4(2), NBEA(4), TMOD2(5), CBX6(1), P2RY1(4), OSBPL5(1), RAPGEF4(3), MXI1(1), ITPKB(2), N4BP2L1(1), NR3C1(1), CDK17(1), PRNP(8), SNRK(4), GNG7(1), RBM43(1), SYNE1(2), GAB1(4), USP31(1), SGCE(2), RNF38(5), DNAJC27(1), GLI3(4), SHANK3(3), ANK2(3), KCNQ4(3), RGMA(4), TGFBR3(4), SPTBN1(2), ITPR1(2), ZNF25(6), MAP3K3(2), PLEKHH2(1), PCDHGA9(2), TRIM23(1), PRKCH(1), ZBTB4(1), P2RX7(1), PDE10A(3), CDH5(1), PCDHGB6(1), PLXDC1(1), OSBPL1A(1), FEM1B(2), HCFC2(1), KIAA1614(1), ENTPD1(1), DHH(1), SEPT7(1), DCHS1(1), NPTN(1), MARVELD1(1), GNG2(1), KANK1(1), DIRAS1(1), TMEM109(1), TMEM47(1), DENND2A(1), NMT2(1), WIT1(1), PTRF(1), LOC158572(1), MAN1C1(1), NAALADL1(1), RAB11FIP2(1)</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>571.0</v>
+        <v>386.0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6000089691006647</v>
+        <v>-0.6000212909274876</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.7603769899994718</v>
+        <v>-0.7539413214711251</v>
       </c>
       <c r="H12" t="n">
-        <v>6370.0</v>
+        <v>2362.0</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.6350293928833863</v>
+        <v>-0.6284109337657495</v>
       </c>
       <c r="J12" t="n">
-        <v>43.93103448275862</v>
+        <v>16.17808219178082</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>hsa-miR-107</t>
+          <t>hsa-miR-143-3p</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.0</v>
+        <v>145.0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FLT4(57), LRRN4CL(48), GHR(23), TIMP2(46), MEF2C(46), TACC1(38), GPRASP1(34), TSHZ3(35), RAB3IL1(4), PABPC5(39), CNRIP1(54), KANK3(17), KIAA1462(40), C16orf45(30), ANKRD29(37), PRX(5), FGF2(33), C1orf70(20), AKT3(42), ZAK(48), LTBP4(21), TENC1(21), SLC24A3(64), KANK2(34), ZCCHC24(29), PCDHGA6(29), HSPA12B(22), STAT5B(55), TCEAL7(47), RHOJ(47), ZBTB4(3), C1orf21(19), CXorf36(15), SAP30L(32), NOSTRIN(17), GYPC(20), SCARF1(6), ANTXR2(27), GIMAP1(2), C5orf53(21), PCDHGA5(12), ANO6(12), PPAPDC3(17), NKAPL(12), PJA2(12), TIMP3(15), MFAP4(20), NEDD4(12), SPARCL1(22), MEIS3(25), ARHGAP6(24), DPYD(17), KCTD12(10), REM1(8), THSD1(4), MYCT1(14), TEF(9), PCDHGA2(18), GPRASP2(24), ZNF25(8), ST5(11), SSC5D(7), UBL3(18), PEAR1(28), APBB1(11), FAM198B(13), C21orf34(16), RSPO1(21), FGD5(6), ACVRL1(1), CLIC2(29), PROS1(9), EMILIN1(15), DIXDC1(27), PMP22(17), TBL1X(18), STOM(3), PDE5A(9), DNAJC27(1), TIE1(21), HAAO(8), OSR2(20), CALHM2(29), FBXL3(4), LDB2(14), C7orf58(9), LRCH1(12), NRIP2(8), CLIP3(24), KLHDC1(22), ZEB1(28), BNC2(25), TMEM204(16), TMEM55A(12), ARHGEF15(23), GIMAP4(2), KCNMA1(14), PCDHGA3(14), CBX7(19), TMEM200A(21), PCDHB15(11), TLN1(2), EZH1(6), ABCG2(9), TEK(10), TNXB(29), SVIL(18), CLEC2B(8), KATNAL1(18), ASAM(29), ZEB2(15), MITF(8), MBNL1(2), MYADM(5), ARHGAP31(9), ROBO4(13), RFTN1(10), SETD7(31), CDO1(6), SNED1(2), PRDM8(33), MDFIC(21), TSPAN18(8), POU6F1(1), EPM2A(2), GLT8D2(23), JAM3(19), MBNL2(7), ZNF208(4), C1QTNF7(10), LOH3CR2A(17), SH3BP5(7), SHE(3), PDE10A(3), RNF38(3), C1orf133(7), CYYR1(3), SH3BGRL(12), KCNJ8(12), DIRAS1(6), ABI3BP(15), RASSF8(25), CRTAP(6), ERG(4), DENND2A(2), TXNIP(9), GPR116(3), GAB1(6), KIAA1614(12), MAMDC2(14), CALD1(12), TMEM200B(21), LIX1L(13), MAN1C1(7), PDE7B(7), TMEM88(2), INSR(3), SMOC2(18), PCDHB7(3), ADCY2(11), RFTN2(4), RASA4(8), GPR124(26), RECK(9), FAM162B(1), N4BP2L1(3), ARHGEF6(4), CD34(2), KDR(1), JAM2(5), HIGD1B(1), AHNAK(4), PGCP(6), FBN1(9), ATOH8(4), TCEAL1(6), SOCS2(5), ECM2(4), DMD(4), ADRA1D(2), GIMAP6(2), SNRK(8), ITGA8(1), GLI2(4), GNG7(3), PTGIS(2), MMRN2(2), SSPN(8), TMOD2(4), LOC134466(2), DACT3(6), GIMAP8(2), PPP1R12B(3), TGFBR3(6), OLFML1(10), SNAI2(6), FAM70B(3), MARVELD1(2), CLIC4(1), ITPR1(1), LMOD1(4), YPEL4(2), VAMP2(4), PHYHIP(3), OR5K2(6), PTGER2(3), HLF(1), NBLA00301(2), C15orf51(1), NXPH3(8), ABCB1(1), PTRF(6), FOXN3(6), PPAP2A(4), PCDHB18(9), JAZF1(2), PCDHGB7(5), ZNF516(1), FERMT2(2), DKFZp566F0947(1), CACNB2(8), LHFP(2), TGFB1I1(7), NAP1L3(4), ALDH1A2(3), C10orf72(3), ECSCR(1), FBLN5(6), TSPAN2(2), RAMP1(5), PGM5P2(2), JPH4(4), OLFML2A(8), ZBTB38(4), PALLD(2), TBX3(11), KLHL33(1), PALM2-AKAP2(2), HIC1(2), SERPINF1(6), LEPR(3), A2M(1), TIPARP(1), GNG11(9), COL6A2(3), GEFT(3), RERG(2), EHD2(8), LAYN(9), USP31(1), LOC144571(1), PLSCR4(2), HGF(2), DPP6(1), CACNA1H(5), CACNA1C(8), MRGPRF(8), EMCN(6), CYBRD1(5), PDE2A(3), CYP1B1(2), PKD2(2), FRMD6(8), KIAA1644(3), TNS1(2), FLRT2(1), LOC283856(3), CD302(13), ESAM(3), ABCC9(1), ENPP2(1), PCDH18(2), GRID1(9), FAM175A(5), MEF2D(17), GLI3(5), PRNP(8), THRA(4), WT1(11), PAPPA(11), LRRK2(8), MID2(8), TUB(8), CRY2(1), DCHS1(7), SH2D3C(4), FEZ1(4), NECAB1(6), TRPC1(7), HOXD9(2), CEP68(4), ENPEP(2), MAOB(22), KIAA1755(2), WHAMML1(3), TBC1D2B(7), CCND2(5), RAB8B(6), NDN(13), PDE8B(2), FKBP7(7), RASL12(5), AXL(2), SHANK3(1), RGMA(2), PPP1R12C(1), LRRC70(1), PCDHB4(13), DFNA5(4), PRKCA(6), DAB2(4), FZD4(3), FLI1(4), RAB33B(1), SERINC1(1), TRIM23(1), CGNL1(1), KCTD7(8), SLC45A1(4), TCF4(1), C14orf28(7), LPAR4(3), FEZ2(1), PCDHB12(1), PCDHGA7(1), ZDBF2(1), KRT222(2), CASP12(3), LOC728264(1), AFAP1L1(1), FOXO1(1), SCARA3(2), CSDC2(1), FEM1B(1), TBC1D1(1), FXYD6(2), IL33(1), CD93(1), DLL4(1), OGN(2), HAND2(1), NEURL1B(2), PDGFRA(1), NID1(2), SOX7(3), SOX15(4), CAV2(2), SYTL4(1), GPR146(1), PODN(1), PCDHA3(1), TM4SF18(2), LOC145820(1), ADARB1(3), SMTN(2), CLEC14A(1), PCDHGA8(1), CDH5(2), CRISPLD2(1), PCDH12(1), VAMP3(2), ITPKB(1), GJD3(1), COL15A1(3), FBXO32(1), MXRA7(1), MAGI2(2), TGM2(1), ST6GALNAC3(2), HCG11(1), MAP3K3(3), ZYX(1), WIT1(2), SYNE1(1), STON1(3), GRINL1A(2), ZNF676(2), PLAT(2), PCDHGA11(1), SETBP1(1), MAF(1), ZNF521(2), LSM11(1), TJP1(1), C9orf5(2), ILK(2), ENPP1(2), PRKCDBP(1), RAB31(3), TSPAN4(1), FAM69A(2), STARD13(1), GNAL(2), FYCO1(2), GNAO1(2), C1QTNF1(1), MATN2(1), THBS2(2), ZNF781(1), RBM9(1), HSPB2(1), PLXDC1(1), CDH13(2), GAS6(1), PSD(2), ISLR(3), CXCL12(2), EFEMP1(2), SH3D19(2), COL6A3(1), CYP2U1(3), HEG1(1), KDELC2(1), LOC100130776(2), ZNF483(2), EFHA2(1), PCDHGB6(1), CCDC48(1), SFMBT2(2), SRL(1), HSPB7(1), VIPR2(1), LAMA4(1), ZNF835(1), IL11RA(1), HSD17B6(1), CD99L2(1), ERVFRDE1(1), CBX6(1), PURG(1), SEPP1(1), KLHL21(1), CCDC152(1), DDR2(1), TBXA2R(1), SNCAIP(1), FXYD1(1), TCEAL4(1), KCNMB1(1), NRXN2(1), SRF(1), C5orf4(1), CFL2(1), ADD1(1), C5orf41(1), PLA2G4C(1), AEBP1(1), HIPK4(1), CNTNAP1(1), FGF7(1), PKD1(2), PPP1R12A(1), FAM13C(1), GNG12(1), SCN3B(1)</t>
+          <t>FAM54A(10), PRAME(45), NUF2(2), TUFT1(1), TMEM63B(6), EPT1(8), CASP6(5), AURKA(6), CDCA8(3), GEMIN8P4(3), TTK(4), KIF2C(4), C20orf24(3), NCAPH(3), TACC3(1), UCK2(1), PKM2(1), TUBA1C(8), PSMA5(2), PRSS8(1), C16orf75(4), HSPA4(1), CCNB2(1), CCNB1(3), YARS2(3), ALG6(2), ILF2(4), MCM2(3), BUB1(10), RAD51(1), GINS1(3), DHRS13(1), NUP210(3), LMNB1(1), CASP3(2), ORC1L(1), CDC20(4), RAD54L(1), NFKBIL2(2), FANCI(2), NEK6(1), SKA3(1), SPAG5(2), CENPA(2), C9orf140(1), C15orf42(1), FANCD2(2), ARHGAP11A(1), MFSD9(1), RPN2(1), C1orf135(2), ENO1(1), PLK1(1), TPI1(1), LOC729082(2), HDGF(2), GPR89A(1), PSMB4(1), BRI3BP(1), C8orf76(1), KIFC1(1), DLGAP5(1), ZNF695(3), RACGAP1(4), SLC35B2(1), GSG2(1), XRCC2(1), TDRKH(1), C6orf115(1), PBK(1), KPNA2(1), SF3B14(1), FANCA(1), CCNA2(1), ESPL1(1), CENPL(1)</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>455.0</v>
+        <v>76.0</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.600002946931643</v>
+        <v>-0.6000252795627717</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.7504062251577086</v>
+        <v>-0.7468174596460956</v>
       </c>
       <c r="H13" t="n">
-        <v>3682.0</v>
+        <v>216.0</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.6292395997664254</v>
+        <v>-0.6230070848871402</v>
       </c>
       <c r="J13" t="n">
-        <v>25.929577464788732</v>
+        <v>1.4896551724137932</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hsa-miR-200a-5p</t>
+          <t>hsa-miR-107</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>139.0</v>
+        <v>137.0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FLT4(66), GYPC(39), LRRN4CL(60), SLC45A1(12), JAM3(33), TIMP2(66), MEIS3(45), DPYD(11), SSPN(32), WT1(13), SETD7(25), GPRASP2(46), RFTN1(16), PMP22(40), CNRIP1(71), KIAA1462(47), CALHM2(63), C16orf45(50), FGF2(48), AKT3(49), CLIP3(34), ZAK(50), ZEB1(41), MDFIC(25), SLC24A3(70), ZCCHC24(34), HSPA12B(31), LIX1L(13), STAT5B(55), TCEAL7(62), RHOJ(54), ZBTB4(3), ARHGAP31(25), APBB1(36), CXorf36(19), N4BP2L1(7), NR3C1(3), SAP30L(29), ARHGEF6(12), ANTXR2(25), GHR(28), GIMAP1(10), IGFBP4(2), GLT8D2(46), GLI3(9), AHNAK(9), FBN1(20), PCDHGA5(8), TCEAL1(18), ANO6(21), PPAPDC3(34), NKAPL(30), PRNP(19), DAB2(15), MBNL2(21), PJA2(11), FAT4(1), TBC1D1(5), TIMP3(29), MEF2C(45), SNRK(4), NEDD4(24), TCF4(4), SPARCL1(33), FLI1(16), GLI2(11), KCTD10(2), PKNOX2(2), SCN3B(7), ARHGAP6(32), C1QTNF7(21), LOH3CR2A(43), DHH(5), REM1(11), SHE(13), TMOD2(13), TACC1(39), LOC134466(10), DACT3(28), GPRASP1(46), PDE10A(9), RBMS3(1), MYCT1(22), TGFBR3(20), TEF(15), OLFML1(19), TSHZ3(48), PCDHGA2(23), PAPPA(12), LMOD1(11), AKAP2(3), ZNF25(11), ST5(20), PEAR1(47), PHYHIP(12), MID2(17), ACVRL1(5), SH3BGRL(15), TUB(17), CLIC2(38), KCNJ8(23), PTRF(15), DDR2(4), BACH2(6), PABPC5(49), DCHS1(11), FILIP1L(1), FOXN3(15), CCDC69(14), ABI3BP(23), DIXDC1(40), C14orf28(7), SH2D3C(10), TBL1X(13), FEZ1(6), RASSF8(32), MAPK10(1), CACNB2(28), RAPGEF4(5), NAP1L3(24), PDE5A(13), ALDH1A2(4), ST8SIA1(1), C10orf72(10), CRTAP(11), TIE1(34), C5orf4(29), RAMP1(7), OSR2(25), TRPC1(20), LDB2(24), ANKRD29(45), TBX3(20), FAM69A(13), ERG(6), PALM2-AKAP2(9), FKBP7(17), C7orf58(20), NRIP2(14), HIC1(7), SERPINF1(16), FREM1(3), FLJ35390(4), LTBP4(44), KLHDC1(25), PCDH17(1), CNTNAP1(1), GNG11(14), GPR116(7), GEFT(29), BNC2(32), TMEM204(21), TENC1(31), TMEM55A(18), EHD2(21), CASP12(12), ARHGEF15(32), GAB1(2), KIAA1614(5), MAMDC2(30), CALD1(22), GIMAP4(8), KCNMA1(17), PCDHGA3(17), LOC144571(7), PCDHGB6(4), PLSCR4(7), CBX7(31), CACNA1H(23), HEG1(4), CACNA1C(20), TMEM200A(22), MRGPRF(19), KANK2(42), EMCN(12), TLN1(7), TEK(15), TNXB(42), MAOB(35), PCDHGA6(25), GNAO1(13), SVIL(25), TNS1(10), CLEC2B(12), SMOC2(14), KATNAL1(38), CD302(27), EBF1(3), FAM13C(6), ASAM(33), RASA4(24), ZEB2(28), ZNF483(3), MBNL1(5), GRID1(28), GPR124(36), ROBO4(20), RECK(32), C5orf53(21), EMILIN1(25), SHANK3(6), PRKCDBP(1), SRL(10), NOSTRIN(14), STON1(13), AFAP1L1(6), TSPAN18(18), KCTD7(12), JAM2(14), PLXDC1(3), RAB31(14), PGCP(16), ATOH8(20), FZD4(9), GRK5(4), FEM1B(4), TGFB3(7), MFAP4(33), FXYD6(13), DMD(4), RAB8B(7), PTGIS(5), SH3BP5(14), GFPT2(1), GPR133(4), RGMA(5), SNAI2(7), FAM70B(3), PRELP(2), RAB3IL1(9), C1orf133(10), CDO1(4), SSC5D(12), UBL3(10), VAMP2(3), RSPO1(28), NXPH3(20), C1QTNF1(4), FXYD1(10), TCEAL4(5), PCDHGB7(3), CAV2(10), KANK3(21), TGFB1I1(12), HEPH(5), C20orf160(3), NECAB1(24), THBS2(1), FBLN5(9), SRF(12), CFL2(4), HAAO(17), OLFML2A(13), ZBTB38(5), TM4SF18(2), ADARB1(9), COX7A1(3), PRX(12), C1orf70(31), PLA2G4C(1), FHL1(2), SNED1(2), RASL12(5), PRDM8(42), LAYN(20), CYBRD1(9), CYP1B1(5), TMEM200B(20), FEZ2(12), SFMBT2(4), HSPB2(10), RFTN2(7), PHLDB2(3), ADCY4(4), COL15A1(10), ILK(4), MYADM(19), DFNA5(4), POU6F1(1), ZNF208(5), FGD5(6), STOM(6), DENND2A(2), TMEM88(4), INSR(4), GNG7(11), MARVELD1(2), TBXA2R(4), ADCY2(11), APOL3(2), IL33(1), CD93(2), SYNPO(2), MMRN2(7), GIMAP8(4), ITPR1(3), C21orf34(18), CYYR1(5), PROS1(17), DIRAS1(13), NR3C2(1), MAGI2(3), C10orf54(1), PCDHGA11(3), LRCH1(17), MEF2D(9), TXNIP(6), EFEMP1(4), A2M(7), GIMAP5(4), SGCE(1), CEP68(5), PCDHB15(6), PCDHB4(13), PDE2A(6), ABCG2(9), FRMD6(13), PROCR(2), MAN1C1(8), ESAM(8), ST6GALNAC3(2), FAM175A(10), PPAP2A(1), GRINL1A(2), SOCS2(3), ECM2(6), LRRC2(1), ADRA1D(5), FAM65B(3), RBM43(1), RNF38(2), SPTBN1(3), HOXD10(2), OGN(3), YPEL4(3), WHAMML1(2), LRRK2(4), PTGER2(1), NBLA00301(2), SOX7(6), ADAMTS5(1), PCDHB18(15), JAZF1(6), RCAN2(1), SYTL4(4), TSPAN2(1), PGM5P2(4), GLT1D1(1), JPH4(6), C5orf41(1), LEPR(2), RERG(2), CYP2U1(4), PPP1R12A(1), EZH1(3), PKD2(1), PDE7B(5), LOC342346(1), LOC283856(6), SERINC1(2), FAM65C(1), MITF(3), C1orf21(7), CCND2(7), NDN(16), AXL(5), CCDC136(4), CLEC3B(1), CD34(4), KDR(2), SLC1A7(1), SLCO2A1(1), VIPR2(3), RASGRP2(4), GIMAP6(2), ITGA8(1), KCTD12(12), THRA(10), PPP1R12B(4), HAND2(1), PEG3(1), CPEB1(1), FAM198B(7), HPGDS(2), HLF(1), ABCB1(2), C4orf12(1), ECSCR(1), LOC145820(1), CLEC14A(2), C21orf7(1), PGM5(2), TAL1(5), ENPP2(2), PCDHB12(1), KLF11(1), ZNF521(3), PURG(2), DKK3(1), SCN2B(1), SNCAIP(1), PCDHGA7(1), SBDS(1), ZDBF2(3), LPAR4(3), WISP1(1), PCDHGA9(1), MBLAC2(1), SLC8A1(2), ZFYVE20(1), TBC1D2B(12), NES(2), SOX15(6), RUNX1T1(2), LOC728264(2), MXRA7(3), LOC154822(1), WIT1(7), ANK2(3), FBXO31(1), AKNA(1), LOC728392(4), FBXL3(6), IL11RA(5), NBEA(2), ATL1(2), DNASE1L3(1), GJC3(1), KLHL10(3), DOCK4(1), PDGFRA(1), SPEG(1), PCDHGA8(1), CDH5(5), CRISPLD2(2), VAMP3(3), LMCD1(4), GJD3(1), SCARF1(6), FAM55C(3), ERVFRDE1(1), MDGA1(1), EPM2A(2), SCARA3(2), TUBB6(1), PRRG3(1), HSD17B6(1), CD99L2(1), GAS6(6), ITM2A(1), SEPP1(3), CLIC4(2), MEIS2(1), ENOX1(1), C15orf51(2), PDE8B(1), LHFP(2), ADD1(2), NAP1L2(1), C12orf53(3), AEBP1(3), TIPARP(3), SH3D19(1), USP31(2), GNAL(3), LATS2(2), CCDC36(1), RNF144A(1), ABCC9(1), CCDC50(2), FBXO32(1), MAP3K3(6), ZNF34(1), UST(1), SYNE1(1), EHBP1(2), PLAT(2), PSD(1), ISLR(3), PTPN21(2), ZNF676(2), FYCO1(3), ACACB(2), CBX6(1), CGNL1(2), SETBP1(1), MAF(1), PRKCA(3), FAM162B(1), C12orf68(1), FERMT2(1), GPR146(2), PCDHGA12(1), FOXF1(1), TMEM47(1), C1QTNF4(1), COL6A2(2), FGF7(1), LRRC8C(2), KIAA1755(1), FLRT2(1), LOC644538(1), PCDH18(2), ZNF575(1), IRS1(2), VIP(1), RAB11FIP5(1), PCDHB7(2), C9orf5(1), ANXA6(2), BEGAIN(1), NID1(2), F10(1), TSPAN4(1), PRUNE2(1), KL(1), SMTN(1), MACF1(1), ARHGAP20(1), GNG12(1), DST(1), EPDR1(1), ATP1B2(1), LRP1(1), MXRA8(1), TRIM23(1), KIAA0430(1), LRCH2(1), SNAP25(1), SLC9A9(1), CLEC1A(2), PER3(1), APOBEC3C(1), DKFZp566F0947(1), TCEAL6(1), APBA1(1), LIFR(1), EFHA2(1), KRT222(1), CCDC48(1)</t>
+          <t>SAP30L(38), FLT4(49), GYPC(19), LRRN4CL(51), GHR(29), POU6F1(3), C5orf53(18), TIMP2(46), MFAP4(20), MEF2C(48), SSPN(14), TACC1(43), GPRASP1(42), SETD7(32), TSHZ3(41), GPRASP2(28), ST5(12), PEAR1(28), SH3BGRL(14), PABPC5(44), TBL1X(25), CNRIP1(59), PDE5A(13), KIAA1462(45), CALHM2(32), C16orf45(34), ANKRD29(35), FGF2(37), DENND2A(3), AKT3(47), ZAK(48), LTBP4(25), PRDM8(33), BNC2(29), TENC1(27), ARHGEF15(30), MDFIC(28), SLC24A3(67), KANK2(31), ZCCHC24(24), TNXB(37), MAOB(35), PCDHGA6(37), HSPA12B(20), STAT5B(55), SMOC2(19), ADCY2(12), TCEAL7(50), RHOJ(49), SHANK3(2), SCARF1(6), PPAPDC3(13), MEIS3(23), ZNF208(3), REM1(5), WT1(13), WHAMML1(8), APBB1(7), C21orf34(28), ABI3BP(14), PCDHB18(12), TIE1(26), TRPC1(6), TBX3(20), CLIP3(23), ZEB1(32), GNG11(16), TAL1(2), ZNF676(5), MAMDC2(20), PCDHGA3(15), TMEM200A(22), PCDHB15(9), PCDHB4(17), ASAM(30), MXRA7(4), WIT1(3), GPR124(33), UBL3(17), LIX1L(16), NDN(8), CDO1(6), PARM1(1), NECAB1(9), CRTAP(11), CD302(15), C1orf21(23), KCTD12(10), FKBP7(15), FAM162B(1), CXorf36(22), N4BP2L1(7), PRKCDBP(1), NOSTRIN(21), FAM175A(7), ANTXR2(29), GLT8D2(21), PGCP(5), JAM3(18), PCDHGA5(12), ATOH8(5), ANO6(15), NKAPL(14), PJA2(16), ECM2(7), TIMP3(20), NEDD4(14), SPARCL1(26), ARHGAP6(27), C1QTNF7(17), RGMA(4), MYCT1(21), THRA(6), GAS6(1), TEF(13), OLFML1(10), SNAI2(3), PCDHGA2(19), RAB3IL1(2), C1orf133(9), VAMP2(1), FAM198B(15), RSPO1(26), MID2(12), NXPH3(13), TUB(12), CLIC2(35), PROS1(9), RFTN1(8), KCNJ8(17), SOX15(9), DCHS1(4), FOXN3(8), DIXDC1(26), PCDHGB7(9), RASSF8(28), FBLN5(4), C5orf4(2), RAMP1(7), PLEKHH2(2), OSR2(23), MAGI2(1), ZBTB38(6), LDB2(15), COX7A1(1), C7orf58(11), HIC1(1), KLHDC1(26), RUNX1T1(2), TMEM204(20), TMEM55A(12), EHD2(8), CALD1(14), KCNMA1(17), CBX7(22), MRGPRF(8), EZH1(8), ABCG2(14), TMEM200B(22), TEK(17), FRMD6(11), SVIL(17), PDE7B(9), KATNAL1(18), LOC728264(2), TRIM23(1), RFTN2(7), ZEB2(18), MITF(10), GRID1(14), MYADM(7), ARHGAP31(13), ROBO4(19), ARHGEF6(5), TBC1D2B(6), CCND2(4), PRNP(12), FLI1(7), BCL6B(1), OR5K2(2), EMILIN1(15), PMP22(14), NAP1L3(5), KIAA1614(11), C14orf28(11), MEF2D(7), TNFSF12(1), PAPPA(11), PRKCA(6), LAYN(9), LOC92973(1), INSR(2), ZNF483(2), LRRK2(5), KANK3(22), DPYD(18), AKNA(2), AFAP1L1(2), TSPAN18(12), FXYD6(7), GNG7(1), DACT3(10), LMOD1(7), DIRAS1(7), PTRF(5), KRT222(1), TBXA2R(3), PPP1R12C(1), CAV2(2), CACNB2(11), SRF(5), OLFML2A(13), C1orf70(19), SH3D19(2), GEFT(2), CACNA1C(12), RECK(12), JAM2(7), SSC5D(5), DKFZp566F0947(4), PALLD(5), TXNIP(6), GNAO1(2), PLAT(2), SRL(1), CLEC3B(1), STON1(3), AHNAK(4), SLC26A4(1), FBN1(6), FZD4(2), TBC1D1(4), RASGRP2(2), FAM65B(1), GLI2(3), PTGIS(1), LOH3CR2A(16), TCF23(1), SH3BP5(8), SHE(4), THSD1(2), PPP1R12B(4), TGFBR3(10), FGD5(4), NBLA00301(2), ACVRL1(3), CYYR1(5), ABCB1(3), CCDC69(2), FXYD1(2), PGM5P2(4), JPH4(3), LRCH1(7), PRX(4), SMTN(1), SERPINF1(9), PGM5(1), FHL1(1), RASL12(3), GNAL(2), CACNA1H(7), EMCN(7), PDE2A(4), LATS2(1), KIAA1644(6), TNS1(1), LOC283856(3), PCDHB7(1), SERINC1(1), HSPB2(1), RASA4(8), CCDC50(1), ILK(3), ACOX2(1), ZNF521(2), ZNF575(1), KCTD7(10), IGFBP4(1), MBNL2(4), FEM1B(1), BMPR2(1), ZNF25(10), LPAR4(1), EHBP1(1), SNRK(4), SYNE1(3), PPAP2A(2), FEZ1(3), STOM(4), FBXL7(1), CGNL1(1), HAAO(7), SLC45A1(1), TCEAL1(3), SOCS2(3), DMD(2), LOC285830(1), MARVELD1(2), PEG3(2), PDGFRA(1), C4orf12(1), KLHL10(2), TGFB1I1(6), SYTL4(2), FBXL3(1), C12orf53(1), GAB1(3), LOC144571(1), CEP68(3), UST(1), EPM2A(3), GLI3(7), ANK2(2), ADRA1D(1), NBEA(3), CBFA2T3(3), TMOD2(1), PDE10A(5), OGN(1), PURG(1), NEURL1B(2), LSM11(1), YPEL4(1), PHYHIP(1), SCN2B(1), SOX7(7), SNCAIP(1), SH2D3C(3), JAZF1(3), RAPGEF4(2), C10orf54(1), KL(1), ERG(2), NAP1L2(1), LEPR(1), CDH5(2), FGF13(1), CASP12(3), ITPKB(1), HGF(1), HEG1(1), SFMBT2(2), TMEM88(1), NT5DC3(1), CLEC2B(4), ESAM(3), FAM131B(1), TGM2(2), PCDH18(1), CRY2(1), MATN2(1), FAM13C(2), CALCOCO1(1), HSD17B6(1), ERVFRDE1(2), MMRN2(1), CLIC4(1), PLA2G4C(1), GPR116(3), USP31(1), TLN1(1), PCDHGA9(1), ADCY4(2), COL15A1(3), MBNL1(2), IL33(3), TCF4(1), BACH2(1), FERMT2(1), PALM2-AKAP2(2), PHLDB2(1), HAND2(2), PPM1F(1), RAB31(1), DAB2(2), ACACB(1), CLEC1A(1), SEPT7(2), VIP(1), NRIP2(1), LRRC70(1), MAN1C1(3), RAB8B(2), PDZRN3(1), FAM55C(2), RNF38(1), PSD(1), HPGDS(2), TMEM47(1), EFEMP1(1), OSBPL1A(1), MAP3K3(1), BCAP29(1), TM4SF18(1), PCDHGA11(1), SBDS(1), GIMAP4(2), GNG2(1), VIPR2(1), LOC134466(1), PTGER2(1), TMEM109(1), LOC728392(1), MAN1A1(1), RAB11FIP5(1), VAMP3(1), EPDR1(1), OLFML3(1), CD34(1), FAM70B(1), CLEC14A(1), STARD13(1), PCDHB5(1), GIMAP1(1), FBXO31(1), AXL(1)</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>540.0</v>
+        <v>416.0</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6000024228006082</v>
+        <v>-0.6000014187927153</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.7472699050165207</v>
+        <v>-0.7382278142189425</v>
       </c>
       <c r="H14" t="n">
-        <v>5888.0</v>
+        <v>3965.0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.6335535359613369</v>
+        <v>-0.6276953637727529</v>
       </c>
       <c r="J14" t="n">
-        <v>42.35971223021583</v>
+        <v>28.94160583941606</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>hsa-miR-143-3p</t>
+          <t>hsa-miR-200a-5p</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>138.0</v>
+        <v>127.0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PRAME(41), MND1(1), TMEM63B(11), DPP3(1), RPN2(1), TUBA1C(6), PKM2(1), ESPL1(1), FAM54A(6), LMNB1(1), C16orf75(3), NFKBIL2(1), CASP6(7), MANF(1), SF3B14(1), NCAPH(2), ILF2(1), GINS1(1), ZNF695(6), AURKA(4), GSG2(1), TTK(4), FAM110A(2), CENPA(1), C9orf140(1), TBC1D7(1), MCM10(1), TMEM8A(1), CDCA8(2), NUF2(2), NEK2(4), ALG6(3), BUB1(5), HDGF(2), CCNA2(2), CCNB1(6), MLF1IP(2), POLQ(4), HJURP(1), KPNA2(2), HN1(2), CDC20(1), BSPRY(1), ERCC6L(2), CDC45(1), CENPL(1), FANCD2(1), CHAF1A(1), CCNB2(2), C6orf115(1), MCM2(1), FANCI(2), AURKB(1), STIL(3), CDK1(1), C20orf24(1), HSPE1(1), NCAPG(2), ZWINT(1), KIF4A(1), TPM3(1), SPAG5(2), HSPA4(1), STX6(1), TROAP(2), FLAD1(2), SGOL1(1), PGD(1), KIF2C(1), PDIA4(1), ADM2(1), SMPDL3B(1), KIF11(1), CASP3(1), PCNA(1), C1orf135(1), PLK1(1), DEPDC1(1), EPT1(1), DNA2(1), TPI1(1), GIPC1(1), GEMIN8P4(1)</t>
+          <t>GYPC(36), LRRN4CL(58), PPAPDC3(40), LOH3CR2A(43), GPRASP2(51), PABPC5(54), CNRIP1(74), CALHM2(55), C16orf45(45), FKBP7(20), FGF2(39), AKT3(51), LTBP4(45), PRDM8(45), TMEM55A(19), SLC24A3(73), ZCCHC24(32), RHOJ(58), GPR124(38), FLT4(63), TIMP2(58), PMP22(33), SHANK3(6), CXorf36(25), SAP30L(30), FAM175A(6), TSPAN18(22), SCARF1(12), ANTXR2(30), SLC45A1(9), GLT8D2(46), PGCP(19), ATOH8(16), TCEAL1(14), ANO6(24), NKAPL(30), DAB2(12), SOCS2(6), TIMP3(29), MEF2C(49), FXYD6(14), SPARCL1(38), MEIS3(33), GLI2(12), ZNF208(3), GNG7(9), ARHGAP6(38), C1QTNF7(23), REM1(9), SSPN(31), SHE(15), TMOD2(13), TACC1(45), DACT3(29), GPRASP1(48), MYCT1(28), TGFBR3(27), WT1(19), OLFML1(22), SETD7(27), TSHZ3(52), PCDHGA2(28), RAB3IL1(9), WHAMML1(4), SSC5D(6), PEAR1(46), PHYHIP(14), APBB1(28), C21orf34(27), RSPO1(31), TUB(16), KCNJ8(25), DIRAS1(17), EMILIN1(23), FOXN3(18), ABI3BP(22), DIXDC1(41), PCDHB18(13), TBL1X(16), TCEAL4(4), RASSF8(36), KANK3(31), CACNB2(31), LHFP(3), KIAA1462(54), C10orf72(11), TIE1(38), VIP(2), C5orf4(35), RAMP1(10), OSR2(33), TRPC1(14), LDB2(25), ANKRD29(45), TBX3(21), FAM69A(13), ADARB1(5), C7orf58(24), LRCH1(15), PRX(14), C1orf70(33), CLIP3(31), ZAK(50), ZEB1(44), GNG11(16), GEFT(23), BNC2(33), TMEM204(21), TENC1(34), LAYN(29), ARHGEF15(38), TAL1(4), ZNF676(5), KIAA1614(4), CYP2U1(6), MAMDC2(31), CALD1(23), PCDHGA3(18), CBX7(35), LRRC70(3), CACNA1H(24), TMEM200A(22), PCDHB15(11), MRGPRF(14), KANK2(39), PCDHB4(18), TMEM200B(23), TEK(14), TNXB(45), PCDHGA6(26), GNAO1(8), HSPA12B(31), RNF144A(5), FRMD6(14), SVIL(31), MAN1C1(6), TCEAL6(2), STAT5B(54), CLEC2B(15), SMOC2(16), ADCY2(19), KATNAL1(37), TCEAL7(59), ASAM(40), RASA4(23), GRID1(26), MYADM(13), MXRA7(3), WIT1(4), ROBO4(23), ARHGEF6(11), SRL(5), NOSTRIN(18), CLEC3B(2), GHR(28), GIMAP1(7), KDR(2), AHNAK(9), FBN1(15), VIPR2(6), PRNP(18), MBNL2(25), PJA2(13), TBC1D1(9), ECM2(7), MFAP4(33), GIMAP6(2), KLHL38(2), IL33(1), NEDD4(24), ITGA8(3), FLI1(12), CD93(2), PTGIS(6), MMRN2(2), DHH(5), SH3BP5(17), LOC134466(10), RGMA(7), GIMAP8(4), PPP1R12B(3), HOXD10(1), TEF(19), OGN(2), SNAI2(5), SEPP1(4), ITPR1(3), LMOD1(8), C1orf133(7), ST5(19), LRRK2(5), UBL3(12), FAM198B(8), NBLA00301(3), ACVRL1(11), SH3BGRL(17), NXPH3(25), PROS1(19), ABCB1(3), DDR2(4), CCDC69(16), C14orf28(9), JAZF1(4), STOM(5), TGFB1I1(7), PDE5A(16), SYTL4(2), ALDH1A2(3), NECAB1(30), PODN(2), FBLN5(9), TMEM47(2), PGM5P2(2), CFL2(5), ZBTB38(6), ERG(5), PALM2-AKAP2(10), SMTN(3), CLEC14A(3), TXNIP(5), EFEMP1(5), PGM5(2), LEPR(3), A2M(5), FHL1(4), STARD13(2), GPR116(4), FGF7(3), RERG(2), CASP12(9), MDFIC(30), GIMAP4(5), KCNMA1(18), GIMAP5(4), PLSCR4(7), CACNA1C(21), EMCN(9), TLN1(10), PDE2A(5), ABCG2(11), FEZ2(16), MAOB(42), LIX1L(18), PDE7B(8), KIAA1644(2), TNS1(9), LOC283856(7), CD302(27), ESAM(5), RFTN2(15), FAM65C(2), ZEB2(31), COL15A1(13), MITF(5), MBNL1(6), ARHGAP31(23), RECK(32), C5orf53(19), KLHDC1(29), VAMP2(4), RFTN1(11), EZH1(12), TBC1D2B(8), CCND2(9), SCARA3(3), ZNF521(4), CBX6(2), BCL6B(2), CLIC2(45), RAB8B(5), KCTD12(11), MEF2D(7), N4BP2L1(7), NES(2), KCTD7(12), JAM2(9), APOL3(4), RAB31(7), JAM3(24), PHF15(1), CBFA2T3(4), DPYD(14), PURG(1), NDN(12), CDO1(3), YPEL4(5), CYYR1(6), FOXO4(1), PPAP2A(4), SH2D3C(12), MATN2(2), NAP1L3(23), HEPH(5), NRXN2(2), SRF(15), C10orf54(3), NRIP2(10), HIC1(5), FREM1(2), DOCK4(1), ARRB1(2), SFMBT2(5), KIAA1755(2), EBF1(1), ADCY4(2), STON1(11), FAM55C(2), POU6F1(2), PCDHGA5(8), IL11RA(1), ANK2(4), FAM65B(3), FBXO31(2), GAS6(4), FGD5(3), MID2(15), PTRF(18), C1QTNF1(4), SOX15(6), F10(3), CAV2(8), MAP3K3(6), TMEM132C(1), HAAO(19), SERPINF1(16), AKNA(2), EHD2(23), PCDHGB6(2), HEG1(2), HSPB2(8), TGM2(1), AFAP1L1(7), TBXA2R(6), FXYD1(9), KLHL10(7), PPP1R12C(1), OLFML2A(8), GJD3(2), CCDC136(2), GRK5(3), HSD17B6(2), DMD(6), SYNPO(3), KCTD10(1), ERVFRDE1(2), PRELP(2), CLIC4(2), PAPPA(8), AKAP2(2), ADAMTSL4(2), HLF(2), ENOX1(1), SOX7(8), GPR1(2), C1S(1), PCDHGB7(12), FERMT2(2), DKFZp566F0947(4), C20orf160(3), DCAF12L2(1), JPH4(4), PCDHGA11(2), NAP1L2(2), AEBP1(1), LPAR4(1), RASL12(4), GNAL(5), LMCD1(2), SGCE(2), CEP68(8), CYBRD1(7), CYP1B1(3), FLRT2(2), PCDH18(3), C1orf21(6), ARHGAP20(3), ILK(2), ST6GALNAC3(1), UST(4), CD99L2(1), PARM1(1), FBXL3(2), CDH5(4), PCDH12(1), PLAT(2), ANXA6(1), RASGRP2(1), CCDC50(2), ACOX2(1), CRTAP(10), SLC1A7(2), DNASE1L3(1), GSTM5(2), DPYSL2(1), FYCO1(2), LOC644538(1), IGFBP4(5), DKK3(2), DCHS1(6), ACACB(1), TDRD10(2), TCF4(4), NBEA(3), CLEC1A(1), OSBPL5(1), THRA(5), RAPGEF4(2), PLA2G4C(5), C12orf53(2), MXI1(1), MRC1(1), LOC144571(10), OLFML3(3), SLC9A9(1), SYNE1(4), ZNF835(1), C15orf51(3), FZD4(6), FBXL7(1), TM4SF18(3), LOC285830(1), MARVELD1(6), ZNF25(9), GLI3(5), PDE10A(8), ATL1(2), LSM11(1), FEZ1(2), FLJ35390(4), GAB1(3), TMEM88(2), INSR(3), FAM162B(3), ZNF438(1), GRINL1A(1), PSD(2), LOC154822(2), HIPK4(2), SNED1(1), LOC100128239(1), CCDC48(1), SERINC1(1), RAMP2(1), KL(3), PHLDB2(2), ZNF483(2), ENPP2(2), ZBTB4(1), DST(2), HAND2(5), BEGAIN(2), SHC2(1), ADD1(2), PTGDR(2), PLXDC1(2), HPGDS(2), PPM1F(1), ITPKB(1), FEM1B(2), PRKCA(2), MACF1(1), GFPT2(1), PCBP3(1), CD34(1), PLN(1), NEXN(1), SIGLECP3(1), ABCA8(1), LOC90586(1), DPYSL3(1), ELTD1(1), HIGD1B(1), CCL14(1), EPM2A(2), PTPRB(1), PRSS35(1), RAB9B(1), XYLT1(1), SLCO2A1(1), HSPB7(1), CSDC2(1), PER3(1), CNN1(1), LAMA4(1), TGFB3(1), FAT4(1), LRRC2(1), CSRP1(1), ADRA1D(3), SNRK(3), GPM6A(1), C1orf150(1), SLC16A7(1), PRKCH(1), TCF23(1), KCNAB1(1), TNFAIP8L3(1), GPR133(1), P2RY1(1), MIMT1(1), THSD1(1), CDC42EP3(1), PDLIM3(1), RSPO3(1), FAM70B(2), ITM2A(1), MSRB3(1), PEG3(2), PRKG1(1), CPEB1(1), LONRF2(1), OR5K2(2), CAV1(1), JPH2(1), PTGER2(1), SPEG(1), SCN2B(1), PDE8B(1), CRY2(1), C4orf12(1), CABP1(1), RASD2(1), LIMS2(1), FILIP1L(1), MCAM(1), MS4A2(1), ENPP1(1), C4orf32(1), MYOZ2(1), DSTN(1), KIF26A(1), STARD8(1), KIT(1), GPR146(1), THBS2(1), ASPA(1), SYNPO2(1), KCNB1(1), FOXF1(1), FLNC(1), TSPAN2(1), P2RX7(1), GLT1D1(1), PRUNE2(1), HTR2B(1), CXorf57(1), PALLD(1), KLHL33(1), LOC145820(1), FRY(1), CNTNAP1(1), SH3D19(3), SYT15(1), ADAMTSL1(1), LRRC8C(2), MYH11(1), MASP1(1), GSN(1), USP31(1), SELP(1), S1PR3(1), EHBP1L1(1), AXL(3), SNCA(1), GRRP1(1), WISP1(1), ENPEP(1), PRR16(1), PKD2(1), PPP1R16B(1), GIMAP7(1), NT5DC3(1), KLF17(1), NBL1(1), MYOCD(1), SDPR(1), LRRC32(1), S1PR1(1), FAM13C(2), FAM131B(1), ABCC9(1), LOC283174(1), SORBS1(1), NMUR1(1), COPZ2(1), GNG12(3), FBXO32(1), NAALADL1(2), SCN3B(1), DLL4(1), COLEC12(1), CGNL1(1), MXRA8(2), CXCL12(1), COX7A1(2), HOXD9(1), DIO3(1), PDZRN3(1), SPTBN1(3), NID1(2), BACH2(2), WSCD1(1), EPDR1(2), GNG2(1), DFNA5(3), MAGI2(2), TIPARP(3), IRS1(1), DCP1B(1), VAMP3(2), LATS2(1), MBLAC2(1), PCDHB5(1), NR3C1(1), CCDC141(1), SNCAIP(1), INPP5F(1), PPP1R12A(1), GLIPR1L2(1), ISLR(1), ITPRIP(1)</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>83.0</v>
+        <v>621.0</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6001327497472523</v>
+        <v>-0.6000005350003136</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.7028581060065539</v>
+        <v>-0.8067357637926934</v>
       </c>
       <c r="H15" t="n">
-        <v>197.0</v>
+        <v>6112.0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.6206485320934559</v>
+        <v>-0.6339760500289467</v>
       </c>
       <c r="J15" t="n">
-        <v>1.4275362318840579</v>
+        <v>48.125984251968504</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>hsa-miR-15b-3p</t>
+          <t>hsa-miR-182-5p</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.0</v>
+        <v>118.0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>UBL3(15), SAP30L(7), NOSTRIN(5), FLT4(14), LRRN4CL(13), ANTXR2(9), GHR(3), GLT8D2(4), PGCP(3), PJA2(9), MFAP4(6), MEF2C(18), IL33(3), NEDD4(3), MEIS3(7), ARHGAP6(4), LOH3CR2A(8), SSPN(3), TACC1(12), GPRASP1(10), MYCT1(4), TSHZ3(7), C1orf133(6), PEAR1(9), APBB1(4), MID2(6), SH3BGRL(13), DST(1), PROS1(3), PABPC5(8), DIXDC1(12), CNRIP1(18), RASSF8(6), HEPH(1), KIAA1462(13), TIE1(5), C5orf4(4), C16orf45(9), ADD1(1), FBXL3(2), ANKRD29(7), LRCH1(5), MEF2D(6), ZAK(22), A2M(3), GNG11(3), SH3D19(4), PRDM8(7), TENC1(6), SLC24A3(22), KANK2(9), TEK(4), MAOB(15), PCDHGA6(5), SVIL(7), STAT5B(28), CD302(4), TCEAL7(10), RHOJ(13), PHLDB2(2), C1orf21(5), MYADM(4), GNG12(4), JAM3(6), TIMP2(9), DPYD(8), CLIC2(8), FGF2(16), AKT3(12), CLIP3(8), C5orf53(6), CCND2(4), NDN(7), FKBP7(3), KLHDC1(15), SHANK3(2), SETD7(8), CXorf36(3), GYPC(1), STON1(2), TSPAN18(3), SCARF1(2), GIMAP1(2), KCTD7(1), JAM2(3), APOL3(1), DPYSL3(1), SLC45A1(1), RAB31(2), AHNAK(2), FBN1(2), ATOH8(2), TCEAL1(2), ANO6(6), PPAPDC3(3), NKAPL(3), VIPR2(1), PRNP(1), MBNL2(5), FZD4(2), SOCS2(2), ECM2(2), TIMP3(3), LRRC2(1), FXYD6(1), HSD17B6(2), ADRA1D(1), ZNF521(4), GIMAP6(1), TCF4(1), SPARCL1(5), ITGA8(1), FLI1(5), SYNPO(3), RAB8B(3), ERVFRDE1(2), PTGIS(2), C1QTNF7(3), MMRN2(3), REM1(2), SH3BP5(2), SHE(2), DACT3(2), GIMAP8(3), THRA(2), PPP1R12B(2), TGFBR3(2), WT1(3), TEF(3), OLFML1(3), SNAI2(2), DKK3(1), PCDHGA2(3), PRELP(1), GPRASP2(6), PAPPA(2), LMOD1(2), CDO1(1), YPEL4(1), ST5(7), SSC5D(1), LRRK2(2), FAM198B(3), NR1D1(1), RSPO1(3), PTGER2(1), NXPH3(3), TUB(2), RFTN1(3), KCNJ8(3), ABCB1(3), DIRAS1(2), SOX7(1), C4orf12(2), PTRF(3), DDR2(2), KRT222(1), EMILIN1(2), TBXA2R(2), ABI3BP(3), PCDHB18(2), C14orf28(2), SH2D3C(2), TBL1X(2), PCDHGB7(4), KLHL10(2), KANK3(2), FERMT2(2), CACNB2(2), STOM(5), TGFB1I1(2), RAPGEF4(2), NAP1L3(2), PDE5A(4), SYTL4(1), TSPAN2(2), PGM5P2(2), HAAO(1), OSR2(2), CALHM2(8), JPH4(1), OLFML2A(3), ZBTB38(3), LDB2(3), PALLD(2), TBX3(2), C7orf58(3), C1orf70(1), SMTN(1), TXNIP(5), SERPINF1(2), PGM5(1), LEPR(2), FHL1(1), ZEB1(6), LPAR4(2), GPR116(2), RASL12(1), FGF7(1), DOCK4(1), RERG(2), BNC2(4), TMEM204(3), TMEM55A(2), SOD3(1), CASP12(2), LAYN(1), ARHGEF15(4), GAB1(1), MDFIC(5), MAMDC2(3), CALD1(4), GIMAP4(3), KCNMA1(4), PCDHGA3(4), GIMAP5(2), PLSCR4(2), CBX7(6), CACNA1H(2), CACNA1C(2), TMEM200A(3), MRGPRF(2), EMCN(3), CYBRD1(2), TLN1(2), PDE2A(2), EZH1(2), ABCG2(3), ZCCHC24(4), TMEM200B(2), FEZ2(1), TNXB(6), SFMBT2(1), FRMD6(2), PDE7B(2), KIAA1644(1), INSR(2), TNS1(2), CLEC2B(3), SMOC2(3), ADCY2(5), KATNAL1(3), ESAM(3), ABCC9(2), ASAM(4), RASA4(2), ZEB2(2), ADCY4(1), COL15A1(2), MITF(2), ILK(1), GRID1(2), ARHGAP31(5), GPR124(4), ROBO4(3), RECK(2), ZNF25(3), PRKCA(3), C21orf34(1), NRIP2(4), WIT1(1), TBC1D2B(2), SNRK(3), WHAMML1(2), KIAA1614(2), ITPKB(1), HSPA12B(4), LIX1L(3), ARHGEF6(3), SRL(1), FAM175A(3), FAM55C(1), KDR(2), GRINL1A(1), PCDHGA5(1), AKAP13(1), DMD(1), KLHL38(1), FAM65B(2), CD93(1), ZNF208(1), ELK3(1), TMOD2(1), P2RY1(1), THSD1(1), PDE10A(1), CLIC4(1), MEIS2(1), ITPR1(1), AKAP2(1), OR5K2(2), CYYR1(1), NID1(1), GPR1(1), DCHS1(1), FOXN3(1), GJC3(1), PMP22(3), CAV2(1), LHFP(1), THBS2(1), FBLN5(1), HTR2B(2), PBX1(1), TM4SF18(1), FAM69A(1), PALM2-AKAP2(2), CLEC14A(2), EFEMP1(1), LTBP4(6), STARD13(1), TIPARP(1), EHD2(3), LRRC8C(1), ZNF676(1), GNAL(1), PPP1R12A(1), LOC144571(1), CEP68(1), HEG1(2), WISP1(1), PCDHB15(3), PCDHB4(1), RNF144A(1), PLAT(1), PER2(1), ZNF483(2), FBXO32(1), ST6GALNAC3(1), IGFBP4(1), CALCOCO2(1), RAMP1(1), RUNX1T1(1), LPCAT2(2), MAF(1), MAP3K3(2), MXI1(1), PCDHGB6(1), CGNL1(1), MXRA7(1), CDH5(1), AXL(1), ZBTB4(2), KCTD12(1), ZDBF2(1), PTPRB(1), DAB2(1), GRK5(1), GNG7(1), CCDC69(1), JAZF1(1), ERG(1), RNF38(1), CCDC48(1)</t>
+          <t>FLT4(17), LRRN4CL(12), GLT8D2(6), TIMP2(9), ZNF208(2), LOH3CR2A(3), GPRASP2(10), CNRIP1(17), RASSF8(8), KIAA1462(7), CALHM2(7), C16orf45(16), TRPC1(3), FKBP7(3), FGF2(13), AKT3(9), ZAK(19), LTBP4(10), PRDM8(9), TMEM55A(8), SLC24A3(19), KANK2(11), ZCCHC24(6), STAT5B(25), RHOJ(17), ZEB2(9), GPR124(4), GHR(5), PPAPDC3(8), MEF2C(13), TSHZ3(10), LIX1L(4), TCEAL7(13), NDN(3), CDO1(3), APBB1(11), ANKRD29(5), TSPAN18(3), KCTD7(8), DAB2(2), MBNL2(3), PJA2(2), MFAP4(7), SNRK(1), ELK3(1), SSPN(2), GPRASP1(8), TGFBR3(1), ZNF25(4), ST5(8), UBL3(5), PEAR1(8), C21orf34(4), CLIC2(8), SOX7(1), PABPC5(8), DIXDC1(6), PMP22(9), DNAJC27(1), C1orf70(5), KLHDC1(11), ZEB1(8), TENC1(5), PCDHGA3(2), PCDHB15(3), PCDHB4(3), MAOB(11), KATNAL1(5), RFTN2(1), MBNL1(4), MYADM(1), ANTXR2(4), NKAPL(1), TIMP3(2), MEIS3(5), ARHGAP6(4), DPYD(8), TACC1(5), SETD7(2), PROS1(1), PCDHB18(1), TBL1X(2), NECAB1(3), AEBP1(1), BNC2(4), ZNF676(1), MDFIC(2), CBX7(4), CYP1B1(1), TNXB(2), PCDHGA6(6), HSPA12B(7), SVIL(4), CD302(3), ASAM(4), MXRA7(1), ST6GALNAC3(1), RECK(5), GYPC(6), ACOX2(1), JAM3(2), SPARCL1(3), LOC285830(1), RSPO1(4), RFTN1(4), PCDHGB7(2), CRTAP(5), HAAO(2), ADARB1(2), PRX(3), CLIP3(5), LOC144571(2), CEP68(2), TLN1(5), EZH1(4), PKD1(1), SERINC1(2), SHANK3(1), SAP30L(5), SCARF1(1), C5orf53(3), ANO6(1), NEDD4(2), REM1(1), WHAMML1(1), LRRK2(1), EMILIN1(3), CACNB2(2), ADD1(2), LRCH1(1), PDE7B(1), GRID1(1), TBC1D2B(3), GNG7(2), SYNE1(2), PRNP(4), FAM175A(2), FAM55C(2), GLI3(3), FEM1B(2), SH3BP5(3), WT1(2), OLFML1(1), CLIC4(1), MID2(1), SH3BGRL(2), TUB(2), DCHS1(3), NAP1L3(4), PDE5A(3), C5orf4(2), TIPARP(1), EHD2(1), INSR(1), C1QTNF7(1), IRS1(1), CYP2U1(1), MAMDC2(2), TMEM200A(1), ZNF438(1), PGCP(1), FOXN3(1), OSR2(1), NRIP2(1), TXNIP(1), GAB1(1), KCTD12(4), THRA(1), CALCOCO1(1), BACH2(1), C14orf28(1), MAP3K3(4), ZBTB4(1), FBN1(1), MARVELD1(1), PPM1F(1), SBDS(1), KIAA1614(1), AXL(1), RAB8B(2), TIE1(1), SH3D19(1), KCNMA1(1), MBLAC2(1), NAALADL1(1), WIT1(1), FBXL3(1)</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>354.0</v>
+        <v>187.0</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6000093567451841</v>
+        <v>-0.600076920403949</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.7299568062181716</v>
+        <v>-0.6796113962880594</v>
       </c>
       <c r="H16" t="n">
-        <v>1169.0</v>
+        <v>767.0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.6290702008086471</v>
+        <v>-0.6189521895533024</v>
       </c>
       <c r="J16" t="n">
-        <v>8.856060606060606</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>hsa-miR-182-5p</t>
+          <t>hsa-miR-21-5p</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>132.0</v>
+        <v>114.0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.32</v>
+        <v>1.14</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>TIMP2(10), UBL3(4), JAM3(9), CALHM2(9), C16orf45(17), AKT3(12), PPAPDC3(6), WT1(6), CDO1(4), APBB1(18), CNRIP1(16), ZAK(19), ZCCHC24(6), HSPA12B(5), STAT5B(19), RHOJ(12), GPR124(9), NOSTRIN(2), FLT4(12), LRRN4CL(13), GHR(2), GLT8D2(4), MBNL2(2), MFAP4(3), MEF2C(9), MEIS3(7), ARHGAP6(4), TACC1(3), GPRASP1(4), TSHZ3(9), RAB3IL1(2), PEAR1(5), PROS1(1), SOX15(1), PCDHB18(1), RASSF8(6), CACNB2(1), NAP1L3(3), KIAA1462(4), C5orf4(1), ANKRD29(5), ADARB1(3), MEF2D(1), LPAR4(1), PRDM8(8), TENC1(3), LAYN(2), PPP1R12A(2), SLC24A3(16), PCDHGA3(1), KANK2(9), TNXB(3), MAOB(4), PCDHGA6(4), SVIL(3), PDE7B(2), CD302(2), TCEAL7(13), ASAM(2), MBNL1(1), MYADM(4), RECK(3), FGF2(11), VAMP3(1), PCDHB4(1), LIX1L(4), PRNP(1), SH3BP5(2), KLHDC1(7), C5orf53(4), PJA2(3), ZNF208(1), KCTD12(1), SSPN(1), GPRASP2(6), ZEB1(4), TMEM55A(8), TLN1(2), GYPC(6), GNG7(4), ST5(6), RSPO1(2), TUB(1), CRTAP(2), HAAO(3), ADD1(1), C1orf70(6), CLIP3(7), LTBP4(11), EHD2(2), EZH1(1), CCND2(2), C21orf34(3), PMP22(4), WIT1(2), FEM1B(3), KCTD7(1), MAGI2(1), SAP30L(5), SCARF1(1), ANTXR2(2), FAM55C(2), GRINL1A(1), FBN1(1), ANO6(1), LOH3CR2A(1), DPYD(2), RNF38(2), CLIC2(2), SOX7(1), PABPC5(4), EMILIN1(4), DIXDC1(2), PDE5A(1), TMEM47(1), FBXL3(2), C5orf41(1), LRCH1(1), DENND2A(3), CYP2U1(1), PLSCR4(1), CBX7(2), MAN1C1(2), ADCY2(1), ZEB2(1), COL15A1(1), MAP3K3(4), PRX(2), NDN(3), CEP68(2), FXYD6(1), RAB8B(3), ATL1(1), CALCOCO1(1), ZNF25(1), KCNJ8(1), PCDHGB7(1), BNC2(2), MAMDC2(1), KATNAL1(1), FKBP7(1), PLAT(1), ACACB(1), TBC1D2B(1), SCN3B(1), THRA(1), RFTN1(3), TBL1X(2), TRIM23(1), FOXN3(1), MDFIC(1), PCDHB15(1), SLC45A1(1), ZNF835(1), SPARCL1(1), CD99L2(1), REM1(1), LRRK2(2), KANK3(1), TGFB1I1(1), NECAB1(2), SRF(1), RAMP1(1), JPH4(1), NRIP2(1), GNG11(1), RASL12(1), MRGPRF(1), ZBTB4(1), GLI3(1), PKD1(1), ZNF676(1)</t>
+          <t>N4BP2L1(3), SAP30L(8), FLT4(21), GYPC(4), LRRN4CL(14), GHR(11), POU6F1(2), JAM2(1), C5orf53(8), TCEAL1(1), PPAPDC3(7), NKAPL(1), MEF2C(1), SNRK(2), SPARCL1(2), GLI2(1), ZNF208(2), ARHGAP6(4), LOH3CR2A(2), SH3BP5(2), SSPN(3), TMOD2(1), GPR133(1), LOC134466(3), GPRASP1(16), TGFBR3(9), TSHZ3(12), PCDHGA2(1), GPRASP2(28), LSM11(1), PEAR1(7), RSPO1(4), TNNI3K(1), MID2(8), SH3BGRL(1), CLIC2(2), KCNJ8(1), PABPC5(23), FOXN3(2), ABI3BP(3), DIXDC1(3), TCEAL4(1), CNRIP1(34), F10(2), RASSF8(4), KANK3(3), CACNB2(3), PDE5A(5), KIAA1462(15), C5orf4(19), HAAO(4), OSR2(18), CALHM2(7), C16orf45(15), TRPC1(9), FBXL3(1), ANKRD29(8), C1orf70(29), DENND2A(2), SERPINF1(1), ZAK(28), LTBP4(22), ZEB1(2), PRDM8(10), FNDC5(1), GEFT(5), BNC2(1), TENC1(16), MXI1(1), CYP2U1(6), MAMDC2(1), SLC24A3(31), CBX7(2), KANK2(13), ZCCHC24(5), TNXB(5), MAOB(17), HSPA12B(11), MAN1C1(2), STAT5B(28), ADCY2(1), CD302(1), TCEAL7(16), FAM13C(2), RHOJ(22), ZNF483(1), C1orf21(34), GPR124(16), RECK(3), ANK2(1), THRA(15), ZNF25(8), C21orf34(24), PMP22(11), APBB1(16), LOC144571(1), PGCP(2), JAM3(13), WT1(7), VAMP2(2), TUB(17), RASD2(1), SOX15(5), MAGI2(1), FKBP7(3), AKT3(4), KLHDC1(16), TRIM23(1), WIT1(3), CDO1(5), NAP1L3(5), KIAA1614(3), LIX1L(4), GLT8D2(3), TIMP2(1), GNG7(3), RGMA(7), GAS6(1), DIRAS1(3), PPP1R12C(2), TBX3(1), PRX(2), RUNX1T1(1), METTL7A(1), UST(2), CD99L2(1), PARM1(1), ADARB1(1), SCARA3(1), TBC1D1(2), MEIS3(4), PHYHIP(1), CRY2(2), RFTN1(1), C10orf72(1), CRTAP(1), GSTM5(1), DPYSL2(1), NFASC(2), EZH1(3), LOC644538(1), LOC728392(3), FLJ36777(1), WHAMML1(4), DCHS1(1), NRIP2(2), ATL1(1), LOC100128239(1), NBEA(1), CALCOCO1(1), RAMP1(2), ITPKB(1), CEP68(8), PCDHB15(2), C1orf133(1), UBL3(1), PCDHGA6(3), FZD4(1), FGF2(3), TIPARP(1), PCDHGB6(1), CTSF(1), RIC3(1), NAALADL1(1), SLC45A1(1), NDN(2), PCDHB18(1), CLIP3(1), FXYD6(1), TSPAN18(1), GLI3(1), PEG3(1), ST5(1), PTRF(1), TBL1X(1), SMTN(1), CACNA1H(1), MRGPRF(1), GNAO1(1), GRID1(1), FAM175A(2), C1QTNF7(1), PCDHGA3(1), TMEM200B(1), TMEM88(1), EBF1(1), DNAJC27(1), PKD1(1), C1QTNF4(1), FBXO31(1)</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>172.0</v>
+        <v>190.0</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6000358601110694</v>
+        <v>-0.600061548845388</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.6853255362794962</v>
+        <v>-0.6954008421058648</v>
       </c>
       <c r="H17" t="n">
-        <v>607.0</v>
+        <v>999.0</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.6180238949643089</v>
+        <v>-0.6207033512359085</v>
       </c>
       <c r="J17" t="n">
-        <v>4.598484848484849</v>
+        <v>8.763157894736842</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>hsa-miR-1976</t>
+          <t>hsa-miR-15b-3p</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>131.0</v>
+        <v>113.0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SAP30L(27), FLT4(32), STON1(13), LRRN4CL(34), ANTXR2(19), GHR(14), PPAPDC3(22), TIMP2(56), TBC1D1(3), MEF2C(26), FXYD6(15), SPARCL1(18), GLI2(8), ARHGAP6(21), C1QTNF7(8), LOH3CR2A(23), GPRASP1(30), TSHZ3(29), GPRASP2(32), APBB1(26), C21orf34(22), KCNJ8(18), BACH2(3), PABPC5(38), ENPP1(1), TBL1X(7), CNRIP1(43), KLHL10(10), RASSF8(25), NAP1L3(21), KIAA1462(27), NECAB1(16), HAAO(13), OSR2(13), CALHM2(38), C16orf45(35), TRPC1(11), PRX(8), FGF2(23), C1orf70(21), AKT3(27), ZAK(40), FREM1(2), LTBP4(26), ZEB1(24), PRDM8(30), BNC2(22), EHD2(11), KCNMA1(13), SLC24A3(52), CEP68(10), PCDHB15(15), KANK2(35), ZCCHC24(16), TMEM200B(13), PCDHGA6(14), HSPA12B(26), RNF144A(1), SVIL(18), TMEM88(1), STAT5B(35), ADCY2(11), TCEAL7(45), RHOJ(35), ASAM(18), RASA4(5), GPR124(21), PRNP(9), TSPAN18(14), FAM55C(2), GLT8D2(20), JAM3(17), C5orf53(10), TIMP3(12), MFAP4(20), ZNF521(5), WT1(13), TEF(2), PCDHGA2(15), PEAR1(21), RFTN1(3), EMILIN1(10), ABI3BP(11), PMP22(21), PCDHB18(5), CACNB2(13), TIE1(12), MEF2D(9), KLHDC1(11), MAMDC2(18), CBX7(10), TNXB(17), MAOB(20), RFTN2(7), CCDC50(3), RECK(14), SHANK3(1), GYPC(13), KCTD7(5), FBN1(6), PCDHGA5(6), TCEAL1(7), ANO6(11), NKAPL(13), FEM1B(5), PJA2(3), TGFB3(4), MEIS3(23), SH3BP5(12), TACC1(16), DACT3(6), RGMA(3), MYCT1(7), TGFBR3(8), SNAI2(5), CLIC4(6), CDO1(1), SSC5D(10), UBL3(4), CLIC2(12), DIXDC1(18), TCEAL4(4), RAPGEF4(5), HEPH(3), CRTAP(8), C5orf4(9), OLFML2A(11), ANKRD29(23), TBX3(14), PALM2-AKAP2(3), FKBP7(12), NRIP2(4), SNED1(2), GEFT(8), CASP12(7), LAYN(8), CALD1(13), PCDHB4(11), KATNAL1(10), ZEB2(13), MYADM(5), DFNA5(1), LOC144571(10), CXorf36(5), ARHGEF6(1), JAM2(6), EPM2A(5), AHNAK(3), SNRK(3), SSPN(9), SHE(3), OLFML1(5), SETD7(5), PAPPA(5), MID2(3), SH3BGRL(2), NXPH3(7), DIRAS1(5), FOXN3(6), C14orf28(4), MATN2(3), PDE5A(5), SRF(7), MAGI2(3), LDB2(11), PCDHGA11(1), ERG(3), ADARB1(2), C7orf58(6), LRCH1(9), TMEM204(4), TMEM55A(6), CACNA1H(6), CACNA1C(7), EMCN(3), ABCG2(3), TEK(3), MAN1C1(4), SMOC2(9), CD302(6), MBNL1(1), ARHGAP31(4), ST6GALNAC3(2), ROBO4(5), FAM162B(2), N4BP2L1(2), SRL(1), FAM175A(2), GLI3(9), PGCP(2), ATOH8(1), VIPR2(1), DAB2(1), MBNL2(3), FZD4(1), SOCS2(3), ECM2(3), DMD(1), RASGRP2(1), ADRA1D(2), NEDD4(5), TMOD2(2), LOC134466(4), PDE10A(5), ATP1B2(1), THRA(2), PPP1R12B(2), ATL1(1), OGN(1), HAND2(1), ATP2B4(1), PURG(1), MARVELD1(2), LMOD1(2), C1orf133(3), ZNF25(5), ST5(3), PHYHIP(2), FAM198B(2), RSPO1(6), FGD5(2), CYYR1(1), TUB(7), CRY2(1), PROS1(1), ABCB1(1), SOX7(4), GPR1(1), DCHS1(7), PPAP2A(1), SH2D3C(2), FXYD1(1), JAZF1(2), FEZ1(4), KANK3(5), DKFZp566F0947(1), LHFP(1), TGFB1I1(3), SYTL4(3), C10orf72(4), NRXN2(2), FBLN5(2), PGM5P2(1), CFL2(2), JPH4(3), FBXL3(3), KLHL33(1), C1QTNF4(1), NAP1L2(1), HIC1(3), CLIP3(28), SERPINF1(3), LEPR(1), GNG11(5), RASL12(1), CRISPLD2(2), ARHGEF15(11), MDFIC(7), NTRK3(2), HOXD9(1), PCDHGA3(9), TMEM200A(8), ENPEP(2), MRGPRF(4), CYBRD1(3), PDE2A(2), EZH1(4), FEZ2(2), GNAO1(1), LIX1L(4), FRMD6(5), KIAA1644(2), CDKL1(1), TNS1(3), PCDHB7(1), FAM13C(2), ZFYVE20(2), COL15A1(2), ZNF483(3), PCDH18(1), C1orf21(10), GRID1(4), WHAMML1(4), NDN(12), AXL(2), DPYD(4), TENC1(17), SERINC1(1), NOSTRIN(5), SLC45A1(1), GNG7(2), LRRK2(1), PTRF(3), RAMP1(1), PRKCA(3), PDE7B(2), CCND2(5), NBEA(2), WIT1(3), LPAR4(2), RAMP2(3), TBC1D2B(4), DLL4(1), PDGFRA(1), NID1(1), KRT222(1), SOX15(2), CAV2(2), PALLD(2), GAB1(2), KIAA1614(3), ITPKB(2), S1PR3(1), UST(1), DST(3), SLC8A1(1), MXRA7(1), SCARF1(1), GRINL1A(1), PLXDC1(1), GRK5(1), REM1(3), DDR2(2), DENND2A(2), CLEC2B(1), IL11RA(2), CD99L2(2), SCN3B(3), PCDHGB6(1), KCTD12(2), SYNE1(1), TIPARP(2), EHBP1(1), MAP3K3(1), ZBTB4(2), IGFBP4(1), RUNX1T1(1), ISLR(1), PTPN21(2), ZNF835(1), HSD17B6(1), PKNOX2(1), FBXO31(1), HOXD4(1), RAB3IL1(1), YPEL4(1), SPEG(1), SNCAIP(1), ZBTB38(3), SMTN(1), STARD13(1), HGF(1), DPP6(1), PRR16(1), LOC728392(1), ADCY4(1), ILK(1), LRCH2(1), PLAT(2), SETBP1(1), MAF(1), SGCE(1), POU6F1(1), ACACB(1), OLFML3(1), HEG1(1), TCF4(2), RAB8B(1), TBXA2R(1), AEBP1(2), SEPP1(1), PCDHGA4(1), C4orf12(2), CLEC1A(1), EFHA2(1), RNF38(1), TLN1(1), FYCO1(1), KCTD10(1), PELI3(1)</t>
+          <t>SAP30L(4), NOSTRIN(7), FLT4(11), LRRN4CL(7), ANTXR2(7), POU6F1(1), C5orf53(3), MEF2C(13), SNRK(2), SPARCL1(3), TACC1(7), GPRASP1(5), ATL1(1), SETD7(6), GPRASP2(2), ST5(3), PEAR1(10), SH3BGRL(5), CLIC2(8), PABPC5(5), DIXDC1(7), CNRIP1(11), KIAA1462(10), C16orf45(2), ADD1(1), FBXL3(1), LRCH1(3), FGF2(9), AKT3(5), ZAK(14), PRDM8(3), BNC2(4), TENC1(3), SLC24A3(18), CBX7(2), KANK2(2), ZCCHC24(2), TNXB(3), MAOB(5), STAT5B(26), SMOC2(1), ADCY2(2), TCEAL7(9), RHOJ(16), C1orf21(2), UBL3(12), CXorf36(3), CDK17(1), ARHGEF6(3), TBC1D2B(1), TSPAN18(1), GLT8D2(1), CCND2(2), ANO6(6), PPAPDC3(3), NKAPL(1), PRNP(1), MBNL2(1), TIMP2(6), PJA2(4), MFAP4(1), NEDD4(2), FLI1(3), LOH3CR2A(3), SSPN(2), SHE(1), CBX6(1), MYCT1(3), TSHZ3(1), BCL6B(1), MID2(2), PROS1(1), SOX7(2), EMILIN1(1), PMP22(2), TBL1X(1), RASSF8(3), PDE5A(1), TIE1(4), CALHM2(8), ANKRD29(4), TXNIP(2), A2M(1), KLHDC1(7), ZEB1(4), VAMP3(2), ARHGEF15(2), KIAA1614(2), HEG1(1), PCDHGA6(2), SVIL(6), KATNAL1(2), ASAM(3), ZEB2(1), ARHGAP31(2), C1orf133(3), PRKCA(2), CLIP3(3), MDFIC(3), RAB8B(1), PRKCH(1), C21orf34(1), ABCB1(1), PCDHGB7(2), CD302(1), GHR(2), PCDHGA3(1), JAM3(3), FZD4(1), TBC1D1(1), SLC16A7(1), ARHGAP6(1), DPYD(6), PCDHGA2(1), NXPH3(1), FOXN3(1), TMEM204(1), TMEM200A(1), TEK(1), ZNF25(2), FEM1B(1), CRTAP(1), MEF2D(2), OSBPL1A(1), GYPC(1), GNG11(1), HSPA12B(1), WT1(1), RFTN1(1), KCNMA1(1), INSR(1), SPTBN1(1), NPTN(1), MAP3K3(1)</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>380.0</v>
+        <v>134.0</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6000264141599697</v>
+        <v>-0.6000373113648471</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.7254051533242569</v>
+        <v>-0.6737271436444449</v>
       </c>
       <c r="H18" t="n">
-        <v>2813.0</v>
+        <v>458.0</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.6286349289384602</v>
+        <v>-0.6164598667834122</v>
       </c>
       <c r="J18" t="n">
-        <v>21.47328244274809</v>
+        <v>4.053097345132743</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>hsa-miR-106b-5p</t>
+          <t>hsa-miR-744-5p</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -739,26 +739,26 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ZBTB4(4), CRTAP(2), SAP30L(21), ARHGEF6(5), FLT4(14), LRRN4CL(25), FAM175A(6), ANTXR2(20), GLT8D2(7), AHNAK(7), PGCP(5), JAM3(8), PCDHGA5(7), ANO6(15), NKAPL(8), TIMP2(21), PJA2(14), TBC1D1(2), TIMP3(10), MFAP4(6), MEF2C(18), DMD(4), NEDD4(8), SPARCL1(16), MEIS3(7), GNG7(5), ARHGAP6(13), DPYD(7), SH3BP5(14), TACC1(21), GPRASP1(15), RNF38(3), SETD7(22), PCDHGA2(13), GPRASP2(9), LMOD1(6), C1orf133(7), CDO1(5), PEAR1(11), RSPO1(10), SH3BGRL(14), NXPH3(13), CLIC2(11), PROS1(9), KCNJ8(5), DDR2(3), EMILIN1(4), FOXN3(6), DIXDC1(18), PMP22(11), TBL1X(7), CNRIP1(17), RASSF8(7), KANK3(4), KIAA1462(21), NECAB1(2), CALHM2(17), C16orf45(13), ZBTB38(4), LDB2(5), PALLD(6), ANKRD29(11), C7orf58(7), FGF2(24), C1orf70(2), AKT3(24), CLIP3(6), ZAK(26), ZEB1(11), BNC2(16), RUNX1T1(1), VAMP3(2), TMEM55A(4), LAYN(2), MAMDC2(11), GNAL(2), CALD1(12), KCNMA1(11), SLC24A3(28), PCDHGA3(9), CBX7(18), CACNA1H(8), TMEM200A(5), PCDHB4(6), PDE2A(4), ABCG2(4), ZCCHC24(7), TMEM200B(8), TEK(7), TNXB(7), PCDHGA6(19), LIX1L(6), FRMD6(6), SVIL(17), MAN1C1(3), STAT5B(32), CLEC2B(2), SMOC2(7), ADCY2(3), KATNAL1(3), CD302(7), TCEAL7(12), FAM13C(4), RHOJ(16), ASAM(12), RASA4(6), GNG12(9), FBXO32(3), RECK(6), UBL3(13), LRCH1(11), MEF2D(6), KLHDC1(8), MYADM(10), PPAPDC3(7), APBB1(3), PRDM8(16), MDFIC(14), C5orf53(11), CCND2(6), NDN(3), CCDC69(7), LTBP4(4), KANK2(10), MAOB(16), SERINC1(1), ST5(7), SHANK3(1), CXorf36(5), NOSTRIN(5), GYPC(4), TSPAN18(4), SCARF1(2), GHR(9), KCTD7(6), JAM2(5), APOL3(1), RAB31(2), TCEAL1(4), PRNP(3), MBNL2(2), FZD4(3), ECM2(3), HSD17B6(4), IL33(3), TCF4(2), FLI1(4), RAB8B(2), ERVFRDE1(3), C1QTNF7(4), LOH3CR2A(5), REM1(3), SSPN(7), DACT3(2), MYCT1(8), THRA(3), PPP1R12B(4), TGFBR3(8), WT1(7), TEF(3), OLFML1(1), TSHZ3(4), CLIC4(4), PAPPA(2), ITPR1(4), SSC5D(4), LRRK2(7), FAM198B(3), RFTN1(2), PTRF(1), ABI3BP(5), C14orf28(4), PCDHGB7(3), FERMT2(4), CACNB2(4), STOM(2), TGFB1I1(2), NPTN(2), TIE1(3), C5orf4(2), PGM5P2(4), OLFML2A(3), C5orf41(1), TBX3(2), FKBP7(3), TXNIP(11), SERPINF1(1), PGM5(3), LEPR(3), CDH5(1), SH3D19(3), GPR116(2), RERG(3), TMEM204(4), TENC1(6), CASP12(1), PLSCR4(3), CEP68(6), MRGPRF(2), EMCN(2), CYBRD1(5), TLN1(3), EZH1(2), FEZ2(4), SFMBT2(1), PDE7B(4), TNS1(5), ZEB2(6), MITF(4), ILK(2), GRID1(4), GPR124(3), ROBO4(3), PCDHB12(1), MID2(8), PABPC5(8), PCDHGA11(2), ZDBF2(1), GAB1(3), KIAA1614(4), ITPKB(1), ZFYVE20(1), BCAP29(1), SPTBN1(2), PPP1R12C(1), ADD1(3), GNG11(3), TBC1D2B(5), STON1(5), EPM2A(2), SHE(2), CAV2(3), DFNA5(2), NR3C1(2), SRL(1), AFAP1L1(1), GIMAP1(1), KDR(1), DPYSL3(1), ATOH8(1), GRK5(1), LRRC2(1), IL11RA(1), FXYD6(1), GIMAP6(1), ITGA8(1), NBEA(3), PTGIS(2), TCF23(1), ELK3(1), TMOD2(3), GIMAP8(1), PDE10A(4), ATL1(2), SNAI2(1), PRELP(1), C21orf34(4), PTGER2(1), TUB(1), PDE8B(1), ABCB1(1), SOX7(2), GJC3(1), ENPP1(1), NR3C2(3), FXYD1(1), LHFP(1), PDE5A(2), FBLN5(1), JPH4(1), TRPC1(3), PALM2-AKAP2(3), EFEMP1(2), FHL1(1), DOCK4(1), GEFT(1), ARHGEF15(2), MASP1(1), SGCE(2), SNCA(1), CACNA1C(3), KIAA1644(1), ABCC9(2), PHLDB2(2), MBNL1(2), C1orf21(3), ARHGAP31(4), WIT1(2), ST6GALNAC3(1), FOXO1(1), SNRK(5), MXRA7(1), GLI3(4), FEM1B(2), ZNF521(1), SCN3B(1), ZNF25(1), MAP3K3(2), FAM69A(1), ERG(1), TIPARP(2), CYP2U1(3), CDK17(1), UST(1), RPS6KA2(1), KCTD12(5), TNFAIP8L3(1), OR5K2(1), DST(1), SYNE1(1), PLIN4(1), DIRAS1(2), C4orf12(3), GPR1(1), TCEAL4(1), DSTN(1), ANGPTL1(1), RNASE4(1), TMEM47(2), NAP1L2(1), FRY(2), SBDS(2), STARD13(2), FGF7(1), PLA2R1(1), GIMAP4(1), PCDHGA9(1), EHBP1(1), CHURC1(1), RASL11A(1), DHH(1), OSTM1(1), RFTN2(1), HSPA12B(1), WHAMML1(1), FBXL3(2), PRX(3), PCDHB15(1), ZNF483(1), PRKCA(1), SETBP1(1), MAF(1), NAP1L3(1), HEPH(1), INSR(1)</t>
+          <t>SAP30L(21), LOH3CR2A(13), CXorf36(8), FLT4(12), LRRN4CL(10), TSPAN18(15), SCARF1(5), ANTXR2(14), TIMP2(15), MEF2C(14), SPARCL1(13), TACC1(33), MYCT1(9), SETD7(11), PEAR1(9), C21orf34(31), TBL1X(6), CNRIP1(6), KANK3(5), KIAA1462(18), TIE1(16), CALHM2(10), C16orf45(16), TRPC1(2), ANKRD29(2), FGF2(26), NAP1L2(2), AKT3(31), CLIP3(6), ZAK(14), BNC2(15), TMEM55A(4), TAL1(2), MAMDC2(10), KCNMA1(8), SLC24A3(18), KANK2(4), PCDHB4(2), PCDHGA6(10), STAT5B(33), TCEAL7(4), RHOJ(27), ASAM(12), RASA4(5), C1orf21(11), MXRA7(2), ROBO4(3), JAM3(5), C5orf53(9), ANO6(4), TIMP3(15), LRRC2(2), FXYD6(3), DMD(3), NEDD4(1), MEIS3(1), SLC16A7(1), ARHGAP6(2), PTGIS(3), SH3BP5(9), SSPN(7), SHE(6), GPRASP1(7), TGFBR3(11), PCDHGA2(3), CLIC4(1), C1orf133(10), YPEL4(1), ST5(4), APBB1(4), MID2(10), NXPH3(3), CLIC2(14), PROS1(5), KCNJ8(3), BACH2(1), FOXN3(2), DIXDC1(18), PCDHGB7(5), RASSF8(5), TSPAN2(3), PGM5P2(4), MAGI2(1), C5orf41(2), PALM2-AKAP2(8), ZEB1(6), PRDM8(7), USP31(7), GNAL(4), CALD1(6), PPP1R12A(1), CBX7(6), CYBRD1(2), ZCCHC24(3), TMEM200B(3), HSPA12B(2), FRMD6(4), SVIL(10), PDE7B(1), MYADM(3), ARHGAP31(5), FBXO32(2), RECK(3), PRNP(4), KCTD12(3), UBL3(13), MEF2D(6), PJA2(10), KCTD7(2), RSPO1(4), CYYR1(3), MDFIC(15), ARHGEF6(5), NOSTRIN(4), KDR(1), PGCP(1), MBNL2(4), GUCY1A3(1), MFAP4(3), HSD17B6(3), SNRK(2), IL33(3), DPYD(4), TSPAN7(1), SH3BGRL(8), SOX7(1), C14orf28(2), CAV2(1), STOM(4), HEPH(1), TMEM47(2), OLFML2A(4), ERG(3), CDH5(1), A2M(3), KLHDC1(2), GPR116(4), TMEM204(1), TENC1(3), LAYN(1), GAB1(5), GIMAP4(3), HEG1(4), EMCN(5), TEK(8), MAOB(4), CD302(5), ESAM(1), PHLDB2(1), MITF(1), MBNL1(1), GNG12(2), STON1(6), PCDHGA5(1), ATOH8(1), SLCO2A1(1), ITGA8(3), ERVFRDE1(1), TMOD2(1), PPP1R12B(2), GPRASP2(2), LMOD1(2), WHAMML1(1), LRRK2(4), PDE8B(1), KRT222(1), KLHL10(1), PPP1R12C(1), NECAB1(1), LDB2(2), PALLD(1), PGM5(1), FHL1(2), SYT15(1), KIAA1614(2), CEP68(7), CACNA1C(3), PDE2A(1), ABCG2(2), LIX1L(2), KIAA1644(1), TNS1(1), SMOC2(1), PPAPDC3(1), ZNF521(2), RFTN1(2), CRTAP(8), EZH1(2), N4BP2L1(1), FLI1(2), ENTPD1(1), GIMAP8(3), CCDC69(3), P2RX7(1), CLEC2B(1), FEM1B(3), BMPR2(1), TCF4(2), RNF38(2), ZNF25(2), LRCH1(1), LRCH2(1), EHBP1(1), EPM2A(2), PTPRB(1), ACACB(1), TBC1D1(5), FAM65B(1), MMRN2(2), DHH(1), CLEC1A(1), PDE10A(1), GPR146(1), NRIP2(2), ABCC9(1), PCDHGA11(1), AHNAK(1), FZD4(1), ABCB1(3), FBXL3(1), GLI3(2), DPYSL3(1), ZNF483(1), SERINC1(1), LIFR(1), SYNE1(2), SCN3B(1), MAP3K3(2), GIMAP6(1), MEIS2(1), FGD5(1), TXNIP(2), LEPR(1), DFNA5(1), FBLN5(1), PTGER2(1), CYP2U1(1), ADCY2(1), ENPP2(1), CCDC50(1), WT1(1), C9orf5(1), RAB11FIP5(1), SBDS(1), LATS2(1)</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>345.0</v>
+        <v>245.0</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6000050126811737</v>
+        <v>-0.6000108405963038</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.7413088685008551</v>
+        <v>-0.7076438695291537</v>
       </c>
       <c r="H19" t="n">
-        <v>1762.0</v>
+        <v>1159.0</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.6263861952910408</v>
+        <v>-0.6180556589579957</v>
       </c>
       <c r="J19" t="n">
-        <v>15.5929203539823</v>
+        <v>10.256637168141593</v>
       </c>
     </row>
     <row r="20">
@@ -768,141 +768,141 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>113.0</v>
+        <v>109.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MEF2C(45), RFTN1(10), KIAA1462(37), MDFIC(17), SLC24A3(63), PCDHGA6(45), TCEAL7(56), RHOJ(48), ZBTB4(5), CXorf36(23), N4BP2L1(9), FLT4(46), GYPC(19), STON1(11), LRRN4CL(45), ANTXR2(28), GHR(21), KDR(6), JAM2(11), SLC45A1(10), C5orf53(17), PCDHGA5(19), PPAPDC3(16), NKAPL(15), TIMP2(42), TBC1D1(9), HSD17B6(3), SNRK(11), FAM65B(7), SPARCL1(27), FLI1(9), GLI2(11), PKNOX2(3), ARHGAP6(21), C1QTNF7(19), LOH3CR2A(20), DPYD(11), TACC1(25), GPR133(3), LOC134466(3), GPRASP1(38), MYCT1(19), TGFBR3(19), DLL4(3), HOXD10(3), OGN(9), SETD7(20), TSHZ3(44), PCDHGA2(28), RAB3IL1(7), GPRASP2(24), YPEL4(4), PEAR1(32), VAMP2(3), APBB1(9), C21orf34(28), RSPO1(26), NBLA00301(11), ACVRL1(4), C15orf51(2), SH3BGRL(20), NXPH3(10), CLIC2(28), KCNJ8(11), ABCB1(4), PTRF(4), PABPC5(41), SOX15(9), ABI3BP(14), DIXDC1(27), PMP22(21), C14orf28(5), JAZF1(5), TBL1X(21), CNRIP1(50), RASSF8(27), KANK3(19), CACNB2(11), PDE5A(13), ALDH1A2(12), C10orf72(5), NECAB1(9), TIE1(25), METTL7A(1), FOXF1(1), C5orf4(22), RAMP1(8), HAAO(10), OSR2(27), CALHM2(34), HTR2B(7), C16orf45(36), OLFML2A(27), TRPC1(10), LDB2(31), PALLD(10), ANKRD29(31), TBX3(31), C7orf58(10), PRX(5), FGF2(29), C1QTNF4(2), C1orf70(28), HIC1(8), TXNIP(13), AKT3(38), SERPINF1(4), ZAK(45), FREM1(7), LEPR(7), LTBP4(28), ZEB1(30), GNG11(6), LYL1(1), PRDM8(36), BNC2(28), TMEM204(20), TENC1(23), TMEM55A(9), EHD2(5), CASP12(11), ARHGEF15(31), CYP2U1(5), MAMDC2(17), KCNMA1(9), HGF(3), CBX7(16), CACNA1H(5), CACNA1C(18), TMEM200A(23), PCDHB15(11), MRGPRF(10), KANK2(42), EMCN(7), NFASC(3), PDE2A(6), ABCG2(15), ZCCHC24(25), TMEM200B(30), TEK(22), TNXB(33), MAOB(23), GNAO1(7), HSPA12B(21), SVIL(19), TMEM88(2), KIAA1644(11), STAT5B(47), LOC728392(4), KIAA1755(1), SMOC2(20), ADCY2(18), KATNAL1(17), CD302(16), EBF1(3), ESAM(5), ASAM(29), RASA4(8), ZEB2(14), C1orf21(16), GPR124(33), ROBO4(26), SAP30L(44), FAM175A(11), SCARF1(6), MEIS3(23), REM1(9), C1orf133(13), ZNF25(9), ST5(24), UBL3(15), FGD5(9), EMILIN1(18), DNAJC27(1), FBXL3(1), NRIP2(13), CLIP3(28), KLHDC1(14), PCDHGA3(23), COL15A1(13), MYADM(5), GLT8D2(22), FAM198B(10), PCDHB18(17), NAP1L3(11), LRCH1(6), PCDHB4(17), RFTN2(7), SHANK3(6), NOSTRIN(11), PGCP(4), TGFB3(3), MFAP4(21), RAB8B(9), RGMA(11), WT1(9), FAM70B(3), NEURL1B(2), CDO1(9), SSC5D(5), PCDHGB7(7), HEPH(1), CRTAP(5), FBLN5(9), ZBTB38(7), FKBP7(13), SNED1(6), CALD1(9), HOXD9(2), PDE7B(17), ADCY4(5), MITF(10), DFNA5(4), KIAA1614(8), JAM3(20), RUNX1T1(4), LAYN(6), CEP68(9), LOC728264(2), TSPAN18(15), GRINL1A(6), GLI3(10), ATOH8(7), ANO6(6), PRNP(10), MESTIT1(1), PJA2(6), TIMP3(14), LRRC2(4), FXYD6(5), ADRA1D(2), NEDD4(13), RNF38(2), WHAMML1(3), NR1D1(2), TUB(12), SOX7(14), DDR2(5), TGFB1I1(11), GLT1D1(2), C5orf41(2), USP31(1), CYBRD1(8), LIX1L(9), FRMD6(11), FBXO32(3), RECK(11), ARHGEF6(4), TBC1D2B(7), SRL(2), CLEC3B(2), KCNAB3(1), SLC1A7(1), CCND2(7), SLC26A4(1), FBN1(9), SCARA3(2), TCEAL1(8), HSPB7(1), VIPR2(4), MBNL2(6), FZD4(3), GRK5(1), SOCS2(10), ECM2(5), DMD(2), ZNF521(7), PTGIS(2), CDH13(3), MMRN2(3), SH3BP5(9), SSPN(10), DACT3(7), CDC42EP3(1), THRA(5), PPP1R12B(4), TEF(3), OLFML1(8), EDNRA(2), HAND2(2), TPM1(1), NDN(16), PAPPA(11), ITPR1(1), LMOD1(3), PSD(3), JPH2(1), MID2(3), PTGER2(5), SPEG(1), CYYR1(7), PDE8B(2), PID1(1), CCDC69(2), SH2D3C(7), FXYD1(3), TCEAL4(2), MXRA8(3), CAV2(2), FERMT2(4), KCNMB1(1), LHFP(1), RAPGEF4(6), JPH4(7), CXCL12(4), TM4SF18(2), KLHL33(1), MEF2D(7), PRTG(1), SMTN(1), PGM5(2), FHL1(2), PAMR1(1), SH3D19(1), RASL12(6), GEFT(3), MYH11(1), MASP1(1), AXL(1), DPP6(2), WISP1(1), CHPT1(1), GJD3(2), ENPEP(4), CYP1B1(2), SFMBT2(3), MYLK(1), OSBPL1A(1), TNS1(3), CLEC2B(3), LOC283856(1), PCDHB7(1), HSPB2(2), FAM13C(2), FAM131B(1), FAM65C(1), ZNF483(3), PCDH18(6), ARHGAP20(1), GRID1(7), ARHGAP31(10), PPAP2A(5), PPP1R12C(3), ITPKB(5), TGM2(1), CDK17(1), HIGD1B(1), PTPRB(1), DAB2(4), IL33(3), ITGA8(1), ENTPD1(1), CD93(1), KCNAB1(1), TMOD2(2), PDE10A(1), SNAI2(3), DKK3(3), PRELP(2), CLIC4(3), AKAP2(1), LRRK2(6), PROS1(7), EXOC3L2(1), SYTL4(3), PODN(1), VIP(1), PGM5P2(3), ARL15(2), KL(4), ERG(4), PALM2-AKAP2(3), CLEC14A(2), A2M(2), KCTD8(1), TIPARP(1), GPR116(3), RERG(1), GAB1(5), PPP1R12A(1), RAB33B(1), PLSCR4(1), PIP5K1C(1), PKD2(2), SERINC1(1), TRIM23(1), ABCC9(1), MBNL1(1), NBEA(3), PURG(4), DCHS1(10), CGNL1(2), PCDHGA11(3), WIT1(5), RAB31(2), TCF4(1), PHYHIP(2), KRT222(1), TBXA2R(4), ADARB1(5), EZH1(4), PCDHGA9(2), INSR(5), ILK(1), CCDC136(1), PCDHB12(1), KCTD7(4), BACH2(1), SNCAIP(3), MATN2(2), PCDHGA7(1), ZDBF2(3), ZFYVE20(1), ADD1(2), ANK2(3), TAL1(2), MAN1C1(4), MXRA7(2), FEM1B(4), DST(1), STARD13(3), VAMP3(2), RAMP2(1), EPM2A(1), SHE(2), FBXO31(1), CA11(1), AKNA(1), RNF144A(1), GNG7(2), SCN3B(2), NID1(1), PTPN21(1), PRKCA(5), EFEMP1(1), PCDH12(1), COL6A3(2), AFAP1L1(1), AHNAK(2), IL11RA(2), ELK3(1), ATL1(1), MEIS2(2), ENOX1(1), FOXN3(3), GJC3(1), DOCK4(1), GNAL(1), ST6GALNAC3(2), FOXO1(1), PER3(1), ZNF208(3), CCDC50(1), ZNF34(1), MAP3K3(5), SYNE1(1), DIRAS1(2), EHBP1(2), ZNF676(2), PLAT(2), LOC144571(2), CALCOCO1(2), SETBP1(1), MAF(1), THSD1(1), OR5K2(1), DKFZp566F0947(2), STOM(1), CDH5(1), NT5DC3(1), KIAA0430(1), ISLR(2), TMEM109(1), KDELC2(1), ZNF835(1), CD99L2(1), ENPP1(1), FEZ1(1), NRXN2(1), DENND2A(2), PLA2G4C(1), CNTNAP1(1), COL6A2(1), PKD1(2), C9orf5(1), GNG12(1), POU6F1(1), ERVFRDE1(1)</t>
+          <t>SAP30L(35), FLT4(44), STON1(18), LRRN4CL(49), ANTXR2(34), GHR(25), PCDHGA5(21), MEF2C(42), ANK2(1), LOC134466(10), GPRASP1(39), THRA(8), TSHZ3(46), GPRASP2(26), PEAR1(28), C21orf34(34), CLIC2(34), SOX7(17), PABPC5(42), PMP22(21), PCDHB18(23), C14orf28(10), CNRIP1(46), NAP1L3(7), KIAA1462(41), TIE1(29), LDB2(36), ANKRD29(34), FGF2(31), ZAK(46), PRDM8(31), BNC2(34), MDFIC(23), SLC24A3(56), TMEM200A(30), PCDHB15(12), KANK2(32), TEK(26), PCDHGA6(47), SVIL(24), STAT5B(48), CD302(20), TCEAL7(54), RHOJ(48), ROBO4(33), SHANK3(2), CXorf36(28), GYPC(20), TSPAN18(13), SCARF1(11), SLC45A1(7), GLT8D2(26), PPAPDC3(19), NKAPL(18), TIMP2(35), SPARCL1(33), MEIS3(24), GLI2(14), ZNF208(3), GNG7(5), ARHGAP6(27), REM1(6), MYCT1(26), WT1(11), PCDHGA2(33), RAB3IL1(5), WHAMML1(5), SSC5D(5), APBB1(13), RSPO1(33), KCNJ8(16), EMILIN1(16), TBXA2R(5), ABI3BP(18), TBL1X(18), RASSF8(28), KANK3(21), RAPGEF4(9), C10orf72(7), RAMP1(6), OSR2(30), CALHM2(31), C16orf45(34), OLFML2A(33), TRPC1(12), TBX3(30), ADARB1(7), C1orf70(23), HIC1(5), TXNIP(12), AKT3(33), CLIP3(22), LTBP4(28), ZEB1(30), GNG11(8), TMEM204(22), TENC1(24), TAL1(2), ZNF676(4), KIAA1614(14), MAMDC2(22), PCDHGA3(19), PCDHB4(16), ABCG2(22), ZCCHC24(22), TMEM200B(28), TNXB(34), HSPA12B(25), SMOC2(30), ASAM(29), RASA4(7), COL15A1(15), C1orf21(21), MXRA7(2), WIT1(3), GPR124(27), UBL3(13), SETD7(19), FKBP7(15), CDK17(2), ARHGEF6(5), TBC1D2B(7), CCND2(3), FBN1(5), ANO6(8), PER3(3), PRNP(5), MBNL2(12), PJA2(4), SOCS2(14), FAT4(1), TBC1D1(15), TIMP3(19), MFAP4(24), ZNF835(1), ADRA1D(3), ZNF521(5), FAM65B(10), NEDD4(10), FLI1(10), C1QTNF7(23), LOH3CR2A(22), MMRN2(6), SH3BP5(13), SSPN(9), SHE(3), TACC1(33), GPR133(3), CBX6(1), DACT3(8), RGMA(14), PDE10A(5), TGFBR3(19), TEF(7), OGN(8), OLFML1(8), HAND2(7), PAPPA(13), C1orf133(17), BMPER(1), ST5(22), BCL6B(1), OR5K2(2), FAM198B(14), NBLA00301(14), SH3BGRL(19), NXPH3(12), PROS1(5), ABCB1(8), DIXDC1(31), PARM1(1), PCDHGB7(11), MATN2(3), CACNB2(11), TGFB1I1(14), PDE5A(16), ALDH1A2(10), NECAB1(11), C5orf4(25), JPH4(5), KL(4), C7orf58(14), SERPINF1(7), LEPR(14), CA11(1), KLHDC1(16), CNTNAP1(1), GPR116(9), CRISPLD2(1), GEFT(6), TMEM55A(12), CASP12(13), ARHGEF15(32), LOC158696(2), CALD1(11), KCNMA1(12), CBX7(18), CACNA1H(11), CACNA1C(21), ENPEP(4), MRGPRF(12), EMCN(14), RNF144A(5), PDE7B(14), KATNAL1(15), ESAM(13), RFTN2(5), ZEB2(12), MITF(11), PCDH18(11), GRID1(12), ARHGAP31(10), RECK(8), NOSTRIN(15), SCARA3(4), LRRC2(2), CYYR1(9), DIRAS1(10), PPAP2A(6), RUNX1T1(2), CYBRD1(6), DFNA5(3), NES(2), JAM3(14), NDN(7), MEIS2(2), CDO1(3), FGD5(8), TUB(8), FOXO4(1), ADD1(2), NRIP2(12), ADCY2(15), EBF1(2), GUCY1A3(2), ZNF25(7), SOX15(11), PRKCA(2), MAOB(25), POU6F1(1), FBXO31(2), MAP3K3(5), HAAO(9), AKNA(2), EHD2(10), AFAP1L1(1), ATOH8(6), FXYD6(7), FXYD1(2), PPP1R12C(1), FREM1(8), LIX1L(7), PCBP3(6), CD34(3), FAM175A(7), KCTD7(6), KDR(8), JAM2(9), DPYSL3(1), RAB31(3), PGCP(9), TCEAL1(3), HSPB7(1), MESTIT1(1), ECM2(7), HSD17B6(4), DMD(1), KLHL38(2), C1orf150(1), ITGA8(2), ERVFRDE1(4), PTGIS(1), DPYD(8), GIMAP8(3), PPP1R12B(7), PRELP(3), NEURL1B(5), CLIC4(2), LMOD1(3), PHYHIP(3), PCDHGA4(1), HPGDS(2), MID2(3), PTRF(7), FOXN3(5), ENPP1(2), SH2D3C(7), JAZF1(10), TCEAL4(3), DKFZp566F0947(5), HEPH(2), SYTL4(7), C20orf160(1), THBS2(1), FBLN5(10), TSPAN2(2), PGM5P2(4), GLT1D1(4), HTR2B(13), PBX1(1), ZBTB38(6), PALLD(9), PCDHGA11(2), KLHL33(2), ERG(10), LRCH1(4), PRX(4), NAP1L2(1), SMTN(1), CLEC14A(8), AEBP1(1), PGM5(1), A2M(3), STARD13(4), SH3D19(1), RASL12(6), FGF7(1), RERG(1), LAYN(7), NTRK3(1), CYP2U1(2), MASP1(3), USP31(2), GNAL(3), PLSCR4(1), CEP68(5), DPP6(4), PDE2A(10), GNAO1(8), KIAA1644(13), TNS1(2), PCDHB7(9), ABCC9(1), ZNF483(2), MBNL1(1), ENPP2(3), ARHGAP20(1), ILK(2), MYADM(4), GNG12(1), FBXO32(5), ST6GALNAC3(1), C5orf53(15), PLAT(1), SRL(3), PDGFRA(1), RFTN1(6), CRTAP(9), FYCO1(1), DAB2(4), TCF4(1), NBEA(3), VAMP2(3), DKFZp434J0226(1), LOC144571(4), OLFML3(1), TMEM88(4), LOC728392(4), N4BP2L1(8), SNRK(9), CBFA2T3(3), LRRK2(1), SYNE1(2), KLHL13(2), FEZ1(3), STOM(4), EFEMP1(3), FRMD6(11), NAALADL1(1), GLI3(7), FEM1B(2), THSD1(1), DCHS1(3), SNCAIP(2), MXRA8(2), EZH1(5), INSR(2), IRS1(1), MEF2D(7), ACVRL1(2), UST(3), CLEC3B(1), EPM2A(2), VIPR2(3), FZD4(2), GIMAP6(1), SLC16A7(1), C12orf68(1), TMOD2(1), FAM70B(4), BEGAIN(1), PURG(2), YPEL4(2), C15orf51(3), CCDC69(1), EXOC3L2(5), NR3C2(1), KLHL10(2), F10(1), SHC2(1), PALM2-AKAP2(2), C12orf53(1), PTGDR(2), NFASC(1), CYP1B1(4), FEZ2(1), MYOZ3(1), CLEC2B(2), PRKCDBP(1), IL33(4), PKNOX2(1), KCTD12(5), GAS6(2), ATL1(1), MARVELD1(1), NID1(4), DDR2(4), FERMT2(1), FAM69A(1), C1QTNF4(2), PPM1F(1), CDH5(3), ITPKB(2), HGF(1), SFMBT2(1), LOC283856(1), KRT222(1), SLCO2A1(2), PEG3(1), PTGER2(3), P2RX7(1), AXL(2), PRR16(2), NBL1(1), CGNL1(2), IGFBP4(2), TNFSF12(1), PSD(1), OSBPL1A(1), FAM55C(1), RAB8B(3), C4orf12(1), DOCK4(1), PLXDC1(1), PTPRB(2), HEG1(1), CRY2(2), CSDC2(2), BCAP29(1), ENTPD1(1), ATP1B2(2), HOXD10(2), TM4SF18(3), GAB1(1), FAM131B(2), SNAI2(2), SRF(1), LATS2(1), PKD2(1), TMEM109(1), DST(1), VAMP3(1), DENND2A(2), HIGD1B(2), PODN(1), KCTD8(1), FBXL3(1), INPP5F(1), MAN1C1(1), ADAMTS5(1), PAMR1(1), LOC728264(1), ISLR(1)</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>488.0</v>
+        <v>473.0</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6000093068646635</v>
+        <v>-0.6000121199662578</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.7741925445376393</v>
+        <v>-0.7425853185555754</v>
       </c>
       <c r="H20" t="n">
-        <v>4341.0</v>
+        <v>4603.0</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.6331516172935809</v>
+        <v>-0.6332235061905325</v>
       </c>
       <c r="J20" t="n">
-        <v>38.415929203539825</v>
+        <v>42.22935779816514</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>hsa-miR-92a-3p</t>
+          <t>hsa-miR-1301</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>111.0</v>
+        <v>100.0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.11</v>
+        <v>1.0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ZBTB4(2), TIMP2(12), UBL3(11), FLT4(33), SNRK(6), MEIS3(19), TACC1(23), ZAK(27), SLC24A3(40), STAT5B(25), RHOJ(38), MEF2D(7), NOSTRIN(4), LRRN4CL(9), ANTXR2(11), GHR(9), C5orf53(13), MEF2C(15), SPARCL1(12), SETD7(17), C1orf133(6), CDO1(1), ST5(11), SSC5D(6), SH3BGRL(13), CLIC2(15), PMP22(11), CNRIP1(18), KANK3(9), STOM(13), KIAA1462(22), CRTAP(3), RAMP1(6), CALHM2(11), AKT3(13), ZEB1(14), PRDM8(14), ARHGEF15(10), MDFIC(11), TNXB(8), MAOB(6), ILK(1), MYADM(9), TMEM55A(5), SOX7(9), FGF2(13), CACNA1C(7), LIX1L(5), SHANK3(1), CXorf36(9), SCARF1(4), JAM2(3), EPM2A(1), AHNAK(4), PCDHGA5(5), ANO6(7), PJA2(13), TBC1D1(6), TIMP3(10), ELK3(1), CLEC1A(2), MYCT1(11), PCDHGA2(5), NDN(2), PEAR1(16), RSPO1(6), MID2(12), CYYR1(4), NXPH3(6), DIXDC1(9), PCDHB18(2), SH2D3C(7), PCDHGB7(5), RASSF8(5), GPR146(1), TSPAN2(2), C16orf45(11), OLFML2A(6), ZBTB38(3), LDB2(6), ANKRD29(12), LRCH1(5), TXNIP(8), KLHDC1(1), BNC2(10), TMEM204(10), TENC1(9), EHD2(8), CALD1(6), KCNMA1(7), PCDHGA3(2), ITPKB(1), LRRC70(1), KANK2(12), CYBRD1(1), TEK(8), PCDHGA6(9), FRMD6(5), SVIL(13), MAN1C1(2), NT5DC3(2), SMOC2(7), SERINC1(1), KATNAL1(3), ABCC9(1), ASAM(8), MITF(3), MBNL1(5), TGM2(1), ARHGAP31(7), GNG12(4), FBXO32(5), GPR124(7), DFNA5(1), ROBO4(10), JAM3(7), RFTN1(2), ZCCHC24(7), SAP30L(2), GYPC(4), TSPAN18(7), CCND2(2), NKAPL(4), FZD4(3), MFAP4(3), DMD(4), ZNF521(1), IL33(5), FLI1(6), NBEA(1), ARHGAP6(7), LOH3CR2A(4), DPYD(2), MMRN2(5), SH3BP5(5), SSPN(1), TGFBR3(4), DLL4(2), WT1(3), PAPPA(4), LMOD1(5), C21orf34(3), DST(4), ABCB1(3), PABPC5(3), CAV2(2), NAP1L3(1), HEPH(3), TIE1(12), PGM5P2(5), TM4SF18(2), PCDHGA11(1), NRIP2(4), CLIP3(8), PGM5(3), LTBP4(3), GNG11(2), GPR116(5), MAMDC2(5), CBX7(5), MRGPRF(4), EMCN(6), ABCG2(4), CYP1B1(1), HSPA12B(7), TMEM88(1), ADCY2(2), CD302(3), TCEAL7(13), ESAM(9), PHLDB2(3), MXRA7(2), TFPI(1), STARD8(1), TAL1(1), ARHGEF6(1), GIMAP1(1), AKAP13(2), HSD17B6(2), ENTPD1(1), CD93(2), REM1(3), RGMA(2), GIMAP8(2), GPRASP1(5), EPAS1(1), FBXO31(1), FAM70B(2), NEURL1B(1), ACVRL1(3), DIRAS1(1), PTRF(3), TBXA2R(4), TBL1X(7), C4orf32(1), PALLD(3), CLEC14A(5), CDH5(2), A2M(5), STARD13(5), GIMAP4(2), GIMAP5(1), ZYX(2), TLN1(3), PDE2A(4), TNS1(2), CLEC2B(1), RASA4(1), COL15A1(1), VAMP5(1), BCAP29(1), PRNP(2), FAM65B(3), ABI3BP(1), PCDHB4(1), CCDC136(1), STON1(3), KDR(3), GLI3(1), PPAPDC3(5), FEM1B(1), KLHL38(2), GNG7(1), ERVFRDE1(2), DACT3(2), PDE10A(3), APBB1(2), EMILIN1(5), RASD2(1), FOXN3(1), ENPP1(2), EXOC3L2(2), CACNB2(1), LHFP(1), TGFB1I1(3), PDE5A(2), FAM69A(2), ERG(2), C1orf70(4), DENND2A(1), GAB1(2), TMEM200B(2), RECK(3), SRL(1), CD34(2), PLXDC1(1), TUBB6(1), LAMA4(1), TGFB3(1), GIMAP6(1), NEDD4(1), ITGA8(1), MICAL2(1), CD99L2(1), ZNF208(1), SCN3B(1), PRKCH(1), PTGIS(1), TMOD2(1), PPP1R12B(2), TSHZ3(1), CLIC4(2), GPRASP2(3), ITPR1(1), AKAP2(1), ZNF25(1), FGD5(2), KCNJ8(1), CCDC69(1), MAPK10(1), FERMT2(1), ECSCR(2), JPH4(1), PALM2-AKAP2(2), PRX(2), RASL12(1), VAMP3(1), USP31(2), PCDHGB6(1), HGF(1), LATS2(1), GIMAP7(1), CCDC50(1), C1orf21(1), SOCS2(1), DHH(3), SHE(2), MEIS2(1), PTGER2(1), MAP3K3(1), HTR2B(1), KL(1), GNAL(2), KIAA1644(1), DDR2(1), DCHS1(2), KIAA1614(1), PLAT(1), ST6GALNAC3(1), TBC1D2B(2), OSTM1(2), GLT8D2(1), TRPC1(1), MAF(1), CACNA1H(1), FEZ2(1), ZEB2(1), FBLN5(1), RAB8B(1), ACTN1(1)</t>
+          <t>C5orf53(29), ZAK(55), TENC1(24), SLC24A3(61), STAT5B(61), FLT4(46), ANTXR2(12), MEF2C(21), ANK2(1), DMD(2), TACC1(18), UBL3(13), PEAR1(18), SOX7(7), DIXDC1(10), C14orf28(4), CNRIP1(34), KIAA1462(23), ANKRD29(18), FGF2(18), PRDM8(17), TCEAL7(26), RHOJ(28), NOSTRIN(5), PPAPDC3(2), ARHGAP6(7), KRT222(2), KANK3(5), C16orf45(17), C1orf70(3), AKT3(25), MDFIC(16), KANK2(19), TNXB(12), LIX1L(9), GYPC(7), LRRN4CL(19), DAB2(1), MBNL2(1), IL33(3), SPARCL1(11), GPRASP1(10), MYCT1(6), SETD7(17), TSHZ3(8), NDN(4), C1orf133(5), CDO1(1), ST5(5), RSPO1(8), SH3BGRL(5), CLIC2(11), TGFB1I1(3), PTPN21(1), CRTAP(12), CALHM2(12), OLFML2A(1), CLIP3(5), LTBP4(11), ZEB1(10), GNG11(11), TMEM204(4), ARHGEF15(17), CBX7(13), ZCCHC24(10), HSPA12B(7), SVIL(7), MAN1C1(4), SMOC2(6), ASAM(7), ZEB2(5), C1orf21(6), GPR124(15), MEF2D(8), KLHDC1(15), MEIS3(17), RFTN1(8), TBL1X(3), EHD2(6), MAOB(12), PJA2(5), BCAP29(2), TNFSF12(3), PRKCA(3), INSR(1), JAM3(7), NRIP2(4), SCARF1(3), CXorf36(6), GLT8D2(4), TIMP2(4), MFAP4(7), CD99L2(1), APBB1(3), FGD5(2), PABPC5(8), FOXN3(3), TBXA2R(1), PARM1(1), STOM(2), TIE1(8), PCDHGA11(1), LRCH1(3), TXNIP(3), CDH5(2), BNC2(4), CALD1(5), KCNMA1(9), CEP68(1), EMCN(2), PCDHB4(3), PCDHGA6(1), PLAT(1), CD302(4), PHLDB2(1), GRID1(3), MYADM(8), ARHGAP31(3), ROBO4(5), AFAP1L1(1), PRX(3), ACOX2(1), GPRASP2(2), KIAA1614(2), ZNF575(1), DPYSL2(1), ZNF25(3), DPYD(4), REM1(3), CALCOCO2(1), EZH1(3), PAPPA(3), OR5K2(2), SAP30L(6), WT1(3), C21orf34(4), GHR(4), CCND2(2), PDE5A(4), TSPAN18(2), FLI1(2), LOH3CR2A(5), PCDHGA2(1), LMOD1(2), FAM198B(2), ACVRL1(1), ABI3BP(1), PCDHGB7(2), LDB2(2), ERG(1), A2M(1), GPR116(1), MAMDC2(2), ABCG2(2), MBNL1(2), GNG12(2), ZBTB4(1), CLEC1A(1), SSC5D(2), ADCY4(1), ARHGEF6(1), ANO6(1), PMP22(4), TMEM55A(1), TBC1D2B(2), KCTD7(1), KCTD12(1), SYNE1(2), NBL1(1), FBXO31(1), SCN3B(1), DIRAS1(1), EMILIN1(2), FKBP7(3), IGFBP4(2), JAM2(1), NKAPL(3), NEDD4(4), RAB8B(1), PRKCH(1), PSD(1), LRRK2(1), NXPH3(2), SH2D3C(1), OSR2(1), JPH4(1), TRPC1(2), ZBTB38(1), PALLD(1), FRY(1), RASL12(1), CACNA1C(1), MRGPRF(1), OSTM1(2), TMEM200B(2), TEK(1), OSBPL1A(1), NT5DC3(1), FAM13C(1), AHNAK(1), SH3BP5(1), DACT3(1), WHAMML1(1), CYYR1(1), DCHS1(1), RASSF8(2), NECAB1(1), GAB1(1), CACNA1H(2), ZNF521(1), SNRK(4), ZNF208(1), CCDC69(2), OLFML3(1), FZD4(1), TIMP3(1), TGFBR3(1), KCNJ8(1), PGM5P2(1), CYP2U1(1), PCDHB15(1), PDE2A(1), KATNAL1(1), NAALADL1(1), FBXO32(1), MAP3K3(1)</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>310.0</v>
+        <v>226.0</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.6000059851135642</v>
+        <v>-0.6000018446476988</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.7170016400070095</v>
+        <v>-0.7003916934474697</v>
       </c>
       <c r="H21" t="n">
-        <v>1450.0</v>
+        <v>1342.0</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.6246889652858569</v>
+        <v>-0.6198752157145602</v>
       </c>
       <c r="J21" t="n">
-        <v>13.063063063063064</v>
+        <v>13.42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>hsa-miR-1301</t>
+          <t>hsa-miR-15a-5p</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>108.0</v>
+        <v>100.0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.08</v>
+        <v>1.0</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>C5orf53(38), RFTN1(9), MDFIC(14), ZBTB4(5), FLT4(46), LRRN4CL(22), ANTXR2(10), GHR(7), MEF2C(22), SNRK(3), SPARCL1(14), TACC1(18), SETD7(26), PEAR1(19), CLIC2(13), C14orf28(5), CNRIP1(32), KANK3(10), PDE5A(8), KIAA1462(21), C16orf45(16), FGF2(25), C1orf70(6), AKT3(24), ZAK(57), LTBP4(16), GNG11(7), EHD2(7), ARHGEF15(12), SLC24A3(60), KANK2(20), ZCCHC24(8), HSPA12B(6), STAT5B(63), TCEAL7(22), RHOJ(26), GPR124(14), KLHDC1(13), ABI3BP(6), DIXDC1(11), ANKRD29(20), MEF2D(7), PRDM8(16), MAOB(13), UBL3(13), CRTAP(7), CXorf36(5), SAP30L(8), NOSTRIN(6), GLT8D2(6), NKAPL(4), PJA2(7), TIMP3(4), MFAP4(8), IL33(2), MEIS3(21), ARHGAP6(4), REM1(5), GPRASP1(8), MYCT1(5), TSHZ3(9), C1orf133(3), SH3BGRL(7), NXPH3(5), TIE1(5), LDB2(6), CRISPLD2(2), TENC1(20), CBX7(11), NFASC(1), TEK(5), TNXB(13), SVIL(7), MBNL1(5), MYADM(8), ROBO4(5), ARHGAP31(3), GYPC(11), JAM3(9), CDO1(2), PMP22(6), LIX1L(5), SHANK3(3), JAM2(6), NDN(10), RSPO1(9), CYYR1(2), SOX7(7), EMILIN1(4), CALHM2(13), LRCH1(5), TXNIP(9), ZEB1(8), BNC2(5), ITPKB(2), PCDHGA6(4), MAN1C1(7), SERINC1(1), ASAM(6), PRKCA(4), TIMP2(4), RAB8B(3), TSPAN18(2), KCTD7(2), SLC45A1(1), GRINL1A(1), PGCP(1), CCND2(4), FBN1(2), TCEAL1(1), ANO6(3), PPAPDC3(4), PRNP(2), ZNF521(3), NEDD4(4), TCF4(3), C1QTNF7(2), LOH3CR2A(5), DPYD(2), SSPN(3), THRA(1), WT1(6), OLFML1(1), SNAI2(2), PCDHGA2(4), CLIC4(3), GPRASP2(3), PAPPA(1), LMOD1(3), ST5(9), SSC5D(5), LRRK2(3), FAM198B(4), PROS1(2), KRT222(2), PABPC5(7), PCDHB18(4), PCDHGB7(1), RASSF8(3), STOM(3), RAPGEF4(2), NAP1L3(2), TMEM47(3), HAAO(1), OSR2(1), ZBTB38(4), FKBP7(3), C7orf58(1), CLIP3(5), SERPINF1(1), SH3D19(2), GPR116(2), TMEM204(3), GAB1(3), MAMDC2(4), CALD1(4), PPP1R12A(1), KCNMA1(5), PCDHGA3(3), CEP68(2), TMEM200A(4), MRGPRF(2), EMCN(4), TLN1(1), EZH1(1), ABCG2(3), TMEM200B(3), PCDHGA9(1), SMOC2(4), KATNAL1(4), CD302(5), ZEB2(4), COL15A1(2), MITF(2), GRID1(3), GNG12(2), RECK(3), NRIP2(6), MXRA7(1), BCAP29(2), APBB1(3), ZNF208(2), SCN3B(1), PDE10A(2), ZNF25(2), PRX(2), CCDC50(1), FEM1B(1), MAP3K3(3), C1orf21(4), SYNE1(1), IGFBP4(1), CALCOCO2(1), RUNX1T1(1), PTRF(4), FYCO1(2), SCARF1(2), TGFB1I1(1), OLFML2A(2), PALLD(2), WHAMML1(2), PCDHB4(7), TBC1D2B(1), MAF(1), SH3BP5(3), AHNAK(2), PCDHGA5(2), MID2(1), FOXN3(2), TBL1X(4), FERMT2(1), ERG(3), PALM2-AKAP2(2), CDH5(1), A2M(2), STARD13(1), TMEM55A(1), FRMD6(2), ESAM(2), PHLDB2(2), VAMP2(2), CLEC1A(2), LRRC70(2), FBLN5(1), DCHS1(1), ARHGEF6(1), AFAP1L1(1), SLC26A4(1), AKAP13(1), ANK2(1), DMD(1), ITGA8(1), CD93(1), TMOD2(1), THSD1(1), DACT3(1), TGFBR3(1), MEIS2(1), AKAP2(1), OR5K2(1), FGD5(1), TUB(1), DIRAS1(2), TAL1(1), ADCY2(1), FAM13C(1), LIFR(1), WIT1(1), KCTD12(1), DAB2(1), HSD17B6(1), FLI1(1), GNG7(1), TBXA2R(1), CCDC69(1), PCDHB15(1), INSR(1), CLEC2B(1), EFHA2(1), PCDHGB6(1), CCDC48(1)</t>
+          <t>SAP30L(18), FLT4(32), LRRN4CL(36), POU6F1(3), PPAPDC3(13), TIMP2(29), SH3BP5(6), THRA(19), GPRASP2(34), ST5(15), RSPO1(18), RASSF8(31), CALHM2(18), C16orf45(32), ANKRD29(21), C1orf70(18), AKT3(23), ZAK(44), LTBP4(13), SLC24A3(58), PCDHGA3(18), KANK2(31), ZCCHC24(12), MAOB(19), PCDHGA6(36), STAT5B(38), RHOJ(38), CEP68(14), SHANK3(2), TSPAN18(6), SCARF1(4), ANTXR2(7), SLC45A1(3), GLT8D2(7), NKAPL(3), ZNF835(1), MEF2C(8), FXYD6(10), DMD(6), SPARCL1(7), MEIS3(15), ZNF208(2), GNG7(6), ARHGAP6(17), SSPN(7), TACC1(15), DACT3(5), GPRASP1(13), WT1(13), SETD7(4), TSHZ3(18), PCDHGA2(5), C1orf133(22), WHAMML1(2), SSC5D(3), PEAR1(6), APBB1(18), C21orf34(11), PABPC5(14), EMILIN1(11), FOXN3(4), ABI3BP(2), DIXDC1(7), TBL1X(15), CNRIP1(16), CACNB2(3), KIAA1462(33), TIE1(5), OLFML2A(9), TRPC1(4), TBX3(9), ADARB1(6), LRCH1(1), PRX(5), FGF2(22), CLIP3(17), ZEB1(3), PRDM8(26), BNC2(11), TMEM204(7), TENC1(11), TMEM55A(9), LAYN(5), ZNF676(1), MAMDC2(3), USP31(4), CBX7(13), CACNA1H(6), TMEM200A(10), PCDHB15(8), ARSI(1), PCDHB4(15), TMEM200B(6), HSPA12B(11), RNF144A(3), SVIL(21), SMOC2(8), TCEAL7(19), ASAM(4), MYADM(9), MXRA7(1), WIT1(2), GPR124(18), UST(1), RGMA(15), NDN(8), CDO1(6), BACH2(2), TBC1D2B(5), STON1(4), FAM175A(6), GHR(14), C5orf53(5), MFAP4(25), ZNF521(2), KCTD12(8), CALCOCO1(2), LRRK2(1), UBL3(6), MID2(3), SH3BGRL(7), NXPH3(5), TUB(14), PROS1(3), SOX7(5), GJC3(1), NAP1L3(10), NECAB1(6), SRF(3), C5orf4(7), FKBP7(15), MEF2D(7), PRKCA(1), TXNIP(2), KLHDC1(15), LIX1L(7), PDE7B(2), ADCY2(2), KATNAL1(5), MITF(1), CCND2(4), CBX6(1), AFAP1L1(1), PCDHGA5(4), SEPP1(1), FGD5(3), RIC3(1), CLIC2(3), PCDHB18(5), MAPK10(1), ZBTB38(2), CD302(2), RFTN2(2), GRID1(6), MDFIC(7), SERINC1(1), JAM3(11), FOXO4(1), RAMP1(2), PCDHGA11(2), ST6GALNAC3(1), EPM2A(2), DHH(1), KCNJ8(3), KANK3(3), FOXF1(1), CDH5(1), CYP2U1(1), PLAT(1), ZEB2(2), TBC1D1(3), TGFBR3(5), PMP22(8), DNAJC27(1), CCDC50(2), ACOX2(1), RFTN1(4), SCARA3(1), SNRK(1), PEG3(2), CRY2(1), PDE5A(3), HTR2B(1), FYCO1(2), LOC644538(1), GYPC(5), IGFBP4(1), PRNP(6), DCHS1(6), HAAO(3), NRIP2(3), PKD1(1), LOC144571(2), LRCH2(1), EHBP1(1), TCF4(1), PTPRN2(1), DKK3(1), DIRAS1(3), SOX15(3), FBLN5(2), OSR2(4), ADD1(2), KIAA1614(3), MRGPRF(3), RBM9(1), GNAO1(3), RASA4(2), REM1(1), SYNE1(3), CACNA1C(2), PCDHB7(1), INSR(2), LOC283856(2), TEF(2), RAB11FIP5(2), ZBTB4(1), MARVELD1(1), PPM1F(1), FEM1B(2), RBM43(1), ZNF25(4), MAP3K3(4), TIMP3(3), SRL(1), PCBP3(1), GLI3(1), ANO6(1), NEDD4(1), GLI2(2), SCN3B(1), LOH3CR2A(2), RAB3IL1(1), PSD(1), YPEL4(1), PHYHIP(2), OR5K2(1), COLEC12(1), MXRA8(1), TGFB1I1(1), JPH4(2), C7orf58(1), HIPK4(1), LPAR4(1), RASL12(2), EHD2(1), CYP1B1(2), TNXB(2), FBXO32(1), RNF38(1), LOC728392(3), OSBPL1A(1), NBEA(1), MAGI2(2), C1QTNF7(1), HEPH(1), OTUD1(1), IRS1(1), ATL1(1), PCDHB5(1), CSDC2(1), CBFA2T3(1), ATP1B2(1), PAPPA(1), CPEB1(1), SPEG(1), RASD2(1), C14orf28(1), TCEAL4(1), C10orf72(1), CRTAP(1), C12orf53(1), GEFT(1), ARHGEF15(1), EZH1(1), CCDC36(1), HSPB2(1), DFNA5(1), HAND2(1), PKNOX2(1)</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>261.0</v>
+        <v>280.0</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.600019032497278</v>
+        <v>-0.6000066175136408</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.7056520717478989</v>
+        <v>-0.7190637256044663</v>
       </c>
       <c r="H22" t="n">
-        <v>1536.0</v>
+        <v>1850.0</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.6210519424965244</v>
+        <v>-0.6239107082638363</v>
       </c>
       <c r="J22" t="n">
-        <v>14.222222222222221</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>hsa-miR-96-5p</t>
+          <t>hsa-miR-141-5p</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>106.0</v>
+        <v>97.0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.06</v>
+        <v>0.97</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>TIMP2(12), RFTN1(4), ZAK(17), ZBTB4(2), KLHDC1(7), STAT5B(25), UBL3(9), SHANK3(1), FLT4(12), GYPC(8), LRRN4CL(14), GHR(6), RAB31(1), GLT8D2(9), FBN1(3), PPAPDC3(4), NKAPL(5), MFAP4(4), MEF2C(13), MEIS3(9), LOH3CR2A(4), DPYD(6), REM1(1), GPRASP1(7), WT1(9), SETD7(6), TSHZ3(12), RAB3IL1(1), CDO1(2), SSC5D(2), PEAR1(10), APBB1(12), RSPO1(6), CLIC2(8), EMILIN1(3), PMP22(9), CNRIP1(17), RASSF8(8), KIAA1462(9), NECAB1(1), CRTAP(3), TIE1(2), HAAO(3), OSR2(4), CALHM2(8), C16orf45(18), FKBP7(3), C1orf70(5), AKT3(16), LTBP4(11), ZEB1(10), SNED1(2), PRDM8(12), BNC2(6), MDFIC(4), SLC24A3(21), ZCCHC24(8), TNXB(8), MAOB(6), HSPA12B(5), TCEAL7(14), RFTN2(1), RHOJ(15), ZEB2(8), GPR124(7), ARHGAP6(4), TENC1(6), KANK2(10), ASAM(6), VAMP3(3), SAP30L(9), PER3(1), PRNP(1), PJA2(7), SH3BP5(4), TGFBR3(4), LRCH1(6), FGF2(11), PCDHB15(5), SVIL(5), MYADM(5), CXorf36(2), JAM3(5), C5orf53(4), PCDHGA5(2), TIMP3(4), SPARCL1(4), ZNF208(2), KCTD12(7), SSPN(3), TACC1(6), MYCT1(2), GPRASP2(6), DIXDC1(7), TBL1X(2), KANK3(2), CACNB2(4), C5orf4(3), ANKRD29(6), TXNIP(2), CLIP3(9), ARHGEF15(2), CBX7(5), CACNA1H(4), TLN1(2), CYP1B1(2), PCDHGA6(6), ADD1(2), C21orf34(5), PABPC5(7), PGCP(4), CCND2(3), DAB2(3), ST5(5), LRRK2(2), STOM(1), ADARB1(2), PRX(1), LIX1L(2), WIT1(2), KCTD7(3), ANK2(2), PROS1(4), TMEM55A(5), PCDHGA3(2), ARHGEF6(3), NOSTRIN(4), GLI3(2), FEM1B(3), CD99L2(2), NDN(5), PCDHB4(4), ADCY2(3), EBF1(1), RAB8B(4), NR3C1(2), SCARA3(2), ANO6(2), MBNL2(2), NEDD4(4), SCN3B(1), ZNF25(2), FOXN3(2), MAGI2(1), KATNAL1(5), CD302(5), CCDC50(1), ARHGAP31(1), TBC1D2B(4), UST(2), STON1(1), ANTXR2(3), TCEAL1(2), TGFB3(1), FXYD6(2), NBEA(1), C1QTNF7(1), THRA(1), TEF(2), SNAI2(2), PCDHGA2(2), SEPP1(1), C1orf133(1), OR5K2(1), MID2(1), SH3BGRL(3), TUB(1), SYNE1(1), DDR2(3), BACH2(1), ABI3BP(2), PCDHB18(2), NAP1L3(2), PDE5A(1), SRF(1), TRPC1(3), TBX3(2), PCDHGA11(1), MEF2D(3), NAP1L2(1), TIPARP(1), LAYN(2), CYP2U1(1), MAMDC2(3), KCNMA1(3), GNAO1(1), MAN1C1(2), EHBP1(1), SMOC2(2), MBNL1(1), GRID1(3), RECK(2), MAP3K3(2), AXL(3), FAM175A(1), SCARF1(1), ATOH8(1), TMOD2(1), DACT3(2), PAPPA(1), LMOD1(1), CALCOCO1(1), NXPH3(1), NID1(1), KCNJ8(1), PTRF(1), KRT222(1), SOX15(1), FOXO4(1), PCDHGB7(1), FEZ1(1), TGFB1I1(1), LDB2(1), C7orf58(1), PRKCA(1), GEFT(1), CALD1(1), CEP68(1), TMEM200A(1), MRGPRF(1), PDE2A(1), ABCG2(1), TMEM200B(1), SFMBT2(1), FRMD6(2), PDE7B(1), MITF(1), C1orf21(1), ROBO4(1), FBXL3(1), IRS1(1), EHD2(1), CACNA1C(1), FAM13C(1)</t>
+          <t>C5orf53(17), SH3BGRL(21), STAT5B(65), CXorf36(12), SAP30L(33), FLT4(41), STON1(9), LRRN4CL(44), AFAP1L1(5), ANTXR2(33), FAM55C(1), GHR(21), JAM2(12), GLT8D2(44), AHNAK(4), PCDHGA5(10), TCEAL1(7), ANO6(24), MBNL2(12), TIMP2(54), PJA2(21), TIMP3(33), MEF2C(42), FXYD6(15), ANK2(1), IL33(6), SPARCL1(29), ITGA8(3), FLI1(10), RAB8B(4), ARHGAP6(29), PTGIS(5), LOH3CR2A(15), DPYD(20), SH3BP5(19), SHE(10), TMOD2(14), TACC1(36), LOC134466(2), DACT3(12), GPRASP1(37), MYCT1(19), THRA(3), PPP1R12B(3), TGFBR3(10), TEF(6), TSHZ3(27), PCDHGA2(24), GPRASP2(35), ITPR1(2), LMOD1(7), ZNF25(12), ST5(20), UBL3(18), PEAR1(39), C21orf34(12), PLCL1(1), MID2(16), CLIC2(32), KCNJ8(27), ABCB1(3), SOX7(12), PTRF(7), BACH2(5), PABPC5(36), FOXN3(9), ABI3BP(10), DIXDC1(37), PMP22(31), C14orf28(8), TBL1X(21), CNRIP1(59), KLHL10(2), FERMT2(10), CACNB2(16), NAP1L3(9), KIAA1462(44), NECAB1(17), PGM5P2(4), CALHM2(33), OLFML2A(8), FBXL3(4), LDB2(19), ANKRD29(22), ERG(4), PALM2-AKAP2(7), C7orf58(20), LRCH1(19), FGF2(34), EFEMP1(5), ZAK(57), PGM5(3), LEPR(3), GNG11(21), PRDM8(43), GEFT(13), BNC2(28), GAB1(13), MDFIC(16), MAMDC2(27), USP31(1), CALD1(28), KCNMA1(7), SLC24A3(64), PLSCR4(5), CBX7(20), CEP68(3), CACNA1H(21), HEG1(6), CACNA1C(13), PCDHB15(9), MRGPRF(3), KANK2(29), PDE2A(4), ABCG2(6), TMEM200B(15), TEK(14), TNXB(21), MAOB(41), PCDHGA6(37), RNF144A(5), FRMD6(23), SVIL(30), PDE7B(31), TNS1(4), SMOC2(13), ADCY2(13), KATNAL1(29), CD302(9), PPAP2B(2), TCEAL7(39), FAM13C(3), RHOJ(58), ASAM(32), MYADM(16), ARHGAP31(20), ROBO4(14), RECK(29), SHANK3(3), PPAPDC3(21), NKAPL(18), MEIS3(26), WHAMML1(4), APBB1(18), EMILIN1(21), RASSF8(26), C16orf45(37), TRPC1(5), AKT3(43), CLIP3(22), LTBP4(29), ZEB1(36), TENC1(19), TMEM55A(14), KIAA1614(10), PCDHGA3(14), PCDHB4(12), ZCCHC24(30), HSPA12B(16), MXRA7(3), GPR124(24), ARHGEF6(11), PGCP(11), FBN1(13), PRNP(13), GUCY1A3(1), NEDD4(28), C1QTNF7(17), RGMA(5), SETD7(23), CLIC4(11), PROS1(16), KANK3(16), PDE5A(20), TMEM47(2), ZBTB38(11), PALLD(4), C1orf70(12), TMEM204(15), TMEM200A(21), LIX1L(13), ZEB2(24), COL15A1(7), MBNL1(4), RFTN1(7), TBC1D2B(8), TSPAN18(12), CCND2(6), MFAP4(25), ZNF521(3), SSPN(12), CBX6(2), PDE10A(12), OLFML1(9), PAPPA(5), C1orf133(9), BCL6B(1), GPR1(1), PARM1(2), PCDHGB7(12), KL(4), FKBP7(14), SERPINF1(7), CA11(1), CDH5(5), KLHDC1(19), VAMP3(2), ARHGEF15(16), TLN1(4), ESAM(3), RFTN2(6), GRID1(12), NOSTRIN(7), EPM2A(2), FZD4(4), SNRK(6), KCTD12(9), WT1(6), DDR2(6), TIE1(19), MEF2D(8), TXNIP(7), RUNX1T1(2), PPP1R12A(6), RASA4(6), C1orf21(10), GYPC(18), SCARF1(4), NES(1), RAB31(2), JAM3(21), NDN(10), MEIS2(1), CDO1(2), RSPO1(9), CCDC69(2), PCDHB18(7), OSR2(5), C10orf54(2), NRIP2(8), DOCK4(1), ARRB1(2), LAYN(8), CYP2U1(3), EMCN(6), FEZ2(6), SFMBT2(6), CLEC2B(5), EBF1(1), ADCY4(1), KCTD7(7), POU6F1(2), GNG7(3), LRRK2(4), NXPH3(12), PPP1R12C(1), CAV2(5), SIRT1(1), SRF(4), MITF(2), GNG12(6), SSC5D(7), HEPH(4), PRX(7), AEBP1(1), ZNF676(3), SRL(3), UST(4), DAB2(1), DMD(8), CD93(3), DHH(7), ELK3(1), TSPAN7(1), AKAP2(2), FGD5(2), LHFP(4), ADD1(4), PCDHGA11(3), FAM69A(3), A2M(4), GPR116(6), OSTM1(1), PLAT(1), FAM198B(3), CYYR1(5), LATS2(1), SERINC1(2), CCDC50(1), ACOX2(1), CRTAP(9), IGFBP4(3), SPTBN1(4), ETS1(1), EHBP1(1), ACACB(1), TDRD10(1), FAM65B(1), TCF4(3), NBEA(3), CLEC1A(1), TUB(3), PPAP2A(1), RAPGEF4(5), GPR146(1), TAL1(1), MXI1(1), MRC1(1), LRRC70(1), FBXL7(1), EHD2(7), CD34(3), FAM175A(3), ENTPD1(2), MARVELD1(5), PEG3(1), PHYHIP(1), PDGFRA(1), ACVRL1(1), DIRAS1(8), TBXA2R(4), SYTL4(3), FBLN5(4), HAAO(5), LOC144571(1), EZH1(5), SLC8A1(1), PPP3CB(1), GLI3(5), RAB30(2), ITPKB(1), ZNF438(1), RNF38(4), GNG2(2), RAB11FIP5(2), PRKCA(3), ZBTB4(1), PLA2G4C(1), PCDH18(2), PLXDC1(3), ATL1(4), VAMP2(1), NID1(4), KRT222(1), DCHS1(3), SH2D3C(2), C5orf4(9), TBX3(2), ADARB1(3), PPM1F(1), SBDS(2), TGFB3(1), PCDHGA7(1), PCDHB7(2), FEM1B(3), SYNE1(3), C10orf72(3), TMEM88(2), NAALADL1(1), SEPT7(1), HCFC2(1), HAND2(2), THBS2(1), INSR(2), KDR(1), ELTD1(1), SLC1A7(1), ATOH8(3), LAMA4(1), SOCS2(1), ECM2(1), GIMAP6(1), BCAP29(1), ERVFRDE1(1), MMRN2(2), GIMAP8(1), HOXD10(2), MSRB3(1), SPEG(1), MCAM(1), EXOC3L2(1), STOM(2), PODN(1), CFL2(3), TM4SF18(3), SMTN(1), CLEC14A(1), FHL1(1), RASL12(1), FGF7(1), PCDH12(1), RERG(1), LRRC8C(1), GIMAP4(1), EHBP1L1(1), NPY1R(1), CYBRD1(2), PHLDB2(4), SOX15(1), CASP12(3), SGCE(3), LOC283856(1), ZNF483(2), N4BP2L1(3), PTGDR(2), PCDHGA9(3), GRINL1A(2), IRS1(1), TIPARP(2), TJP1(1), MXRA8(1), C20orf160(1), DENND2A(1), NMT2(1), MAN1C1(4), ENPP1(1), MATN2(2), PCDHB5(1), MAP3K3(1), SCARA3(1), GRK5(2), VCL(1), DKK3(1), NR2F1(1), NEURL1B(1), RAB11FIP2(1), TCEAL4(1), RNF11(1), NAP1L2(1), GNAL(2), SNCA(1), MACF1(1), CYP1B1(1), ENPP2(1), SLC16A7(1), PTGER2(1), LOC728264(1), FOXO1(1), RAMP1(1), CRISPLD2(1), HSD17B6(1), TCF23(1), PRELP(1), PCDHGA4(1), HLF(1), TGFB1I1(1), COX7A1(1), AXL(1), WIT1(1)</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>234.0</v>
+        <v>449.0</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.6000026960986727</v>
+        <v>-0.6000055163832583</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.7128623443925379</v>
+        <v>-0.7269481172577771</v>
       </c>
       <c r="H23" t="n">
-        <v>928.0</v>
+        <v>4235.0</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.6231336612944967</v>
+        <v>-0.6272918664477655</v>
       </c>
       <c r="J23" t="n">
-        <v>8.754716981132075</v>
+        <v>43.65979381443299</v>
       </c>
     </row>
     <row r="24">
@@ -912,69 +912,69 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>105.0</v>
+        <v>97.0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.05</v>
+        <v>0.97</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CXorf36(24), FLT4(42), STON1(38), LRRN4CL(43), TSPAN18(39), SCARF1(8), ANTXR2(42), GHR(29), GIMAP1(8), APOL3(2), C5orf53(16), ANO6(37), PPAPDC3(6), NKAPL(9), PRNP(10), TIMP2(64), ACACB(3), TBC1D1(12), TIMP3(52), MFAP4(16), MEF2C(48), SPARCL1(47), MEIS3(30), ARHGAP6(38), DPYD(17), KCTD12(13), MMRN2(15), DHH(5), SH3BP5(18), TACC1(54), GPRASP1(28), MYCT1(24), PPP1R12B(25), TGFBR3(13), PCDHGA2(28), GPRASP2(13), LMOD1(25), ZNF25(15), ST5(22), SSC5D(12), PEAR1(37), VAMP2(8), APBB1(32), RSPO1(31), FGD5(9), MID2(24), SH3BGRL(27), NXPH3(28), CLIC2(26), PROS1(20), KCNJ8(23), PABPC5(10), FOXN3(16), DIXDC1(50), PMP22(25), TBL1X(20), CNRIP1(36), STOM(4), KIAA1462(60), TIE1(25), TSPAN2(22), PGM5P2(28), CALHM2(46), C16orf45(38), FBXL3(9), PALM2-AKAP2(24), C7orf58(9), LRCH1(27), NRIP2(11), TXNIP(9), AKT3(67), ZAK(70), PGM5(23), A2M(8), KLHDC1(8), ZEB1(30), GNG11(9), BNC2(41), MAMDC2(34), USP31(7), CALD1(44), GIMAP4(4), KCNMA1(37), SLC24A3(60), GIMAP5(5), CBX7(33), KANK2(34), EMCN(20), TEK(19), PCDHGA6(30), FRMD6(34), SVIL(46), STAT5B(77), CLEC2B(3), TCEAL7(28), ESAM(18), ASAM(46), MYADM(15), ARHGAP31(21), ROBO4(19), RECK(31), SAP30L(41), GLI3(8), AHNAK(16), PJA2(37), SNRK(3), SHE(19), RFTN1(4), KIAA1614(8), PCDHGB6(2), HEG1(12), RHOJ(53), KDR(7), JAM2(9), GLT8D2(25), SCARA3(5), TCEAL1(7), HSD17B6(8), GIMAP6(7), NEDD4(16), ITGA8(17), PTGIS(22), C1QTNF7(6), LOH3CR2A(13), SSPN(21), DACT3(16), PDLIM3(7), THRA(3), PRELP(3), CLIC4(14), ITPR1(11), C1orf133(18), UBL3(13), OR5K2(2), C21orf34(13), ABI3BP(16), C14orf28(5), KANK3(17), FERMT2(15), ANGPTL1(5), TGFB1I1(6), RNASE4(2), C5orf4(5), CFL2(6), OLFML2A(18), LDB2(17), FGF2(42), FRY(8), LEPR(8), CDH5(5), FHL1(12), GPR116(14), FGF7(6), RERG(16), RUNX1T1(2), LAYN(6), PLSCR4(10), CYBRD1(6), PDE2A(18), ABCG2(12), TMEM200B(16), FEZ2(5), PKD2(8), TNXB(15), MAOB(19), PDE7B(8), TNS1(13), SMOC2(14), ADCY2(21), CD302(7), RFTN2(3), ABCC9(7), MBNL1(2), C1orf21(14), GRID1(9), FBXO32(16), JAM3(32), SHANK3(3), KCTD7(6), DPYSL3(6), FEM1B(2), DMD(10), SYNPO(9), TNFAIP8L3(6), WT1(11), SETD7(23), CAV1(3), EMILIN1(9), PCDHGB7(9), RNF11(2), RASSF8(22), CAV2(6), HEPH(5), CRTAP(3), THBS2(3), ANKRD29(8), C1orf70(4), PRDM8(34), GAB1(15), MDFIC(26), EHBP1L1(5), WISP1(3), CACNA1C(16), TLN1(8), ZCCHC24(28), PHLDB2(7), ADCY4(1), GNG12(8), DFNA5(5), FXYD6(6), TMEM47(7), MEF2D(18), AEBP1(4), RASA4(12), ARHGEF6(7), GIMAP8(6), ERG(5), TMEM55A(13), HSPA12B(12), RNF38(2), NECAB1(8), SRF(7), CLIP3(19), VAMP3(3), MXI1(1), GNAL(9), PPP1R12A(7), TMEM200A(4), PCDHGA9(1), PGCP(3), MARVELD1(2), LRRK2(9), CYYR1(7), SOX7(9), DCHS1(4), FEZ1(1), LHFP(5), PDE5A(5), TRPC1(7), NAP1L2(5), TMEM204(11), LIX1L(12), CDKL1(1), KATNAL1(9), TBC1D2B(4), SRL(3), NOSTRIN(5), CCND2(4), PCDHGA5(7), FLI1(8), RAB8B(3), ERVFRDE1(7), RGMA(1), NDN(4), PAPPA(6), JPH2(1), COLEC12(2), PDE8B(2), CCDC69(5), ENPP1(1), DSTN(5), FBLN5(7), JPH4(4), CXCL12(3), PALLD(8), FKBP7(3), LTBP4(8), HIPK4(2), RASL12(5), TENC1(12), ARHGEF15(5), MYH11(3), AXL(1), MRGPRF(3), KIAA1644(6), OSBPL1A(1), HSPB2(1), GPR124(4), FAM65B(4), ZNF208(1), ELK3(7), NEURL1B(6), AKAP2(10), ABCB1(5), C4orf12(3), CACNB2(2), CYP2U1(1), PPP1R12C(2), NR3C1(3), PLXDC1(3), MBNL2(3), FZD4(5), TMOD2(7), PDE10A(5), SBDS(3), RAB33B(1), SGCE(5), SERINC1(1), TRIM23(2), EPM2A(4), IL11RA(2), DLL4(2), PTRF(9), KRT222(4), FAM69A(5), ADARB1(7), EFEMP1(3), EHD2(3), LOC144571(1), CEP68(12), PCDHB4(7), NBEA(6), PRX(8), CD93(3), TSPAN7(1), ATL1(2), SPTBN1(3), INPP5A(1), ADD1(5), PRKCA(2), GEFT(3), CASP12(1), PCDHGA3(2), ITPKB(2), RNF144A(1), FAM13C(3), ZNF521(6), PCDHGA11(2), CD99L2(2), AFAP1L1(2), CALCRL(1), DST(1), ADAMTSL1(3), ELTD1(3), GRINL1A(3), HSPB7(2), BMPR2(1), GPM6A(3), SCN3B(5), ENAM(1), MSRB3(4), TBXA2R(3), KCNMB1(1), NPTN(1), AVPR2(1), CLEC14A(2), ZDBF2(2), PCDH17(1), SH3D19(3), PCDH12(1), TAL1(1), SELP(2), PPP1R16B(1), MYLK(1), S1PR1(2), ZNF366(1), TEF(1), ZNF483(1), GJC3(1), DOCK4(2), ST6GALNAC3(1), DKK3(1), WHAMML1(3), ESD(1), NEXN(3), OLFML1(1), DIRAS1(2), C20orf160(1), MAP3K3(4), ACTN1(2), ZNF34(1), ILK(1), PCDHGA4(1), SCN2B(1), HCG11(1), KLHL10(1), RPS6KA2(1), SYNE1(1), EHBP1(1), ZBTB4(2), PLN(1), FAM55C(1), MPRIP(1), RAB31(2), RAB23(2), PTPRB(1), ATOH8(1), LAMA4(1), GRK5(1), SOCS2(2), ECM2(1), LRRC2(1), KLHL38(1), C1orf150(1), KCTD10(1), ARHGAP24(1), TCF23(2), SAMD4A(1), CBX6(1), THSD1(1), EPAS1(1), HSPB8(1), RSPO3(1), SNAI2(1), CCDC80(1), PRKG1(1), KLHL21(1), LONRF2(1), PTGER2(1), SPEG(2), TUB(1), PLIN4(1), GPR1(1), C1QTNF1(1), FILIP1L(1), MS4A2(1), SH2D3C(1), C4orf32(1), MYOZ2(1), MAPK10(2), PCDHGA12(1), SYNPO2(1), KCNB1(1), PRUNE2(1), ZBTB38(1), SMTN(1), PDLIM5(1), FLJ35390(1), STARD13(1), ASPN(1), SYT15(2), LRRC8C(1), FCER1A(1), HAR1A(1), MASP1(2), GSN(1), LMCD1(1), TPSAB1(1), CACNA1H(3), CAMK2A(1), NFASC(1), EZH1(1), TPSB2(1), GIMAP7(1), KLF17(1), LCN6(1), PLAT(2), MYOCD(1), ZEB2(1), COL15A1(1), SORBS1(1), MITF(2), PCDHGB3(1), IL33(1), ZFYVE20(1), SETBP1(1), TCF4(1), MEIS2(1), C9orf5(1), GYPC(1), KLF11(1), GNG7(1), LRP1(1), LPAR4(1), C3orf54(1), FAM175A(1), DDR2(1), MCAM(1), HTR2B(1), SNCA(1), LRCH2(1), LATS2(1), SLC8A1(1), WIT1(1), CLEC1A(1), LIFR(1), TMEM109(1), LSM11(1)</t>
+          <t>TSPAN18(37), ANTXR2(52), GHR(30), GLT8D2(32), ANO6(33), TIMP3(52), MEF2C(50), SPARCL1(49), SYNPO(14), SH3BP5(24), SSPN(28), TACC1(55), ATL1(2), SPTBN1(6), PCDHGA2(26), ST5(30), MID2(27), SH3BGRL(21), PROS1(17), DIXDC1(52), TBL1X(23), KIAA1462(61), CALHM2(43), C16orf45(42), PALM2-AKAP2(28), LRCH1(31), FGF2(41), AKT3(72), ZAK(72), PRDM8(40), BNC2(43), MDFIC(33), CALD1(45), SLC24A3(66), KANK2(33), ZCCHC24(27), MAOB(29), STAT5B(82), ADCY2(23), RHOJ(59), MYADM(13), RECK(30), SHANK3(6), SAP30L(46), SRL(6), FLT4(40), STON1(38), LRRN4CL(43), SCARF1(11), NCAM1(4), AHNAK(24), PCDHGA5(10), PPAPDC3(11), PER3(8), TIMP2(65), SOCS2(4), FXYD6(12), HSD17B6(14), DMD(15), GPM6A(6), ITGA8(21), MEIS3(21), ZNF208(1), GNG7(3), ARHGAP6(39), PTGIS(23), LOH3CR2A(19), SHE(21), TMOD2(11), DACT3(20), GPRASP1(27), MYCT1(26), PPP1R12B(24), TGFBR3(19), WT1(10), SETD7(30), NEURL1B(9), CLIC4(20), GPRASP2(18), ITPR1(16), LMOD1(25), AKAP2(17), WHAMML1(7), SSC5D(12), PEAR1(43), APBB1(27), C21orf34(21), RSPO1(29), KCNJ8(20), DIRAS1(6), PTRF(18), EMILIN1(12), FOXN3(20), ABI3BP(17), CNRIP1(38), DSTN(9), RASSF8(25), KANK3(18), FERMT2(19), ANGPTL1(7), TGFB1I1(8), NPTN(7), DCAF12L2(1), TSPAN2(22), SRF(3), PGM5P2(28), CFL2(10), JPH4(4), OLFML2A(18), PBX1(4), TRPC1(7), ADD1(5), LDB2(19), PALLD(14), ANKRD29(14), ADARB1(7), PRX(8), SMTN(6), CLIP3(18), PGM5(21), FHL1(14), ZEB1(36), RASL12(8), FGF7(8), GEFT(6), RERG(19), TMEM55A(11), ZNF676(1), GAB1(17), KIAA1614(10), CYP2U1(3), MAMDC2(36), USP31(9), GNAL(16), KCNMA1(41), PCDHGA3(9), CBX7(36), CACNA1C(17), MRGPRF(10), PCDHB4(8), TLN1(14), PDE2A(19), ABCG2(16), TMEM200B(18), TNXB(19), PCDHGA6(32), HSPA12B(19), RNF144A(4), FRMD6(36), SVIL(46), TCEAL6(3), KIAA1644(12), SLC8A1(1), TNS1(19), SMOC2(20), KATNAL1(14), TCEAL7(27), ABCC9(15), ASAM(54), RASA4(17), GRID1(16), MXRA7(4), FBXO32(16), LIX1L(17), MXI1(1), JAM2(12), C5orf53(19), PJA2(24), ZNF521(8), ERVFRDE1(8), KCTD12(16), CALCOCO1(2), C1orf133(15), LRRK2(7), UBL3(13), FGD5(11), NXPH3(23), RCAN2(2), STOM(7), C5orf41(3), FAM69A(13), MEF2D(16), FRY(12), HEG1(10), CYBRD1(13), ROBO4(21), JAM3(24), ARHGEF6(13), TBC1D2B(5), CCND2(4), SCARA3(4), PRNP(8), MFAP4(20), FLI1(10), MMRN2(18), CBX6(2), OR5K2(8), CLIC2(31), PMP22(24), KLHDC1(11), GPR116(15), VAMP3(4), ESAM(18), ARHGAP31(26), C14orf28(9), EPM2A(8), ZNF25(13), CXorf36(28), FILIP1(1), CD34(6), KCTD7(11), KDR(8), TCEAL1(9), NKAPL(11), MBNL2(10), PHF15(1), TBC1D1(15), GIMAP6(11), KLHL38(7), C1orf150(6), FAM65B(6), NEDD4(20), C1QTNF7(12), DPYD(22), TNFAIP8L3(11), RGMA(4), GIMAP8(10), DLL4(2), NDN(5), MEIS2(3), CDO1(1), PCDHGA4(4), CYYR1(8), TUB(2), ABCB1(10), SOX7(12), DDR2(6), GPR1(3), PABPC5(14), CCDC69(11), LHFP(9), PDE5A(6), NECAB1(8), TIE1(25), PCDHGA12(6), SYNPO2(7), ACTN1(2), C5orf4(9), ERG(6), C7orf58(13), C1orf70(3), NRIP2(7), TXNIP(8), LEPR(12), CDH5(4), A2M(9), GNG11(13), DOCK4(2), TMEM204(12), TENC1(14), CASP12(5), ARHGEF15(11), PPP1R12A(6), ITPKB(1), PLSCR4(15), EMCN(22), TEK(22), PKD2(9), SFMBT2(1), CLEC2B(9), CD302(10), FAM13C(7), ADCY4(2), MITF(5), MBNL1(7), C1orf21(9), NOSTRIN(9), IL33(8), TSPAN7(2), PRKCA(5), ILK(6), GYPC(6), GIMAP1(9), POU6F1(1), APOL3(2), RAB31(3), PGCP(4), RAB23(4), HSPB7(5), LAMA4(5), LRRC2(3), SNRK(5), DHH(3), THSD1(2), PDLIM3(8), FBXO31(2), THRA(3), GAS6(3), RSPO3(3), TEF(8), PRELP(10), MSRB3(9), CAV1(7), SCN4B(3), PDE8B(4), DST(4), CRY2(2), MATN2(3), CAV2(7), CACNB2(5), HEPH(4), MAP3K3(6), RNASE4(6), PRUNE2(5), ZBTB38(6), LTBP4(4), SH3D19(7), AKNA(1), EHD2(9), ADAMTSL1(6), FCER1A(2), HAR1A(2), GSN(3), GIMAP4(8), GIMAP5(7), PCDHGB6(2), CACNA1H(9), NFASC(3), FEZ2(11), GIMAP7(4), KLF17(4), RFTN2(2), PDE1A(2), PPP1R12C(1), SIRT1(2), CEP68(5), AEBP1(1), GPR124(7), ST6GALNAC3(1), NBEA(7), ZFYVE20(1), N4BP2L1(2), SLC1A7(1), ATOH8(6), RFTN1(4), C4orf12(3), PCDHGB7(12), CRTAP(8), DPYSL2(1), LAYN(9), FYCO1(1), EZH1(3), LOC644538(1), PDE10A(6), TBXA2R(7), TMEM109(2), SERINC1(3), PHLDB2(6), GNG12(9), RBM9(1), TAL1(5), REM1(2), PAPPA(7), DCP1B(2), TFPI(1), MS4A2(4), C10orf54(4), NAP1L2(5), EFEMP1(4), TPSAB1(1), SGCE(9), TMEM200A(4), TPSB2(3), NEXN(7), TCF4(1), ENTPD1(2), FBXL7(1), DCHS1(1), GIPC3(1), PCDHGA11(2), CLEC14A(8), TIPARP(4), LRRC8C(5), PLAT(1), HSPB2(6), IGFBP4(2), ECM2(5), DKK3(1), VAMP2(2), CALCOCO2(1), TMEM47(6), RAMP1(1), WISP1(5), NAALADL1(1), DPYSL3(4), GLI3(5), STARD8(4), LIFR(2), RAB11FIP5(2), ZBTB4(1), AFAP1L1(6), FZD4(8), SLC16A7(1), FEZ1(1), PTGDR(2), ELTD1(5), CCL14(3), ACACB(1), CD93(5), CLEC1A(1), SEPT7(2), RNF38(2), OLFML1(4), ECSCR(3), CES1(1), FKBP7(3), STARD13(2), SELP(4), LRRC70(2), MAN1C1(3), S1PR1(4), GRK5(3), FEM1B(4), RASL11A(1), RAB8B(2), ATP2B4(1), KLF7(2), RAB11FIP2(1), REEP1(2), EHBP1L1(2), ZEB2(4), COLEC12(2), KRT222(2), ELK3(3), MAPK10(2), MACF1(1), FBLN5(5), SYNE1(3), NBL1(1), TMEM88(2), FBN1(2), SCN3B(1), CDH13(1), SEPP1(2), KITLG(1), YPEL4(1), ACVRL1(3), BACH2(2), LIMS2(4), PID1(2), FILIP1L(2), CGNL1(1), SH2D3C(1), NR3C2(3), FXYD1(4), MXRA8(2), KCNMB1(2), EDNRB(2), CXCL12(1), KLHL33(4), HIPK4(2), HTRA3(1), SYT15(4), MYH11(4), MASP1(4), HOXD9(1), LMCD1(1), DUSP3(3), PDE7B(4), MYLK(2), KIAA1755(2), LRRC32(2), ZNF483(3), SBDS(1), AXL(2), HCFC2(1), EDIL3(2), CLEC3B(2), PLN(3), GRINL1A(3), PLXDC1(1), MMRN1(1), SLCO2A1(1), VIPR2(1), CNN1(1), MESTIT1(2), PRRG3(1), CSRP1(2), F8(2), AQP1(1), VGLL3(2), MICAL2(2), TRPC4(1), PRKCH(1), HRC(1), CTNNA3(2), TCF23(3), TGFBR2(2), CDC42EP3(1), OGN(1), SNAI2(1), TSHZ3(1), ITM2A(3), CCDC80(3), PRKG1(3), BMPER(1), FLNA(1), TNNI3K(2), JPH2(2), SPEG(2), HLF(2), CALCRL(2), PLIN4(2), MAGEE2(1), ADAMTS5(1), SLC35F1(1), SOX15(1), C4orf32(3), KLHL10(1), MYOZ2(2), NAP1L3(1), SYTL4(1), GPR146(1), ASPA(3), PODN(1), KCNB1(3), OSR2(2), HTR2B(1), ARL15(1), TBX3(1), ITGA11(1), FREM1(1), PDLIM5(2), FLJ35390(2), PCDH17(1), PI15(1), LOC144571(2), DPP6(1), GRRP1(1), ENPEP(1), PCDHB15(1), CAMK2A(1), DGKB(1), CYP1B1(1), SLMAP(1), SNTG2(1), PROCR(2), PPP1R16B(3), NPY5R(2), DCN(1), LOC283856(1), MYOCD(3), SDPR(3), WSCD2(1), SORBS1(3), ENPP2(3), GLP2R(1), ZNF366(2), PCDHGB3(1), C20orf160(1), ARRB1(1), PTGER2(2), FBXL3(1), KCNQ4(1), ENPP1(2), RAPGEF4(2), THBS2(1), NR3C1(1), CDK17(1), CACNA2D1(1), PTPRB(2), KLF11(1), P2RY1(1), CCDC141(1), EPAS1(1), KL(1), ETS1(1), RGS13(1), RIMS3(1), NPY1R(1), SNCA(1), LOC283174(1), DFNA5(1), FOXO1(1), C21orf63(1), ITIH5(1), HAND2(1), FAM70B(1), HPGDS(1), FRMD3(1), JAZF1(1), AVPR2(1), MAGI2(1), COX7A1(1), WIT1(1), PCDHGA9(1)</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>478.0</v>
+        <v>596.0</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.6000018466652287</v>
+        <v>-0.6000047523422993</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.7596593561053103</v>
+        <v>-0.7969214888969983</v>
       </c>
       <c r="H24" t="n">
-        <v>4676.0</v>
+        <v>5715.0</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.6266878357013049</v>
+        <v>-0.6334685895789044</v>
       </c>
       <c r="J24" t="n">
-        <v>44.53333333333333</v>
+        <v>58.91752577319588</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>hsa-miR-331-3p</t>
+          <t>hsa-miR-16-2-3p</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.0</v>
+        <v>97.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SAP30L(17), LRRN4CL(10), DPYD(5), UBL3(8), C21orf34(4), FGF2(10), STAT5B(24), CRTAP(3), MEF2D(6), PRDM8(9), RASA4(5), FBXL3(2), MDFIC(8), CXorf36(2), FLT4(4), TSPAN18(3), ANTXR2(6), JAM3(6), C5orf53(4), PPAPDC3(1), TIMP2(6), TIMP3(4), MEF2C(6), NEDD4(1), SPARCL1(7), FLI1(2), MEIS3(3), LOH3CR2A(6), KCTD12(3), MMRN2(1), SSPN(5), SHE(2), TACC1(11), GPRASP1(5), MYCT1(3), PCDHGA2(3), GPRASP2(1), PEAR1(5), OR5K2(1), APBB1(3), MID2(3), CLIC2(5), ABCB1(2), FOXN3(4), DIXDC1(9), CNRIP1(3), KANK3(2), TIE1(2), CALHM2(5), C16orf45(3), OLFML2A(4), C7orf58(1), AKT3(17), ZAK(9), KLHDC1(5), ZEB1(2), BNC2(7), TENC1(2), MAMDC2(6), SLC24A3(7), CBX7(8), CACNA1C(1), ABCG2(3), TEK(2), MAOB(3), PDE7B(1), RHOJ(7), ASAM(4), RECK(4), PPP1R12C(2), PJA2(5), RNF38(2), TBL1X(2), STOM(1), CLIP3(4), CEP68(5), GNG12(3), GLT8D2(1), PRNP(6), TCF4(1), ERVFRDE1(2), ARHGAP6(5), TGFBR3(3), PCDHGB7(2), KIAA1462(5), TMEM47(1), ANKRD29(2), TMEM55A(1), SVIL(7), KCTD7(2), EPM2A(1), AHNAK(1), ANO6(6), DMD(1), SH3BP5(3), SETD7(3), LRRK2(3), KANK1(1), RASSF8(1), ZDBF2(2), GAB1(1), KIAA1614(1), USP31(3), CALD1(2), ITPKB(1), FRMD6(1), SMOC2(3), NRIP2(2), C1orf133(3), ARHGEF6(3), TBC1D1(1), PTGIS(1), SEPP1(3), BACH2(1), PGM5P2(1), LRCH1(2), LEPR(1), PCDHGA6(2), KIAA1644(1), MITF(1), CCDC50(1), FBXO32(3), PGCP(1), FEM1B(1), SCN3B(1), ZNF25(1), SH3BGRL(1), PROS1(2), KCNJ8(2), MAP3K3(1), ZCCHC24(2), TNXB(2), LIX1L(2), CD302(1), NKAPL(1), ITGA8(1), RSPO1(1), NXPH3(1), RFTN1(2), ABI3BP(1), ACTN1(1), LDB2(1), PALM2-AKAP2(1), PRX(1), TAL1(1), PCDHGA3(1), LOC144571(1), KANK2(1), EMCN(1), CLEC2B(2), ADCY2(1), TCEAL7(2), ABCC9(1), ADCY4(1), MYADM(1), MXRA7(1), HEG1(1), INSR(1), N4BP2L1(1), TBC1D2B(1), FGD5(1), FBLN5(1), ZBTB4(2), ELK3(1), DOCK4(1), GNAL(2), LRCH2(1), TMEM109(1), C9orf5(1)</t>
+          <t>TIMP2(16), MEF2C(18), SH3BP5(7), UBL3(11), CNRIP1(13), MDFIC(6), PCDHGA6(16), STAT5B(28), RHOJ(16), ANO6(16), RASSF8(8), CALHM2(10), KLHDC1(7), SAP30L(11), ARHGEF6(6), LRRN4CL(11), ANTXR2(14), JAM3(5), SPARCL1(12), FLI1(4), TACC1(14), GPRASP1(12), NDN(4), MEIS2(1), SH3BGRL(7), CLIC2(12), DIXDC1(15), PMP22(6), MATN2(4), C16orf45(7), FGF2(12), NRIP2(5), AKT3(15), CLIP3(7), ZEB1(10), PRDM8(12), BNC2(12), SLC24A3(19), KANK2(9), PCDHB4(4), ZCCHC24(4), FEZ2(2), MAOB(8), ADCY2(3), TCEAL7(13), ASAM(12), MBNL1(3), RECK(6), CXorf36(7), GLT8D2(9), PJA2(7), TIMP3(7), NEDD4(8), C1QTNF7(4), LOH3CR2A(3), MYCT1(10), SETD7(10), PCDHGA2(8), WHAMML1(1), LRRK2(3), PEAR1(11), C21orf34(3), NXPH3(5), PROS1(4), ABCB1(3), PABPC5(10), TBL1X(8), KIAA1462(13), TIE1(7), OLFML2A(6), LDB2(7), PALLD(5), ANKRD29(8), FKBP7(1), C7orf58(4), ZAK(18), LEPR(5), GAB1(5), MAMDC2(7), CALD1(7), KCNMA1(4), PCDHGA3(4), CBX7(11), CACNA1C(5), TMEM200A(6), ABCG2(6), TMEM200B(5), TEK(10), LIX1L(2), FRMD6(6), SVIL(15), PDE7B(6), MITF(2), FLT4(11), TSPAN18(2), GHR(5), JAM2(2), TBC1D1(2), MFAP4(8), DMD(5), MEIS3(6), TSHZ3(4), FAM198B(1), KCNJ8(7), PCDHB18(1), C14orf28(1), HEPH(2), LRCH1(8), PRX(1), AEBP1(1), LTBP4(3), SH3D19(1), TMEM204(4), TMEM55A(5), ZNF676(3), CEP68(2), HSPA12B(1), KATNAL1(3), RASA4(3), ZEB2(3), MYADM(3), MXRA7(1), GPR124(1), ST6GALNAC3(1), C5orf53(5), IL33(2), ADD1(2), FBXL3(2), CDH5(1), PLAT(1), ARHGAP31(9), PRNP(2), KIAA1614(2), RBM9(1), FBXL7(1), DPYD(7), CALCOCO2(1), GNG12(6), FAM175A(1), KDR(4), PPAPDC3(1), FAM65B(4), ARHGAP6(9), GPRASP2(7), ZNF25(3), ST5(5), APBB1(2), C4orf12(2), TXNIP(3), ARHGEF15(4), EZH1(2), LRRC2(1), RNF38(2), TENC1(4), SERINC1(1), SCARF1(2), C1orf133(3), FEM1B(1), WT1(1), MEF2D(3), VAMP3(2), STON1(4), AHNAK(5), HSD17B6(1), MICAL2(1), SSPN(4), PPP1R12B(3), CLIC4(3), SOX7(3), PCDHGB7(6), ZBTB38(5), GPR116(3), TLN1(2), RNF144A(1), FBXO32(2), CCND2(1), PCDHGA5(3), NKAPL(4), MID2(2), PTRF(1), FOXN3(2), A2M(3), TNXB(4), SFMBT2(1), GRINL1A(1), AKAP13(1), TCEAL1(2), MBNL2(2), ECM2(1), GIMAP6(2), GNG7(1), MMRN2(2), ELK3(2), SHE(2), P2RY1(1), CDC42EP3(1), ATL1(1), SPTBN1(2), OTUD1(1), SEPP1(1), PAPPA(2), IQGAP1(1), LMOD1(2), RSPO1(2), PTGER2(3), KANK1(1), GPR1(1), BACH2(2), IRS1(1), KLF3(1), KANK3(1), ANGPTL1(1), NECAB1(1), PCDHGA12(1), C5orf4(2), PGM5P2(2), HTR2B(2), TM4SF18(1), KL(1), FAM69A(1), RAB11FIP5(1), PALM2-AKAP2(2), C1orf70(1), EFEMP1(1), TIPARP(1), GNG11(1), CASP12(2), GNAL(1), TJP1(1), CACNA1H(1), HEG1(1), PCDHB15(3), EMCN(3), CYBRD1(1), PCDHGA9(2), KIAA1644(2), TNS1(1), CLEC2B(1), SMOC2(2), CD302(2), RFTN2(2), PHLDB2(2), C1orf21(1), KCTD7(1), SNRK(1), TGFBR3(1), CCDC69(1), PCDHB5(1), N4BP2L1(1), SRL(1), NOSTRIN(2), GIMAP1(1), ITGA8(1), ENTPD1(1), DHH(1), THSD1(1), GIMAP8(1), AKAP2(1), SSC5D(1), RAB11FIP2(1), FGD5(1), RNF11(1), FERMT2(1), NAP1L3(1), MAP3K3(1), FBLN5(1), TSPAN2(1), SRF(1), AVPR2(1), C5orf41(1), FRY(1), PRKCA(1), USP31(1), GIMAP4(1), PPP1R12A(1), RAB33B(1), LOC144571(1), TPSB2(1), ZNF208(1), THRA(1), CYYR1(1), SYNE1(1), PCDHGA11(1), CLEC14A(1), INSR(1), ROBO4(1)</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>169.0</v>
+        <v>286.0</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.6000266004366216</v>
+        <v>-0.6000055242694804</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.6845041707962888</v>
+        <v>-0.7027449735016424</v>
       </c>
       <c r="H25" t="n">
-        <v>525.0</v>
+        <v>1174.0</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.6173005829274466</v>
+        <v>-0.6230526246494005</v>
       </c>
       <c r="J25" t="n">
-        <v>5.833333333333333</v>
+        <v>12.103092783505154</v>
       </c>
     </row>
     <row r="26">
@@ -984,321 +984,321 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>90.0</v>
+        <v>97.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SAP30L(12), LRRN4CL(5), ANTXR2(7), C5orf53(4), MFAP4(2), MEF2C(14), SPARCL1(7), DPYD(5), SH3BP5(5), TACC1(7), GPRASP1(6), THRA(1), C1orf133(3), UBL3(5), C21orf34(6), MID2(5), PTGER2(1), C14orf28(1), TBL1X(6), ANKRD29(4), FGF2(7), AKT3(15), ZAK(18), BNC2(14), SLC24A3(10), CBX7(8), KANK2(7), MAOB(6), PCDHGA6(8), SVIL(11), STAT5B(22), RHOJ(11), PJA2(8), SNRK(3), PCDHGB7(3), ARHGAP31(1), ARHGAP6(7), C16orf45(11), KLHDC1(5), OSBPL1A(1), FLT4(2), JAM3(4), MYCT1(4), TGFBR3(4), GPRASP2(3), CLIC2(2), DIXDC1(8), CRTAP(1), TIE1(2), CALHM2(6), ZEB1(1), PRDM8(7), TENC1(1), MDFIC(4), ABCG2(4), TEK(2), ASAM(7), STON1(2), PRNP(3), MBNL2(2), TIMP2(4), LOH3CR2A(6), SSPN(3), LRRK2(4), PEAR1(2), PABPC5(2), CNRIP1(3), RASSF8(3), RAPGEF4(2), KIAA1462(5), FKBP7(2), MEF2D(4), LEPR(1), GAB1(1), MAMDC2(3), RAB33B(1), KCNMA1(4), HSPA12B(1), SERINC1(2), CD302(2), TCEAL7(3), TRIM23(2), ZNF483(1), MBNL1(3), GNG12(3), PPP1R12B(1), PCDHGA2(5), APBB1(2), RSPO1(1), NXPH3(1), KCNJ8(1), DSTN(1), FERMT2(1), PGM5P2(1), LDB2(2), PALLD(1), PALM2-AKAP2(2), C7orf58(1), LRCH1(3), CLIP3(1), CALD1(2), ZCCHC24(1), PKD2(1), SMOC2(3), ADCY2(2), TCF4(1), KCTD7(3), ZNF521(1), PCDHGA7(1), ZDBF2(1), KIAA1614(1), ITPKB(1), PCDHGA9(1), VAMP3(1), ZNF25(4), USP31(3), RNF38(1), ANO6(4), DMD(1), KCTD12(1), SETD7(3), AKAP2(1), FGD5(1), SH3BGRL(2), FOXN3(1), TMEM47(1), ZBTB38(2), C5orf41(2), PCDHGA11(1), PPP1R12A(1), PCDHGA3(1), CEP68(5), ELK3(1), FBXL3(2), MAP3K3(2), MXI1(1), EHBP1(1), MARVELD1(1), GNAL(1), SGCE(1), RBM9(1), SOCS5(1), PRX(1), TSPAN18(1), GLT8D2(1), TIMP3(1), HSD17B6(1), FLI1(1), C1QTNF7(1), ATP2B4(1), STOM(1), NAP1L3(1), NPTN(1), OLFML2A(1), GIMAP2(1), TXNIP(1), INSR(1), MYADM(1), ZBTB4(1), KANK1(1)</t>
+          <t>SAP30L(17), LRRN4CL(3), ANTXR2(5), PJA2(7), MEF2C(13), ANK2(1), LOH3CR2A(6), SH3BP5(10), TACC1(8), GPRASP1(5), ZNF25(3), UBL3(8), SOX7(2), DIXDC1(7), ENPP1(1), C14orf28(3), KIAA1462(5), FBXL3(1), PALLD(2), ANKRD29(5), LRCH1(5), FGF2(4), ZAK(19), PRDM8(5), BNC2(9), GAB1(3), SLC24A3(7), CBX7(4), CEP68(4), KANK2(6), MAOB(6), SVIL(10), STAT5B(22), RHOJ(7), ADD1(1), AKT3(19), KLHDC1(4), CXorf36(1), SRL(1), NOSTRIN(1), STON1(2), TSPAN18(2), KDR(1), GLT8D2(3), PCDHGA5(1), TCEAL1(2), ANO6(4), PPAPDC3(2), TIMP2(6), TIMP3(2), MFAP4(2), CSRP1(1), HSD17B6(1), DMD(2), IL33(1), NEDD4(1), SPARCL1(3), ITGA8(1), FLI1(1), ARHGAP6(3), C1QTNF7(3), KCTD12(2), SSPN(2), MYCT1(2), PPP1R12B(2), TGFBR3(3), SETD7(2), PCDHGA2(2), SEPP1(1), GPRASP2(3), ITPR1(1), LMOD1(1), C1orf133(3), CDO1(1), WHAMML1(1), LRRK2(2), PEAR1(1), FAM198B(1), C21orf34(6), RSPO1(1), FGD5(1), SH3BGRL(2), NXPH3(1), TUB(1), CLIC2(4), KCNJ8(1), PTRF(1), GPR1(1), PABPC5(3), FOXN3(1), ABI3BP(1), TBL1X(3), CNRIP1(4), DSTN(1), RASSF8(6), NAP1L3(2), TIE1(2), PGM5P2(2), CALHM2(2), C16orf45(6), OLFML2A(1), LDB2(2), PALM2-AKAP2(1), C7orf58(2), PRX(1), MEF2D(2), NAP1L2(1), TXNIP(1), PGM5(1), LEPR(2), ZEB1(2), TMEM204(1), ARHGEF15(1), MAMDC2(2), GNAL(1), CALD1(2), KCNMA1(2), CACNA1C(2), EMCN(1), ABCG2(2), TMEM200B(1), TEK(2), PCDHGA6(2), RNF144A(1), FRMD6(2), KIAA1644(1), TNS1(2), SMOC2(2), KATNAL1(1), CD302(2), TCEAL7(4), RFTN2(1), ASAM(4), RASA4(1), RECK(2), JAM3(3), FLT4(1), SCARF1(1), MEIS3(1), APBB1(1), RFTN1(1), PCDHGB7(2), CRTAP(5), ADARB1(1), CLIP3(3), TENC1(1), EZH1(1), ZCCHC24(1), LIX1L(3), GNG12(2), CDK17(1), POU6F1(1), KCTD7(1), JAM2(1), AHNAK(1), PRNP(1), MBNL2(2), FEM1B(1), BMPR2(1), TCF4(1), DPYD(3), ELK3(1), RNF38(2), ATL1(1), DKK3(1), AKAP2(1), ST5(1), MID2(1), PTGER2(1), C4orf12(1), DDR2(1), FERMT2(1), HEPH(1), PCDHGA12(1), ZBTB38(1), C5orf41(1), NRIP2(1), STARD13(1), SH3D19(1), USP31(1), PPP1R12A(1), SGCE(1), LOC144571(1), CYBRD1(1), LRCH2(1), EHBP1(1), FBXL7(1), C5orf53(2), MDFIC(2), PDE7B(1), SNRK(1), DOCK4(1), FAM175A(1), RAPGEF4(1), MAP3K3(1), FKBP7(1), CHURC1(1), SYNE1(1), PCDHB4(1)</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>160.0</v>
+        <v>199.0</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.6000422924708313</v>
+        <v>-0.6000082564789933</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.6885645832590866</v>
+        <v>-0.7050727340194696</v>
       </c>
       <c r="H26" t="n">
-        <v>527.0</v>
+        <v>516.0</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.617894013469553</v>
+        <v>-0.6207818649099576</v>
       </c>
       <c r="J26" t="n">
-        <v>5.855555555555555</v>
+        <v>5.319587628865979</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>hsa-miR-191-5p</t>
+          <t>hsa-miR-96-5p</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>88.0</v>
+        <v>96.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SAP30L(8), FLT4(3), STON1(4), ANTXR2(7), TIMP2(12), MEF2C(8), HSD17B6(3), SPARCL1(9), ERVFRDE1(1), ARHGAP6(8), DPYD(3), TACC1(10), GPRASP1(2), SETD7(9), PEAR1(6), APBB1(6), CLIC2(2), BACH2(1), TBL1X(2), KIAA1462(8), C16orf45(9), LRCH1(18), PRX(2), FGF2(7), AKT3(12), ZAK(17), BNC2(11), KCNMA1(6), CBX7(5), PCDHGA6(6), SVIL(15), STAT5B(25), RHOJ(9), ASAM(7), ZBTB4(3), PJA2(10), UBL3(6), WT1(1), TSPAN18(2), GLT8D2(1), ANO6(13), TIMP3(6), MFAP4(2), DMD(3), SH3BP5(3), MYCT1(2), CLIC4(1), AKAP2(2), C21orf34(2), MID2(7), SH3BGRL(5), DST(1), DIXDC1(8), RASSF8(2), CAV2(2), HEPH(2), CALHM2(6), ZBTB38(1), FBXL3(4), PALM2-AKAP2(5), MEF2D(10), NAP1L2(1), SH3D19(1), GAB1(2), MAMDC2(3), CALD1(4), PPP1R12A(1), SLC24A3(7), KANK2(3), TLN1(6), TNS1(3), CD302(1), MBNL1(3), MYADM(4), GNG12(5), RNF38(5), VAMP3(1), SERINC1(1), FEM1B(1), MAP3K3(2), KCTD7(1), EPM2A(1), NBEA(2), KCTD12(5), SYNE1(1), SBDS(1), TMEM55A(2), LRRN4CL(2), DHH(2), C1orf133(1), LRRK2(2), PROS1(3), FOXN3(1), TMEM47(1), PCDHGA11(1), FRY(3), OSTM1(1), PRDM8(3), AHNAK(3), CEP68(3), SCN3B(1), C9orf5(2), SSC5D(2), HEG1(1), ARHGAP31(2), CXorf36(1), ACACB(1), ITGA8(1), GNG7(1), LOH3CR2A(1), CLEC1A(1), ZNF25(1), RSPO1(2), CYYR1(1), KCNJ8(1), PABPC5(1), ABI3BP(1), FERMT2(1), NAP1L3(1), STARD8(1), TIE1(1), FBLN5(1), RAB11FIP5(1), GPR116(1), TAL1(1), LRRC8C(1), MDFIC(2), PCDHGA3(1), TMEM200A(1), EMCN(1), PDE7B(1), PCDHB7(1), TCEAL7(1), RASA4(1), ZNF483(1), RECK(2), ELK3(1), FRMD6(1), PHLDB2(1), FBXO32(2), LRCH2(1), PCDHGB7(1), PMP22(2), CCDC50(1), ARHGEF6(1), SCARF1(1), JAM3(1), C5orf53(1), HSPB7(1), NKAPL(1), PRNP(1), MEIS3(1), CD99L2(1), KCNQ4(1), PTGIS(1), TMOD2(1), CBX6(1), PPP1R12B(1), LMOD1(1), ST5(1), VAMP2(1), NXPH3(1), KANK3(1), TGFB1I1(1), SRF(1), OLFML2A(1), ANKRD29(1), CLIP3(1), RERG(1), GNAL(1), EZH1(1), ZCCHC24(1), HSPA12B(1)</t>
+          <t>FLT4(11), FAM55C(1), GHR(4), PJA2(6), MEF2C(13), RAB8B(6), TACC1(6), GPRASP2(8), ZNF25(3), UBL3(9), C21orf34(6), CNRIP1(16), KIAA1462(7), FBXL3(3), LRCH1(5), FGF2(8), ZAK(13), PRDM8(9), SLC24A3(17), STAT5B(20), RHOJ(15), MYADM(5), WT1(1), FKBP7(6), KANK2(6), MEF2D(3), TMEM55A(5), TLN1(4), LTBP4(9), PCDHB4(6), GNG7(2), PRX(3), ARHGEF6(2), LRRN4CL(10), TSPAN18(1), ANTXR2(5), KCTD7(4), GLT8D2(6), ANO6(2), PPAPDC3(3), DAB2(2), MBNL2(2), TIMP2(7), TIMP3(4), MFAP4(3), SPARCL1(4), ARHGAP6(5), LOH3CR2A(2), DPYD(6), SSPN(1), GPRASP1(6), TGFBR3(3), SETD7(5), TSHZ3(9), PCDHGA2(2), CDO1(2), ST5(4), PEAR1(7), APBB1(6), SH3BGRL(3), CLIC2(5), PROS1(5), KCNJ8(1), SOX7(2), PABPC5(7), DIXDC1(5), PMP22(5), RASSF8(5), CACNB2(4), STOM(1), CALHM2(6), C16orf45(9), ADD1(3), ANKRD29(5), ADARB1(2), PALM2-AKAP2(1), C1orf70(3), PRKCA(1), TXNIP(2), AKT3(11), KLHDC1(11), ZEB1(7), TENC1(7), VAMP3(1), LAYN(3), CALD1(3), PCDHGA3(2), PCDHB15(3), TNXB(7), MAOB(6), PCDHGA6(4), SVIL(4), KATNAL1(4), CD302(5), TCEAL7(10), RFTN2(1), ASAM(5), ZEB2(6), COL15A1(2), MBNL1(3), GNG12(3), SAP30L(5), NOSTRIN(1), AFAP1L1(1), JAM3(3), PCDHGA5(2), NEDD4(5), OLFML1(2), WHAMML1(1), LRRK2(3), NXPH3(1), DDR2(2), TBL1X(3), KANK3(3), NECAB1(4), TIE1(2), SRF(1), TBX3(1), BNC2(4), KIAA1614(2), MAMDC2(3), CBX7(4), CACNA1H(2), GJD3(1), TMEM200A(3), LIX1L(5), PDE7B(2), MITF(1), ROBO4(2), LOC285830(1), RFTN1(4), CRTAP(5), GYPC(6), IGFBP4(1), RAB31(1), CCND2(1), FBN1(2), NKAPL(4), PRNP(3), MEIS3(8), NDN(3), EMILIN1(2), DCHS1(2), PDE5A(1), HAAO(2), CLIP3(5), PKD1(1), ARHGEF15(2), ZCCHC24(7), HSPA12B(4), EHBP1(1), GPR124(5), NR3C1(2), TBC1D2B(3), SNRK(1), CLIC4(2), RSPO1(3), TUB(1), SYNE1(2), FOXN3(3), NR3C2(1), MDFIC(4), MAN1C1(1), N4BP2L1(1), ZNF438(1), PGCP(2), FEM1B(2), DACT3(2), RAB3IL1(2), TGFB1I1(1), NAP1L3(2), RAMP1(1), OSR2(1), JPH4(1), NRIP2(2), RASL12(1), EHD2(2), CCDC48(1), TMEM200B(1), SERINC1(1), C1orf21(1), RECK(2), KCNMA1(2), SCARF1(1), GLI3(1), KCTD12(4), MARVELD1(1), PPM1F(1), LOC144571(1), MXRA7(1), AXL(2), CXorf36(1), JAM2(1), AHNAK(1), C1QTNF7(1), LOC134466(1), MYCT1(1), TEF(1), SSC5D(1), RIC3(1), SOX15(1), ABI3BP(1), MAP3K3(2), C5orf4(1), ZBTB38(1), COX7A1(1), C7orf58(1), SBDS(1), FREM1(1), GNG11(1), GEFT(1), PTGDR(1), PPP1R12A(1), CACNA1C(1), FEZ2(1), PKD2(1), SFMBT2(1), FRMD6(1), PCDHB7(1), ADCY2(1), ARHGAP31(1), SH3BP5(1)</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>173.0</v>
+        <v>222.0</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.600063358209104</v>
+        <v>-0.6000833722140186</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.694941128215423</v>
+        <v>-0.6950271548112338</v>
       </c>
       <c r="H27" t="n">
-        <v>545.0</v>
+        <v>768.0</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.6195533003795601</v>
+        <v>-0.6231394679525983</v>
       </c>
       <c r="J27" t="n">
-        <v>6.193181818181818</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>hsa-miR-133a</t>
+          <t>hsa-miR-145-3p</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>87.0</v>
+        <v>94.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.87</v>
+        <v>0.94</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FLAD1(3), TMEM63B(8), DPP3(1), PRAME(11), C1orf135(1), ILF2(2), BUB1(2), CASP6(4), ZNF695(2), AURKA(2), FAM54A(2), FAM110A(2), TUBA1C(6), TMEM8A(1), TBC1D7(1), CCNF(1), CDCA8(1), SPAG5(1), CCNB1(3), NEK2(1), UBE2T(1), CDC45(1), MCM2(2), STIL(1), CDK1(1), C16orf75(1), C20orf24(1), HSPE1(1), TPM3(1), RNFT2(1), ESPL1(1), KPNA2(2), TTK(1), SMPDL3B(1), PLK1(1), KIF11(1), PCNA(1), ERCC6L(1), HSPA4(1), TUFT1(1)</t>
+          <t>FAM54A(15), C1orf135(6), PRAME(21), TUFT1(2), GARS(1), TMEM63B(14), EPT1(4), FAM49B(1), CASP6(4), KIF2C(6), C20orf24(7), UCK2(2), TUBA1C(18), ILF2(8), CCT3(1), PKM2(2), ZNF695(4), HSPA4(5), PSMA5(2), CCNB1(8), ENO1(3), RFC4(1), MCM2(2), RAD51(1), DHRS13(1), MFSD9(3), UHRF1(1), TPI1(3), YARS2(1), PLK1(3), CASP3(2), GSG2(1), ORC1L(1), KPNA2(3), FANCI(1), DCAF13(1), NEK6(1), SPAG5(4), CENPA(1), AURKA(9), CDC20(2), CDCA8(2), ALAS1(1), RPN2(1), LOC729082(2), BUB1(8), HDGF(1), KIF4A(1), TTK(1), CCNF(2), CDCA5(1), C8orf76(1), TPX2(1), C16orf59(1), KIFC1(2), ECE2(1), CDCP1(1), SLC35B2(1), GINS1(1), KIF11(1), NOMO1(1), TDRKH(1), C6orf115(1), SCAMP3(1), PSMD11(1), SLC16A3(1), FANCA(1), PLEKHA8(1), ESPL1(1), NUP210(1), CENPL(1)</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>40.0</v>
+        <v>71.0</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.6011387924511554</v>
+        <v>-0.6000340336585486</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.6946187858634806</v>
+        <v>-0.6912722256362084</v>
       </c>
       <c r="H28" t="n">
-        <v>77.0</v>
+        <v>217.0</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.6165764659068785</v>
+        <v>-0.6204391817148368</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8850574712643678</v>
+        <v>2.3085106382978724</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>hsa-miR-93-5p</t>
+          <t>hsa-miR-145-5p</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>87.0</v>
+        <v>91.0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FLT4(37), C5orf53(23), SETD7(12), VAMP2(3), CNRIP1(42), C16orf45(32), C1orf70(24), ZAK(34), TENC1(29), EHD2(6), SLC24A3(50), RHOJ(38), ZBTB4(4), GPR124(25), UBL3(8), MYADM(9), GYPC(18), LRRN4CL(33), MEIS3(15), CDO1(9), ST5(15), CRTAP(3), CALHM2(20), AKT3(31), SNED1(4), TNXB(21), MAOB(21), MBTPS1(1), STAT5B(37), CXorf36(4), SAP30L(7), ARHGEF6(4), FAM175A(2), TSPAN18(4), ANTXR2(9), GHR(15), JAM2(5), SLC45A1(6), GLT8D2(8), PGCP(8), JAM3(12), FBN1(5), NKAPL(9), TIMP2(27), PJA2(1), TIMP3(5), MFAP4(9), MEF2C(22), NEDD4(1), SPARCL1(10), ZNF208(3), GNG7(6), DPYD(7), SH3BP5(6), TACC1(12), GPRASP1(19), MYCT1(5), TGFBR3(6), OLFML1(4), TSHZ3(24), PCDHGA2(7), GPRASP2(13), PAPPA(4), SSC5D(5), PEAR1(22), APBB1(14), FAM198B(2), SH3BGRL(5), NXPH3(6), TUB(7), CLIC2(12), PROS1(4), PABPC5(21), EMILIN1(12), DIXDC1(5), PMP22(10), TBL1X(2), RASSF8(6), KANK3(8), CACNB2(9), TGFB1I1(6), KIAA1462(20), C10orf72(1), NECAB1(4), TIE1(10), FBLN5(6), OSR2(10), TRPC1(5), ZBTB38(1), PALLD(1), ANKRD29(18), TBX3(8), C7orf58(2), FGF2(22), HIC1(2), CLIP3(16), ZEB1(11), GNG11(5), BNC2(11), RUNX1T1(2), TMEM204(16), VAMP3(2), ARHGEF15(12), MAMDC2(5), PCDHGA3(6), CBX7(19), CACNA1H(12), TMEM200A(7), MRGPRF(4), PCDHB4(8), ZCCHC24(17), TMEM200B(5), PCDHGA6(14), GNAO1(4), LIX1L(8), SVIL(6), CLEC2B(2), SMOC2(5), ADCY2(4), KATNAL1(3), LOC728264(3), CD302(6), TCEAL7(28), ASAM(6), ZEB2(12), APBA1(1), GRID1(8), ROBO4(7), RECK(1), PPAPDC3(14), WT1(6), MAGI2(2), PCDHGA11(4), ADARB1(3), MEF2D(7), LTBP4(15), KLHDC1(13), PCDHB15(3), KANK2(22), TBC1D2B(7), CCND2(5), NDN(13), RASL12(1), SHANK3(2), MAN1C1(6), SERINC1(1), PRKCA(2), UST(2), NOSTRIN(4), PRNP(4), TCF4(1), RAB8B(4), ARHGAP6(9), REM1(2), THRA(10), LRRK2(3), RSPO1(11), RFTN1(9), ABI3BP(7), NAP1L3(4), C5orf4(4), HAAO(4), FKBP7(5), SERPINF1(6), LAYN(3), EZH1(2), PDE7B(2), INSR(6), PCDHB12(1), KCTD7(5), DAB2(2), ADRA1D(1), GLI2(2), LOH3CR2A(5), DKK3(1), C1orf133(4), NID1(1), PTRF(1), SNCAIP(1), PCDHB18(6), FEZ1(1), RAPGEF4(2), PCDHGA7(1), ZDBF2(1), PRDM8(18), MDFIC(9), KIAA1614(1), HSPA12B(8), ZFYVE20(1), MBNL2(3), ZNF25(3), SOX15(2), PPP1R12C(1), AFAP1L1(2), SSPN(2), RGMA(1), RAB3IL1(2), SH2D3C(1), CYP2U1(2), ARHGAP31(4), IL11RA(1), MID2(2), SOX7(3), PDE5A(6), ZNF521(1), SNRK(2), DCHS1(1), TBXA2R(2), RAMP1(5), LRCH1(2), TAL1(1), COL15A1(3), C21orf34(3), KCNJ8(4), CASP12(1), LOC283856(1), CCDC50(1), MAP3K3(3), WIT1(3), SCARF1(3), ANO6(1), NBEA(1), C1QTNF7(2), KCTD12(1), SYNE1(1), TCEAL4(1), SBDS(1), TIPARP(1), GEFT(1), TMEM55A(4), EHBP1(1), ESAM(2), IGFBP4(1), CALCOCO2(1), LOC144571(1), RAMP2(1), GLI3(2), ZNF835(1), DACT3(2), GAS6(1), TEF(3), PHYHIP(2), FGD5(2), FOXN3(2), CRISPLD2(1), LMCD1(1), FBXL3(1), PLAT(1), PCDHGA5(1), DIO3(1), FLI1(1), SETBP1(1), CCDC141(1), PEG3(1), DIRAS1(1), PCDHGB7(1), SRF(2), MAF(1), KCNMA1(1), CACNA1C(1), FEZ2(1), SHE(1), STOM(1), CDH5(1), WHAMML1(2), ZNF676(2), FYCO1(2), PRX(3), PCDHB7(1), KIAA0430(1), ACVRL1(2), CCDC69(1), C14orf28(1), FXYD1(1), TGM2(1), FAM55C(1), FXYD6(1), MARVELD1(1), OLFML2A(1), LOC100130776(1), EFHA2(1), PTPN21(1), CCDC48(1), POU6F1(1), DENND2A(1), PKD1(1)</t>
+          <t>FAM54A(13), PRAME(10), TUFT1(1), GARS(1), TMEM63B(10), EPT1(3), CCT3(2), TUBA1C(19), FAM49B(1), CASP6(4), UCK2(2), ILF2(12), NCAPG(2), CCNB1(10), C20orf24(4), ZNF695(8), C1orf135(6), KIF2C(9), PKM2(2), ESPL1(2), PSMA5(2), CCNB2(1), NCAPH(2), PSMD12(1), PKMYT1(1), MCM2(1), C1orf112(1), RAD51(1), KPNA2(4), PGD(1), LMNB1(1), MFSD9(2), UHRF1(1), RACGAP1(1), FANCI(2), BUB1(7), YARS2(1), PLK1(4), DAP3(1), CASP3(2), ORC1L(1), ENY2(2), DCAF13(2), AURKA(9), BAK1(1), CDCA8(3), PGK1(1), SYT17(1), RPN2(2), SPAG5(4), CDC20(4), CKS2(1), HSPA4(4), ENO1(1), TPI1(1), LOC729082(2), HDGF(1), ERCC6L(1), KIF4A(1), TTK(1), CCNF(2), CDCA5(1), C8orf76(1), FANCD2(1), TPX2(1), C16orf75(1), C16orf59(1), SKA1(1), KIFC1(2), GINS1(1), KIF11(1), TDRKH(1), GSG2(1), C6orf115(1), H2AFZ(1), C10orf35(1), DARS2(1), NUF2(1), HJURP(1), SLC16A3(1), GEMIN8P4(1), CENPL(1)</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>286.0</v>
+        <v>82.0</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.6000200759913603</v>
+        <v>-0.6000182455883796</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7177925488768414</v>
+        <v>-0.6994271518323344</v>
       </c>
       <c r="H29" t="n">
-        <v>1891.0</v>
+        <v>225.0</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.6251256198180203</v>
+        <v>-0.6203085475344688</v>
       </c>
       <c r="J29" t="n">
-        <v>21.735632183908045</v>
+        <v>2.4725274725274726</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>hsa-miR-744-5p</t>
+          <t>hsa-miR-191-5p</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>83.0</v>
+        <v>91.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CEP68(15), CXorf36(13), N4BP2L1(2), SAP30L(28), FLT4(20), STON1(12), LRRN4CL(20), TSPAN18(20), ANTXR2(22), GHR(5), JAM2(10), GLT8D2(5), C5orf53(12), ATOH8(1), SCARA3(1), TCEAL1(4), ANO6(13), FZD4(8), TIMP2(23), PJA2(14), TBC1D1(9), TIMP3(19), MFAP4(11), MEF2C(29), HSD17B6(9), GIMAP6(5), SPARCL1(22), ITGA8(8), ARHGAP6(8), PTGIS(5), C1QTNF7(5), LOH3CR2A(16), DPYD(12), MMRN2(10), SH3BP5(17), SSPN(11), SHE(13), TACC1(31), GIMAP8(9), GPRASP1(10), MYCT1(22), THRA(1), PPP1R12B(12), TGFBR3(19), PCDHGA2(10), GPRASP2(5), LMOD1(8), C1orf133(15), UBL3(11), PEAR1(19), C21orf34(32), RSPO1(10), MID2(15), PTGER2(1), SH3BGRL(14), NXPH3(6), CLIC2(18), KCNJ8(10), PABPC5(3), DIXDC1(26), C14orf28(3), TBL1X(3), CNRIP1(16), MATN2(2), KANK3(8), STOM(9), KIAA1462(26), TIE1(23), TSPAN2(9), C5orf4(6), PGM5P2(9), CALHM2(25), OLFML2A(12), LDB2(8), ANKRD29(6), PALM2-AKAP2(18), FGF2(26), CLEC14A(9), TXNIP(8), AKT3(35), ZAK(18), LEPR(6), CDH5(4), A2M(8), GPR116(8), RERG(9), BNC2(24), LAYN(6), MAMDC2(23), CALD1(11), SLC24A3(22), CBX7(19), HEG1(5), KANK2(15), EMCN(16), CYBRD1(9), PDE2A(8), ABCG2(8), TEK(15), TNXB(6), MAOB(15), PCDHGA6(19), FRMD6(9), SVIL(26), STAT5B(37), TNS1(7), SMOC2(8), ADCY2(5), CD302(10), TCEAL7(13), ESAM(8), RFTN2(1), RHOJ(32), ASAM(22), RASA4(9), MBNL1(6), C1orf21(14), ARHGAP31(9), ROBO4(9), RECK(17), PCDHGA5(4), WT1(3), SETD7(10), AKAP2(6), ST5(15), SSC5D(2), APBB1(12), PCDHGB7(6), RASSF8(11), HEPH(2), CRTAP(5), C16orf45(23), MDFIC(20), CYP2U1(2), SGCE(4), CACNA1C(6), ZCCHC24(9), PHLDB2(2), ADCY4(3), ZNF483(3), MYADM(6), GNG12(13), FBXO32(8), ARHGEF6(6), NOSTRIN(3), KDR(5), DPYSL3(2), EPM2A(11), PGCP(1), JAM3(12), PTPRB(1), DMD(11), KLHL38(5), IL33(4), C1orf150(1), NEDD4(9), FLI1(8), CD93(1), KCTD12(4), ELK3(2), PDE10A(2), EPAS1(1), RNF38(2), NEURL1B(4), CLIC4(4), ITPR1(1), FGD5(7), CYYR1(11), DDR2(1), FOXN3(8), PMP22(6), PBX1(2), ERG(3), LRCH1(8), ZEB1(5), PRDM8(14), TENC1(7), GAB1(7), KIAA1614(2), GNAL(7), KCNMA1(12), NPY1R(1), TMEM200B(9), HSPA12B(6), LIX1L(3), PDE7B(2), TMEM88(1), INSR(2), ABCC9(7), CACNA2D1(1), AHNAK(4), NKAPL(4), MESTIT1(1), MEIS3(4), P2RY1(1), SEPP1(4), PROS1(11), ABI3BP(5), FRMD3(1), TMEM47(3), FBXL3(3), MEF2D(12), PGM5(2), GNG11(3), CASP12(2), ADAMTSL1(2), PCDHGA3(3), NFASC(2), FEZ2(2), KIAA1644(3), TMOD2(2), ABCB1(8), APOL3(1), FXYD6(4), CCDC69(1), MAGI2(1), PCDHGA11(2), USP31(5), GIMAP4(4), GIMAP5(3), CLEC2B(5), ST6GALNAC3(3), GLI3(1), ZNF25(2), LRRK2(6), FBLN5(2), CLIP3(11), KLHDC1(4), TMEM55A(7), CDKL1(1), PRNP(4), ERVFRDE1(3), NECAB1(1), RASL12(1), AXL(1), SHANK3(1), SCARF1(3), KCTD7(3), PPAPDC3(1), LRRC2(2), SNRK(4), GPM6A(1), DHH(3), CLEC1A(3), DACT3(1), NDN(2), TUB(1), SOX7(3), GPR1(1), TBXA2R(2), GAS1(1), PPP1R12C(1), LHFP(1), PALLD(1), TMEM204(1), TAL1(5), ITPKB(3), PLSCR4(2), LRRC70(2), GRRP1(1), PCDHGA9(2), SERINC1(2), SDPR(1), LIFR(3), DFNA5(1), PCDHB4(4), TCF4(2), PCDHB12(1), NR3C1(3), MEIS2(2), TBC1D2B(2), MBNL2(1), FEM1B(3), WHAMML1(1), TRPC1(1), ACACB(2), SYNPO(4), TNFAIP8L3(2), RSPO3(2), LSM11(1), PCDHGA4(1), RFTN1(2), PTRF(1), FERMT2(1), STARD8(1), ACTN1(1), TMEM109(2), CFL2(1), FAM69A(3), NRIP2(2), LTBP4(2), FHL1(2), EHD2(1), SELP(1), LOC144571(2), TLN1(1), PPP1R16B(1), HSPB2(1), MXRA7(2), CALCOCO1(1), KRT222(1), FAM49A(1), IRS1(1), ECSCR(2), C5orf41(1), RAB11FIP5(1), NAP1L2(2), C9orf5(2), MAN1C1(1), VIPR2(1), CSDC2(1), GRK5(1), ECM2(1), GATA1(1), KLF11(1), ZNF521(2), GNG7(1), SCN3B(1), PRKCH(1), RGMA(1), PDLIM3(1), OLFML1(1), PRELP(2), YPEL4(1), VAMP2(1), HPGDS(1), RUNDC3B(1), CALCRL(1), DST(1), ADAMTS5(1), LRP1(1), SH2D3C(1), EDNRB(1), SYTL4(1), PODN(1), P2RX7(1), HTR2B(1), C7orf58(2), FRY(1), AEBP1(1), RUNX1T1(1), ARHGEF15(1), MASP1(1), CACNA1H(1), TMEM200A(1), GIMAP7(1), PCDHB7(1), TRIM23(1), CC2D2B(1), KLHL10(1), PLAT(1), ZDBF2(1), LRCH2(1), SLC26A4(1), FAM65B(1), GPR176(1), KCNQ4(1), CAV2(1), ADARB1(1), PPP1R12A(1), PKD2(1), ZBTB4(1), KANK1(1)</t>
+          <t>LRCH1(14), ANTXR2(4), ANO6(8), TIMP2(10), MEF2C(9), SPARCL1(7), MICAL2(1), ARHGAP6(8), SH3BP5(3), TACC1(10), PEAR1(2), KRT222(2), CALHM2(9), C16orf45(7), AKT3(13), ZAK(22), BNC2(9), KCNMA1(2), CACNA1C(1), KANK2(2), PCDHGA6(6), SVIL(12), STAT5B(28), ASAM(5), FGF2(7), GNG12(15), TBL1X(1), KCTD12(5), UBL3(8), PJA2(14), MEF2D(5), SETD7(15), SAP30L(10), JAM3(3), PALM2-AKAP2(3), SLC24A3(8), RHOJ(7), TSPAN18(1), MFAP4(1), DPYD(8), KIAA1462(7), VAMP3(1), ANKRD29(2), TMEM55A(4), APBB1(2), FLT4(1), ACOX2(1), GPRASP2(2), MID2(5), CRTAP(1), TENC1(2), ZCCHC24(1), TMEM109(1), PRNP(2), TIMP3(3), AKAP2(2), DIXDC1(5), FRY(1), MDFIC(2), SGCE(1), RECK(1), TLN1(9), C5orf53(2), RAB11FIP5(1), RNF38(4), MACF1(1), KCTD7(2), SYNE1(1), AHNAK(3), ST5(4), SH3BGRL(2), CLIC2(1), SH3D19(1), CBX7(2), MYADM(2), FBXO32(1), FBXL3(1), ARHGEF6(1), PRKCH(1), SSPN(1), PROS1(1), PCDHGB7(2), RASSF8(3), NPTN(1), PPP1R12A(1), OSTM1(1), SCARF1(1), GLI3(1), FEM1B(1), SPTBN1(2), NBEA(1), SBDS(1), C21orf34(1), PHLDB2(1), WT1(2), C9orf5(1), MAOB(1), PDE7B(1), PCDHB5(1), GIMAP4(1), C1orf133(1), ZEB1(1)</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>363.0</v>
+        <v>102.0</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.6000214899371192</v>
+        <v>-0.6000030678297512</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.717179504353857</v>
+        <v>-0.6703687792046549</v>
       </c>
       <c r="H30" t="n">
-        <v>2290.0</v>
+        <v>419.0</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.6248896972841254</v>
+        <v>-0.6136362961073392</v>
       </c>
       <c r="J30" t="n">
-        <v>27.59036144578313</v>
+        <v>4.604395604395604</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>hsa-miR-183-5p</t>
+          <t>hsa-miR-103a-3p</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.0</v>
+        <v>86.0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.78</v>
+        <v>0.86</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>RFTN1(6), FLT4(19), C5orf53(10), MEF2C(12), ZAK(17), ZEB2(4), ZBTB4(3), SAP30L(5), LRRN4CL(13), FAM55C(3), GLT8D2(8), JAM3(7), TIMP2(4), TACC1(3), GPRASP1(6), WT1(5), TSHZ3(14), GPRASP2(6), ST5(6), PEAR1(10), C21orf34(2), EMILIN1(5), ABI3BP(1), PMP22(6), CNRIP1(19), RASSF8(5), CACNB2(4), NECAB1(2), CALHM2(7), C16orf45(18), ANKRD29(5), FGF2(17), MEF2D(1), AKT3(13), LTBP4(17), KLHDC1(12), ZEB1(8), GNG11(2), PRDM8(7), BNC2(3), SLC24A3(23), CBX7(6), KANK2(11), PCDHB4(3), TNXB(8), MAOB(8), PCDHGA6(2), STAT5B(22), TCEAL7(13), RFTN2(1), RHOJ(9), GRID1(2), MEIS3(6), RAB3IL1(3), APBB1(16), TENC1(4), CD302(4), GYPC(8), KCTD7(1), SETD7(3), CDO1(3), TUB(3), CLIC2(4), PROS1(1), ZBTB38(2), CLIP3(7), RUNX1T1(1), VAMP3(1), ZCCHC24(4), LIX1L(4), ASAM(3), APBA1(1), GPR124(9), UBL3(5), SERINC1(1), ZNF208(2), KCTD12(3), SSPN(1), CRTAP(5), TMEM55A(7), MBNL2(4), LOH3CR2A(2), PABPC5(6), KIAA1462(5), C1orf70(6), PRKCA(1), LAYN(3), CCND2(1), FEM1B(3), NDN(3), MAGI2(1), SCARF1(1), ANTXR2(1), SLC45A1(2), GRINL1A(1), FBN1(2), ANO6(1), PPAPDC3(2), NKAPL(2), PJA2(1), ECM2(1), IL33(1), SPARCL1(1), FLI1(1), GNG7(2), ARHGAP6(1), DPYD(3), REM1(1), SH3BP5(1), TMOD2(1), MYCT1(1), RNF38(1), SNAI2(1), PCDHGA2(1), FAM198B(2), SH3BGRL(2), SOX7(2), DIXDC1(2), SH2D3C(1), CAV2(1), PDE5A(1), TMEM47(1), C5orf4(3), RAMP1(2), HAAO(3), OSR2(3), FBXL3(3), C5orf41(1), LRCH1(1), DENND2A(3), TXNIP(1), TMEM204(1), ARHGEF15(2), CYP2U1(1), MAMDC2(1), PLSCR4(1), TMEM200A(1), TLN1(1), GNAO1(1), HSPA12B(4), MAN1C1(2), LOC283856(1), SMOC2(1), ADCY2(2), COL15A1(2), MITF(2), RECK(1), RAB8B(4), MAP3K3(3), SYNE1(1), FKBP7(1), EHBP1(1), GHR(2), IGFBP4(1), CALCOCO2(1), LOC144571(1), EHD2(1), NOSTRIN(2), CALCOCO1(2), TRPC1(2), MDFIC(2), MFAP4(2), PGCP(1), PCDHB15(4), TBC1D2B(1), THRA(1), OLFML1(1), LRRK2(2), RSPO1(3), FOXN3(1), PCDHB18(1), NAP1L3(1), KCNMA1(1), MYADM(1), FAM175A(1), C1QTNF7(1), SH3D19(1), PCDHGA3(1), CEP68(1), LOC92973(1), EZH1(1), TMEM200B(1), MBNL1(1), WIT1(1), EFHA2(1), CCDC50(1), CCDC48(1), POU6F1(1), GLI3(1), RIC3(1), DCHS1(1), TGFB1I1(1), JPH4(1), RASL12(1), PKD1(1), ZNF676(1), MRGPRF(1), INSR(1)</t>
+          <t>FLT4(34), GYPC(11), C5orf53(17), TIMP2(18), CNRIP1(36), C16orf45(28), C1orf70(24), AKT3(15), ZAK(42), TENC1(18), SLC24A3(49), KANK2(24), STAT5B(45), RHOJ(27), SCARF1(5), PPAPDC3(14), MEIS3(12), REM1(2), TSHZ3(22), SSC5D(3), PEAR1(10), APBB1(10), KIAA1462(18), CALHM2(9), ANKRD29(13), FGF2(14), CLIP3(8), LTBP4(10), PRDM8(18), BNC2(6), TMEM204(6), ARHGEF15(11), ZNF676(2), PCDHGA3(7), PCDHB15(3), ZCCHC24(8), HSPA12B(9), TCEAL7(21), WIT1(2), GPR124(23), NOSTRIN(7), LRRN4CL(21), GHR(10), MEF2C(15), ARHGAP6(7), RGMA(2), ST5(11), KANK3(6), TIE1(3), MDFIC(9), PCDHGA6(17), LIX1L(10), SVIL(5), ROBO4(4), TBC1D2B(5), CCND2(4), EMILIN1(6), KLHDC1(15), CDO1(4), WHAMML1(3), TBX3(5), MEF2D(6), SAP30L(7), ANTXR2(6), NES(1), GLT8D2(5), JAM3(7), NKAPL(4), GLI2(6), DPYD(6), TACC1(8), GPRASP1(8), NDN(9), GPRASP2(10), RSPO1(10), TUB(7), CLIC2(8), PABPC5(16), FOXO4(1), PMP22(3), PCDHB18(8), C14orf28(4), RASSF8(6), CACNB2(2), NAP1L3(5), C10orf72(2), NECAB1(3), SRF(2), OSR2(7), ADARB1(3), NRIP2(1), ZEB1(4), CBX7(5), TMEM200A(6), MRGPRF(4), PCDHB4(5), TNXB(7), GNAO1(3), ZEB2(14), GRID1(4), MYADM(6), RAMP1(4), PRKCA(5), MAOB(12), COL15A1(3), AKNA(1), PGCP(3), SCARA3(1), MFAP4(6), DLL4(5), SETD7(7), SH3BGRL(4), SOX7(3), SOX15(4), TXNIP(2), CACNA1H(3), SMOC2(2), CD99L2(1), PARM1(1), GNG11(3), PLAT(1), ACOX2(1), RFTN1(4), ZNF575(1), POU6F1(1), IGFBP4(1), FBN1(3), PRNP(2), FEM1B(1), THRA(9), C1orf133(2), ZNF25(6), NID1(3), DCHS1(3), TBL1X(5), PDE5A(8), HEPH(1), CRTAP(2), HAAO(5), FKBP7(4), PKD1(1), LOC144571(4), EHBP1(1), KATNAL1(3), FBXL7(1), EZH1(6), MARVELD1(2), FAM175A(2), SLC45A1(2), NEDD4(3), GNG7(1), SSPN(5), WT1(5), PTRF(3), MXRA8(2), PCDHGB7(1), TRPC1(1), EHD2(3), IRS1(1), RUNX1T1(2), LOC283856(3), VAMP2(1), SHANK3(3), KCTD7(1), PJA2(2), ANK2(1), NBEA(2), TEF(3), CALCOCO1(1), UBL3(4), C21orf34(1), KCNJ8(2), RAPGEF4(1), MAP3K3(4), PLEKHH2(1), ZBTB4(1), SH2D3C(2), PPM1F(1), MAN1C1(1), MBNL2(1), TGM2(1), PRKCDBP(1), TIMP3(2), ZNF521(1), SPARCL1(2), SCN3B(1), KCTD12(1), LOC134466(1), DACT3(2), OLFML1(2), EDNRA(1), PCDHGA2(1), RAB3IL1(1), PAPPA(2), PSD(1), LRRK2(1), PHYHIP(1), DIRAS1(1), ABI3BP(1), DIXDC1(2), CGNL1(1), TGFB1I1(1), JPH4(1), OLFML2A(1), ADD1(1), PRX(2), HIC1(1), SERPINF1(1), HIPK4(1), RASL12(2), GEFT(1), LAYN(1), MAMDC2(1), TMEM200B(2), CLEC2B(1), ADCY2(1), RFTN2(1), ASAM(2), C1orf21(1), TNFSF12(1), RAB8B(1), CXorf36(1), TSPAN18(1), GLI3(1), LOH3CR2A(1), ATP1B2(1), GAS6(1), FXYD1(1), ALDH1A2(1), PCDHGA11(1), CDH5(1), TMEM55A(1), KIAA1614(1), TLN1(1), PCDHB7(1), PCDHB5(1), LOC728264(1), FBXO31(1)</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>198.0</v>
+        <v>238.0</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.6001039978577112</v>
+        <v>-0.600010962926617</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6890643085568277</v>
+        <v>-0.7178718334272555</v>
       </c>
       <c r="H31" t="n">
-        <v>724.0</v>
+        <v>1338.0</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.6213591640262583</v>
+        <v>-0.6230780419911538</v>
       </c>
       <c r="J31" t="n">
-        <v>9.282051282051283</v>
+        <v>15.55813953488372</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>hsa-miR-15a-5p</t>
+          <t>hsa-miR-93-5p</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>77.0</v>
+        <v>85.0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MDFIC(3), SLC24A3(47), ZBTB4(3), FLT4(29), LRRN4CL(23), ANTXR2(8), GHR(8), SLC45A1(4), PCDHGA5(3), PPAPDC3(7), TIMP2(19), TBC1D1(1), MEF2C(9), FXYD6(3), PKNOX2(2), ARHGAP6(13), TACC1(9), GPRASP1(7), THRA(20), TEF(2), TSHZ3(13), GPRASP2(21), C1orf133(18), APBB1(15), C21orf34(7), PABPC5(9), TBL1X(9), CNRIP1(14), RASSF8(17), KANK3(1), KIAA1462(22), NECAB1(6), TIE1(2), RAMP1(1), OSR2(2), CALHM2(17), C16orf45(24), OLFML2A(6), TBX3(7), PRX(8), FGF2(23), C1orf70(19), AKT3(15), ZAK(30), LTBP4(10), PRDM8(23), BNC2(9), TENC1(9), TMEM55A(4), CBX7(7), CACNA1H(7), TMEM200A(6), MRGPRF(4), KANK2(26), ZCCHC24(6), PCDHGA6(23), GNAO1(4), HSPA12B(6), SVIL(13), STAT5B(28), LOC728392(5), TCEAL7(16), RHOJ(28), GPR124(11), MFAP4(17), WT1(12), NAP1L3(6), MEF2D(6), PCDHB4(8), SHANK3(1), SAP30L(13), FEM1B(1), MEIS3(17), LOH3CR2A(1), RGMA(11), TGFBR3(3), CDO1(6), ST5(9), SSC5D(3), UBL3(3), RSPO1(10), EMILIN1(8), C5orf4(7), ANKRD29(14), SNED1(3), TNXB(2), MAOB(8), MYADM(5), INSR(3), STON1(5), TSPAN18(4), EPM2A(5), PGCP(3), C5orf53(4), DMD(2), ADRA1D(1), SPARCL1(4), SH3BP5(5), SSPN(3), SETD7(3), PCDHGA2(3), PAPPA(1), PEAR1(3), MID2(5), SH3BGRL(3), PROS1(1), BACH2(1), FOXN3(2), DIXDC1(6), CACNB2(3), RAPGEF4(1), PDE5A(1), MAGI2(1), ZBTB38(1), PCDHGA11(2), ADARB1(4), NAP1L2(1), TXNIP(1), KLHDC1(8), ZEB1(2), TMEM204(3), MAMDC2(2), CEP68(6), CACNA1C(1), PCDHB15(6), SMOC2(6), ADCY2(1), KATNAL1(2), ASAM(2), RASA4(1), ST6GALNAC3(1), TUB(10), NDN(7), GNG7(6), PRKCA(1), CLIP3(16), JAM3(9), CCND2(4), PRNP(3), PCDHGA7(1), FKBP7(4), ZDBF2(2), CTSF(1), ZNF25(3), PMP22(5), PCDHGA3(11), TBC1D2B(4), USP31(2), WIT1(3), SCN3B(3), ZNF208(2), LOC144571(3), UST(1), KCTD7(1), TIMP3(1), NBEA(1), C1QTNF7(3), KCTD12(3), SYNE1(1), DIRAS1(3), PCDHB18(5), SRF(3), TRPC1(2), TIPARP(1), CYP2U1(1), ITPKB(1), EHBP1(1), DMRTC1B(1), GLI3(4), ZNF835(1), IL11RA(1), CBX6(2), FGD5(1), NXPH3(1), RFTN1(4), DCHS1(6), MAPK10(1), MAP3K3(2), ADD1(1), LIX1L(2), PLAT(2), GLT8D2(3), RNF38(1), C9orf5(1), GYPC(2), SCARA3(1), NKAPL(2), REM1(1), WHAMML1(1), CGNL1(1), NRIP2(1), EZH1(1), MXRA7(1), PCDHB7(1), PER3(1), MBNL2(2), GAS6(1), RASD2(1), ZNF676(2), AXL(1), FYCO1(1), FAM175A(3), SHE(1), DACT3(1), VAMP2(1), KCNJ8(1), HAAO(1), FBXL3(1), AEBP1(1), LAYN(1), ARHGEF15(1), CALD1(1), KCNMA1(1), TMEM200B(2), ESAM(1), RFTN2(1), GRID1(1), ARHGAP31(1), SCARF1(1), LRCH2(1), IRS1(1), DENND2A(1), PKD1(2), GLI2(1), FBLN5(1), KIAA1614(1), RNF144A(1), LRRK2(1), CYBRD1(1), DFNA5(1)</t>
+          <t>C5orf53(18), C16orf45(28), TENC1(30), SLC24A3(47), STAT5B(36), FLT4(29), GYPC(19), LRRN4CL(28), SCARF1(5), PPAPDC3(14), TIMP2(24), MEIS3(14), PEAR1(19), APBB1(9), CNRIP1(42), KIAA1462(20), ANKRD29(14), C1orf70(18), AKT3(24), CLIP3(15), ZAK(30), LTBP4(16), HSPA12B(10), RHOJ(41), WIT1(2), DAB2(2), MEF2C(19), DPYD(7), NDN(7), CDO1(4), CLIC2(14), KANK3(11), CRTAP(8), CALHM2(13), FGF2(20), GNG11(4), KANK2(16), ZCCHC24(11), ZEB2(9), GPR124(18), UBL3(6), KLHDC1(11), LIX1L(12), WHAMML1(2), PABPC5(17), MEF2D(3), MAOB(21), TCEAL7(22), NOSTRIN(2), AFAP1L1(2), ANTXR2(7), PGCP(4), MFAP4(10), SNRK(1), TNFSF12(2), GPRASP1(12), SETD7(5), TSHZ3(20), PAPPA(1), ST5(9), FAM198B(1), SH3BGRL(8), RASSF8(7), TIE1(3), TBX3(4), PRKCA(4), TMEM204(7), ARHGEF15(5), MDFIC(15), KIAA1614(1), TMEM200A(5), TNXB(14), INSR(3), COL15A1(4), ROBO4(2), GNG7(5), TACC1(12), THRA(5), PCDHB18(3), PRDM8(16), VAMP3(2), CBX7(9), PCDHGA6(9), CXorf36(1), SAP30L(10), ARHGEF6(3), TBC1D2B(5), SRL(1), GHR(7), KCTD7(1), GLT8D2(9), JAM3(8), TCEAL1(1), NKAPL(4), PHF15(1), SPARCL1(5), GLI2(1), ARHGAP6(6), C1QTNF7(2), LOH3CR2A(4), SH3BP5(2), LOC134466(1), DACT3(1), MYCT1(1), TGFBR3(3), PCDHGA2(1), GPRASP2(8), PHYHIP(2), RSPO1(6), NXPH3(1), TUB(3), EMILIN1(6), FOXO4(1), CCDC69(4), ABI3BP(1), DIXDC1(6), PPAP2A(1), PMP22(12), C14orf28(1), SH2D3C(1), TBL1X(3), CACNB2(4), NAP1L3(4), C10orf72(1), NECAB1(1), SRF(3), C5orf4(1), OSR2(5), C10orf54(1), LDB2(1), ADARB1(1), C7orf58(2), NRIP2(1), TXNIP(2), ZEB1(7), BNC2(5), CASP12(1), MAMDC2(2), PCDHGA3(4), CACNA1H(6), MRGPRF(1), PCDHB4(7), CYP1B1(1), TMEM200B(3), SFMBT2(1), PDE7B(1), KIAA1755(1), SMOC2(1), ADCY2(2), CD302(1), EBF1(1), ASAM(3), RASA4(1), MITF(1), GRID1(5), MYADM(6), ARHGAP31(1), MAP3K3(4), TBXA2R(1), FKBP7(4), PLAT(1), SLC45A1(1), ACOX2(1), SSC5D(3), PROS1(1), RFTN1(6), HAAO(6), EHD2(6), KATNAL1(3), ZNF575(1), C1orf133(2), POU6F1(1), IGFBP4(1), CCND2(2), ZNF25(4), PKD1(1), LOC144571(1), FBN1(3), DLL4(1), SOX15(3), DCHS1(1), SERPINF1(8), RBM9(1), SYNE1(2), TRPC1(1), EZH1(5), GLI3(1), SSPN(3), WT1(4), MXRA8(2), PDE5A(1), SVIL(3), MAN1C1(4), SHANK3(1), CALCOCO1(1), RAMP1(2), ZBTB4(1), RAB8B(1), TMEM55A(3), C21orf34(3), LAYN(2), UST(1), FOXN3(1), NBL1(1), SCN3B(1), KCTD12(1), TGFB1I1(1), ADD1(1), TSPAN18(1), ANO6(1), PRNP(2), PJA2(2), TIMP3(1), NEDD4(1), PCDHGB7(2), OLFML2A(1), ZBTB38(1), ZNF676(1), KCNMA1(2), TLN1(1), DENND2A(1), FZD4(1), REM1(1), CYP2U1(1), PCDHB15(2), NAALADL1(1), SPTBN1(1), PCDHB5(1), GAS6(1), TEF(1), NR1D1(1), MID2(1), KCNJ8(1), SOX7(1), PRX(1), RUNX1T1(1), LOC728264(1), AKNA(1), FYCO1(1), FBXO31(1)</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>230.0</v>
+        <v>240.0</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.6000158929424587</v>
+        <v>-0.6000151100427439</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.701183732302651</v>
+        <v>-0.6951656917888981</v>
       </c>
       <c r="H32" t="n">
-        <v>1284.0</v>
+        <v>1402.0</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.6236843184786057</v>
+        <v>-0.6218313134078148</v>
       </c>
       <c r="J32" t="n">
-        <v>16.675324675324674</v>
+        <v>16.49411764705882</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>hsa-miR-200a-3p</t>
+          <t>hsa-miR-106b-3p</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>77.0</v>
+        <v>83.0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FLT4(18), TIMP2(30), MEIS3(19), RFTN1(5), CNRIP1(28), KIAA1462(14), FKBP7(5), AKT3(14), ZAK(14), TENC1(9), EHD2(6), SLC24A3(34), KANK2(14), STAT5B(20), RHOJ(20), JAM3(12), CALHM2(20), GYPC(14), LRRN4CL(13), PPAPDC3(11), REM1(2), WT1(5), CDO1(1), PEAR1(6), EMILIN1(6), PMP22(8), CRTAP(3), HAAO(3), PRX(7), C1orf70(12), SNED1(1), PRDM8(15), ZCCHC24(12), TNXB(9), HSPA12B(10), TCEAL7(19), GPR124(8), ANTXR2(5), GHR(6), GLT8D2(7), NKAPL(5), MFAP4(4), MEF2C(6), FXYD6(1), NEDD4(2), ARHGAP6(6), TACC1(3), DACT3(3), GPRASP1(7), TSHZ3(9), APBB1(11), C21orf34(4), KCNJ8(4), DIRAS1(3), SULF2(1), SOX15(1), FOXN3(5), DIXDC1(5), RASSF8(7), CACNB2(3), HEPH(1), C16orf45(17), ANKRD29(5), FAM69A(2), MEF2D(3), BNC2(3), LAYN(3), PPP1R12A(1), PCDHGA3(4), TMEM200B(2), FEZ2(2), MAOB(3), PCDHGA6(3), FRMD6(2), SVIL(5), ASAM(4), RASA4(2), RECK(5), PRNP(2), FGF2(9), ZEB2(5), LTBP4(11), GPRASP2(10), ACVRL1(2), KANK3(3), TIE1(2), CLIP3(16), ARHGEF15(3), MDFIC(5), DPYD(2), MARVELD1(1), SAP30L(3), FBN1(6), SSPN(3), NDN(4), ZNF25(2), PABPC5(7), TRPC1(2), KLHDC1(2), ZEB1(6), KATNAL1(6), CXorf36(1), NR3C1(1), STON1(2), TSPAN18(3), PLXDC1(1), PGCP(1), C5orf53(3), PCDHGA5(1), SCARA3(1), ANO6(2), TUBB6(1), PJA2(1), PRRG3(1), TIMP3(2), SPARCL1(2), FLI1(1), CD99L2(1), ZNF208(1), SCN3B(2), LOH3CR2A(2), SH3BP5(1), SHE(1), TMOD2(1), RGMA(3), PDE10A(2), MYCT1(1), TGFBR3(1), PCDHGA2(1), RAB3IL1(2), MEIS2(1), ST5(1), SSC5D(1), UBL3(1), RSPO1(2), FGD5(1), MID2(1), CYYR1(1), SH3BGRL(1), CLIC2(5), PROS1(2), DDR2(1), CCDC69(1), ABI3BP(1), PCDHB18(1), TBL1X(1), STOM(1), NAP1L3(2), NECAB1(4), C5orf4(1), MAGI2(1), TM4SF18(1), LDB2(1), ERG(1), C7orf58(1), LRCH1(1), EFEMP1(1), FLJ35390(1), GPR116(1), CASP12(1), MAMDC2(2), USP31(1), GNAL(1), CALD1(2), KCNMA1(2), LOC144571(1), PCDHGB6(1), CBX7(3), CEP68(1), HEG1(1), CACNA1C(1), TMEM200A(1), TLN1(2), LATS2(1), TEK(1), RNF144A(1), SMOC2(2), ADCY2(2), CD302(1), RFTN2(2), MBNL1(1), CCDC50(1), GRID1(1), MYADM(1), ARHGAP31(1), ROBO4(1), MAP3K3(2), WIT1(3), TBC1D2B(1), UST(1), C1QTNF7(1), KCTD12(3), SYNE1(1), PDE5A(1), FBLN5(1), GEFT(1), TMEM55A(1), MAN1C1(1), NES(1), NRIP2(2), AXL(1), CBX6(1), OLFML1(2), C9orf5(1), CCND2(2), SETD7(1), DCHS1(3), PCDHB4(1), LRCH2(1), LIX1L(1), RAB8B(2), GLI3(1), LOC134466(1), NXPH3(1), PTRF(2), C14orf28(1), FEZ1(1), ACTN1(1), RAMP1(1), OSR2(1), SERPINF1(1), TMEM204(1), KIAA1614(1), MRGPRF(2), C1orf21(1), POU6F1(1), PSD(1), LRRK2(1), VAMP2(1), SH2D3C(1), TGFB1I1(1), DENND2A(1), RASL12(1), PKD1(1), INSR(1), DFNA5(1)</t>
+          <t>STAT5B(24), C5orf53(13), TIMP2(11), SETD7(4), UBL3(12), CRTAP(3), C16orf45(11), FGF2(16), ZAK(15), TENC1(9), FLT4(6), LRRN4CL(13), KCTD12(1), LRRK2(1), SH3BGRL(7), CNRIP1(13), PRKCA(2), KLHDC1(17), ZEB1(3), PRDM8(6), SLC24A3(16), LIX1L(6), SFMBT2(1), CD302(2), RHOJ(10), C1orf133(2), MAGI2(1), MAOB(8), MXRA7(2), SAP30L(7), PPAPDC3(1), PRNP(2), SPARCL1(3), ARHGAP6(4), SSPN(2), TACC1(11), PEAR1(8), CLIC2(6), PABPC5(7), PMP22(3), KIAA1462(8), C5orf4(2), CALHM2(3), TMEM55A(3), KANK2(2), PCDHGA6(3), SVIL(2), RECK(1), GPRASP1(8), AKT3(5), KCTD7(2), VAMP3(1), SCARF1(1), MEF2C(6), FLI1(1), ANKRD29(4), TXNIP(5), GNG11(3), SH3D19(1), ZNF676(3), MDFIC(5), TCEAL7(7), ZEB2(1), ZNF25(5), LRCH1(1), FBXL7(1), C21orf34(2), PLAT(1), NOSTRIN(2), GHR(3), SH3BP5(3), MID2(4), FOXN3(2), CLIP3(4), PCDHGA3(1), HSPA12B(1), C1orf21(5), ANO6(4), PJA2(1), PROS1(1), MYADM(3), ARHGEF6(2), RAB8B(2), CCDC69(2), RASSF8(2), MAP3K3(2), DOCK4(1), CEP68(1), KATNAL1(1), CXorf36(1), N4BP2L1(2), UST(1), GYPC(1), STON1(1), ANTXR2(1), GIMAP1(1), KDR(1), JAM2(1), GLT8D2(2), AHNAK(1), PGCP(1), PTPRB(1), PCDHGA5(1), TCEAL1(1), NKAPL(1), MBNL2(2), FZD4(1), MESTIT1(1), SOCS2(1), ECM2(1), TIMP3(1), LRRC2(1), MFAP4(1), HSD17B6(1), DMD(1), RASGRP2(1), GIMAP6(1), IL33(1), FAM65B(1), NEDD4(1), ITGA8(1), PTGIS(1), C1QTNF7(2), LOH3CR2A(2), DPYD(4), MMRN2(1), REM1(1), DACT3(1), GIMAP8(1), PDE10A(2), MYCT1(1), PPP1R12B(1), TGFBR3(1), WT1(1), SNAI2(1), TSHZ3(1), PCDHGA2(1), CLIC4(1), PAPPA(1), ITPR1(1), LMOD1(1), AKAP2(1), ST5(1), OR5K2(1), APBB1(2), FAM198B(2), RSPO1(1), TFPI(1), CALCRL(1), CYYR1(1), NXPH3(1), CRY2(1), KCNJ8(1), ABCB1(1), DIRAS1(1), SOX7(1), DDR2(1), ABI3BP(1), DIXDC1(2), ENPP1(1), PCDHB18(1), PCDHGB7(1), KLHL10(1), KANK3(1), CACNB2(1), LHFP(1), STOM(1), SYTL4(1), TIE1(1), TSPAN2(1), PGM5P2(1), HAAO(1), OSR2(1), OLFML2A(1), ZBTB38(1), LDB2(1), TBX3(1), KLHL33(1), FAM69A(1), ERG(1), PALM2-AKAP2(1), C7orf58(1), PRX(1), C1orf70(1), FRY(1), CLEC14A(1), EFEMP1(1), SERPINF1(1), PGM5(1), LEPR(1), LTBP4(1), A2M(1), STARD13(1), TIPARP(1), GPR116(1), FGF7(1), AKNA(1), RERG(1), BNC2(1), ARHGEF15(1), MAMDC2(1), CALD1(1), GIMAP4(1), KCNMA1(1), GIMAP5(1), PLSCR4(1), CBX7(1), CACNA1H(1), SNCA(1), CACNA1C(1), TMEM200A(1), EMCN(1), NFASC(1), CYBRD1(1), TLN1(1), PDE2A(1), ABCG2(1), TMEM200B(1), TEK(1), PKD2(1), TNXB(1), FRMD6(1), MAN1C1(1), PDE7B(1), KIAA1644(1), TNS1(1), CLEC2B(1), SMOC2(1), ESAM(1), ABCC9(1), ASAM(1), RASA4(1), ZNF483(1), MITF(1), MBNL1(1), ENPP2(1), ARHGAP31(1), GNG12(1), FBXO32(1), ROBO4(1), EZH1(2), NDN(1), FAM175A(1), GLI3(1), JAM3(1), CDO1(1), WHAMML1(1), CYP2U1(1), ZCCHC24(1)</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>236.0</v>
+        <v>249.0</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.600068922381769</v>
+        <v>-0.6000104490095195</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.704130789682964</v>
+        <v>-0.7283017853321397</v>
       </c>
       <c r="H33" t="n">
-        <v>915.0</v>
+        <v>596.0</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.6223729307692434</v>
+        <v>-0.6226922533745357</v>
       </c>
       <c r="J33" t="n">
-        <v>11.883116883116884</v>
+        <v>7.180722891566265</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>hsa-miR-145-3p</t>
+          <t>hsa-miR-200a-3p</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70.0</v>
+        <v>81.0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7</v>
+        <v>0.81</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FLAD1(4), TMEM63B(12), PRAME(19), DPP3(1), RPN2(2), TUBA1C(17), PKM2(1), HSPA4(6), CASP6(4), AURKA(5), ILF2(2), ZNF695(6), FAM54A(6), GAPDH(1), FAM110A(2), EPT1(1), TBC1D7(1), TMEM8A(1), CDCA8(1), RABIF(1), SPAG5(2), CCNB1(6), C1orf135(5), KPNA2(6), GIPC1(1), NEU1(2), KIF2C(2), HN1(2), UBE2T(2), CDC45(1), FAM49B(1), CENPL(1), CHAF1A(2), CCNB2(2), C6orf115(1), MCM2(2), FANCI(2), AURKB(1), BUB1(3), HDGF(2), KIFC1(1), NCAPH(1), CCNA2(2), NUP210(1), RRM2(2), DHRS13(1), NCAPG(1), STIL(1), CDK1(1), RACGAP1(1), C16orf75(1), C20orf24(2), HSPE1(1), PSMA5(2), SFXN1(1), ENO1(3), PGD(1), TPI1(1), TIMM17A(1), C1orf112(1), ADM2(1), SMPDL3B(1), LMNB1(1), C15orf23(1), H2AFZ(1), CDC20(1), UHRF1(1), SGOL2(1), SBK1(1), EME1(1), CPSF3(1), PLK1(1), RAD54L(1), TTK(1), NFKBIL2(1), DNAJC9(1), CCNF(1), CDC25A(1), TROAP(1), DLGAP5(1), MAD2L1BP(1), GPN1(1), MLF1IP(1), RAD51(1), MKI67(1), DEPDC1B(1), KIF11(1), PCNA(1)</t>
+          <t>PPAPDC3(15), SRF(7), CALHM2(25), FKBP7(6), LTBP4(14), PRDM8(20), SLC24A3(38), ZCCHC24(14), FLT4(22), LRRN4CL(22), FAM55C(1), TIMP2(28), PTRF(5), PMP22(15), CNRIP1(33), KIAA1462(25), ZAK(18), KANK2(17), STAT5B(28), KATNAL1(6), TCEAL7(22), RHOJ(26), GLT8D2(13), MEIS3(17), GPRASP2(19), APBB1(7), EMILIN1(10), MXRA7(1), C16orf45(14), AKT3(20), TNXB(14), LIX1L(6), NDN(7), HSPA12B(14), ANKRD29(11), CXorf36(3), N4BP2L1(1), SAP30L(4), ARHGEF6(2), TBC1D2B(6), SRL(1), CLEC3B(1), CD34(1), GYPC(10), STON1(2), TSPAN18(6), SCARF1(4), ANTXR2(6), GHR(7), NES(1), GIMAP1(1), KCTD7(1), JAM2(3), APOL3(1), RAB31(1), EPM2A(1), AHNAK(1), JAM3(12), FBN1(4), PCDHGA5(1), ATOH8(2), TCEAL1(1), ANO6(3), NKAPL(6), VIPR2(1), MBNL2(2), PHF15(1), SOCS2(1), TBC1D1(1), ECM2(2), TIMP3(7), MFAP4(6), MEF2C(13), FXYD6(3), HSD17B6(1), ZNF521(3), FAM65B(1), NEDD4(2), SPARCL1(6), ITGA8(1), FLI1(3), SYNPO(1), CBFA2T3(2), GLI2(3), KCTD10(1), ARHGAP6(6), PTGIS(1), C1QTNF7(1), LOH3CR2A(7), DPYD(2), MMRN2(1), SH3BP5(2), SSPN(3), SHE(1), TACC1(6), GPR133(1), LOC134466(1), DACT3(5), RGMA(2), GIMAP8(1), GPRASP1(12), MYCT1(3), PPP1R12B(1), TGFBR3(4), TEF(2), OGN(1), OLFML1(4), SETD7(5), HAND2(1), TSHZ3(12), FAM70B(1), PURG(1), PCDHGA2(2), NEURL1B(1), MEIS2(1), LMOD1(2), CDO1(1), YPEL4(1), PEAR1(9), PHYHIP(1), C21orf34(4), RSPO1(6), FGD5(1), NBLA00301(1), ACVRL1(5), C15orf51(1), CYYR1(2), NXPH3(2), TUB(3), CLIC2(9), KCNJ8(5), ABCB1(1), SOX7(1), DDR2(1), PABPC5(11), FOXN3(5), FOXO4(1), CCDC69(3), ABI3BP(1), DIXDC1(8), PPAP2A(1), PCDHB18(1), C14orf28(4), SH2D3C(2), JAZF1(2), TBL1X(6), TCEAL4(1), RASSF8(6), MATN2(1), KANK3(6), DKFZp566F0947(1), CACNB2(6), LHFP(1), STOM(1), TGFB1I1(3), NAP1L3(3), PDE5A(4), HEPH(2), SYTL4(1), ALDH1A2(1), C10orf72(2), NRXN2(1), NECAB1(7), TIE1(7), PODN(1), ACTN1(1), GIPC3(1), C5orf4(2), PGM5P2(1), CFL2(1), OSR2(5), GLT1D1(1), HTR2B(1), JPH4(1), OLFML2A(2), C10orf54(1), ADD1(1), LDB2(4), TBX3(3), FAM69A(1), ADARB1(1), PALM2-AKAP2(1), C7orf58(3), FGF2(13), C1QTNF4(2), C1orf70(9), SMTN(1), NRIP2(1), HIC1(1), CLIP3(13), FREM1(1), PGM5(1), FLJ35390(1), LEPR(1), A2M(1), FHL1(1), ZEB1(11), GNG11(4), RASL12(1), HTRA3(2), GEFT(5), RERG(1), BNC2(6), ARRB1(1), TMEM204(3), TENC1(9), CASP12(2), LAYN(4), ARHGEF15(6), MDFIC(8), MAMDC2(5), GNAL(1), CALD1(4), GIMAP4(2), KCNMA1(4), PCDHGA3(6), GIMAP5(1), PLSCR4(1), HGF(1), CBX7(5), CACNA1H(2), SNCA(1), CACNA1C(2), TMEM200A(4), MRGPRF(3), EMCN(1), CYBRD1(1), PCDHB4(3), TLN1(2), PDE2A(1), ABCG2(1), TMEM200B(5), FEZ2(1), TEK(1), MAOB(9), PCDHGA6(7), GNAO1(3), RNF144A(1), SFMBT2(1), FRMD6(3), SVIL(6), KIAA1644(1), TNS1(1), KIAA1755(1), FLRT2(1), CLEC2B(3), LOC283856(2), SMOC2(4), ADCY2(1), CD302(4), EBF1(1), HSPB2(2), FAM131B(1), ABCC9(1), ASAM(9), RASA4(1), ZEB2(8), ADCY4(1), COL15A1(2), ZNF483(1), MITF(1), MBNL1(1), PCDH18(1), ARHGAP20(1), ILK(1), GRID1(6), MYADM(4), ARHGAP31(2), GPR124(10), ROBO4(3), RECK(5), GNG7(2), WHAMML1(1), PPP1R12C(1), PRX(6), SLC45A1(3), ACOX2(1), RFTN1(6), KLHL10(1), CRTAP(4), HAAO(3), EHD2(4), DCHS1(1), REM1(2), PRKCA(2), PRNP(5), PDE10A(2), MID2(2), SYNE1(2), FEZ1(3), FBLN5(1), TRPC1(3), SERPINF1(4), TMEM55A(4), UST(1), GLI3(2), PGCP(2), C5orf53(3), NBEA(1), KCTD12(4), SNAI2(1), PAPPA(3), ZNF25(2), SSC5D(1), FAM198B(2), DIRAS1(2), SOX15(2), KLHDC1(6), GAB1(1), C1orf21(2), ZNF438(1), RAB3IL1(2), CCDC48(1), AFAP1L1(1), FAM175A(1), CCND2(1), DMD(1), DNASE1L3(1), C1orf133(1), C1QTNF1(1), FXYD1(1), RUNX1T1(1), LOC728264(1), RFTN2(2), VAMP2(2), MEF2D(1), FAM162B(1), RAB8B(1), ST5(1), PCDHGB7(1), LRCH1(2), GPR116(1), PDE7B(1), ESAM(1), FEM1B(1), DHH(1), MAP3K3(2), SH3BGRL(1), AXL(2), NBL1(1), SCN3B(1), CGNL1(1), WT1(1), RAMP1(1), EZH1(1), VAMP3(2), WIT1(1), FBXO31(1)</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>88.0</v>
+        <v>348.0</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.6000170313007405</v>
+        <v>-0.6000107494936749</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.7199493986522909</v>
+        <v>-0.751149808520093</v>
       </c>
       <c r="H34" t="n">
-        <v>193.0</v>
+        <v>1412.0</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.6234207048403152</v>
+        <v>-0.6284248873969462</v>
       </c>
       <c r="J34" t="n">
-        <v>2.757142857142857</v>
+        <v>17.432098765432098</v>
       </c>
     </row>
     <row r="35">
@@ -1308,69 +1308,69 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>70.0</v>
+        <v>78.0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7</v>
+        <v>0.78</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>TIMP2(17), RFTN1(5), CALHM2(11), ZBTB4(1), FLT4(15), APBB1(7), EHD2(4), PRNP(7), MEF2C(9), CNRIP1(12), KIAA1462(10), AKT3(10), TENC1(6), TMEM55A(3), SLC24A3(18), HSPA12B(5), STAT5B(19), RHOJ(12), GYPC(5), PPAPDC3(7), MEIS3(6), WT1(3), CDO1(1), CRTAP(1), C1orf70(7), SNED1(1), ZCCHC24(6), LRRN4CL(9), GHR(9), GLT8D2(6), SSPN(2), TACC1(5), GPRASP1(7), PEAR1(7), C21orf34(4), MID2(1), RASSF8(6), C16orf45(10), MEF2D(2), ZAK(9), PRDM8(7), LAYN(3), PPP1R12A(1), KANK2(7), FEZ2(2), TCEAL7(10), ASAM(6), FAM175A(1), ANTXR2(4), GLI3(4), PGCP(2), JAM3(7), FBN1(4), ANO6(2), NKAPL(4), DAB2(1), MFAP4(3), DPYD(2), TSHZ3(8), MARVELD1(1), GPRASP2(9), ZNF25(4), RSPO1(6), TUB(2), CLIC2(4), KCNJ8(2), PABPC5(8), EMILIN1(6), DCHS1(2), FEZ1(1), NECAB1(3), HAAO(2), OSR2(4), FBXL3(2), ANKRD29(6), CLIP3(7), LTBP4(7), KLHDC1(2), MDFIC(4), PCDHGA3(4), TNXB(7), MAOB(3), PCDHGA6(6), LIX1L(3), SVIL(4), KATNAL1(3), ZEB2(5), GPR124(6), NDN(2), AXL(1), TBC1D2B(3), NOSTRIN(2), SPARCL1(3), LOH3CR2A(4), TEF(1), OLFML1(3), SETD7(2), SOX15(1), ABI3BP(4), TBL1X(1), KANK3(2), NAP1L3(3), SRF(2), FKBP7(4), FGF2(7), SERPINF1(1), ZEB1(6), BNC2(5), RUNX1T1(2), TMEM204(2), MAMDC2(4), CBX7(3), PCDHB4(1), TMEM200B(2), MAN1C1(2), LOC728264(1), RASA4(1), MYADM(2), MXRA7(1), SAP30L(3), C5orf53(1), PJA2(1), NEDD4(1), FLI1(1), CD99L2(1), ZNF208(1), SCN3B(3), ARHGAP6(4), SHE(2), RGMA(2), UBL3(1), PROS1(2), FOXN3(1), DIXDC1(2), TIE1(4), MAGI2(1), LRCH1(3), PRX(2), GNAL(1), LOC144571(1), CEP68(1), CD302(2), CCDC50(1), GRID1(3), ARHGAP31(2), MAP3K3(1), WIT1(1), KCTD12(4), SH2D3C(1), ARHGEF15(2), APBA1(1), CCDC136(1), CXorf36(1), STON1(1), TSPAN18(1), KCTD7(1), TIMP3(1), FXYD6(1), ZNF521(1), GLI2(1), CBX6(1), DACT3(1), CCDC141(1), PCDHGA2(1), NXPH3(1), DIRAS1(1), PTRF(1), CACNB2(1), C5orf4(1), TRPC1(1), TBX3(1), FAM69A(1), LPAR4(1), GEFT(1), CALD1(1), KCNMA1(1), SGCE(1), C9orf5(1), CACNA1H(1), TMEM200A(1), MRGPRF(1), TLN1(1), EZH1(1), RNF144A(1), ADCY2(2), HSPB2(1), RECK(1), CCND2(2), LDB2(1), PRKCA(1), PMP22(1), C14orf28(1), KLHL10(1), RAMP1(1), PKD1(1)</t>
+          <t>PPAPDC3(14), SRF(4), CALHM2(20), SLC24A3(25), FLT4(22), TIMP2(25), CNRIP1(24), STAT5B(30), WT1(6), GPRASP2(16), APBB1(10), ANKRD29(11), PRDM8(13), PCDHB15(1), ZCCHC24(12), MXRA7(1), CXorf36(3), NOSTRIN(2), LRRN4CL(15), ANTXR2(8), GHR(12), GLT8D2(10), PRNP(10), DAB2(2), TIMP3(6), MEF2C(15), SPARCL1(6), GNG7(2), ARHGAP6(10), LOH3CR2A(8), RGMA(3), GPRASP1(11), OLFML1(5), TSHZ3(11), PEAR1(11), RSPO1(6), PMP22(8), C14orf28(1), KANK3(4), KIAA1462(15), NECAB1(10), TIE1(5), FBLN5(2), C5orf4(5), C16orf45(16), C1orf70(8), AKT3(11), ZAK(15), LTBP4(9), ZEB1(12), GNG11(4), BNC2(8), MDFIC(8), MAMDC2(5), KCNMA1(4), CBX7(8), KANK2(14), ABCG2(3), TMEM200B(6), TNXB(10), PCDHGA6(7), LIX1L(4), CD302(6), TCEAL7(18), RHOJ(20), ASAM(10), ZEB2(8), MYADM(2), ROBO4(4), RECK(9), GYPC(10), C5orf53(5), ANO6(4), NEDD4(3), DPYD(7), TMOD2(3), TACC1(7), SETD7(5), NDN(6), CDO1(3), CLIC2(6), DIXDC1(6), PARM1(1), PCDHGB7(2), RASSF8(9), TGFB1I1(3), CRTAP(4), FGF2(11), CLIP3(13), TENC1(7), MXI1(1), HSPA12B(12), SVIL(9), MAN1C1(1), KATNAL1(2), GPR124(7), EHD2(7), N4BP2L1(2), SAP30L(7), ARHGEF6(2), TBC1D2B(4), STON1(3), TSPAN18(4), SCARF1(3), NES(1), KCTD7(1), RAB31(1), AHNAK(2), JAM3(7), FBN1(5), NKAPL(8), MBNL2(3), PHF15(1), MFAP4(4), FXYD6(1), FLI1(1), MEIS3(13), SYNPO(2), CBFA2T3(2), GLI2(3), C1QTNF7(2), SSPN(5), TGFBR3(2), TEF(4), PCDHGA2(3), NEURL1B(1), YPEL4(1), PHYHIP(2), C21orf34(2), CYYR1(2), TUB(2), KCNJ8(5), PTRF(3), PABPC5(13), EMILIN1(8), FOXN3(4), ABI3BP(3), PPAP2A(2), PCDHB18(2), SH2D3C(4), CACNB2(7), NAP1L3(5), C10orf72(1), OSR2(5), C10orf54(2), LDB2(3), TBX3(3), ADARB1(1), C7orf58(3), NRIP2(3), GEFT(2), TMEM204(2), LAYN(3), ARHGEF15(5), CALD1(4), PCDHGA3(6), TMEM200A(4), MRGPRF(4), PCDHB4(2), GNAO1(3), RNF144A(1), CLEC2B(2), SMOC2(3), ADCY2(3), EBF1(1), RASA4(3), C1orf21(4), GRID1(6), PRX(4), RFTN1(5), CCND2(3), DCHS1(2), FZD4(1), REM1(2), SH3BP5(2), MYCT1(3), ST5(2), NXPH3(3), PROS1(1), TMEM109(1), RAMP1(2), CYBRD1(2), MAOB(5), FRMD6(3), SERINC1(1), COL15A1(2), ARHGAP31(1), ATOH8(2), PRKCA(2), ZNF25(2), EZH1(1), UST(1), JAM2(2), GLI3(5), NBEA(1), KCTD12(2), SSC5D(2), MID2(3), DIRAS1(1), SOX15(3), FEZ1(2), KLHDC1(4), GAB1(3), FAM162B(2), POU6F1(1), ZNF438(1), SLC45A1(1), PGCP(1), PJA2(3), DACT3(3), RAB3IL1(2), UBL3(3), SH3BGRL(3), JPH4(2), RASL12(3), CCDC48(1), RAMP2(1), CLEC3B(1), AFAP1L1(1), FAM175A(1), GIMAP1(1), PLXDC1(1), PCDHGA5(1), TCEAL1(2), TGFB3(2), SOCS2(1), TBC1D1(2), ECM2(1), DMD(1), ADRA1D(2), SNRK(1), PTGIS(1), LOC134466(2), THRA(1), OGN(1), SNAI2(2), DNASE1L3(1), PAPPA(1), ITPR1(1), LMOD1(2), C1orf133(1), FAM198B(1), NR1D1(1), FGD5(1), TNNI3K(1), NBLA00301(1), ACVRL1(1), SOX7(1), C1QTNF1(1), CCDC69(1), FXYD1(2), JAZF1(1), TBL1X(1), TCEAL4(2), LHFP(1), STOM(1), PDE5A(1), SYTL4(1), ALDH1A2(1), FOXF1(1), CFL2(1), HTR2B(1), OLFML2A(2), ZBTB38(1), TM4SF18(1), ERG(1), FKBP7(2), LRCH1(2), C1QTNF4(1), FHL1(1), HTRA3(1), RUNX1T1(1), TMEM55A(2), CASP12(2), GIMAP4(1), LMCD1(2), GIMAP5(1), HGF(1), CACNA1H(2), GJD3(1), CACNA1C(1), EMCN(1), PDE2A(1), TEK(1), FLRT2(1), LOC283856(2), LOC728264(1), HSPB2(2), RFTN2(2), FAM13C(1), MITF(1), MBNL1(1), PCDH18(1), DFNA5(2), PRKCDBP(1), SCARA3(1), PKNOX2(1), SAMD4A(1), BCL6B(1), VAMP2(1), OR5K2(1), LRP1(1), MXRA8(1), MEF2D(1), HIC1(1), FLJ35390(1), CRISPLD2(1), COL6A2(1), COL6A3(1), LOC144571(1), CEP68(1), GNG2(1), APBA1(1), RAB8B(1), HAAO(2), MAP3K3(2), SYNE1(1), VAMP3(1), TLN1(1), WIT1(1), WHAMML1(1), TRPC1(1), DENND2A(1), SHANK3(1)</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>195.0</v>
+        <v>324.0</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.6000617307570997</v>
+        <v>-0.6000092293570197</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.6962430442202303</v>
+        <v>-0.747009438104126</v>
       </c>
       <c r="H35" t="n">
-        <v>667.0</v>
+        <v>1301.0</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.6229886663259993</v>
+        <v>-0.6293063674239341</v>
       </c>
       <c r="J35" t="n">
-        <v>9.528571428571428</v>
+        <v>16.67948717948718</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>hsa-miR-103a-3p</t>
+          <t>hsa-miR-1307-3p</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>65.0</v>
+        <v>64.0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FLT4(41), C1orf70(22), ZAK(47), SLC24A3(48), STAT5B(44), ZBTB4(4), GYPC(18), LRRN4CL(21), SCARF1(3), C5orf53(16), TIMP2(18), MEF2C(18), MEIS3(14), REM1(2), TSHZ3(27), ST5(13), UBL3(6), TBL1X(3), CNRIP1(41), PDE5A(6), DNAJC27(1), C16orf45(26), LRCH1(3), KLHDC1(11), ARHGEF15(11), PCDHGA3(5), ZEB2(7), MBNL1(1), MYADM(1), ROBO4(3), CDO1(7), SNED1(1), POU6F1(2), ANKRD29(15), SAP30L(3), AKT3(19), KIAA1614(3), HSPA12B(13), RHOJ(31), GHR(5), WT1(5), PEAR1(9), APBB1(10), PABPC5(15), KIAA1462(18), FGF2(19), MEF2D(6), KANK2(24), PCDHGA6(14), MARVELD1(1), EMILIN1(12), CLIP3(15), SHANK3(1), NOSTRIN(8), ANTXR2(3), SLC45A1(5), GLT8D2(7), NKAPL(3), MFAP4(3), SETD7(3), WHAMML1(1), PTGER2(1), PMP22(4), KANK3(4), RAMP1(3), HAAO(6), TXNIP(4), LTBP4(15), ZEB1(1), GNG11(2), PRDM8(17), TMEM204(6), EHD2(5), TMEM200A(3), ZCCHC24(10), MAOB(9), LIX1L(9), TCEAL7(25), GPR124(30), NDN(11), JAM3(12), THRA(8), GPRASP2(10), TENC1(14), CRTAP(2), PRKCA(3), RAB8B(4), SH3BGRL(2), FAM175A(2), ANO6(1), PPAPDC3(7), PJA2(2), SH3BP5(2), TACC1(4), ZNF25(3), VAMP2(3), RSPO1(7), BNC2(6), MDFIC(9), CBX7(6), SVIL(4), CCND2(7), RFTN1(8), PCDHB12(1), PCDHGA7(1), FKBP7(3), PGCP(1), TCEAL1(1), GPRASP1(5), C14orf28(1), RASSF8(2), CALHM2(10), ADARB1(1), NRIP2(2), PCDHB15(1), MRGPRF(3), TNXB(3), SMOC2(2), TBC1D2B(3), GLI2(2), TUB(3), SOX15(4), ABI3BP(3), NAP1L3(2), ZBTB38(1), RUNX1T1(2), MAN1C1(2), LOC728264(2), COL15A1(2), GRID1(4), PCDHB4(2), SH2D3C(2), AKNA(1), JAM2(1), FBN1(3), ZNF521(1), SNRK(1), NID1(1), SOX7(2), DCHS1(4), RAPGEF4(1), PCDHGA11(1), SERPINF1(1), EPDR1(1), GNAO1(1), KATNAL1(1), TBXA2R(2), DENND2A(3), DPYD(4), MAP3K3(3), ZYX(1), EZH1(2), PLAT(2), CALCOCO2(1), KCNMA1(1), LOC144571(1), RAMP2(1), ARHGAP6(3), GAS6(1), NECAB1(3), OSR2(2), TBX3(1), TMEM55A(3), INSR(3), IL11RA(1), SPARCL1(1), C1QTNF7(1), LOH3CR2A(1), THSD1(1), TEF(1), FGD5(1), NXPH3(1), PTRF(1), DIXDC1(1), PCDHB18(1), CGNL1(1), TGFB1I1(3), TIE1(1), SRF(1), ADD1(1), LMCD1(1), LOC728392(1), LOC283856(1), ADCY2(1), ARHGAP31(1), MAF(1), ZNF676(2), WIT1(1), PRNP(1), C1orf133(1), GNG7(1), ZNF208(1), RAB3IL1(1), ISLR(1), COL6A2(1), PKD1(2), LOC100130776(1), NEDD4(1), LRRK2(1)</t>
+          <t>SAP30L(19), FLT4(18), LRRN4CL(22), MEF2C(17), ANK2(1), DPYD(10), GPRASP1(14), THRA(8), PABPC5(14), C14orf28(1), CNRIP1(25), TIE1(11), ANKRD29(11), ZAK(27), PRDM8(5), SLC24A3(46), KANK2(13), STAT5B(42), TCEAL7(20), RHOJ(24), NDN(3), UBL3(8), C16orf45(19), C5orf53(16), KCTD12(2), WT1(5), CALCOCO1(1), LRRK2(1), FKBP7(7), MEF2D(5), KLHDC1(13), TENC1(19), ZCCHC24(6), LIX1L(6), ADCY2(2), GPR124(5), GYPC(10), GHR(8), GLT8D2(10), ANO6(3), PPAPDC3(5), TIMP2(17), MFAP4(8), MEIS3(7), ARHGAP6(9), SSPN(6), TSHZ3(11), C1orf133(5), CLIC2(11), RFTN1(3), TBL1X(5), RASSF8(9), KIAA1462(16), MAGI2(2), AKT3(18), EHD2(3), ARHGEF15(14), EZH1(7), MAOB(13), PCDHGA6(10), HSPA12B(5), ZEB2(6), MYADM(4), MXRA7(1), ARHGEF6(1), DAB2(1), CDO1(1), PEAR1(9), APBB1(7), C21orf34(5), KCNJ8(6), TBXA2R(2), ABI3BP(4), KANK3(6), STOM(1), PDE5A(5), HEPH(2), RAMP1(2), C1orf70(9), PRKCA(2), TMEM204(5), VAMP3(1), MDFIC(8), PCDHB4(4), TNXB(10), CD302(4), RFTN2(1), COL15A1(4), C1orf21(2), CXorf36(2), NOSTRIN(4), AFAP1L1(2), ANTXR2(5), JAM3(6), SPARCL1(7), LOH3CR2A(4), TMOD2(2), MYCT1(2), TEF(4), GPRASP2(8), WHAMML1(2), RSPO1(7), TBX3(1), FGF2(9), ZEB1(5), GEFT(1), TMEM55A(5), CBX7(8), CACNA1C(2), TMEM200A(3), KATNAL1(5), ASAM(5), GRID1(3), ROBO4(2), IGFBP4(1), PJA2(2), ST5(10), PTGER2(1), CALCOCO2(1), FBLN5(2), BNC2(6), CALD1(2), SVIL(4), NAALADL1(1), MBNL1(2), ZNF25(3), SCARF1(3), ATOH8(1), GAS6(3), FGD5(2), NAP1L3(3), C5orf4(5), LTBP4(11), TSPAN18(3), JAM2(1), NKAPL(3), PRNP(4), TIMP3(2), ZNF208(1), SH3BP5(1), TACC1(5), PDE10A(1), TGFBR3(2), OLFML1(3), SSC5D(2), MID2(2), EMILIN1(5), FOXN3(1), DIXDC1(4), DKFZp566F0947(1), CACNB2(2), CALHM2(6), TRPC1(1), LRCH1(1), CLIP3(9), ZNF676(3), MAMDC2(2), PCDHGA3(3), CEP68(1), TLN1(2), RNF144A(1), SFMBT2(1), ARHGAP31(1), RECK(1), SH2D3C(3), CRTAP(4), HAAO(2), ADD1(1), KIAA1614(1), SYNE1(1), NBL1(1), TNFSF12(1), NRIP2(1), SH3BGRL(3), MBTPS1(1), CCND2(1), RGMA(2), INSR(1), N4BP2L1(2), NR3C1(1), TBC1D2B(3), GLI3(1), MBNL2(1), FLI1(2), NBEA(1), SEPT7(1), CYYR1(2), PROS1(3), SOX7(2), SOX15(3), DCHS1(2), ZBTB38(1), LDB2(1), PCDHGA11(1), FRY(1), CDH5(1), GAB1(1), ZNF521(1), OTUD1(1), CLEC2B(2), MAP3K3(3), TBC1D1(1), KCTD7(1), VIPR2(2), SETD7(1), PCDHGA2(1), NXPH3(2), TUB(1), DIRAS1(2), SRF(1), OSR2(2), RAB11FIP5(1), PRX(1), SERPINF1(1), RUNX1T1(1), LAYN(1), CACNA1H(2), TMEM200B(1), LOC728264(1), SHANK3(1), GIMAP1(1), POU6F1(1), SLC45A1(1), FBN1(1), ACACB(1), RASGRP2(1), SNRK(1), CBFA2T3(1), GNG7(1), DACT3(1), PHYHIP(1), OR5K2(1), ACVRL1(1), PTRF(1), CCDC69(1), C12orf53(1), C21orf7(1), AEBP1(1), AKNA(1), FYCO1(1), CCDC36(1), LOC728392(1), DFNA5(1), GNG11(1), AXL(1), WIT1(1)</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>199.0</v>
+        <v>246.0</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.6000511330439194</v>
+        <v>-0.6000101784232968</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.7107526108615991</v>
+        <v>-0.702482057187725</v>
       </c>
       <c r="H36" t="n">
-        <v>1220.0</v>
+        <v>1146.0</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.6202615360256482</v>
+        <v>-0.622183096179795</v>
       </c>
       <c r="J36" t="n">
-        <v>18.76923076923077</v>
+        <v>17.90625</v>
       </c>
     </row>
     <row r="37">
@@ -1380,573 +1380,573 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>60.0</v>
+        <v>59.0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>STAT5B(19), FLT4(9), GUCY1A3(2), MEF2C(10), IL33(2), SPARCL1(13), FLI1(3), TACC1(11), EPAS1(3), MYCT1(9), SETD7(6), AKAP2(4), SH3BGRL(7), TBL1X(13), FERMT2(2), KIAA1462(10), PALM2-AKAP2(8), LRCH1(15), FGF2(11), MEF2D(2), CACNA1C(7), RHOJ(9), ASAM(12), C1orf133(14), ZAK(19), MDFIC(3), SHANK3(2), SAP30L(5), ANTXR2(9), C5orf53(1), TBC1D1(3), TIMP3(7), ZNF521(3), LMOD1(1), RSPO1(3), PDE8B(1), SOX7(4), DIXDC1(9), PMP22(1), KCNMB1(1), TGFB1I1(1), TIE1(6), HTR2B(2), JPH4(1), C16orf45(2), AKT3(4), ZEB1(4), TMEM204(4), KCNMA1(14), SLC24A3(11), KANK2(9), TEK(5), SVIL(13), KIAA1644(1), KATNAL1(3), PJA2(5), ELK3(5), CALHM2(3), UBL3(8), ACTN1(2), TSPAN2(2), ITPKB(2), KCTD10(1), ST5(4), PALLD(6), GAB1(4), FEM1B(2), PHLDB2(9), SPTBN1(1), CXorf36(4), STON1(3), TSPAN18(4), KDR(8), ENTPD1(3), MEIS3(3), PDE10A(2), CLIC4(3), SSC5D(2), ARHGEF15(5), CALD1(2), PCDHGA6(2), ESAM(5), GNG12(2), SCN3B(2), FGD5(1), CDH5(3), TBXA2R(2), NBEA(1), TIMP2(1), PRDM8(1), MYADM(1), SCARA3(1), SNRK(1), SHE(2), PPP1R12B(1), C21orf34(2), ABCB1(3), MAP3K3(1), RAMP1(1), PGM5P2(2), ADARB1(1), CEP68(1), ZBTB4(1), MBNL1(1), FBXO32(1), DHH(4), OLFML2A(2), FYCO1(1), FAM65B(1), MMRN2(2), CYYR1(1), EXOC3L2(1), FRMD3(1), MAPK10(1), CLEC14A(2), A2M(2), STARD13(1), GPR116(2), EMCN(2), LRCH2(1), PLAT(2), ARHGAP31(2), ROBO4(3), PTRF(1), EHBP1L1(1), SCARF1(1), PTPRB(1), ITGA8(1), CD93(1), KCTD12(2), CLEC1A(1), PEAR1(1), RAB11FIP2(1), CLIC2(1), PCDHGB7(1), LDB2(1), SELP(1), ABCG2(1), PLVAP(1), JAM3(1), KANK3(1), CLIP3(1), HIPK4(1)</t>
+          <t>TACC1(13), LRCH1(12), STAT5B(21), SCARF1(4), ANTXR2(12), CLIC4(5), DIXDC1(10), KIAA1462(9), ZAK(17), GAB1(4), KIAA1614(3), KCNMA1(15), TRIM9(1), SVIL(15), ASAM(13), FLT4(10), DHH(4), TIE1(10), PALM2-AKAP2(9), CLEC14A(6), ENTPD1(2), KCTD12(3), UBL3(6), TBL1X(11), CXorf36(8), SRL(1), NOSTRIN(1), STON1(4), PLN(1), TSPAN18(3), NEXN(1), KDR(8), JAM2(2), EPM2A(1), RAB23(1), JAM3(3), TBC1D1(3), TIMP3(9), MEF2C(9), HSD17B6(1), ZNF521(4), GIMAP6(2), KLHL38(2), FAM65B(2), NEDD4(3), SPARCL1(12), ITGA8(2), FLI1(3), MMRN2(4), TNFAIP8L3(1), ELK3(5), SHE(3), GIMAP8(2), MYCT1(9), PPP1R12B(2), SETD7(3), NEURL1B(1), MEIS2(1), MSRB3(1), LMOD1(2), AKAP2(5), PEAR1(3), C21orf34(2), RSPO1(3), FGD5(3), MID2(1), CALCRL(1), CYYR1(3), SH3BGRL(3), CLIC2(2), ABCB1(3), SOX7(4), KRT222(2), FILIP1L(1), C14orf28(2), DSTN(1), KANK3(3), FERMT2(5), SYNPO2(1), ACTN1(1), TSPAN2(2), PGM5P2(4), CFL2(1), CALHM2(2), JPH4(2), C16orf45(3), OLFML2A(3), PBX1(1), LDB2(4), PALLD(3), ADARB1(1), FGF2(5), SMTN(1), NRIP2(1), FRY(2), TXNIP(2), CLIP3(2), PGM5(1), LEPR(1), CDH5(2), FHL1(1), ZEB1(5), PRDM8(6), RERG(1), BNC2(6), BCL2L2(1), ARHGEF15(7), MDFIC(8), CYP2U1(1), MASP1(1), MAMDC2(1), CALD1(3), SELP(1), GIMAP4(3), PPP1R12A(1), SLC24A3(10), ITPKB(2), DPP6(1), CACNA1C(6), MRGPRF(1), KANK2(6), EMCN(5), PDE2A(1), ABCG2(5), TMEM200B(2), TEK(8), PCDHGA6(3), HSPA12B(3), FRMD6(2), KIAA1644(2), TNS1(1), ADCY2(1), TCEAL7(3), ESAM(7), RHOJ(11), ADCY4(1), MBNL1(1), GRID1(1), ROBO4(6), RECK(1), ST5(5), C1orf133(8), C5orf53(2), TGFB3(1), PTRF(2), SYNPO(3), ARHGAP24(1), CSPG4(1), TMEM55A(3), PLVAP(2), SAP30L(2), GPRASP2(1), LIX1L(1), TIMP2(2), PJA2(4), MAPK10(3), CRTAP(1), AKT3(4), MAOB(1), PDE7B(1), PHLDB2(3), SNRK(4), EPAS1(1), TMEM47(2), ANO6(2), PPAPDC3(1), ARHGAP6(2), GPRASP1(1), ZNF25(1), C4orf12(1), FBXL3(1), LSM11(1), MEF2D(2), IL33(3), CD93(2), CLEC1A(1), SSC5D(3), ECSCR(2), ERG(1), A2M(1), GPR116(4), PCDH12(1), TMEM204(3), TAL1(1), ARHGAP31(3), LRRN4CL(1), MEIS3(2), CDH13(1), DLL4(1), KITLG(1), PMP22(1), TGFB1I1(1), DUSP3(1), ZCCHC24(1), DMD(1), PCDH17(1), HEG1(1), USP31(2), RGMA(1), PDE10A(1), RSPO3(1), SLC8A1(1), SMOC2(1), NBEA(1), AXL(1), KATNAL1(1), MYADM(1)</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>143.0</v>
+        <v>207.0</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.6000494365628444</v>
+        <v>-0.6000195443890464</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.6825420241126402</v>
+        <v>-0.6795782557921624</v>
       </c>
       <c r="H37" t="n">
-        <v>538.0</v>
+        <v>682.0</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.6162246503277957</v>
+        <v>-0.6189933105529132</v>
       </c>
       <c r="J37" t="n">
-        <v>8.966666666666667</v>
+        <v>11.559322033898304</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>hsa-miR-1307-3p</t>
+          <t>hsa-miR-10b-5p</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>54.0</v>
+        <v>58.0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.54</v>
+        <v>0.58</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>C5orf53(26), STAT5B(43), ZBTB4(4), FLT4(18), MEF2C(21), DPYD(13), CNRIP1(32), C16orf45(20), C1orf70(9), AKT3(24), ZAK(35), TENC1(22), SLC24A3(46), RHOJ(29), GYPC(17), LRRN4CL(25), SCARF1(3), GLT8D2(8), ANO6(3), PPAPDC3(7), PRNP(4), TIMP2(12), TBC1D1(2), MEIS3(10), REM1(3), TACC1(7), TSHZ3(17), GPRASP2(11), ZNF25(5), ST5(11), SSC5D(6), UBL3(11), CLIC2(9), PABPC5(19), EMILIN1(7), TBL1X(2), PDE5A(4), DNAJC27(1), KIAA1462(14), TIE1(6), FBXL3(2), LRCH1(3), NRIP2(2), KLHDC1(12), ARHGEF15(9), KANK2(21), SVIL(4), KATNAL1(5), TCEAL7(22), ZEB2(5), MYADM(7), RFTN1(5), SAP30L(28), KCTD7(6), MBNL2(4), FEM1B(1), PJA2(4), CDO1(5), CALHM2(8), SNED1(2), MDFIC(8), NOSTRIN(4), PEAR1(13), HEPH(1), MEF2D(3), JAM3(9), PMP22(8), CLIP3(13), MFAP4(11), APBB1(7), ZCCHC24(10), HSPA12B(7), LIX1L(5), CCND2(8), ZNF521(2), NDN(9), TGFB1I1(2), NECAB1(1), FKBP7(4), LTBP4(14), MAOB(11), OSBPL1A(1), SHANK3(1), ANTXR2(4), JAM2(1), NKAPL(5), FXYD6(1), SPARCL1(4), ARHGAP6(9), LOH3CR2A(6), KCTD12(1), CLEC1A(1), RGMA(3), GPRASP1(10), THRA(6), GAS6(2), TEF(5), SETD7(2), C1orf133(5), PHYHIP(1), C21orf34(3), RSPO1(6), MID2(3), CYYR1(2), SH3BGRL(5), NXPH3(2), TUB(5), PROS1(2), KCNJ8(2), ABI3BP(6), DIXDC1(5), PCDHB18(1), RASSF8(7), KANK3(3), C5orf4(6), RAMP1(2), LDB2(1), ANKRD29(14), FGF2(12), SERPINF1(1), ZEB1(4), BNC2(4), TMEM204(3), EHD2(4), LAYN(1), MAMDC2(3), CALD1(2), PCDHGA3(2), PLSCR4(2), CBX7(10), TMEM200A(2), PCDHB15(3), CYBRD1(2), TNXB(10), PCDHGA6(5), FRMD6(2), MAN1C1(4), SMOC2(2), SERINC1(1), C1orf21(3), GRID1(1), GPR124(10), DFNA5(1), RECK(1), CRTAP(3), PRKCA(2), TMOD2(3), RNF38(2), WT1(6), VAMP2(1), DCHS1(3), PRDM8(8), TMEM55A(5), CEP68(4), WIT1(3), UST(1), SLC45A1(3), NAP1L3(2), ZNF483(1), PCDHB4(3), SCN3B(2), VAMP3(2), RAB8B(4), ESD(1), EZH1(3), GHR(6), FLI1(1), ZNF208(2), SH3BP5(1), SSPN(5), STOM(1), PRX(1), FLJ35390(1), LOC144571(2), PCDHGB6(1), CD302(3), CCDC50(1), MAP3K3(3), FAM175A(1), TGFBR3(1), HCG11(1), METTL7A(1), CACNA1H(2), ZYX(1), TMEM200B(1), ASAM(3), ARHGEF6(2), STON1(1), FAM55C(1), AHNAK(1), TIMP3(2), MYCT1(1), PCDHGA2(1), DDR2(1), FOXN3(1), FBLN5(2), SH3D19(1), ZNF676(1), KIAA1614(1), KCNMA1(1), TLN1(1), PLAT(1), ADCY2(3), COL15A1(1), MBNL1(1), ARHGAP31(1), FBXO32(1), SEPP1(1), C14orf28(2), TCEAL1(1), CALCOCO1(1), SOX15(2), FOXO4(1), OSR2(1), TRPC1(1), TBC1D2B(2), AFAP1L1(1), TSPAN18(1), GLI3(2), SETBP1(1), DIRAS1(1), LPAR4(1), MAF(1), INSR(1), MAGI2(1), APOL3(1), ATL1(1), WHAMML1(1), CDH5(1), COL6A3(1), PKD1(1), KANK1(1)</t>
+          <t>FAM54A(5), TRPM2(1), CDCA8(6), SGOL1(2), CCNB1(14), NEK2(1), GPI(3), DEPDC1B(2), FAM72B(1), ARHGAP11A(3), AURKA(5), BAK1(1), NUP210(2), GEMIN8P4(2), PLK1(4), CCNF(2), KIF2C(8), CHAF1B(1), FEN1(3), BUB1(4), C20orf24(1), MELK(2), NCAPH(2), TACC3(2), TUBA1C(11), CCT3(1), PKM2(2), TMEM63B(4), NFKBIL2(3), CHEK1(2), C1orf135(2), NCAPG(2), TPI1(2), EME1(1), ZNF695(1), ENO1(3), B4GALT3(1), PGD(1), C9orf140(1), OIP5(2), SDC1(1), GSG2(2), ORC1L(1), RAD54L(1), FANCI(1), KIF4A(3), TTK(2), EPR1(1), C15orf42(1), CCNB2(2), ILF2(2), CDC20(1), LOC729082(1), MCM2(2), HDGF(1), GARS(1), SPAG5(4), FARSA(1), MRPS7(1), C8orf76(1), NEIL3(1), FANCD2(1), TPX2(1), CHAF1A(1), KPNA2(1), C16orf75(1), C21orf45(1), C16orf59(1), GIPC1(1), SKA1(1), ASF1B(1), CENPA(1), KIFC1(3), CDCA5(1), HJURP(1), KIF11(1), RACGAP1(2), DLGAP5(1), TROAP(1), PLK4(1), TRIM11(1), MOV10(1), ADPRHL2(1), ESPL1(1), ECT2(1), TK1(1)</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>232.0</v>
+        <v>86.0</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.6000181008808702</v>
+        <v>-0.600177753400157</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.6903708049174008</v>
+        <v>-0.6921996007897125</v>
       </c>
       <c r="H38" t="n">
-        <v>1265.0</v>
+        <v>175.0</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.6210172174804227</v>
+        <v>-0.6210915955083712</v>
       </c>
       <c r="J38" t="n">
-        <v>23.425925925925927</v>
+        <v>3.0172413793103448</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>hsa-miR-106b-3p</t>
+          <t>hsa-miR-183-5p</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>52.0</v>
+        <v>56.0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.52</v>
+        <v>0.56</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ZBTB4(3), UBL3(14), KLHDC1(11), C5orf53(20), CRTAP(3), C16orf45(12), SLC24A3(16), MBTPS1(1), FGF2(16), LRRN4CL(14), PPAPDC3(4), MBNL2(3), TIMP2(13), MEF2C(11), ZNF25(5), APBB1(3), CLIC2(10), CNRIP1(14), CLIP3(5), PRDM8(12), MDFIC(10), ZCCHC24(8), STAT5B(20), TCEAL7(11), RHOJ(12), C1orf21(6), SAP30L(8), ARHGEF6(4), FLT4(9), TSPAN18(1), ANTXR2(7), GHR(7), GRINL1A(2), EPM2A(1), GLT8D2(5), JAM3(6), CCND2(3), PCDHGA5(1), TCEAL1(3), ANO6(9), NKAPL(2), PJA2(8), ECM2(2), TIMP3(5), MFAP4(4), DMD(2), ZNF521(1), IL33(3), NEDD4(2), SPARCL1(7), MEIS3(3), NBEA(1), ARHGAP6(8), C1QTNF7(4), LOH3CR2A(5), DPYD(8), KCTD12(4), TMOD2(3), TACC1(13), GPRASP1(11), MYCT1(5), RNF38(1), TGFBR3(5), WT1(2), SETD7(9), TSHZ3(3), PCDHGA2(4), GPRASP2(9), ST5(3), LRRK2(5), PEAR1(10), VAMP2(1), C21orf34(6), RSPO1(2), MID2(5), SH3BGRL(9), NXPH3(4), PROS1(5), KCNJ8(3), SOX7(2), PABPC5(9), DCHS1(1), FOXN3(4), ABI3BP(6), DIXDC1(7), PMP22(8), CGNL1(1), TBL1X(3), RASSF8(6), STOM(3), RAPGEF4(2), NPTN(2), KIAA1462(11), C5orf4(3), CALHM2(5), OLFML2A(3), ZBTB38(2), LDB2(4), ANKRD29(6), PCDHGA11(2), PALM2-AKAP2(2), C7orf58(5), LRCH1(5), MEF2D(5), NRIP2(3), AKT3(11), EFEMP1(1), ZAK(18), LTBP4(5), ZEB1(8), TIPARP(1), SH3D19(4), FGF7(1), BNC2(6), TMEM55A(4), CASP12(4), CYP2U1(1), MAMDC2(5), CALD1(4), SGCE(1), PLSCR4(1), CBX7(6), CEP68(3), CACNA1C(5), TMEM200A(3), KANK2(7), CYBRD1(1), TMEM200B(5), TEK(5), PKD2(2), TNXB(4), PCDHGA6(4), HSPA12B(3), LIX1L(4), FRMD6(4), PDE7B(5), SMOC2(5), ADCY2(2), CD302(8), RFTN2(1), ASAM(7), ZEB2(4), ZNF483(2), MBNL1(3), WIT1(2), GNG12(5), GPR124(3), RECK(4), CXorf36(3), NOSTRIN(2), KCTD7(6), PRNP(5), TCF4(1), REM1(1), SSPN(1), THRA(1), PPP1R12B(2), TEF(1), NDN(2), PAPPA(1), C1orf133(5), CDO1(3), SSC5D(1), TUB(1), RFTN1(2), EMILIN1(1), C14orf28(4), PCDHGB7(3), FERMT2(1), NAP1L3(2), TMEM47(1), C5orf41(1), FKBP7(2), LEPR(3), TENC1(8), PPP1R12A(3), PCDHGA3(2), CACNA1H(2), EMCN(2), EZH1(2), ABCG2(4), MAOB(10), SVIL(7), INSR(1), KATNAL1(5), RASA4(2), PCDHB12(1), PCDHGA7(1), TRPC1(3), ZDBF2(1), KIAA1614(4), FEZ2(2), N4BP2L1(3), NR3C1(1), TBC1D2B(3), FOXO1(1), KDR(1), JAM2(1), PGCP(2), FEM1B(2), TBC1D1(3), SNRK(3), CD93(1), SH3BP5(2), ELK3(1), THSD1(1), GIMAP8(1), SPTBN1(1), SEPP1(2), LMOD1(1), WHAMML1(2), FAM198B(1), FGD5(1), CYYR1(1), C4orf12(2), SOX15(1), SH2D3C(1), NR3C2(1), TCEAL4(1), KANK3(1), CACNB2(1), PDE5A(1), SYTL4(1), TIE1(2), FBLN5(1), TSPAN2(1), P2RX7(1), PCDHA3(1), FBXL3(1), PALLD(2), ERG(1), ADARB1(1), C1orf70(1), CLEC14A(1), TXNIP(3), PCDHGA8(1), CDH5(1), GNG11(1), TMEM204(1), ARHGEF15(2), ADAMTSL1(1), GAB1(2), USP31(1), GNAL(1), ITPKB(1), ENPEP(1), NFASC(1), ESAM(1), GRID1(1), ARHGAP31(1), DFNA5(1), ROBO4(1), GLI3(1), FAM65B(1), ITGA8(1), SHE(1), ABCB1(1), TAL1(1), PCDHB4(2), ABCC9(1), LIFR(1), MXRA7(1), MAP3K3(1), SYNE1(1), PER2(1), DHH(1), MYADM(2), FAM175A(1), AHNAK(1), RAB8B(2), ITPR1(1), CALCOCO1(2), C4orf32(1), DNAJC27(1), PRKCA(1), KCNMA1(1), PCDHGA9(1), RNF144A(1), SFMBT2(2), FAM13C(1), MITF(1), SETBP1(1), MAF(1), STON1(1), PDE10A(1), EHD2(1), GNG7(1), PRX(1), DENND2A(1), C9orf5(1)</t>
+          <t>FLT4(14), C5orf53(6), CNRIP1(18), C16orf45(15), FKBP7(3), FGF2(14), AKT3(11), ZAK(17), LTBP4(11), PRDM8(7), TMEM55A(10), SLC24A3(17), STAT5B(23), ZEB2(11), DAB2(2), MEF2C(14), NDN(3), CDO1(3), UBL3(10), PEAR1(10), APBB1(8), NECAB1(2), CRTAP(6), ANKRD29(6), CD302(4), GNG7(4), WT1(3), LRRK2(3), TCEAL7(12), TBC1D2B(4), GYPC(4), GHR(4), DPYD(5), KANK2(8), PCDHB4(3), RHOJ(12), MYADM(5), GPR124(8), KLHDC1(8), NOSTRIN(1), LRRN4CL(10), TSPAN18(1), SCARF1(3), ANTXR2(2), KCTD7(6), RAB31(1), GLT8D2(5), PGCP(2), PPAPDC3(7), NKAPL(2), TIMP2(6), TIMP3(2), MFAP4(5), DMD(1), SPARCL1(3), FLI1(2), MEIS3(3), ZNF208(1), ARHGAP6(2), LOH3CR2A(6), TACC1(4), GPRASP1(6), MYCT1(1), TGFBR3(2), SETD7(3), TSHZ3(11), RAB3IL1(1), GPRASP2(8), ST5(5), SSC5D(1), C21orf34(4), RSPO1(6), MID2(2), SH3BGRL(7), CLIC2(6), PROS1(2), DIXDC1(5), PMP22(5), PCDHB18(2), SH2D3C(1), RASSF8(3), KANK3(2), CACNB2(3), KIAA1462(4), TIE1(1), FBLN5(1), C5orf4(6), RAMP1(2), OSR2(2), CALHM2(2), TRPC1(3), PCDHGA11(1), C1orf70(4), TXNIP(3), SERPINF1(2), AEBP1(1), ZEB1(7), BNC2(4), TMEM204(1), LAYN(1), ARHGEF15(1), ZNF676(1), MDFIC(6), CALD1(1), PCDHGA3(2), CBX7(5), CACNA1H(2), PCDHB15(3), CYP1B1(1), ZCCHC24(5), TNXB(3), MAOB(8), PCDHGA6(3), HSPA12B(5), SVIL(2), LOC283856(1), KATNAL1(5), RFTN2(1), ASAM(3), RASA4(2), MBNL1(4), ARHGAP31(1), MXRA7(1), GNG12(2), ST6GALNAC3(1), ACOX2(1), JAM3(2), MBNL2(6), PJA2(5), NEDD4(2), SSPN(3), LOC285830(1), RFTN1(2), PABPC5(8), PCDHGB7(2), NAP1L3(4), HAAO(2), ADARB1(1), FRY(1), CLIP3(5), TENC1(4), EHD2(2), LOC144571(2), EZH1(5), LIX1L(4), NAV3(1), ZNF575(1), GRID1(2), SAP30L(1), ARHGEF6(1), PRNP(2), PDE10A(1), C1orf133(1), TUB(2), SYNE1(2), ABI3BP(1), TCEAL4(1), LRCH1(1), MAMDC2(1), TMEM200A(2), TMEM200B(1), MAN1C1(2), RECK(1), FAM175A(1), GLI3(2), FEM1B(2), C14orf28(3), TIPARP(1), CEP68(1), C1QTNF7(1), SH3BP5(2), IRS1(1), DCHS1(2), MEF2D(1), ZNF438(1), KCTD12(6), THRA(1), CALCOCO1(1), ZNF25(3), PDE5A(4), MAP3K3(4), RAB8B(4), MARVELD1(1), ZBTB38(1), TLN1(1), AXL(1), SHANK3(1), WHAMML1(1), HCFC2(1), FAM55C(1), AHNAK(1), TBC1D1(1), TBX3(1), ADCY2(1), SH3D19(1), NAALADL1(1), WIT1(1), FBXL3(1)</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>290.0</v>
+        <v>198.0</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.6000180072749449</v>
+        <v>-0.6000838945286844</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.7257516418274733</v>
+        <v>-0.7001610477212049</v>
       </c>
       <c r="H39" t="n">
-        <v>1041.0</v>
+        <v>746.0</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.6255281343275282</v>
+        <v>-0.6207830256540957</v>
       </c>
       <c r="J39" t="n">
-        <v>20.01923076923077</v>
+        <v>13.321428571428571</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>hsa-miR-10b-5p</t>
+          <t>hsa-miR-331-3p</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>TMEM63B(4), FAM54A(3), CDC25A(1), TUBA1C(16), HSPE1(1), PLK1(2), CCNB1(9), GEMIN8P4(1), HSPA4(1), ILF2(1), AURKA(2), GPI(2), POLQ(1), CDCA8(4), FLAD1(1), PRDX1(1), FOXM1(1), ASF1B(1), DARS2(1), ZNF695(1), CCNF(1), CCNA2(1), PKMYT1(1), SDC1(1), NFKBIL2(1), RAD51(1), C9orf140(1), RTCD1(1), TCEB1(1), TPI1(3), RPS6KB2(1), RACGAP1(1), KIF4A(1), ESPL1(1), GAPDH(1), ALDOA(1), C1orf135(2), TROAP(2), DEPDC1B(1), NCAPH(1), GINS1(1), ARHGAP11A(1), AIMP2(1), SPAG5(2), PGD(1), KIF2C(1), GIPC1(1), ENO1(1), RAD54L(2), PPM1G(1), TTK(1), CDC20(1), SMPDL3B(1), GARS(1), IKBKE(1), FARSA(1), STIL(1), OIP5(1), C20orf24(1), HDGF(1)</t>
+          <t>GNG12(2), SAP30L(21), LRRN4CL(8), TIMP2(7), SETD7(1), WHAMML1(2), C21orf34(3), TBL1X(4), C16orf45(4), FGF2(1), AKT3(15), ZAK(7), BNC2(2), MAMDC2(3), GNAL(4), PCDHGA6(2), STAT5B(24), ASAM(6), RASA4(6), MXRA7(1), MEF2D(3), SVIL(5), ANTXR2(6), SPARCL1(5), TACC1(9), SEPP1(1), UBL3(9), C14orf28(3), CBX7(5), MAOB(6), PJA2(3), OSTM1(1), KCTD7(7), EPM2A(1), JAM3(3), TIMP3(6), DMD(2), ZNF521(1), LOH3CR2A(4), SSPN(4), DIXDC1(7), CLIP3(2), MDFIC(6), SLC24A3(7), ZCCHC24(2), RHOJ(5), DPYD(4), FLT4(2), TSPAN18(2), SCARF1(2), PPAPDC3(3), NEDD4(1), MEIS3(2), ARHGAP6(1), SH3BP5(1), GPRASP1(3), PPP1R12B(1), TGFBR3(4), PCDHGA2(1), GPRASP2(1), LRRK2(1), RFTN1(1), KCNJ8(1), PABPC5(1), PMP22(1), CNRIP1(2), PCDHGB7(3), RASSF8(2), KANK3(2), CACNB2(1), KIAA1462(4), CRTAP(5), PGM5P2(1), CALHM2(5), OLFML2A(1), C7orf58(2), ZEB1(1), PRDM8(3), TENC1(1), GAB1(2), KCNMA1(2), CACNA1H(1), KANK2(1), EZH1(2), TMEM200B(1), LIX1L(2), FRMD6(1), TCEAL7(2), C1orf21(1), FBXO32(1), ZNF25(3), LRCH1(1), CLIC2(2), CEP68(2), CCDC48(1), TBC1D2B(2), MEF2C(2), KCTD12(2), HPGDS(1), SYNE1(1), P2RX7(1), KLHDC1(2), PCDHB4(1), OSBPL1A(1), C5orf53(3), IL33(1), FLI1(1), DHH(1), C1orf133(1), PTGER2(1), CRY2(1), TEK(2), ADCY2(2), TMEM109(2), TIE1(1), USP31(1), HSPA12B(1), RECK(1), MATN2(1), ANKRD29(1), CACNA1C(1), SMOC2(1), ZNF483(1), FEM1B(1), VAMP3(1), FBXL3(1)</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>60.0</v>
+        <v>126.0</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.6000247035459564</v>
+        <v>-0.6000488538684282</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.6701451498212279</v>
+        <v>-0.6712942711286594</v>
       </c>
       <c r="H40" t="n">
-        <v>100.0</v>
+        <v>367.0</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.6207155035741649</v>
+        <v>-0.6150632523973587</v>
       </c>
       <c r="J40" t="n">
-        <v>1.9230769230769231</v>
+        <v>6.796296296296297</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>hsa-miR-145-5p</t>
+          <t>hsa-miR-1180</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>51.0</v>
+        <v>46.0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.51</v>
+        <v>0.46</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>FLAD1(5), TMEM63B(9), DPP3(1), RPN2(1), FAM54A(10), TUBA1C(16), PRAME(12), C1orf135(5), ILF2(6), HSPA4(6), CASP6(6), AURKA(6), ZNF695(11), GSG2(1), MCM10(1), CDCA8(1), SPAG5(3), BUB1(5), CCNB1(8), KPNA2(5), FAM110A(1), NEK2(3), UBE2T(2), CDC45(1), CENPL(1), CCNB2(3), C6orf115(1), MCM2(2), HDGF(3), KIFC1(1), NCAPH(1), STIL(1), CDK1(1), RACGAP1(2), C16orf75(1), C20orf24(2), HSPE1(1), TMEM8A(1), NCAPG(2), PLK1(2), ERCC6L(2), KIF4A(1), TROAP(2), PSMA5(1), ENO1(1), TPI1(1), PPM1G(1), ESPL1(1), TIMM17A(1), C1orf112(1), KIF11(2), ADM2(1), SMPDL3B(1), FDPS(1), CCNA2(1), BRCA1(1), LMNB1(1), RRM2(1), C15orf23(1), H2AFZ(1), BUB1B(1), UHRF1(1), SGOL2(1), SBK1(1), EME1(1), CHAF1A(1), CPSF3(1), RAD54L(1), TTK(1), DNAJC9(1), CDC25A(1), FANCI(1), DLGAP5(1), MAD2L1BP(1), MLF1IP(1), RAD51(1), POLQ(1), MKI67(1), DEPDC1B(1), PCNA(1), C1orf43(1)</t>
+          <t>FLT4(16), GHR(2), TIMP2(17), SETD7(11), PEAR1(6), CNRIP1(6), KIAA1462(10), AKT3(11), A2M(3), MDFIC(16), SLC24A3(34), KANK2(4), RHOJ(14), MYADM(5), MEF2D(13), MEIS3(10), PRDM8(12), TIE1(8), CLIP3(9), C5orf53(4), PPAPDC3(2), TIMP3(10), LOH3CR2A(2), DPYD(2), CLIC2(10), RFTN1(4), CRTAP(3), ZEB1(11), EHD2(2), ARHGEF15(2), PCDHB4(5), ZCCHC24(5), HSPA12B(4), STAT5B(10), TCEAL7(6), PRNP(7), BMPR2(1), PCDHGB7(1), PMP22(2), ZAK(13), KIAA1614(1), TSPAN18(1), USP31(3), PLAT(1), CALCOCO2(1), CXorf36(3), NOSTRIN(1), LRRN4CL(3), TBC1D1(2), TACC1(9), SH2D3C(2), KANK3(3), STOM(3), TENC1(1), ENPEP(1), TNXB(4), CD302(2), RASA4(1), MBNL1(1), SCARF1(1), ANTXR2(3), JAM2(1), GLT8D2(1), JAM3(3), CCND2(1), MFAP4(1), MEF2C(4), IL33(1), SPARCL1(3), DACT3(1), MYCT1(2), NDN(1), PAPPA(1), FAM198B(1), ACVRL1(2), EMILIN1(2), RASSF8(2), FBLN5(1), C16orf45(3), LDB2(2), FKBP7(3), GNG11(1), RUNX1T1(1), TMEM204(1), GIMAP4(2), HGF(1), TMEM200A(1), TMEM200B(3), TEK(2), LIX1L(1), FRMD6(2), CLEC2B(2), ASAM(5), MITF(1), GPR124(2), ROBO4(2), CLIC4(2), RAMP1(1), CALHM2(4), KCNMA1(1), NBL1(1), IGFBP4(1), SH3BP5(1), PCDHB7(1), SAP30L(2), SCN3B(1), DIRAS1(1), FGD5(2), CD34(1), GIMAP1(1), APOL3(1), PCDHGA5(1), ZNF521(1), SNRK(1), NEDD4(1), TCF4(1), CD93(1), MMRN2(1), SHE(1), GPRASP1(1), PDE10A(1), PCDHGA2(1), CYYR1(1), PROS1(1), ABCB1(1), PTRF(1), TBXA2R(1), FEZ1(1), OLFML2A(1), PALM2-AKAP2(1), FGF2(2), CLEC14A(1), C12orf53(1), GPR116(1), BNC2(1), MAMDC2(1), CALD1(1), EHBP1L1(1), GNG2(1), PCDHB15(2), EMCN(1), ABCG2(1), PCDHGA6(1), SVIL(3), SMOC2(1), ESAM(1), C1orf21(2), ARHGAP31(1), DFNA5(1), DIXDC1(1), ETS1(1), TBL1X(1)</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>81.0</v>
+        <v>152.0</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.6000828048620197</v>
+        <v>-0.6001167823735037</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.7158921748180112</v>
+        <v>-0.6809660364055116</v>
       </c>
       <c r="H41" t="n">
-        <v>194.0</v>
+        <v>490.0</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.6238726595964801</v>
+        <v>-0.6162146360897354</v>
       </c>
       <c r="J41" t="n">
-        <v>3.803921568627451</v>
+        <v>10.652173913043478</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>hsa-miR-32-5p</t>
+          <t>hsa-miR-671-5p</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>48.0</v>
+        <v>46.0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>FLT4(20), SPARCL1(22), SETD7(13), SH3BGRL(15), CXorf36(10), MEIS3(14), MYCT1(10), FGD5(1), TIE1(6), TMEM47(2), LRCH1(15), RHOJ(11), GIMAP1(4), KDR(2), TIMP3(24), GIMAP6(3), SNRK(7), ITGA8(2), MMRN2(3), TACC1(14), GIMAP8(3), PPP1R12B(4), CLIC4(4), LMOD1(2), CLIC2(3), ABCB1(8), DIXDC1(12), TBL1X(7), KANK3(5), ECSCR(1), RAMP1(2), PGM5P2(4), OLFML2A(3), LDB2(5), PALLD(6), ERG(2), FGF2(3), TXNIP(2), ZAK(7), A2M(5), ZEB1(15), GPR116(3), KCNMA1(7), SLC24A3(8), EHBP1L1(1), HGF(1), CACNA1C(13), EMCN(4), PDE2A(4), ABCG2(2), TEK(13), HSPA12B(3), KIAA1644(3), STAT5B(5), GIMAP7(1), ESAM(5), ASAM(12), MBNL1(1), GRID1(1), ARHGAP31(1), ROBO4(6), SHANK3(2), TSPAN18(5), KCNQ4(2), RSPO1(2), TBC1D1(12), PRKCH(3), MDFIC(9), LRRN4CL(1), PJA2(1), GPRASP1(2), TGFBR3(1), CNRIP1(1), AKT3(2), PRDM8(2), TENC1(1), MAOB(2), PCDHGA6(2), SVIL(2), C1orf21(1), KATNAL1(2), SCARF1(2), IL33(5), KITLG(1), TSPAN2(3), ENTPD1(1), CYYR1(4), CLEC14A(3), CDH5(2), GIMAP4(1), GIMAP5(1), FLI1(2), ITPKB(4), TMEM55A(1), UBL3(4), ADCY4(2), SAP30L(2), TBC1D2B(1), ANTXR2(1), KCTD7(1), JAM3(1), TIMP2(1), GPRASP2(2), PCDHGB7(1), CALHM2(2), CEP68(1), ACTN1(2), PALM2-AKAP2(1), FILIP1(1), C1orf133(3), PGM5(2), ILK(1), GUCY1A3(1), KIAA1462(3), NEURL1B(2), FAM65B(1), CLEC1A(1), ST5(2), CALCRL(1), SELP(1), KCTD12(1), SOX7(1), TMEM204(1), KANK2(1), PCDHB4(1), ADAMTSL1(1), NEDD4(1), DACT3(1), TGFB1I1(1), NPTN(1), JPH4(1), CXCL12(1), ADARB1(1), GNG12(1)</t>
+          <t>ZAK(24), SLC24A3(28), STAT5B(26), TIMP2(11), APBB1(6), AKT3(9), SAP30L(15), GPRASP2(4), UBL3(3), MEF2D(4), JAM3(4), ZNF521(1), C16orf45(8), ADD1(3), TXNIP(1), PCDHGA6(5), LRRN4CL(3), MFAP4(4), ZNF25(3), CNRIP1(7), KANK3(2), KIAA1462(7), CALHM2(5), KANK2(5), RHOJ(12), FLT4(5), ACOX2(1), PPAPDC3(3), MEIS3(4), SSC5D(2), MID2(1), RFTN1(1), PMP22(4), CRTAP(4), KIAA1614(2), ZCCHC24(4), LIX1L(1), ZNF575(1), GHR(3), SH3BP5(2), NXPH3(2), PRDM8(2), MAOB(3), SERINC1(1), GLT8D2(4), ANO6(1), PJA2(2), MEF2C(3), ARHGAP6(3), DPYD(6), SSPN(4), ST5(5), CALCOCO2(1), FGF2(2), C5orf53(4), GLI3(1), VAMP2(2), LRP1(1), PRX(2), SVIL(4), ZBTB4(1), RAB11FIP2(1), TMEM55A(2), SCARF1(1), ANTXR2(2), TIMP3(1), SCN3B(1), KCTD12(2), TACC1(2), GPRASP1(2), THRA(2), NDN(1), LRRK2(1), COLEC12(1), DIRAS1(1), EMILIN1(1), DIXDC1(3), FERMT2(1), TGFB1I1(1), PDE5A(2), NECAB1(1), FKBP7(1), CLIP3(3), LTBP4(2), KLHDC1(1), BNC2(3), TENC1(2), CBX7(2), CEP68(1), PCDHB4(1), HSPA12B(2), SMOC2(2), ADCY2(1), TCEAL7(2), ASAM(2), GYPC(2), C21orf34(1), SYNE1(1), FEM1B(1), FBXL3(1), MAP3K3(1), CXorf36(1), TSPAN18(1), NKAPL(1), SPARCL1(1), PTGIS(1), MYCT1(1), GAS6(1), WT1(1), TEF(1), PCDHGA2(1), LMOD1(1), C1orf133(1), PEAR1(1), RSPO1(1), TNNI3K(1), CLIC2(1), ABI3BP(1), FXYD1(1), RASSF8(1), CACNB2(1), TIE1(1), C5orf4(1), PGM5P2(1), ANKRD29(1), C7orf58(1), FRY(1), PGM5(1), ZEB1(1), GNG11(1), TMEM204(1), EHD2(1), ARHGEF15(1), MDFIC(1), MAMDC2(1), KCNMA1(1), AXL(1), CACNA1H(1), PDE2A(1), TNXB(1), GRID1(1), MYADM(1), WIT1(1), GPR124(1), ROBO4(1)</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>134.0</v>
+        <v>145.0</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.6000032545233642</v>
+        <v>-0.6000118641844805</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.6664465067607536</v>
+        <v>-0.6720746720390508</v>
       </c>
       <c r="H42" t="n">
-        <v>535.0</v>
+        <v>397.0</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.6153994049862366</v>
+        <v>-0.6183424535208684</v>
       </c>
       <c r="J42" t="n">
-        <v>11.145833333333334</v>
+        <v>8.630434782608695</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>hsa-miR-197-3p</t>
+          <t>hsa-miR-331-5p</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>45.0</v>
+        <v>41.0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ZAK(18), UBL3(12), STAT5B(32), MDFIC(8), FLT4(16), PJA2(8), TACC1(16), FGF2(14), KLHDC1(1), RHOJ(18), SHANK3(2), MEF2C(17), SNRK(6), SETD7(14), PCDHGB7(1), KIAA1462(9), LRCH1(7), MEF2D(7), AKT3(9), BNC2(7), KCNMA1(7), SLC24A3(11), SVIL(7), SERINC1(1), ASAM(12), C5orf53(3), FLI1(6), PDE10A(1), C16orf45(5), PCDHB12(1), ANTXR2(5), JAM3(6), TIMP2(4), TIMP3(6), ZNF521(2), NEDD4(6), SPARCL1(6), MEIS3(2), MYCT1(6), ST5(5), PEAR1(5), MID2(2), SH3BGRL(8), CLIC2(6), SOX7(3), DIXDC1(5), PMP22(2), TIE1(9), PCDHGA7(1), ZBTB38(2), PALLD(4), PCDHGA11(1), CDH5(3), ZEB1(8), PRDM8(3), GAB1(1), KIAA1614(2), CALD1(4), ITPKB(1), CACNA1C(8), KANK2(5), ZCCHC24(3), TEK(7), PCDHGA9(2), HSPA12B(2), FRMD6(5), PHLDB2(2), ARHGAP31(6), GNG12(4), ROBO4(3), VAMP3(1), LIX1L(3), ELK3(4), TBL1X(4), CXorf36(5), SAP30L(2), TSPAN18(2), SOCS2(1), ITGA8(1), CLIC4(2), C1orf133(4), RSPO1(2), DCHS1(1), PGM5P2(2), HTR2B(1), OLFML2A(4), LDB2(3), PALM2-AKAP2(4), TAL1(1), EMCN(4), PCDHB4(1), TMEM200B(2), KIAA1644(2), TCEAL7(4), NBEA(1), ARHGEF6(1), NOSTRIN(2), KDR(1), GRINL1A(1), PCDHGA5(2), ANO6(1), TBC1D1(1), GIMAP6(2), ERVFRDE1(1), DHH(4), SHE(4), GIMAP8(3), PPP1R12B(2), PCDHGA2(2), AKAP2(1), CYYR1(2), ABCB1(3), SH2D3C(1), FERMT2(2), STOM(4), CALHM2(2), CLEC14A(3), TXNIP(1), CLIP3(2), GPR116(2), TMEM204(4), ARHGEF15(4), PPP1R12A(1), PCDHGA3(1), HEG1(1), PCDHGA6(2), PLAT(1), ESAM(3), MITF(1), MBNL1(3), MBNL2(1), IL33(1), SYNPO(1), KCTD12(2), FGD5(2), TMEM55A(3), GIMAP4(1), WISP1(1), KATNAL1(2), SLC16A7(1), JAM2(1), ARHGAP6(1), LOH3CR2A(1), MMRN2(2), LMOD1(1), DST(1), CNRIP1(2), KANK3(1), FBLN5(1), STARD13(1), MAMDC2(1), PDE2A(1), ABCG2(1), ADCY2(1), RASA4(1), LRRN4CL(1), ELTD1(1), CCND2(1), CLEC1A(1), MEIS2(1), SCARF1(1), DPYD(1), WHAMML1(1), ETS1(1), ZBTB4(1)</t>
+          <t>UBL3(16), FGD5(4), MEF2D(2), CDK17(1), PJA2(3), CLIC2(7), TXNIP(9), ZAK(6), CDH5(1), ZEB1(10), SLC24A3(9), ARHGAP31(5), SNRK(3), STAT5B(15), BMPR2(1), SAP30L(2), C21orf34(1), CCDC48(1), LDB2(4), ERG(2), TEK(8), LIFR(1), CXorf36(2), FLT4(4), KDR(2), TBC1D1(3), TIMP3(4), MEF2C(4), FLI1(1), SLC16A7(1), TACC1(8), MYCT1(2), KIAA1462(3), TIE1(6), TMEM47(1), AKT3(4), TMEM204(1), CACNA1C(4), ABCG2(2), SLC8A1(1), RHOJ(3), ASAM(7), MITF(2), RECK(2), TSPAN18(2), SCARF1(2), JAM3(2), TIMP2(2), MEIS3(3), ERVFRDE1(2), DCHS1(1), ENPP1(1), TBL1X(4), RASSF8(5), STOM(2), C20orf160(1), CRTAP(3), FBLN5(1), CALHM2(2), C16orf45(2), OLFML2A(1), FGF2(1), PPM1F(1), CLIP3(2), KIAA1614(2), USP31(3), HEG1(1), TMEM200A(2), HSPA12B(1), FRMD6(3), SVIL(3), TCEAL7(6), ANTXR2(4), CYYR1(1), A2M(1), GPR116(2), TMEM55A(1), TBC1D2B(1), KCTD7(1), LOH3CR2A(3), SH3BP5(1), TGFBR3(2), GPRASP2(2), SYNE1(1), P2RX7(1), ZBTB38(2), KLHDC1(2), MDFIC(1), PCDHB4(1), LIX1L(2), PDE7B(2), MBNL1(1), IL33(2), ZNF25(1), KCNMA1(2), KANK2(2), EZH1(2), KATNAL1(2), SPARCL1(2), RGMA(1), SETD7(1), CLIC4(1), LRCH1(1), GAB1(1), ANO6(1), SHE(1), DIXDC1(2), PCDHGB7(1), GIPC3(1), MAN1C1(1), KIAA1644(1), ATOH8(1), WT1(1), RFTN1(1), CEP68(2), ELK3(1), KLF7(1), FEM1B(1), C5orf53(1), FOXN3(1)</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>165.0</v>
+        <v>120.0</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.6000190103098764</v>
+        <v>-0.6000044256383327</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.6851859319330978</v>
+        <v>-0.6570544573802448</v>
       </c>
       <c r="H43" t="n">
-        <v>615.0</v>
+        <v>307.0</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.6199642399170218</v>
+        <v>-0.6146007656159623</v>
       </c>
       <c r="J43" t="n">
-        <v>13.666666666666666</v>
+        <v>7.487804878048781</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>hsa-let-7c</t>
+          <t>hsa-miR-324-5p</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>TRPM2(2), TUBA1C(4), ORMDL2(1), ENO1(2), TMEM63B(5), CASP6(3), CDCP1(8), GAPDH(1), FAM110A(3), GARS(1), SEL1L3(1), NEU1(2), RAD51(2), TMPRSS4(3), RRM2(3), SDC1(1), TMEM8A(1), NCAPG(2), ALAS1(1), ANXA2(1), CASP3(1), TFAP2A(1), EPT1(1), PDIA4(1), TMC6(1), PPP1R13L(1), BRCA1(1), UHRF1(1), CHAF1A(1), PLK1(1), CCNF(1), FANCI(1), FEN1(1), MKI67(1), KIF11(1), PSMD12(1), NEK6(1), HSPA4(1)</t>
+          <t>C14orf28(3), TMEM55A(3), UBL3(9), ZNF521(3), MEF2D(5), SAP30L(18), LRRN4CL(11), MEF2C(13), C16orf45(6), ZAK(16), STAT5B(22), MXRA7(1), ANTXR2(7), TIMP2(4), MFAP4(1), SPARCL1(5), KCTD12(2), SSPN(1), TACC1(7), GPRASP1(4), SEPP1(1), C1orf133(2), CDO1(1), WHAMML1(1), PEAR1(4), C21orf34(2), RSPO1(1), FGD5(2), SH3BGRL(5), NXPH3(1), CLIC2(4), PABPC5(2), CCDC69(1), CNRIP1(7), TIE1(1), CALHM2(3), ANKRD29(5), AKT3(9), BNC2(3), MAMDC2(3), KCNMA1(2), SLC24A3(12), CBX7(6), TNXB(1), MAOB(4), PCDHGA6(4), TNS1(1), CD302(3), TCEAL7(2), RFTN2(1), RHOJ(10), RASA4(2), C1orf21(1), GRID1(1), GNG11(2), MDFIC(5), FLT4(5), PJA2(5), RFTN1(1), CRTAP(3), TENC1(2), LIX1L(2), DPYD(5), STOM(3), GLT8D2(2), PPAPDC3(1), MEIS3(1), GPRASP2(1), ZNF25(1), APBB1(2), C4orf12(1), KIAA1462(7), FBXL3(2), FGF2(2), PRDM8(3), KIAA1614(1), CACNA1H(1), EZH1(1), ZCCHC24(1), SVIL(4), GLI3(1), LRRK2(2), DIXDC1(2), PRX(2), SYNE1(1), ARHGEF6(2), NOSTRIN(2), C5orf53(1), LRCH1(3), JAM3(2), SH3BP5(2), TGFBR3(1), RASSF8(2), TMEM47(1), OLFML2A(1), RASL12(1), HSPA12B(1), SMOC2(1), ST5(1), PMP22(1), KANK3(1), GHR(1), AHNAK(1), SETD7(2), RAPGEF4(1), TXNIP(1), CLIP3(2), SH3D19(1), GNG12(2), FBXO32(1), FEM1B(1), GAB1(1), ANO6(1), KLHDC1(1)</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>38.0</v>
+        <v>114.0</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.6002540556140689</v>
+        <v>-0.6000907442491851</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.6860976977559327</v>
+        <v>-0.6807755300176521</v>
       </c>
       <c r="H44" t="n">
-        <v>65.0</v>
+        <v>360.0</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.6219336992914124</v>
+        <v>-0.6145130674878534</v>
       </c>
       <c r="J44" t="n">
-        <v>1.5476190476190477</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>hsa-miR-671-5p</t>
+          <t>hsa-miR-32-5p</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>TIMP2(3), CALHM2(7), C16orf45(10), AKT3(8), ZAK(33), SLC24A3(23), ZBTB4(3), STAT5B(19), PRX(3), CXorf36(1), SAP30L(10), FLT4(6), LRRN4CL(2), TSPAN18(1), ANTXR2(3), GHR(2), JAM2(1), DPYSL3(1), GLT8D2(1), PGCP(1), ANO6(2), NKAPL(1), PJA2(5), TIMP3(1), MFAP4(2), MEF2C(3), FXYD6(1), DMD(1), NEDD4(1), SPARCL1(2), MEIS3(2), ARHGAP6(4), SH3BP5(1), TACC1(2), DACT3(2), GPRASP1(2), MYCT1(1), TGFBR3(1), TSHZ3(1), PCDHGA2(1), LMOD1(1), C1orf133(1), ST5(3), SSC5D(3), PEAR1(2), APBB1(4), C21orf34(2), RSPO1(2), MID2(2), SH3BGRL(3), NXPH3(2), KCNJ8(1), PABPC5(1), SOX15(1), FOXN3(2), DIXDC1(3), CNRIP1(5), RASSF8(1), KIAA1462(6), TMEM47(1), C5orf4(1), ANKRD29(1), C7orf58(1), LRCH1(1), MEF2D(6), PGM5(1), PRDM8(2), BNC2(2), TENC1(1), LAYN(1), GAB1(2), MAMDC2(1), PPP1R12A(1), PCDHGA3(1), SGCE(1), CBX7(2), CACNA1H(1), KANK2(5), PDE2A(1), MAOB(5), PCDHGA6(1), SVIL(1), SMOC2(2), ADCY2(1), TCEAL7(2), RHOJ(8), ASAM(1), PHLDB2(1), C1orf21(1), MYADM(1), FBXO32(1), ROBO4(1), RECK(1), C5orf53(3), UBL3(4), CRTAP(3), PCDHGA11(1), ADARB1(1), KLHDC1(1), CEP68(4), PCDHB4(1), DPYD(2), C14orf28(1), LIX1L(1), JAM3(2), NBEA(2), WT1(1), ZNF25(3), TMEM55A(1), CYP2U1(1), ADD1(2), ATL1(1), FGF2(2), KCNMA1(1), ZCCHC24(2), FEM1B(1), MAP3K3(1), KCTD12(1), REM1(1), NDN(2), GPRASP2(2), PROS1(1), TGFB1I1(1), PDE5A(1), NRIP2(1), LTBP4(1), GNG11(1), RASL12(1), MRGPRF(1), HSPA12B(1), GPR124(1), ITPKB(1), PMP22(1), VAMP2(2), FBXL3(1), ABI3BP(1), CLIP3(1), KIAA1614(1), PKD1(1)</t>
+          <t>TIMP3(32), MEIS3(17), LRCH1(22), CXorf36(17), FLT4(25), TSPAN18(10), GHR(4), KDR(5), GUCY1A3(1), TBC1D1(27), GIMAP6(4), IL33(9), NEDD4(11), SPARCL1(29), ITGA8(3), MMRN2(4), TACC1(19), GIMAP8(3), MYCT1(17), PPP1R12B(8), SETD7(16), CLIC4(13), LMOD1(6), RSPO1(2), SH3BGRL(19), ABCB1(9), DIXDC1(19), DSTN(1), KANK3(4), KIAA1462(11), TIE1(10), PGM5P2(10), OLFML2A(8), LDB2(10), PALLD(10), CLEC14A(3), TXNIP(5), ZAK(16), PGM5(8), A2M(4), ZEB1(18), GPR116(5), ADAMTSL1(1), MDFIC(11), SELP(1), KCNMA1(11), SLC24A3(11), CACNA1C(17), EMCN(5), PDE2A(8), ABCG2(7), TEK(18), KIAA1644(5), RHOJ(20), ASAM(20), ROBO4(10), NEURL1B(3), C1orf133(8), CYYR1(4), NPTN(2), RAMP1(2), FRMD6(9), TBL1X(7), TSPAN2(5), GRID1(2), MXRA7(1), GATA1(1), ITPKB(3), KATNAL1(6), PALM2-AKAP2(2), GIMAP4(3), OSTM1(1), MBNL1(3), FGD5(2), IL17RD(1), N4BP2L1(1), ARHGEF6(1), LRRN4CL(4), ANTXR2(4), GIMAP1(2), GLT8D2(1), TCEAL1(2), ANO6(4), PPAPDC3(3), NKAPL(1), MBNL2(1), TIMP2(3), PJA2(3), MFAP4(1), MEF2C(3), FXYD6(2), ZNF521(1), SNRK(3), GPR176(1), DPYD(3), SH3BP5(1), ELK3(1), SSPN(1), RGMA(1), GPRASP1(4), TGFBR3(2), GPRASP2(4), ITPR1(1), ST5(2), UBL3(4), C21orf34(2), MID2(2), NXPH3(1), CLIC2(4), RFTN1(1), KCNJ8(3), PABPC5(3), CCDC69(1), PMP22(5), CNRIP1(4), RASSF8(2), MAPK10(1), SYTL4(1), NECAB1(1), CRTAP(1), P2RX7(1), CALHM2(2), C16orf45(3), ERG(6), FKBP7(2), C7orf58(3), FGF2(4), AKT3(4), CLIP3(1), LEPR(1), KLHDC1(2), PRDM8(4), BNC2(3), DPYSL2(1), TMEM204(2), TENC1(1), KIAA1614(3), MAMDC2(4), CALD1(3), CBX7(1), CACNA1H(2), KANK2(4), PCDHB4(3), ZCCHC24(3), MAOB(4), PCDHGA6(2), HSPA12B(2), SVIL(8), STAT5B(9), CLEC2B(1), CD302(1), TCEAL7(2), RASA4(1), ZEB2(1), C1orf21(3), ARHGAP31(2), GNG12(2), ENTPD1(1), TMEM88(2), NES(1), DCHS1(1), SAP30L(1), PCDHGA2(2), APBB1(1), FBXL3(1), EZH1(2), LIX1L(3), PDE7B(1), PPP3CB(1), FLI1(4), DACT3(3), CDH5(2), SRL(1), JAM2(2), PCDHGA5(2), PRKCH(1), PEAR1(2), RUNDC3B(1), SOX7(1), PCDHGB7(1), KL(1), FGF7(1), MASP1(1), GIMAP7(1), ESAM(2), ENPP2(1), RECK(3), TBC1D2B(2), KCTD12(1), SYNE1(1), FOXN3(2), TMEM200B(3), ADCY2(1), ARHGEF15(1), SCARF1(2), NOSTRIN(1), STON1(1), GLI3(1), JAM3(1), FEM1B(2), HSD17B6(1), ARHGAP6(1), RNF38(1), PRELP(1), CRY2(1), C14orf28(1), RNASE4(1), SYNPO2(1), NAP1L2(1), HCFC2(1), CEP68(2), PRR16(1), RSPO3(1), IQGAP1(1), ADD1(1), DMD(1), TMEM47(1), USP31(1)</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>139.0</v>
+        <v>218.0</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.6000565958538562</v>
+        <v>-0.6000540857921832</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.6932905852214507</v>
+        <v>-0.6915666136215682</v>
       </c>
       <c r="H45" t="n">
-        <v>346.0</v>
+        <v>967.0</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.6201927635256058</v>
+        <v>-0.6189709134865434</v>
       </c>
       <c r="J45" t="n">
-        <v>8.65</v>
+        <v>24.794871794871796</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>hsa-miR-425-3p</t>
+          <t>hsa-miR-589-5p</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>FLT4(5), TSPAN18(1), MEF2C(5), DPYD(2), SETD7(1), RFTN1(1), KIAA1462(3), TIE1(2), ZAK(3), CDH5(1), MDFIC(2), SLC24A3(5), PCDHGA6(1), STAT5B(7), RHOJ(4), ZBTB4(1), MEIS3(2), TACC1(1), PEAR1(2), HEPH(1), MEF2D(3), PRDM8(1), C5orf53(1), FLI1(1), C1orf133(1), UBL3(2), SH3BGRL(1), CLIC2(3), CNRIP1(1), C16orf45(1), AKT3(1), ZEB1(1), KANK2(1), MAP3K3(1), CLEC1A(1), NRIP2(1)</t>
+          <t>FLT4(7), SCARF1(2), CLIP3(3), RHOJ(5), SLC24A3(6), FGD5(3), CLIC2(2), TIE1(3), CDH5(2), A2M(1), PCDHB4(2), PLAT(1), GLI3(2), MEIS3(2), DCHS1(3), KATNAL1(2), IRS1(1), FBLN5(2), KANK2(2), TCEAL7(2), CXorf36(1), SRL(1), STON1(1), LRRN4CL(1), TSPAN18(1), ANTXR2(1), KDR(1), JAM2(1), SLC45A1(1), RAB31(1), GLT8D2(1), JAM3(1), C5orf53(1), ANO6(1), SLCO2A1(1), PPAPDC3(1), TIMP2(1), TBC1D1(1), TIMP3(1), MFAP4(1), MEF2C(1), IL33(1), SPARCL1(1), FLI1(1), ARHGAP6(1), C1QTNF7(1), LOH3CR2A(1), KCTD12(1), DHH(1), SH3BP5(1), TACC1(1), DACT3(1), MYCT1(1), SETD7(1), FAM70B(1), PURG(1), CLIC4(1), ZNF25(1), ST5(1), PEAR1(1), APBB1(1), C21orf34(1), HPGDS(1), RSPO1(1), CYYR1(1), SH3BGRL(1), DIRAS1(1), SOX7(1), EMILIN1(1), TBXA2R(1), DIXDC1(1), PMP22(1), PCDHB18(1), SH2D3C(1), TBL1X(1), CNRIP1(1), RASSF8(1), KANK3(1), STOM(1), TGFB1I1(1), C20orf160(1), KIAA1462(1), CRTAP(1), TSPAN2(1), SRF(1), RAMP1(1), OSR2(1), CALHM2(1), HTR2B(1), C16orf45(1), OLFML2A(1), PBX1(1), ZBTB38(1), LDB2(1), KL(1), ANKRD29(1), FAM69A(1), ADARB1(1), PALM2-AKAP2(1), FKBP7(1), FGF2(1), PPM1F(1), C1orf70(1), NRIP2(1), TXNIP(1), AKT3(1), ZAK(1), LEPR(1), LTBP4(1), KLHDC1(1), ZEB1(1), PRDM8(1), GEFT(1), BNC2(1), TMEM204(1), TMEM55A(1), ARHGEF15(1), MDFIC(1), MAMDC2(1), USP31(1), ITPKB(1), LOC144571(1), HEG1(1), CACNA1C(1), PCDHB15(1), EMCN(1), ZCCHC24(1), TMEM200B(1), TEK(1), TNXB(1), MAOB(1), HSPA12B(1), RNF144A(1), FRMD6(1), SVIL(1), KIAA1644(1), STAT5B(2), SMOC2(1), LRRC32(1), ESAM(1), FAM131B(1), ASAM(1), ADCY4(1), MITF(1), GRID1(1), ARHGAP31(1), FBXO32(1), GPR124(1), ROBO4(1), RECK(1), SCN3B(1)</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>36.0</v>
+        <v>151.0</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.6000642589173361</v>
+        <v>-0.6000673086610654</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.6666352414301147</v>
+        <v>-0.6939710513084668</v>
       </c>
       <c r="H46" t="n">
-        <v>71.0</v>
+        <v>185.0</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.6157951318844361</v>
+        <v>-0.62364654818783</v>
       </c>
       <c r="J46" t="n">
-        <v>1.868421052631579</v>
+        <v>4.743589743589744</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>hsa-miR-130b-5p</t>
+          <t>hsa-let-7d-3p</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>37.0</v>
+        <v>32.0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SH3BP5(3), TACC1(4), CCDC69(4), MAOB(4), LIX1L(2), STAT5B(6), RASA4(1), NOSTRIN(2), LRRN4CL(2), APOL3(1), C5orf53(7), TBC1D1(1), MFAP4(2), MEF2C(3), SPARCL1(2), ARHGAP6(2), LOH3CR2A(2), DPYD(1), SSPN(1), GPRASP1(1), WT1(1), NDN(1), MEIS2(1), C21orf34(1), RSPO1(2), CLIC2(3), DIXDC1(2), CNRIP1(1), KIAA1462(3), CALHM2(3), ZAK(5), KLHDC1(2), BNC2(2), TENC1(2), MAMDC2(1), CBX7(2), FAM13C(1), RHOJ(4), FLT4(1), ANTXR2(1), AHNAK(1), PRNP(1), TIMP2(2), PJA2(1), SNRK(2), FLI1(1), RAB8B(1), SETD7(1), ST5(2), LRRK2(2), UBL3(2), PEAR1(1), MID2(2), SH3BGRL(1), RNF11(1), STOM(2), TIE1(1), C16orf45(1), ANKRD29(1), MEF2D(3), FRY(1), AKT3(6), MDFIC(2), RAB33B(1), SLC24A3(2), SVIL(2), PDE7B(1), SERINC1(1), TRIM23(1), MYADM(1), GNG12(1), SAP30L(1), ARHGEF6(1), SCARF1(1), SHE(1), FGF2(1), ANO6(1), PRDM8(1), ZBTB4(1)</t>
+          <t>STAT5B(14), GNG12(6), SLCO2A1(4), TBL1X(3), VAMP3(1), KCNMA1(10), CACNA1C(11), SVIL(5), ARHGAP31(8), TSPAN18(6), MEF2C(8), IL33(3), SETD7(4), SOX7(4), KIAA1462(7), TIE1(8), ZAK(12), KANK2(3), RHOJ(8), ASAM(8), PHLDB2(6), SPARCL1(7), KRT222(2), OLFML2A(6), PALLD(4), FGF2(3), ANTXR2(4), JAM3(5), TBC1D1(3), TIMP3(6), MMRN2(3), TACC1(8), PPP1R12B(5), ABCB1(3), DIXDC1(4), PMP22(1), CALHM2(2), C16orf45(2), PALM2-AKAP2(6), LRCH1(2), MEF2D(2), AKT3(7), CLIP3(3), A2M(4), CEP68(1), TEK(6), PCDHGA6(3), FRMD6(4), GPR116(6), CXorf36(3), FLT4(4), STON1(2), SCARF1(3), KDR(4), JAM2(2), PTPRB(3), C5orf53(2), ANO6(2), TIMP2(3), PJA2(3), DMD(3), FLI1(4), CD93(3), SH3BP5(3), MYCT1(5), CLIC4(3), AKAP2(3), ZNF25(1), MID2(2), CYYR1(4), SH3BGRL(3), ENPP1(3), RASSF8(2), FERMT2(3), LDB2(3), LEPR(3), CDH5(4), ZEB1(4), BNC2(2), TMEM204(3), TMEM55A(2), GAB1(1), MDFIC(2), KIAA1614(1), USP31(2), CALD1(3), PPP1R12A(1), SLC24A3(2), ITPKB(1), WISP1(2), TMEM200A(3), EMCN(3), PKD2(2), RECK(2), ELK3(4), RAB11FIP2(1), LRRC8C(2), GNAL(2), ESAM(3), GIMAP6(2), KLHL38(2), NEDD4(2), ITGA8(2), ENTPD1(3), GIMAP8(2), PDE10A(1), PEAR1(2), CALCRL(1), CLIC2(3), STOM(1), ERG(2), CLEC14A(2), PDLIM5(2), MAMDC2(2), GIMAP4(2), TLN1(1), ABCG2(2), KIAA1644(2), TCEAL7(2), S1PR1(2), MBNL1(2), TBC1D2B(1), LRRN4CL(1), KCTD7(1), ELTD1(1), EPM2A(1), GLT8D2(1), RAB23(1), TCEAL1(1), PPAPDC3(1), NKAPL(1), CSDC2(1), MBNL2(1), SOCS2(1), ECM2(1), LRRC2(1), MFAP4(1), HSD17B6(1), SNRK(2), MEIS3(1), ERVFRDE1(1), ARHGAP6(1), C1QTNF7(1), LOH3CR2A(1), KCTD12(1), DHH(1), SHE(1), P2RY1(1), RGMA(1), GPRASP1(1), TGFBR3(1), RSPO3(1), PCDHGA2(1), PRELP(1), GPRASP2(1), MSRB3(1), ITPR1(1), LMOD1(1), PEG3(1), ST5(1), FAM198B(1), NXPH3(1), PDE8B(1), DST(1), SYNE1(1), KCNJ8(1), PABPC5(1), FILIP1L(1), FOXN3(1), EXOC3L2(1), CNRIP1(1), CAV2(1), KANK3(1), RAPGEF4(1), HEPH(1), SYTL4(1), C20orf160(1), NECAB1(1), CRTAP(1), FOXF1(1), TSPAN2(1), PGM5P2(1), CFL2(1), HTR2B(1), ZBTB38(1), TM4SF18(1), KL(1), ANKRD29(1), FKBP7(1), C7orf58(1), NAP1L2(1), TXNIP(1), FHL1(1), STARD13(1), KLHDC1(1), GNG11(1), PRDM8(1), RERG(1), CASP12(1), ARHGEF15(1), MASP1(1), AXL(1), CBX7(1), CACNA1H(1), SNCA(1), HEG1(1), PCDHB4(1), PDE2A(1), PRR16(1), ZCCHC24(1), TMEM200B(1), PCDHGA9(1), MAOB(1), LIX1L(1), PDE7B(1), TNS1(1), ADCY2(1), CD302(1), ABCC9(1), ZEB2(1), MITF(1), ENPP2(1), FBXO32(1), ROBO4(1), NPTN(1), UBL3(2), ARHGEF6(2), DPYD(1), NBEA(1), C1orf133(1)</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>79.0</v>
+        <v>230.0</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.6000141881292228</v>
+        <v>-0.600091974934386</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.6572868853956102</v>
+        <v>-0.6856925213031323</v>
       </c>
       <c r="H47" t="n">
-        <v>146.0</v>
+        <v>536.0</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.6162606911372822</v>
+        <v>-0.6228915314345865</v>
       </c>
       <c r="J47" t="n">
-        <v>3.945945945945946</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>hsa-miR-590-5p</t>
+          <t>hsa-miR-133a</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>37.0</v>
+        <v>32.0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SAP30L(10), SH3BGRL(10), LRCH1(8), TACC1(14), UBL3(9), MDFIC(3), GNG12(3), PJA2(3), TIMP3(8), ELK3(6), PROS1(1), DIXDC1(12), PALM2-AKAP2(3), FGF2(4), SVIL(11), STAT5B(8), SPARCL1(7), TSPAN2(3), AKT3(2), KCNMA1(3), SLC24A3(2), TBL1X(3), MID2(4), CYYR1(1), TXNIP(2), C1orf133(6), CACNA1C(1), NFASC(2), SETD7(3), TSPAN18(5), TBC1D1(3), IL33(1), MYCT1(1), ST5(1), GNAL(2), CEP68(2), RHOJ(1), ASAM(3), KCTD12(2), PALLD(1), ANTXR2(2), KCTD7(1), TMEM47(1), PGM5P2(4), BNC2(1), FLT4(1), STON1(2), DPYSL3(1), MEF2C(1), DMD(2), MEIS3(1), LMOD1(2), KIAA1462(1), PRDM8(1), PTGDR(2), CALD1(2), SCARF1(1), FLI1(2), ERVFRDE1(1), PPP1R12B(1), GIMAP4(1), TEK(2), FBXO32(1), ANO6(1), MICAL2(1), SYNPO(1), CLIC4(1), AKAP2(1), LRRC8C(1), MBNL1(1), MYADM(1), RNF38(1)</t>
+          <t>FAM54A(5), PRAME(10), TUFT1(2), TMEM63B(6), CASP6(4), NUP210(2), GEMIN8P4(1), C8orf76(1), C20orf24(2), UCK2(1), NCAPG(1), TUBA1C(10), CDCA8(3), ENO1(2), AURKA(7), ILF2(3), PLK1(2), CCNB1(2), CASP3(1), PSMA5(1), NEK6(1), C15orf42(2), FANCD2(1), CDC20(2), NFKBIL2(1), BUB1(3), C1orf135(2), KIF2C(2), TMEM8A(1), HSPA4(2), RPN2(1), C8orf38(1), KIF4A(1), SPAG5(1), CCNF(1), C16orf75(1), MCM2(1), DEPDC1B(1), ZNF695(1), RANGAP1(1), GINS1(1), KIF11(1), C6orf115(1), KPNA2(1), SCAMP3(1)</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>72.0</v>
+        <v>45.0</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.60002361681407</v>
+        <v>-0.6003704176334544</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.684173928808282</v>
+        <v>-0.6540199434396301</v>
       </c>
       <c r="H48" t="n">
-        <v>217.0</v>
+        <v>98.0</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.6135461539024987</v>
+        <v>-0.6155583142876777</v>
       </c>
       <c r="J48" t="n">
-        <v>5.864864864864865</v>
+        <v>3.0625</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>hsa-miR-16-1-3p</t>
+          <t>hsa-let-7c</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>36.0</v>
+        <v>28.0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.36</v>
+        <v>0.28</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>C1orf133(5), SLC24A3(11), UBL3(4), SNED1(1), PRDM8(2), MEF2C(1), C21orf34(1), FGF2(2), ZAK(6), KLHDC1(1), STAT5B(8), RHOJ(6), MEIS3(3), FLT4(5), TIMP2(1), C16orf45(3), RSPO1(2), MXRA7(1), LRRN4CL(1), TACC1(2), ST5(1), PEAR1(1), CNRIP1(1), KIAA1462(2), ARHGEF15(1), KANK2(3), PCDHB4(1), HSPA12B(1), PLAT(1), TCEAL7(1), JAM3(1), DCHS1(1), TBL1X(1), SRF(1), ZDBF2(1), SVIL(1), SCARF1(1)</t>
+          <t>CDCP1(7), MFSD9(3), LAD1(1), UCK2(1), MAP3K9(1), TUBA1C(1), RRM2(4), TPRN(1), PGK1(1), MRPL13(1), PNP(1), PPM1G(1), SLC2A6(2), ENO1(2), FAM110A(1), AURKA(1), FAM54A(1), BRCA1(1), MCM10(1), TMPRSS4(1), CCNF(1), C16orf59(1), HSPA4(1), ZNF695(1), SEPHS2(1), SLC31A1(1), NUP210(1), MKI67(1), LYN(1), BRI3BP(1), EPT1(1), C9orf140(1), GSG2(1), TPI1(1), CENPM(1), PKMYT1(1), GPI(1), GARS(1), ORMDL2(1)</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.6003084213748882</v>
+        <v>-0.6009591728494973</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.676451086022486</v>
+        <v>-0.6789436468738105</v>
       </c>
       <c r="H49" t="n">
-        <v>86.0</v>
+        <v>52.0</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.6150651017684903</v>
+        <v>-0.6208006282963014</v>
       </c>
       <c r="J49" t="n">
-        <v>2.388888888888889</v>
+        <v>1.8571428571428572</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>hsa-miR-331-5p</t>
+          <t>hsa-miR-19b-3p</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>35.0</v>
+        <v>28.0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.35</v>
+        <v>0.28</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>TEK(8), TIMP2(2), TBL1X(7), STAT5B(17), C5orf53(2), UBL3(14), SH3BGRL(2), SLC24A3(10), ADCY4(1), TBC1D1(4), TIMP3(1), MEF2C(5), SNRK(3), NEDD4(3), SPARCL1(2), MEIS3(4), ARHGAP6(1), SH3BP5(2), TACC1(6), MYCT1(3), PURG(1), ZNF25(2), APBB1(1), C21orf34(4), FGD5(4), CYYR1(2), CLIC2(5), KANK1(2), RASSF8(1), TIE1(6), FBXL3(2), LDB2(7), TXNIP(11), AKT3(3), KLHDC1(3), ZEB1(10), PRDM8(2), MDFIC(3), USP31(2), CEP68(2), ENPEP(1), ABCG2(2), SVIL(1), CDKL1(1), KATNAL1(1), TCEAL7(5), RHOJ(3), ASAM(5), MITF(2), C1orf21(1), NOSTRIN(1), SCARF1(2), ATOH8(1), LOH3CR2A(2), DIXDC1(3), C16orf45(4), MEF2D(5), ZAK(7), KCNMA1(1), KANK2(6), OSBPL1A(1), FLT4(3), JAM3(1), PJA2(5), ELK3(1), GPRASP1(3), GPRASP2(2), C4orf12(1), CALHM2(2), TRPC1(1), CACNA1C(2), PDE7B(1), RFTN1(2), FGF2(3), KIAA1614(3), SLC8A1(1), CXorf36(1), NRIP2(3), FOXO1(1), FEM1B(2), PABPC5(2), CNRIP1(2), CRTAP(1), MAOB(2), LRCH1(2), LIFR(1), SAP30L(2), TSPAN18(1), PCDHGB7(1), KIAA1462(2), OLFML2A(2), BNC2(1), MXRA7(1), DCHS1(1), N4BP2L1(1), LRRN4CL(1), C1orf133(1), SYTL4(1), TENC1(1), TRIM23(1), CLIP3(1)</t>
+          <t>FLT4(11), DHH(2), TSPAN18(2), MEF2C(2), FLI1(1), TBL1X(3), MEF2D(2), SLC24A3(7), TLN1(1), RHOJ(5), SCARF1(2), GIPC3(1), CXorf36(1), GIMAP1(3), SYNPO(1), MMRN2(1), MYCT1(1), FGD5(1), ACVRL1(1), KANK3(1), TIE1(2), FOXF1(1), CLEC14A(1), CDH5(1), GPR116(1), PCDH12(1), SEMA6B(1), GIMAP4(1), KANK2(2), SVIL(3), ESAM(1), ARHGAP31(1), ROBO4(1), ANO6(1), TIMP3(1), NEDD4(1), SPARCL1(1), MEIS3(3), TACC1(2), SETD7(2), CLIC4(1), KIAA1462(2), FGF2(1), ZAK(2), ZEB1(1), MDFIC(1), PCDHGA6(1), STAT5B(1), ASAM(1), SH3BGRL(1), PHLDB2(1), TIMP2(1), MAP3K3(1), CALHM2(1), C16orf45(1), CLIP3(1), PRDM8(1), ARHGEF15(1), CACNA1H(1), ZCCHC24(1), STOM(1)</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>101.0</v>
+        <v>61.0</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.6000257951977553</v>
+        <v>-0.6000798741919818</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.6803097265472822</v>
+        <v>-0.663367481236123</v>
       </c>
       <c r="H50" t="n">
-        <v>291.0</v>
+        <v>100.0</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.6140861057340086</v>
+        <v>-0.6149219786395163</v>
       </c>
       <c r="J50" t="n">
-        <v>8.314285714285715</v>
+        <v>3.5714285714285716</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>hsa-miR-324-5p</t>
+          <t>hsa-miR-130b-5p</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>34.0</v>
+        <v>26.0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>MEF2C(13), AKT3(13), ZAK(19), STAT5B(15), ZBTB4(2), SAP30L(15), PJA2(10), UBL3(10), LRRN4CL(13), TACC1(6), MID2(1), SH3BGRL(3), DIXDC1(5), HEPH(2), KIAA1462(6), LRCH1(3), MEF2D(4), SLC24A3(14), SVIL(4), CD302(1), RHOJ(12), VAMP3(2), FAM175A(2), GLT8D2(3), ANO6(2), ZNF25(3), CNRIP1(8), RASSF8(1), MDFIC(5), FLT4(5), MFAP4(2), SETD7(2), APBB1(1), PMP22(3), C16orf45(4), FGF2(3), LTBP4(2), PRDM8(4), KANK2(4), PCDHGA6(3), HSPA12B(2), LIX1L(2), ARHGEF6(2), NOSTRIN(2), C5orf53(4), TIMP2(3), SSPN(1), GPRASP1(3), NDN(3), PEAR1(3), C21orf34(2), CLIC2(2), CCDC69(1), KLHDC1(1), RASL12(2), TENC1(2), AXL(1), CBX7(5), ZCCHC24(2), MAOB(5), CLEC2B(1), TCEAL7(3), SH3BP5(2), ST5(3), ITPKB(1), ANKRD29(1), KCNMA1(2), FGD5(2), FBXL3(2), C1orf133(2), ARHGAP31(1), JAM3(3), C9orf5(1), SPARCL1(3), TXNIP(1), MBNL1(2), GPRASP2(1), VAMP2(1), NRIP2(2), SCARF1(1), ANTXR2(2), FAM55C(1), KCTD7(1), NKAPL(1), TBC1D1(1), TIMP3(1), NEDD4(1), FLI1(1), RAB8B(1), C1QTNF7(1), DPYD(2), TGFBR3(1), CALCOCO1(1), FOXN3(1), C14orf28(1), CRTAP(1), CALHM2(2), ZBTB38(1), C7orf58(1), PRX(2), CLIP3(3), ZEB1(1), SH3D19(1), BNC2(2), GAB1(1), MAMDC2(2), PCDHGA3(2), CEP68(1), OSTM1(1), TNXB(2), FAM13C(1), ASAM(1), GNG12(1), GLI3(1), AHNAK(1), ARHGAP6(1), LRRK2(1), RSPO1(1), RFTN1(1), EMILIN1(1), CAV2(1), TGFB1I1(1), NECAB1(1), DENND2A(1), KIAA1614(1), SMOC2(1), FBXO32(1)</t>
+          <t>NOSTRIN(4), MEF2C(5), SH3BP5(7), TACC1(8), C1orf133(2), ST5(4), CCDC69(4), KANK3(2), MAOB(7), LIX1L(2), RHOJ(6), SCARA3(1), STAT5B(10), PJA2(5), SNRK(2), C21orf34(2), MEF2D(2), ARHGEF6(2), DPYD(5), AKT3(7), MAP3K3(2), CALHM2(4), LRRN4CL(3), ANTXR2(4), GHR(1), POU6F1(1), GLT8D2(2), AHNAK(1), JAM3(3), ANO6(6), FEM1B(2), DMD(1), SPARCL1(4), ARHGAP6(3), GPRASP1(5), TGFBR3(4), ZNF25(1), MID2(1), SH3BGRL(2), NXPH3(2), DIXDC1(5), STOM(2), KIAA1462(6), CRTAP(1), FGF2(5), ZAK(6), PRDM8(2), BNC2(4), CALD1(2), SLC24A3(3), CBX7(6), FEZ2(2), GNG12(2), MDFIC(3), MEIS2(1), ZBTB4(1), TBC1D1(3), SVIL(5), KCTD7(1), ZNF208(1), SETD7(2), PEAR1(3), PCDHGA3(1), PCDHGA6(3), OSTM1(2), C5orf53(3), WHAMML1(1), TIMP2(3), GNG7(1), UBL3(2), C4orf12(1), ADD1(1), LRCH1(1), DOCK4(2), KCNMA1(2), EZH1(3), SFMBT2(1), N4BP2L1(1), FLT4(2), EPM2A(1), LOH3CR2A(2), SSPN(2), PDE10A(1), PTGER2(2), CLIC2(1), ZEB1(2), TIPARP(1), TENC1(2), KIAA1614(1), NFASC(1), CXorf36(1), TSPAN18(1), GIMAP1(1), KDR(1), JAM2(1), PCDHGA5(1), PPAPDC3(1), NKAPL(1), VIPR2(1), FZD4(1), GRK5(1), ECM2(1), TIMP3(1), HSD17B6(1), GIMAP6(1), FAM65B(1), NEDD4(1), ITGA8(1), FLI1(1), MEIS3(1), ERVFRDE1(1), PRKCH(1), C1QTNF7(1), MMRN2(1), DHH(1), SHE(1), GIMAP8(1), EPAS1(1), MYCT1(1), PPP1R12B(1), WT1(1), PCDHGA2(1), ITPR1(1), LMOD1(1), AKAP2(1), RSPO1(1), CALCRL(1), RFTN1(1), ABCB1(1), EMILIN1(1), FOXN3(1), TBXA2R(1), SH2D3C(1), CNRIP1(1), PCDHGB7(1), RASSF8(1), CACNB2(1), TIE1(1), PGM5P2(1), C16orf45(1), OLFML2A(1), C10orf54(1), ZBTB38(1), LDB2(1), PALLD(1), ANKRD29(1), PALM2-AKAP2(1), C7orf58(1), CLIP3(1), LEPR(1), A2M(1), GPR116(1), ARRB1(1), TMEM204(1), VAMP3(1), CASP12(1), ZNF676(1), MAMDC2(1), USP31(1), GNAL(1), GIMAP4(1), GIMAP5(1), CACNA1H(1), WISP1(1), CACNA1C(1), EMCN(1), TLN1(1), PDE2A(1), ABCG2(1), TMEM200B(1), TEK(1), TNXB(1), HSPA12B(1), FRMD6(1), PDE7B(1), INSR(1), TNS1(1), CLEC2B(1), ADCY2(1), CD302(1), TCEAL7(1), ESAM(1), ASAM(1), RASA4(1), ZEB2(1), MITF(1), MBNL1(1), GRID1(1), ARHGAP31(1), ROBO4(1), RECK(1)</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>127.0</v>
+        <v>191.0</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.600047299473317</v>
+        <v>-0.6000510494445909</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.6733069192715527</v>
+        <v>-0.7000125307321029</v>
       </c>
       <c r="H51" t="n">
-        <v>370.0</v>
+        <v>352.0</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.6156623265710919</v>
+        <v>-0.6214731222670504</v>
       </c>
       <c r="J51" t="n">
-        <v>10.882352941176471</v>
+        <v>13.538461538461538</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>hsa-miR-130b-3p</t>
+          <t>hsa-miR-590-5p</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>33.0</v>
+        <v>25.0</v>
       </c>
       <c r="C52" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SAP30L(3), ANO6(3), PJA2(6), TBL1X(1), MXI1(1), SLC24A3(4), STAT5B(8), TBC1D2B(2), JAM3(2), C5orf53(3), ARHGAP6(1), SH3BP5(1), TACC1(3), RNF38(1), SETD7(3), ZNF25(1), NXPH3(1), ABI3BP(1), DIXDC1(2), KIAA1462(1), CALHM2(1), C16orf45(2), ANKRD29(3), FGF2(1), AKT3(3), ZAK(4), BNC2(1), MAMDC2(1), GNAL(1), CBX7(1), MAOB(2), PCDHGA6(2), DPYD(1), FOXN3(1), MEF2D(2), UBL3(2), KCTD7(1), AHNAK(1), SETBP1(1), PCDHGA2(1), SH3BGRL(1), C9orf5(1), KANK2(1), LIX1L(1), RHOJ(1), TMEM109(1), ADD1(1), KLHDC1(1), ZBTB4(1)</t>
+          <t>LRCH1(8), TIMP3(7), TACC1(15), CLIC4(2), DIXDC1(11), GAB1(3), SVIL(9), TSPAN18(1), C1orf133(6), UBL3(7), SH3BGRL(8), TMEM55A(3), TBC1D1(3), SPARCL1(7), SETD7(3), AKAP2(2), TSPAN2(1), PGM5P2(3), CALHM2(1), PALM2-AKAP2(1), MDFIC(6), GNAL(1), GIMAP4(1), KCNMA1(6), SLC24A3(3), STAT5B(6), SERINC1(1), MYADM(1), FBXO32(3), DFNA5(1), SAP30L(3), MID2(3), KATNAL1(1), PJA2(2), GUCY1A3(1), KCTD12(1), DSTN(1), GNG12(4), DPYSL3(1), NFASC(1), ELK3(2), CALCOCO1(1), ST5(3), ANO6(3), FGF2(2), ITPKB(1), RAB11FIP2(2), SYNE1(1), AKT3(2), ARHGEF6(2), SCARF1(1), MEF2C(1), DMD(2), FLI1(1), CLIC2(1), MAPK10(1), MAP3K3(1), GJA5(1), FRY(1), PTGDR(1), RHOJ(1), ADCY4(1), SPTBN1(2), TBL1X(2), ASAM(3), SLCO2A1(1), SNRK(1), KANK1(1), PCDHGB7(1), TXNIP(1), CACNA1C(1), TEK(1)</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>49.0</v>
+        <v>72.0</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.6001406744935568</v>
+        <v>-0.6000214571793224</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.6613843635331701</v>
+        <v>-0.6647301233373889</v>
       </c>
       <c r="H52" t="n">
-        <v>89.0</v>
+        <v>194.0</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.6130529679560175</v>
+        <v>-0.614097883070515</v>
       </c>
       <c r="J52" t="n">
-        <v>2.696969696969697</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="53">
@@ -1956,651 +1956,651 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>33.0</v>
+        <v>25.0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SAP30L(8), PDE10A(1), LRCH1(5), FGF2(3), AKT3(4), ZAK(14), BNC2(2), KCNMA1(1), SLC24A3(3), SVIL(3), STAT5B(5), ADCY2(1), GHR(1), ANO6(5), PJA2(6), DMD(1), ARHGAP6(1), SH3BP5(2), SSPN(1), GPRASP1(1), THRA(3), PCDHGA2(2), SEPP1(1), ST5(3), UBL3(4), C21orf34(3), MID2(1), NXPH3(1), DIXDC1(2), CNRIP1(1), RASSF8(1), KIAA1462(2), C5orf4(1), FBXL3(3), MEF2D(1), SH3D19(2), MAMDC2(1), PCDHGA3(1), CBX7(1), KANK2(1), MAOB(1), PCDHGA6(3), RHOJ(1), ZNF483(1), GNG12(3), LRRN4CL(1), VAMP3(1), PRNP(1), RNF38(3), ABI3BP(1), KLHDC1(2), GLI3(1), DPYD(1), TACC1(1), APBB1(1), CALHM2(1), TMEM55A(3), KCTD7(1), C5orf53(1), NBEA(1), KCTD12(1), CEP68(1), PCDHB4(1), MBTPS1(1)</t>
+          <t>ANO6(8), SPTBN1(2), GPRASP2(4), MID2(2), ADD1(1), FBXL3(1), LRCH1(8), FGF2(6), AKT3(10), ZAK(12), TMEM55A(1), MDFIC(4), STAT5B(12), GNG12(3), PJA2(4), WT1(1), ST5(2), APBB1(2), PRDM8(4), BNC2(4), KIAA1614(3), MAMDC2(3), SLC24A3(4), ZNF483(1), SAP30L(4), ARHGEF6(1), TBC1D2B(1), NOSTRIN(1), FLT4(1), SCARF1(1), ANTXR2(3), GHR(1), KCTD7(2), GLT8D2(3), AHNAK(2), JAM3(2), PHF15(1), MEF2C(3), NEDD4(1), DPYD(3), SH3BP5(1), SSPN(1), TACC1(2), GPRASP1(1), SETD7(1), PCDHGA2(2), PEAR1(1), SH3BGRL(1), CLIC2(1), DIXDC1(1), CNRIP1(1), RASSF8(3), KIAA1462(6), CALHM2(1), C16orf45(1), FRY(1), CDH5(1), TENC1(1), BCL2L2(1), SGCE(1), CBX7(2), KANK2(1), PCDHB4(1), PCDHGA6(3), SVIL(3), ADCY2(1), TCEAL7(2), RHOJ(3), MBNL1(1), ARHGAP31(1), RECK(1), LRRN4CL(1), TIMP2(1), TIMP3(1), C21orf34(1), OLFML2A(1), FKBP7(1), CALD1(1), PCDHGA3(2), CEP68(1), MAOB(2), LIX1L(2), FRMD6(1), ASAM(1), PRX(1), NBEA(3), ATL1(1), RSPO1(1), C14orf28(1), MEF2D(2), KCNMA1(1), TLN1(2), UBL3(1), VAMP3(1), RNF38(1), C5orf53(1), KCTD12(1)</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>64.0</v>
+        <v>97.0</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.6000054834748615</v>
+        <v>-0.6000290944177742</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.6715649391792207</v>
+        <v>-0.6672398392892932</v>
       </c>
       <c r="H53" t="n">
-        <v>136.0</v>
+        <v>213.0</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.6168102877364764</v>
+        <v>-0.6164306836089145</v>
       </c>
       <c r="J53" t="n">
-        <v>4.121212121212121</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>hsa-miR-17-5p</t>
+          <t>hsa-miR-3127-5p</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ZBTB4(4), MBTPS1(1), FLT4(12), C5orf53(9), MEF2C(9), MEF2D(4), KLHDC1(3), SLC24A3(23), STAT5B(12), RHOJ(14), NDN(4), CCDC69(2), CNRIP1(7), C16orf45(8), TENC1(12), SHANK3(1), LRRN4CL(5), ANTXR2(2), ANO6(1), TIMP2(4), KLF11(1), SPARCL1(2), DPYD(2), TACC1(4), SETD7(4), SSC5D(2), UBL3(7), PCDHGB7(1), KIAA1462(6), CALHM2(4), LRCH1(2), FGF2(7), TXNIP(1), AKT3(8), ZAK(9), PCDHGA3(2), CBX7(2), CYBRD1(1), MAOB(5), PCDHGA6(4), SVIL(3), SERINC1(1), MYADM(3), FBXO32(2), DFNA5(2), APBB1(1), EHD2(1), LIX1L(2), CCND2(3), ANKRD29(2), MXRA7(1), MID2(4), RASSF8(2), CXorf36(1), NOSTRIN(2), GYPC(3), AFAP1L1(1), FAM175A(1), TSPAN18(1), GHR(4), GLT8D2(1), PGCP(1), PCDHGA5(1), ATOH8(1), SCARA3(1), NKAPL(1), DAB2(1), FZD4(1), TGFB3(1), TIMP3(1), IL11RA(1), IL33(1), NEDD4(1), FLI1(1), NBEA(1), RAB8B(2), ARHGAP6(2), LOH3CR2A(1), SH3BP5(3), SSPN(1), DACT3(1), GPRASP1(1), MYCT1(1), TGFBR3(1), ATL1(1), WT1(1), TSHZ3(1), PCDHGA2(1), GPRASP2(1), PAPPA(1), LMOD1(1), C1orf133(2), ST5(2), PEAR1(2), FAM198B(1), C21orf34(1), RSPO1(1), SH3BGRL(3), NXPH3(1), CLIC2(2), SOX7(1), PABPC5(1), FOXN3(2), GJC3(1), DIXDC1(1), PCDHB18(1), FXYD1(1), PDE5A(1), NECAB1(1), TIE1(1), FBLN5(1), LDB2(1), TBX3(1), CLIP3(3), LTBP4(2), ZEB1(1), BNC2(1), TMEM204(1), TMEM55A(1), ARHGEF15(2), MDFIC(1), MAMDC2(1), KCNMA1(1), CACNA1H(1), CACNA1C(1), PCDHB4(1), TMEM200B(1), FEZ2(1), TEK(1), TNXB(1), FRMD6(1), SMOC2(1), ADCY2(1), CD302(1), TCEAL7(2), ASAM(1), ZEB2(1), PHLDB2(1), MITF(1), MBNL1(1), ARHGAP31(1), WIT1(1), GPR124(2), ST6GALNAC3(1), ROBO4(1), SCN3B(2), ZNF25(1), PCDHGB6(1), KANK2(4), PROS1(1), C1orf70(1), PJA2(2), VAMP2(2), CDH5(1), LRCH2(1), ZCCHC24(1), PLAT(1), RFTN1(2), PRDM8(1), ABI3BP(1), MEIS3(1)</t>
+          <t>FLT4(6), DPYD(4), SOX7(2), FGF2(3), ZAK(6), SLC24A3(7), STAT5B(8), RHOJ(6), CRTAP(1), SAP30L(2), MBTPS1(1), ARHGEF6(2), NOSTRIN(1), SCARF1(2), JAM3(1), PJA2(2), MEF2C(3), NEDD4(1), MEIS3(1), ARHGAP6(2), SH3BP5(1), TACC1(2), ZNF25(2), CLIC2(2), FOXN3(1), PMP22(1), CNRIP1(2), KIAA1462(3), CALHM2(2), C16orf45(2), ANKRD29(1), PPM1F(1), C1orf70(1), C21orf7(1), AKT3(2), CLIP3(1), KLHDC1(2), TMEM55A(3), MDFIC(3), ITPKB(1), ZCCHC24(1), MBNL1(2), CDK17(1), LRRN4CL(1), ANTXR2(1), C5orf53(2), FEM1B(1), TIMP3(1), SNRK(1), IL33(1), SPARCL1(1), RAB8B(1), PEAR1(1), PROS1(1), DIXDC1(1), PCDHGB7(1), RASSF8(1), STOM(1), MAP3K3(1), LRCH1(1), ZEB1(1), PRDM8(2), TENC1(2), MAOB(1), LIX1L(1), KATNAL1(1), ASAM(1), MYADM(1), ARHGAP31(1), NDN(1), KANK2(1), FBXO31(1)</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>161.0</v>
+        <v>72.0</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.6002018868262008</v>
+        <v>-0.6000250305003771</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.6955931302349821</v>
+        <v>-0.67829971327785</v>
       </c>
       <c r="H54" t="n">
-        <v>376.0</v>
+        <v>131.0</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.6181992910083868</v>
+        <v>-0.6153450509897034</v>
       </c>
       <c r="J54" t="n">
-        <v>11.75</v>
+        <v>5.458333333333333</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>hsa-miR-589-5p</t>
+          <t>hsa-miR-16-1-3p</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>32.0</v>
+        <v>23.0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>RHOJ(8), SAP30L(1), FLT4(7), TSPAN18(2), ANTXR2(1), SLC45A1(1), TBC1D1(1), MEF2C(2), SPARCL1(2), MEIS3(3), DPYD(1), TACC1(1), SETD7(2), ST5(5), APBB1(1), SOX7(2), DIXDC1(2), PMP22(1), C14orf28(1), CNRIP1(2), KANK3(1), KIAA1462(2), CRTAP(1), RAMP1(1), CALHM2(3), C16orf45(4), OLFML2A(1), LDB2(2), FGF2(4), MEF2D(1), CLIP3(5), ZAK(6), ZEB1(2), PRDM8(1), EHD2(1), ARHGEF15(1), KCNMA1(1), SLC24A3(8), CEP68(4), CACNA1C(3), KANK2(3), TMEM200B(1), HSPA12B(1), LIX1L(1), SVIL(2), STAT5B(4), TCEAL7(2), ASAM(2), ILK(1), FBXO32(1), GPR124(1), SNRK(4), UBL3(1), SCN3B(1), KATNAL1(2), STON1(1), LRRN4CL(1), C5orf53(2), TIMP3(1), FLI1(1), ELK3(1), MYCT1(1), WT1(1), C1orf133(4), CLIC2(1), GJC3(1), TIE1(3), FBLN5(1), LTBP4(1), TMEM204(1), TENC1(1), USP31(1), TMEM200A(1), PCDHB4(1), TEK(1), TNXB(1), MAOB(1), PCDHGA6(1), ARHGAP31(1), JAM3(1), TCF4(1), DCHS1(5), TBL1X(1), CGNL1(1), PLAT(1), FGD5(2), ZBTB4(1), RFTN1(1)</t>
+          <t>C1orf133(4), STAT5B(8), FLT4(4), CCND2(1), OR5K2(1), TBL1X(1), KIAA1462(2), CALHM2(1), C16orf45(5), FGF2(1), ZAK(5), SLC24A3(13), KANK2(3), SVIL(2), RHOJ(3), TIMP2(2), MEF2C(2), TACC1(2), WHAMML1(1), RSPO1(2), MEF2D(2), LRRN4CL(1), AFAP1L1(1), EPM2A(1), C5orf53(2), RASGRP2(1), SPARCL1(1), DHH(1), MYCT1(1), ST5(2), PEAR1(1), APBB1(1), FGD5(1), CLIC2(1), CNRIP1(1), KANK3(1), TIE1(1), FBLN5(1), ZBTB38(1), ADARB1(1), AKT3(1), CDH5(1), ZEB1(1), PRDM8(2), TMEM55A(1), TNXB(1), PLAT(1), TCEAL7(1), RASA4(1), GRID1(1), MYADM(1), GPR124(1), ZNF438(1), MEIS3(2), NDN(1), RGMA(1)</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>88.0</v>
+        <v>56.0</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.6000415743225581</v>
+        <v>-0.6000754798700815</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.686163172453918</v>
+        <v>-0.6695029458541305</v>
       </c>
       <c r="H55" t="n">
-        <v>169.0</v>
+        <v>104.0</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.6179572307215581</v>
+        <v>-0.6152805290780498</v>
       </c>
       <c r="J55" t="n">
-        <v>5.28125</v>
+        <v>4.521739130434782</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>hsa-miR-99a-5p</t>
+          <t>hsa-miR-340-3p</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>27.0</v>
+        <v>20.0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>TMEM63B(4), FAM110A(1), TUBA1C(1), FLAD1(1), RRM2(1), PLK1(1), CCNB1(1), KIF11(1)</t>
+          <t>DPYD(4), PEAR1(1), STAT5B(7), LRRN4CL(1), TSPAN18(1), SCARF1(3), ANTXR2(1), TIMP2(1), TIMP3(1), HSD17B6(1), SPARCL1(1), ARHGAP6(1), TACC1(2), SETD7(2), PCDHGA2(1), ST5(1), C21orf34(1), SH3BGRL(1), CLIC2(1), DIXDC1(2), TBL1X(1), RASSF8(1), KIAA1462(2), CALHM2(2), C16orf45(2), PRX(1), FGF2(4), AKT3(2), ZAK(3), PRDM8(2), BNC2(1), TMEM55A(1), MDFIC(1), MAMDC2(1), KCNMA1(1), SLC24A3(1), CBX7(2), CACNA1C(1), KANK2(3), ZCCHC24(1), TMEM200B(1), PCDHGA6(5), SVIL(2), TCEAL7(1), RHOJ(2), ASAM(1), MYADM(1), FBXO32(1), SAP30L(1), C5orf53(1), PJA2(2), MEF2C(1), SH3BP5(1), TXNIP(1), GAB1(1), SERINC1(1), LRCH1(1), MAP3K3(2), PRKCA(1)</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>8.0</v>
+        <v>59.0</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.6037051140759694</v>
+        <v>-0.6014116641364162</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.6226649895083015</v>
+        <v>-0.6535094936086557</v>
       </c>
       <c r="H56" t="n">
-        <v>11.0</v>
+        <v>94.0</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.6122217761815619</v>
+        <v>-0.6154459102130377</v>
       </c>
       <c r="J56" t="n">
-        <v>0.4074074074074074</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>hsa-miR-151a-3p</t>
+          <t>hsa-miR-92a-3p</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>26.0</v>
+        <v>20.0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>UBL3(8), ZAK(9), FGF2(4), MEF2C(4), C21orf34(1), SH3BGRL(2), SLC24A3(3), CGNL1(1), C5orf53(2), NEDD4(1), LOH3CR2A(1), SETD7(2), CLIC2(1), CNRIP1(1), C16orf45(1), CLIP3(1), ZEB1(1), STAT5B(5), TCEAL7(4), RHOJ(2), SNRK(1), LRCH1(1), FLT4(2), GRINL1A(1), ANO6(1), PJA2(1), TBL1X(1), KIAA1462(1), KLHDC1(3), ZNF676(1), PPP1R12A(1), KANK2(2), PLAT(1), NDN(1), MDFIC(1)</t>
+          <t>FLT4(36), MEF2C(21), TACC1(25), UBL3(10), PEAR1(19), SOX7(4), C14orf28(1), STOM(17), KIAA1462(21), FGF2(17), ZAK(29), PRDM8(21), SLC24A3(43), SVIL(9), STAT5B(28), RHOJ(34), MYADM(8), C16orf45(15), MDFIC(16), KANK2(14), SH3BGRL(9), CXorf36(8), ARHGEF6(7), TSPAN18(2), ANTXR2(13), CCND2(1), PPAPDC3(4), PJA2(11), TBC1D1(9), TIMP3(7), BCAP29(2), NEDD4(5), SPARCL1(13), FLI1(4), MMRN2(3), SHE(2), PDE10A(6), MYCT1(10), PAPPA(3), ST5(7), BCL6B(1), RSPO1(3), MID2(10), CLIC2(19), EMILIN1(3), DIXDC1(9), PMP22(10), PARM1(1), TBL1X(4), CNRIP1(18), RASSF8(5), TGFB1I1(4), TIE1(13), CALHM2(10), LDB2(5), ANKRD29(10), TXNIP(6), AKT3(15), CDH5(3), A2M(3), ZEB1(18), GPR116(3), BNC2(7), TENC1(8), TMEM55A(6), ARHGEF15(11), KIAA1614(3), CALD1(6), CACNA1C(8), EMCN(4), TEK(7), TNXB(7), KATNAL1(5), TCEAL7(10), ESAM(6), ASAM(10), GRID1(3), ARHGAP31(5), ROBO4(10), MEF2D(12), KCNMA1(6), LIX1L(9), MXRA7(1), C5orf53(13), MAP3K3(2), SETD7(15), TMEM200A(2), PRKCH(1), GHR(10), IL33(3), MEIS3(15), DPYD(6), SAP30L(3), NOSTRIN(7), GYPC(2), LRRN4CL(9), SCARF1(4), GIMAP1(3), TGFB3(1), ARHGAP6(7), DHH(3), REM1(1), SSC5D(4), FGD5(2), RFTN1(2), SH2D3C(1), KANK3(7), GIPC3(1), EHD2(7), GIMAP4(3), CBX7(7), MAOB(7), PCDHGA6(9), COL15A1(1), STON1(2), FAM175A(1), KDR(2), JAM2(5), GLT8D2(2), AHNAK(3), JAM3(6), ANO6(6), NKAPL(2), PRNP(1), MBNL2(1), FZD4(2), TIMP2(7), DMD(2), ENTPD1(2), LOH3CR2A(3), SH3BP5(4), ELK3(2), GPRASP1(4), PPP1R12B(2), TGFBR3(4), TEF(2), TSHZ3(4), PCDHGA2(2), CLIC4(2), GPRASP2(4), ITPR1(2), LMOD1(3), PEG3(3), ZNF25(2), APBB1(1), C21orf34(2), ACVRL1(2), NXPH3(2), PROS1(1), KCNJ8(3), DIRAS1(2), C4orf12(1), PTRF(2), DDR2(1), PABPC5(4), FOXN3(1), NR3C2(1), CACNB2(2), SYTL4(2), FBLN5(2), PGM5P2(3), OLFML2A(3), PBX1(1), ZBTB38(1), FBXL3(1), PALLD(4), PALM2-AKAP2(2), C7orf58(3), C12orf53(1), CLIP3(5), PGM5(2), LTBP4(2), STARD13(2), GNG11(2), GAB1(1), MAMDC2(4), PCDHGA3(3), CEP68(1), CACNA1H(4), PCDHB4(4), TLN1(2), PDE2A(2), EZH1(2), ABCG2(2), ZCCHC24(7), TMEM200B(5), FRMD6(4), PDE7B(2), SLC8A1(1), ZEB2(2), MITF(1), MBNL1(7), GNG12(2), RECK(1), GNG2(1), SHANK3(2), FBXO31(2), ABCB1(2), PDE5A(2), RAMP1(2), TM4SF18(1), FKBP7(1), C1orf70(3), NRIP2(2), GEFT(1), TMEM204(5), PPP1R12A(1), SERINC1(1), ZBTB4(1), GPR124(5), HSPA12B(5), ADCY4(1), C1orf21(1), TBC1D2B(3), SYNE1(1), HEPH(2), P2RX7(1), AXL(1), NBL1(1), FBXO32(4), ZNF521(1), SCN3B(1), DLL4(1), NDN(1), JPH4(2), HIPK4(1), KLHDC1(1), RASL12(2), CLEC2B(2), TNFSF12(1), GLI3(1), TCEAL1(2), FEM1B(1), SNRK(1), WHAMML1(1), RASD2(1), FOXF1(1), SMTN(2), SERPINF1(1), CASP12(2), HCFC2(1), MRGPRF(2), ADCY2(2), CD302(2), C1orf133(2), MICAL2(1), SSPN(1), JAZF1(1), GNAL(1), NT5DC3(1), PCDHB15(1), PRKCDBP(1), SRL(1), CD34(1), IGFBP4(1), PCDHGA5(1), CSDC2(1), DAB2(1), SOCS2(1), ECM2(1), MFAP4(1), HSD17B6(1), GIMAP6(1), FAM65B(1), ITGA8(1), CD93(1), C1QTNF7(1), THSD1(1), DACT3(1), GIMAP8(1), EPAS1(1), AKAP2(1), PHYHIP(1), PTGER2(1), CYYR1(1), SOX15(1), TBXA2R(1), CCDC69(1), ABI3BP(1), ENPP1(1), PCDHB18(1), KLHL10(1), FERMT2(1), NAP1L3(1), NPTN(1), ECSCR(1), SRF(1), AVPR2(1), C10orf54(1), LRCH1(1), PRKCA(1), CLEC14A(1), ZNF676(1), USP31(1), GIMAP5(1), LOC144571(1), TMEM88(1), KIAA1644(1), TNS1(1), SMOC2(1), HSPB2(1), RASA4(1), PHLDB2(1), ILK(1), FYCO1(1)</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>35.0</v>
+        <v>305.0</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.600053928696743</v>
+        <v>-0.6000081270472604</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.6560115763217348</v>
+        <v>-0.7347020761871735</v>
       </c>
       <c r="H57" t="n">
-        <v>73.0</v>
+        <v>1341.0</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.6136106305693004</v>
+        <v>-0.6232594761464367</v>
       </c>
       <c r="J57" t="n">
-        <v>2.8076923076923075</v>
+        <v>67.05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>hsa-miR-16-2-3p</t>
+          <t>hsa-miR-342-5p</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
       <c r="C58" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>UBL3(13), SAP30L(6), ARHGEF6(2), FLT4(2), ANTXR2(4), ANO6(7), TIMP2(9), MEF2C(8), TACC1(6), GPRASP1(3), CLIC2(2), PMP22(3), CNRIP1(5), PCDHGB7(1), FGF2(11), AKT3(9), ZAK(13), SLC24A3(13), TEK(2), SVIL(9), STAT5B(13), RHOJ(5), ASAM(4), ARHGAP31(2), ZNF25(6), CALHM2(5), SERINC1(1), STON1(1), TSPAN18(1), GLT8D2(2), JAM3(7), C5orf53(2), CCND2(1), NKAPL(1), TIMP3(1), MFAP4(1), ZNF521(2), SNRK(2), NEDD4(2), SPARCL1(1), FLI1(1), MEIS3(1), NBEA(2), LOH3CR2A(1), DPYD(3), MYCT1(1), RNF38(3), TGFBR3(1), WT1(1), SETD7(2), GPRASP2(1), ST5(1), LRRK2(2), PEAR1(3), RSPO1(1), NXPH3(1), PROS1(2), PABPC5(1), CCDC69(1), DIXDC1(3), TBL1X(1), RASSF8(3), STOM(1), KIAA1462(6), C16orf45(1), OLFML2A(2), ZBTB38(1), ANKRD29(3), ADARB1(1), LRCH1(5), MEF2D(3), NRIP2(2), TXNIP(2), CLIP3(4), ZEB1(2), PRDM8(3), BNC2(3), TMEM204(2), TMEM55A(1), MAMDC2(1), CALD1(1), KCNMA1(2), CBX7(1), CACNA1C(1), KANK2(3), TLN1(1), ZCCHC24(2), TMEM200B(1), MAOB(1), PCDHGA6(3), HSPA12B(2), LIX1L(1), ADCY2(1), TCEAL7(4), ZEB2(1), RECK(1), PRNP(2), PCDHB12(1), LRRN4CL(3), FKBP7(2), ZDBF2(1), MDFIC(2), TMEM200A(1), PDE7B(1), PHLDB2(1), ADD1(2), C21orf34(1), CEP68(2), FBXL3(1), SH3BGRL(2), GAB1(1), MXRA7(1), KLHDC1(3), LRRC2(1), KIAA0430(1), KCTD7(1), PJA2(1), NDN(1), WHAMML1(1), SOX7(1), C14orf28(1), CDH5(1), TENC1(1), ZBTB4(1)</t>
+          <t>TACC1(6), SPTBN1(1), AKT3(4), GNAL(5), GNG12(3), SVIL(4), ANO6(8), PJA2(4), MEF2D(3), ZAK(4), KCNMA1(3), TBL1X(3), FGF2(4), ENDOD1(1), ANTXR2(2), TIMP3(2), SPARCL1(2), MMRN2(2), EPAS1(1), PPP1R12B(1), SETD7(1), C1orf133(2), ST5(1), LRRK2(1), DIXDC1(2), STOM(1), TSPAN2(1), PGM5P2(1), PDLIM5(1), FGF7(1), RERG(1), BNC2(2), GAB1(1), MDFIC(2), CALD1(1), CBX7(1), EMCN(1), PDE2A(1), FRMD6(2), STAT5B(3), ASAM(2), ARHGAP31(2), FBXO32(4), UBL3(1), SH3BP5(2), NPTN(3), DSTN(1), RNASE4(1), NBEA(1), SLCO2A1(1), DMD(1), ITGA8(1), PDE10A(1), LRCH1(1), PHLDB2(3), SCARF1(1), TMEM47(1)</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>124.0</v>
+        <v>57.0</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.6000123715118215</v>
+        <v>-0.600025093772911</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.6853892211015564</v>
+        <v>-0.654417839047397</v>
       </c>
       <c r="H58" t="n">
-        <v>331.0</v>
+        <v>117.0</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.6177469633286253</v>
+        <v>-0.6135421741076182</v>
       </c>
       <c r="J58" t="n">
-        <v>13.791666666666666</v>
+        <v>6.157894736842105</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>hsa-miR-25-3p</t>
+          <t>hsa-miR-505-3p</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>FLT4(13), LRRN4CL(6), C5orf53(5), MEF2C(8), RAB8B(2), SETD7(8), CDO1(3), ST5(6), UBL3(6), C14orf28(1), CNRIP1(11), KIAA1462(9), CRTAP(3), CALHM2(8), C1orf70(5), AKT3(10), ZAK(15), SNED1(1), PRDM8(5), SLC24A3(14), MAOB(8), TCEAL7(8), MBTPS1(1), CXorf36(3), ARHGEF6(1), GYPC(5), ANTXR2(7), JAM3(3), FBN1(1), TIMP2(7), PJA2(6), NEDD4(1), SPARCL1(5), MEIS3(5), GNG7(3), DPYD(3), TACC1(6), GPRASP1(7), MYCT1(3), TGFBR3(3), TSHZ3(5), PCDHGA2(2), SSC5D(2), PEAR1(9), FAM198B(3), PTGER2(2), SH3BGRL(5), CLIC2(2), SOX7(3), PABPC5(6), EMILIN1(3), FOXN3(4), DIXDC1(5), PMP22(2), TBL1X(1), TCEAL4(1), RASSF8(3), KANK3(2), RAPGEF4(4), TIE1(3), C16orf45(10), ZBTB38(4), PALLD(2), ANKRD29(7), FGF2(8), CLIP3(6), ZEB1(6), BNC2(8), RUNX1T1(1), TMEM204(5), VAMP3(1), ARHGEF15(5), CALD1(3), KCNMA1(2), PCDHGA3(3), CBX7(5), TMEM200A(3), PCDHB4(3), ZCCHC24(3), TMEM200B(2), TEK(3), TNXB(4), PCDHGA6(7), LIX1L(3), SVIL(4), MAN1C1(3), STAT5B(12), CLEC2B(2), ADCY2(1), KATNAL1(3), LOC728264(1), CD302(1), RHOJ(9), ASAM(4), RASA4(1), ZEB2(3), ARHGAP31(2), GPR124(5), SAP30L(3), GHR(3), PPAPDC3(4), MBNL2(5), SH3BP5(4), WT1(3), APBB1(1), C21orf34(5), PCDHGA11(1), ADARB1(2), LRCH1(5), MEF2D(4), TXNIP(4), STARD13(2), KLHDC1(5), KANK2(7), SHANK3(1), NDN(2), EHD2(2), SERINC1(1), GNG12(5), MXRA7(2), CCND2(1), IL11RA(1), ATL1(1), LTBP4(4), TENC1(5), GLT8D2(2), GLI3(1), FZD4(1), MFAP4(1), SNRK(3), IL33(2), FAM65B(1), ARHGAP6(3), LOH3CR2A(3), GPRASP2(3), C1orf133(2), RSPO1(3), MID2(2), ABI3BP(2), NAP1L3(1), LDB2(2), MAMDC2(3), HSPA12B(3), WIT1(2), SCARF1(2), NKAPL(2), FEM1B(1), REM1(1), SH2D3C(1), CACNB2(3), STOM(1), MAF(1), KIAA0430(1), ZBTB4(1), RORA(1), MYADM(1), SRL(1), NOSTRIN(2), FAM175A(1), TSPAN18(1), FAM55C(1), KCTD7(1), JAM2(1), SLC45A1(1), PGCP(2), AKAP13(2), TCEAL1(1), ECM2(1), TIMP3(1), FLI1(1), GLI2(1), HRC(1), C1QTNF7(2), PDE10A(1), MEIS2(1), PAPPA(1), CALCOCO1(1), FGD5(1), CYYR1(1), NXPH3(1), PROS1(1), KCNJ8(1), TBXA2R(1), CCDC69(2), PCDHB18(1), JAZF1(1), FERMT2(1), TGFB1I1(1), NECAB1(1), SRF(1), C5orf4(1), RAMP1(2), HAAO(1), OLFML2A(1), TRPC1(1), TBX3(2), PALM2-AKAP2(1), C7orf58(1), PRX(1), CACNA1H(1), MRGPRF(1), OSTM1(1), EMCN(1), FRMD6(1), PDE7B(1), SMOC2(2), EBF1(1), ADCY4(1), COL15A1(1), MITF(1), MBNL1(1), ROBO4(1), AFAP1L1(1), EFHA2(1), ZNF208(1), RNF38(1), PDE5A(1), PTPN21(1), SH3D19(1), MDFIC(1), KIAA1614(1), CACNA1C(1), PCDHB15(1), TLN1(1), FYCO1(1), RFTN2(1)</t>
+          <t>C5orf53(1), SPARCL1(4), TACC1(4), SETD7(3), PALLD(2), LRCH1(5), ZAK(2), GAB1(2), MDFIC(3), KCNMA1(2), C1orf21(1), MEF2C(6), FLI1(3), KCTD12(1), C1orf133(1), UBL3(4), MAPK10(1), TMEM55A(1), ZNF521(1), SH3BGRL(2), PALM2-AKAP2(2), ITPKB(1), MBNL1(5), PJA2(6), TENC1(1), STAT5B(1), NRIP2(1), FEM1B(4), LSM11(1), RAB11FIP2(1), TMEM47(1), KCTD7(1), SYNE1(1), KLHDC1(1), C14orf28(1), CXorf36(1), KDR(1), SLCO2A1(1), TIMP3(1), MYCT1(1), C21orf34(1), DST(1), DIXDC1(1), FERMT2(1), NPTN(2), TIE1(1), TEK(2), SVIL(1), RHOJ(1), ASAM(1), SNRK(2), ZNF25(1), SOX7(1), ZEB1(2), GNG12(1)</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>226.0</v>
+        <v>55.0</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.6000351879177954</v>
+        <v>-0.6000161509610339</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.6964292418952693</v>
+        <v>-0.6806203419592877</v>
       </c>
       <c r="H59" t="n">
-        <v>664.0</v>
+        <v>101.0</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.6245875359201876</v>
+        <v>-0.6127548833909003</v>
       </c>
       <c r="J59" t="n">
-        <v>27.666666666666668</v>
+        <v>5.315789473684211</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>hsa-miR-769-3p</t>
+          <t>hsa-miR-17-5p</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>24.0</v>
+        <v>15.0</v>
       </c>
       <c r="C60" t="n">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ZAK(13), CXorf36(1), SAP30L(2), ARHGEF6(1), FLT4(3), LRRN4CL(2), GHR(2), EPM2A(1), TIMP2(3), MEF2C(5), SPARCL1(1), TACC1(3), SETD7(3), NDN(1), CYYR1(1), NXPH3(1), CLIC2(1), RFTN1(1), PPP1R12C(1), KANK3(2), KIAA1462(3), C16orf45(2), FGF2(4), TXNIP(1), AKT3(6), TENC1(2), MDFIC(3), SLC24A3(7), CBX7(1), PCDHGA6(2), STAT5B(4), ESAM(1), GRID1(1), JAM3(1), SCN3B(2), CRTAP(1), MEF2D(6), ZCCHC24(1), RHOJ(3), C5orf53(2), PJA2(1), GPRASP1(1), CALHM2(2), KCNMA1(1), GYPC(1), PEAR1(1), MAP3K3(1), DPYD(1), LIX1L(1), SCARF1(1), KCTD12(1), PROS1(1), FOXN3(1), CNRIP1(1), RASSF8(1), TIE1(1), ZDBF2(1), CEP68(1), KANK2(1), TCEAL7(1)</t>
+          <t>FLT4(10), C5orf53(8), UBL3(3), CNRIP1(8), C16orf45(5), ZAK(11), TENC1(9), SLC24A3(17), STAT5B(9), RHOJ(12), PPAPDC3(2), TIMP2(4), MEF2C(6), WHAMML1(1), MEF2D(3), LRRN4CL(6), SCARF1(2), PJA2(3), MEIS3(6), SH3BP5(2), TACC1(3), GPRASP2(2), PEAR1(1), APBB1(1), MID2(2), SH3BGRL(1), RFTN1(1), PABPC5(1), PMP22(2), PCDHGB7(2), KIAA1462(5), ZEB1(1), EHD2(2), ZCCHC24(3), HSPA12B(1), LIX1L(2), GNG12(1), C1orf133(3), ST5(1), INSR(1), TIE1(2), SHANK3(1), GYPC(2), GHR(1), FBXO31(3), RASSF8(3), C1orf70(1), AKT3(3), KLHDC1(1), PRDM8(3), KANK2(3), MAOB(5), SERINC1(1), TCEAL7(3), ZBTB4(1), GPR124(1), SYNE1(1), SAP30L(1), NOSTRIN(2), ANTXR2(2), SCN3B(1), NDN(1), EMILIN1(2), TGFB1I1(1), CLIP3(1), GNG11(1), MDFIC(2), TNFSF12(1), CCND2(1), PCDHGA3(1), BCAP29(1), SETD7(1), JAM3(1), CALHM2(1), FGF2(2), BNC2(1), VAMP3(1), SVIL(1), ASAM(1), IGFBP4(1), TBC1D1(1), DHH(1), ACVRL1(1), STOM(1), MAP3K3(1), PRKCA(1), ARHGEF15(1), ROBO4(1)</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>60.0</v>
+        <v>88.0</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.6000668469307402</v>
+        <v>-0.600129238212544</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.6602606233815811</v>
+        <v>-0.6934793067626164</v>
       </c>
       <c r="H60" t="n">
-        <v>122.0</v>
+        <v>234.0</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.6135353609015813</v>
+        <v>-0.6156414748133197</v>
       </c>
       <c r="J60" t="n">
-        <v>5.083333333333333</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>hsa-let-7d-3p</t>
+          <t>hsa-miR-93-3p</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>CXorf36(5), ARHGEF6(1), FLT4(2), ANTXR2(4), KDR(6), PTPRB(3), TIMP3(4), MEF2C(7), NEDD4(3), SPARCL1(5), FLI1(5), TMEM133(1), ENTPD1(5), SCN3B(2), DHH(2), TACC1(10), PDE10A(1), MYCT1(5), SH3BGRL(6), CLIC2(3), ABCB1(6), DIXDC1(4), EXOC3L2(1), MAPK10(1), KIAA1462(6), TIE1(10), FOXF1(1), CALHM2(2), ERG(3), PALM2-AKAP2(8), NRIP2(1), CLEC14A(3), AKT3(7), ZAK(14), CDH5(2), GPR116(4), TMEM204(2), TMEM55A(4), GIMAP4(2), KCNMA1(11), HEG1(3), CACNA1C(19), TEK(8), SVIL(10), STAT5B(16), ESAM(4), RHOJ(5), ASAM(5), ARHGAP31(5), TBC1D1(1), SNRK(3), IL33(2), FGF2(5), KCNQ4(1), GAB1(4), ITPKB(2), ANO6(1), PJA2(6), PRKCH(2), ELK3(9), GPRASP2(1), PDE7B(2), UBL3(3), LRCH1(5), JAM3(2), C1orf133(4), PHLDB2(9), TSPAN18(6), SLCO2A1(4), BMPR2(1), KLHL38(3), ITGA8(2), CD93(2), MMRN2(3), SHE(2), EPAS1(1), PPP1R12B(3), SPTBN1(2), CLIC4(2), AKAP2(3), ST5(4), LRRK2(1), CYYR1(3), SOX7(3), KRT222(3), RASSF8(1), NPTN(1), OLFML2A(4), PALLD(2), ZEB1(3), BNC2(2), MDFIC(3), KIAA1614(2), EMCN(3), PDE2A(2), ABCG2(3), TMEM200B(2), FRMD6(3), KIAA1644(2), MBNL1(2), FBXO32(2), RECK(2), SRL(1), STON1(1), GIMAP1(1), JAM2(1), ELTD1(1), AHNAK(1), C5orf53(1), PRNP(1), TIMP2(3), LRRC2(1), HSD17B6(1), DMD(1), GIMAP6(1), GPM6A(1), FAM65B(1), MICAL2(1), SYNPO(1), TRPC4(1), ERVFRDE1(1), DPYD(1), P2RY1(1), CDC42EP3(1), GIMAP8(1), SETD7(4), MEIS2(1), LMOD1(1), GULP1(1), PEAR1(1), C21orf34(1), RSPO1(1), MID2(1), NXPH3(1), PDE8B(1), PROS1(1), DSTN(1), FBLN5(1), TSPAN2(1), PGM5P2(1), HTR2B(1), C16orf45(1), ZBTB38(1), LDB2(1), TXNIP(1), CLIP3(1), PDLIM5(1), PGM5(1), LEPR(1), FHL1(1), DOCK4(1), RERG(1), ADAMTSL1(1), MASP1(1), MAMDC2(1), USP31(1), GNAL(1), CALD1(1), SLC24A3(2), GIMAP5(1), CBX7(1), DPP6(1), TMEM200A(1), OSTM1(1), PCDHGA6(1), GIMAP7(1), TNS1(1), S1PR1(1), MITF(1), ENPP2(1), GNG12(3), ST6GALNAC3(1), DFNA5(1), ROBO4(1), C5orf41(1), MEF2D(4), FGD5(1), TBL1X(1), FEM1B(1), ZNF521(1), PMP22(1)</t>
+          <t>ARHGEF6(3), TBC1D2B(1), FLT4(2), LRRN4CL(2), TSPAN18(1), SCARF1(2), ANTXR2(2), JAM3(1), TIMP2(2), MEF2C(3), SPARCL1(2), MEIS3(1), DPYD(3), TACC1(3), TGFBR3(1), MEIS2(1), CLIC2(3), DIXDC1(1), PMP22(2), CNRIP1(2), STOM(3), CALHM2(2), C16orf45(1), C10orf54(1), FGF2(2), AKT3(3), ZAK(2), A2M(1), ZEB1(2), PRDM8(1), BNC2(2), MAMDC2(1), GNAL(1), SLC24A3(3), CBX7(1), ZCCHC24(1), MAOB(1), STAT5B(4), ADCY2(1), RHOJ(1), ASAM(1), MYADM(2), ARHGAP31(2), CRTAP(1), LIX1L(1), MEF2D(1), MAN1C1(1), C5orf53(1), ANO6(2), ARHGAP6(1), SETD7(1), MDFIC(1), GNG12(1), MICAL2(1), PEAR1(1), KIAA1462(1), TMEM55A(1)</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>181.0</v>
+        <v>57.0</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.6000099664179507</v>
+        <v>-0.6004771050123815</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.6932057351013823</v>
+        <v>-0.6447242611658668</v>
       </c>
       <c r="H61" t="n">
-        <v>486.0</v>
+        <v>92.0</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.6201149393183014</v>
+        <v>-0.6144380858808364</v>
       </c>
       <c r="J61" t="n">
-        <v>24.3</v>
+        <v>6.133333333333334</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>hsa-miR-342-5p</t>
+          <t>hsa-miR-130b-3p</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>20.0</v>
+        <v>14.0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ERVFRDE1(3), TACC1(12), FGF2(8), GNAL(7), KCNMA1(5), SVIL(8), FBXO32(10), ANTXR2(5), ANO6(13), PJA2(7), DIXDC1(3), PGM5P2(3), AKT3(8), GAB1(4), STAT5B(4), ZAK(6), MICAL2(2), SH3BP5(2), MEF2D(5), BNC2(7), EPAS1(3), ARHGAP31(4), PHLDB2(7), SERINC1(1), GNG12(3), AHNAK(1), C5orf53(2), MEF2C(2), IL33(1), SPARCL1(4), SETD7(2), UBL3(1), MID2(2), PCDHGB7(1), PALLD(1), LRCH1(1), PDLIM5(1), GPR116(1), CALD1(2), TSPAN18(1), JAM2(1), MMRN2(2), SHE(1), MYCT1(1), PPP1R12B(2), CLIC2(1), PROS1(1), SOX7(1), TBL1X(2), KLHL10(1), STOM(3), KIAA1462(3), TIE1(1), C16orf45(1), OLFML2A(2), FRY(1), TXNIP(2), RERG(2), MDFIC(2), MAMDC2(2), CBX7(1), EMCN(2), TEK(2), PCDHGA6(2), ASAM(2), PDE10A(1), NPTN(1), ZNF483(1), LPCAT2(1), JAM3(1), TIMP3(1), ITGA8(1), ITPR1(1), AKAP2(1), TSPAN2(1), ADAMTSL1(1), FRMD6(1), RECK(1), ZBTB4(1)</t>
+          <t>STAT5B(6), SAP30L(3), ARHGEF6(1), TBC1D2B(1), SCARF1(1), GHR(1), KCTD7(2), JAM3(1), TIMP2(2), MEF2C(2), DPYD(1), SSPN(1), TACC1(2), MEIS2(1), GPRASP2(1), ST5(1), MID2(2), SH3BGRL(1), RASSF8(1), CALHM2(1), ADD1(1), TXNIP(2), AKT3(3), BNC2(2), MDFIC(1), SLC24A3(2), CBX7(2), PCDHB4(1), FEZ2(1), RHOJ(3), PJA2(2), PCDHGA3(1), SVIL(1), GLT8D2(1), CCND2(1), MBNL2(1), FEM1B(1), ARHGAP6(1), GPRASP1(1), C1orf133(1), ZNF25(1), DIXDC1(1), KIAA1462(1), CRTAP(1), C16orf45(1), LRCH1(1), ZAK(2), PRDM8(1), MAOB(1), PCDHGA6(1), LIX1L(1), ANKRD29(1), MEF2D(1), KLHDC1(2)</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.6000398676882214</v>
+        <v>-0.6003256184151264</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.6832343388210912</v>
+        <v>-0.6487008682891446</v>
       </c>
       <c r="H62" t="n">
-        <v>218.0</v>
+        <v>77.0</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.6153375673305901</v>
+        <v>-0.6137668534856482</v>
       </c>
       <c r="J62" t="n">
-        <v>10.9</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>hsa-miR-425-5p</t>
+          <t>hsa-miR-151a-3p</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>19.0</v>
+        <v>14.0</v>
       </c>
       <c r="C63" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>STAT5B(2), UBL3(1), TIMP2(1), WT1(1), APBB1(1), C16orf45(1), MEF2D(1), PRKCA(1), AKT3(1), ZAK(2), SLC24A3(3), KANK2(1), SETBP1(1), MAF(1), ZBTB4(1)</t>
+          <t>SETD7(5), UBL3(7), C21orf34(2), FGF2(4), ZAK(13), ZEB1(6), TMEM55A(4), RHOJ(6), STAT5B(10), KLHDC1(5), FEM1B(1), BMPR2(1), MDFIC(5), MEF2C(7), KIAA1462(6), SLC24A3(4), TBC1D2B(1), FLT4(6), LRRN4CL(3), C5orf53(3), PPAPDC3(1), TIMP3(2), FLI1(2), MEIS3(2), LOH3CR2A(3), KCTD12(2), GPRASP1(3), MYCT1(2), TSHZ3(3), GPRASP2(3), ST5(2), FAM198B(3), RSPO1(2), CLIC2(5), SYNE1(1), PABPC5(3), DIXDC1(2), SH2D3C(1), CNRIP1(4), RASSF8(3), NAP1L3(1), TIE1(1), C16orf45(3), LDB2(3), FKBP7(3), AKT3(2), CLIP3(2), AXL(1), CACNA1C(2), PCDHB15(2), KANK2(2), PCDHB4(2), ZCCHC24(2), TEK(4), MAOB(1), HSPA12B(3), LIX1L(3), ADCY2(2), TCEAL7(5), ASAM(5), ZEB2(1), GPR124(3), CDK17(1), GLT8D2(1), PCDHGA5(2), PRNP(1), MBNL2(2), TIMP2(2), NEDD4(1), RAB8B(2), TACC1(3), RNF38(1), SH3BGRL(4), RFTN1(1), PMP22(1), PCDHGB7(1), NPTN(1), NECAB1(1), CRTAP(1), CALHM2(1), OLFML2A(3), ZBTB38(4), PCDHGA11(1), MEF2D(1), PRDM8(1), TMEM200A(2), OSBPL1A(1), MITF(2), PJA2(1), BCAP29(1), SEPT7(1), ZNF25(2), WHAMML1(1), MID2(2), DCHS1(1), EZH1(1), MBNL1(2), FAM175A(1), ANTXR2(1), GHR(1), GLI3(1), JAM3(1), SPARCL1(1), C1QTNF7(1), HOXD10(1), PURG(1), PCDHGA2(1), CDO1(1), PEAR1(2), APBB1(1), INPP5A(1), PCDHB18(2), TMEM47(1), TRPC1(1), FBXL3(1), ANKRD29(2), TBX3(1), ADARB1(1), C1orf70(1), DENND2A(1), FREM1(1), ARHGEF15(2), CYP2U1(1), PCDHGA3(1), CEP68(1), ABCG2(1), PCDHGA6(2), FRMD6(1), TMEM88(1), KIAA1644(1), KATNAL1(1), C1orf21(1), DPYD(1), KIAA1614(1)</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>15.0</v>
+        <v>134.0</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.6000093761238601</v>
+        <v>-0.6001913754561669</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.6438681434246306</v>
+        <v>-0.6812817514588568</v>
       </c>
       <c r="H63" t="n">
-        <v>19.0</v>
+        <v>297.0</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.6138242581806629</v>
+        <v>-0.6189961241596309</v>
       </c>
       <c r="J63" t="n">
-        <v>1.0</v>
+        <v>21.214285714285715</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>hsa-miR-17-3p</t>
+          <t>hsa-miR-425-3p</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>MBTPS1(1), FLT4(11), C5orf53(1), MEF2C(1), PDE5A(1), KIAA1462(1), TIE1(2), RAMP1(1), FGF2(1), A2M(1), SLC24A3(9), STAT5B(2), RHOJ(7), ROBO4(1), MEIS3(5), C1orf133(1), ACVRL1(1), CCND2(1), TACC1(2), ANKRD29(1), ZAK(2), EHD2(1), MDFIC(1), ST5(1), SCARF1(1), SETD7(1), RFTN1(1), CDH5(1), MYADM(1)</t>
+          <t>MEIS3(1), RFTN1(1), STAT5B(6), SAP30L(1), FLT4(3), JAM3(2), MEF2C(2), DPYD(3), MEIS2(1), CLIC2(1), CNRIP1(1), C16orf45(2), ANKRD29(2), AKT3(1), CLIP3(1), ZEB1(1), PRDM8(1), MDFIC(1), SLC24A3(4), KANK2(2), PCDHB4(1), ZCCHC24(1), RHOJ(2), PROS1(1), KIAA1462(2), MEF2D(1), CCND2(1), C1orf133(1), CALHM2(1), ZAK(1), UBL3(1)</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.6007351066453307</v>
+        <v>-0.6001782889883782</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.6688898621582365</v>
+        <v>-0.6600856236485565</v>
       </c>
       <c r="H64" t="n">
-        <v>61.0</v>
+        <v>50.0</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.6163441863914281</v>
+        <v>-0.6127056801820228</v>
       </c>
       <c r="J64" t="n">
-        <v>3.388888888888889</v>
+        <v>3.5714285714285716</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>hsa-miR-769-5p</t>
+          <t>hsa-miR-17-3p</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>MDFIC(2), FLT4(8), STAT5B(7), RFTN1(2), ZAK(6), RHOJ(7), MEIS3(4), SETD7(7), CLIP3(3), SLC24A3(6), ASAM(5), UBL3(2), SCARF1(4), ERVFRDE1(2), TACC1(5), KIAA1462(5), AKT3(4), MITF(4), TSPAN18(3), SCN3B(1), TIE1(5), FGF2(4), GRINL1A(1), ANO6(1), TIMP2(3), PJA2(2), TIMP3(2), MEF2C(4), SNRK(1), CLIC2(3), DCHS1(2), TBL1X(2), PCDHGB7(1), C16orf45(4), TXNIP(2), ZEB1(3), GPR116(3), TMEM55A(4), KANK2(3), ZCCHC24(2), HSPA12B(1), SVIL(2), PLAT(1), ARHGAP31(3), GNG12(1), C5orf53(1), FLI1(3), SHE(1), MYCT1(3), FGD5(1), CYYR1(1), STOM(1), CDH5(1), A2M(1), HEG1(1), PCDHB4(1), TEK(3), PCDHGA6(1), ESAM(1), MAP3K3(1), MEF2D(1), NOSTRIN(1), LRRN4CL(2), AFAP1L1(1), ANTXR2(2), ZDHHC14(1), SPARCL1(2), C1orf133(2), ST5(1), PEAR1(2), APBB1(1), PROS1(2), TBXA2R(1), SH2D3C(1), CNRIP1(2), KANK3(1), RAMP1(1), CALHM2(2), HTR2B(2), OLFML2A(2), PRDM8(1), TMEM204(2), GIMAP4(1), KCNMA1(2), TMEM200A(2), TMEM200B(1), TNXB(2), CLEC2B(1), SMOC2(2), TCEAL7(2), ZBTB4(1), ROBO4(1), SHANK3(1), CXorf36(1), KDR(1), JAM3(1), MFAP4(1), DPYD(1), KCTD12(1), DACT3(1), LMOD1(1), RSPO1(1), MID2(1), SH3BGRL(1), DIXDC1(1), PMP22(1), RASSF8(1), ZDBF2(1), TENC1(1), CALD1(1), CACNA1C(1), LRCH2(1), KATNAL1(1), GRID1(1)</t>
+          <t>FLT4(6), SLC24A3(7), TIE1(2), MEIS3(1), EHD2(1), RHOJ(2), CXorf36(1), TSPAN18(1), GHR(1), TACC1(1), SETD7(1), PEAR1(1), ACVRL1(1), KIAA1462(1), ZAK(1), GPR116(1), PRDM8(1), ARHGEF15(1), MDFIC(1), HGF(1), STAT5B(1), ESAM(1), MYADM(1), ROBO4(1), TNFSF12(1), KIAA1614(1)</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>114.0</v>
+        <v>26.0</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.6000085331174136</v>
+        <v>-0.6001676240591597</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.6670008069825996</v>
+        <v>-0.6774478537728021</v>
       </c>
       <c r="H65" t="n">
-        <v>238.0</v>
+        <v>39.0</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.6167697117137685</v>
+        <v>-0.6195000566702145</v>
       </c>
       <c r="J65" t="n">
-        <v>14.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>hsa-miR-210</t>
+          <t>hsa-miR-3605-3p</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>FLT4(10), SLC24A3(14), HSPA12B(4), RHOJ(8), SAP30L(4), RFTN1(4), LRRN4CL(3), JAM3(3), MEF2C(3), CNRIP1(6), C1orf21(1), GYPC(4), TIMP2(1), NDN(1), CDO1(1), AKT3(1), CLIP3(4), LTBP4(5), MDFIC(2), STAT5B(5), TCEAL7(4), UBL3(1), APBB1(4), MEIS3(2), C21orf34(3), CALHM2(3), TENC1(2), MAP3K3(1), C16orf45(3), AXL(1), PCDHB18(1), ARHGEF15(2), KANK2(2), PLAT(1), EFHA2(1), TBL1X(1), ANKRD29(1), FGF2(1), C1orf70(2), ZAK(2), PCDHB4(2), CCDC48(1), N4BP2L1(1), TSPAN18(1), GLI3(1), CCND2(1), SCN3B(1), ARHGAP6(1), KCTD12(1), RGMA(1), GPRASP1(1), WT1(1), GPRASP2(1), PEAR1(1), RSPO1(1), CLIC2(1), PABPC5(1), DCHS1(1), ABI3BP(1), DIXDC1(1), PMP22(1), KANK3(1), KIAA1462(1), C5orf4(1), HAAO(1), TRPC1(1), ZEB1(1), PRDM8(1), PCDHB15(1), ZCCHC24(1), TNXB(1), ADCY2(1), KATNAL1(1), GPR124(1)</t>
+          <t>UBL3(2), STAT5B(1), MBNL1(2), TACC1(4), STOM(1), MDFIC(1), KCNMA1(3), GIMAP4(1), PJA2(1), SPARCL1(1), PPP1R12B(1), NPTN(1), SVIL(1), OSTM1(1)</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>74.0</v>
+        <v>14.0</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.600091909874278</v>
+        <v>-0.6004568464361549</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6824555102810799</v>
+        <v>-0.6322285137478885</v>
       </c>
       <c r="H66" t="n">
-        <v>157.0</v>
+        <v>21.0</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.616531510848496</v>
+        <v>-0.6107390910946239</v>
       </c>
       <c r="J66" t="n">
-        <v>9.8125</v>
+        <v>1.6153846153846154</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>hsa-miR-7-1-3p</t>
+          <t>hsa-miR-769-5p</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
       <c r="C67" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PJA2(1), SH3BP5(1), C21orf34(1), CEP68(1), STAT5B(2), FERMT2(1), TACC1(2), C1orf133(1), CRTAP(1), ADARB1(1), SAP30L(1), PCDHGB7(1), PGM5P2(1), AKT3(1), SVIL(1)</t>
+          <t>UBL3(3), CXorf36(2), ANTXR2(2), MEF2C(5), SPARCL1(2), FLI1(3), TACC1(4), MYCT1(3), SETD7(4), CLIC2(3), PTRF(1), CNRIP1(2), KIAA1462(4), TIE1(3), C16orf45(3), MEF2D(3), TXNIP(1), AKT3(3), ZAK(5), ZEB1(4), SLC24A3(6), TEK(4), TNXB(1), TCEAL7(3), RHOJ(7), MITF(3), GRID1(1), ARHGEF6(1), FLT4(3), LRRN4CL(1), PCDHGA5(1), PRNP(1), TIMP2(1), NEDD4(1), MEIS3(3), ERVFRDE1(3), LRRK2(1), CYYR1(1), SH3BGRL(1), PROS1(1), RFTN1(1), PMP22(2), SH2D3C(1), RASSF8(2), CRTAP(1), FBLN5(1), CALHM2(1), JPH4(1), OLFML2A(3), FKBP7(1), GPR116(2), TMEM204(2), TENC1(2), TMEM55A(3), MDFIC(2), GIMAP4(1), TMEM200A(1), ZCCHC24(1), HSPA12B(2), STAT5B(4), ASAM(2), FGF2(3), KANK2(1), PDE7B(1), FGD5(1), KDR(1), JAM3(1), ANO6(1), TBC1D1(1), TIMP3(1), LOH3CR2A(1), ELK3(1), DIXDC1(1), KANK3(1), TMEM109(1), PGM5P2(1), HTR2B(1), PALLD(1), KIAA1614(1), CACNA1C(1), TMEM200B(1), FRMD6(1), SVIL(1), KIAA1644(1), SCARF1(1), MAP3K3(1), DPYD(1), SHE(1), PEAR1(1), TBL1X(1), CLEC14A(1), CLIP3(1), PCDHGA6(1)</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>15.0</v>
+        <v>93.0</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.6005939210118747</v>
+        <v>-0.6001303249054931</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6414357832525922</v>
+        <v>-0.6895943383132854</v>
       </c>
       <c r="H67" t="n">
-        <v>17.0</v>
+        <v>174.0</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.6148350244733772</v>
+        <v>-0.6174486068006347</v>
       </c>
       <c r="J67" t="n">
-        <v>1.0625</v>
+        <v>15.818181818181818</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>hsa-miR-21-3p</t>
+          <t>hsa-miR-197-3p</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="C68" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ANKRD29(2), ZAK(1), STAT5B(1), KLHDC1(2), WHAMML1(1), C21orf34(1), KANK2(1), C1orf21(1), ZNF25(1), CALHM2(1), SLC24A3(1)</t>
+          <t>SCARF1(3), STOM(3), MEF2D(2), STAT5B(25), TACC1(13), SETD7(11), FGF2(11), ZAK(14), ZEB1(9), CACNA1C(12), PCDHGA6(9), RHOJ(11), ASAM(14), CXorf36(5), NOSTRIN(1), FLT4(10), ANTXR2(8), JAM2(1), TIMP2(3), GUCY1A3(1), MEF2C(9), SPARCL1(8), FLI1(2), PRKCH(1), DPYD(3), MYCT1(6), CLIC4(3), PEAR1(5), SH3BGRL(4), CLIC2(6), SOX7(3), SH2D3C(1), CNRIP1(2), HEPH(2), KIAA1462(10), TIE1(5), C16orf45(4), PALLD(3), ANKRD29(2), ERG(3), TXNIP(4), AKT3(8), STARD13(1), KLHDC1(2), GPR116(3), PRDM8(5), TMEM204(2), TMEM55A(3), ARHGEF15(4), MDFIC(7), KCNMA1(7), SLC24A3(8), TMEM200A(4), KANK2(4), TMEM200B(3), TEK(9), SVIL(7), TCEAL7(4), MBNL1(2), ARHGAP31(4), GNG12(2), ST6GALNAC3(1), PJA2(7), MEIS3(5), GPRASP2(2), PCDHGB7(2), KIAA1614(1), ARHGEF6(2), NEDD4(5), SAP30L(2), UBL3(5), LRCH1(4), LIX1L(3), ANO6(3), TIMP3(5), MICAL2(2), DIXDC1(5), CALHM2(3), OLFML2A(5), PALM2-AKAP2(2), BNC2(5), CALD1(3), FRMD6(4), ESAM(2), TBC1D2B(1), LRRN4CL(1), TBC1D1(2), KCTD12(1), SH3BP5(1), GPRASP1(1), TSHZ3(1), PCDHGA2(1), SYNE1(1), KCNJ8(1), PABPC5(1), FOXN3(1), TBL1X(3), RASSF8(3), PDE5A(1), LDB2(2), PCDHB15(2), PCDHB4(2), ZCCHC24(1), MAOB(2), KIAA1644(3), NBL1(1), ADCY2(1), ZEB2(1), MYADM(1), GPR124(1), PCDHB18(1), JAM3(2), KANK3(2), TSPAN18(2), KDR(1), RAB31(1), PCDHGA5(1), HSD17B6(1), SNRK(3), ELK3(2), SHE(1), PPP1R12B(2), AKAP2(2), ST5(2), APBB1(1), FERMT2(1), PGM5P2(2), CLIP3(1), KATNAL1(1), MITF(2), FEM1B(1), DMD(1), ZNF521(1), ARHGAP6(1), PDE10A(1), SSC5D(1), MAPK10(1), ZBTB38(1), FBXL3(1), GAB1(2), ITPKB(1), CEP68(1), EMCN(1), ABCG2(1), ROBO4(1), SLCO2A1(1), SPTBN1(1), PMP22(1), C5orf53(1), FYCO1(1)</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>11.0</v>
+        <v>150.0</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.6001955339056034</v>
+        <v>-0.6000313413348316</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6225592412963084</v>
+        <v>-0.69852907396572</v>
       </c>
       <c r="H68" t="n">
-        <v>13.0</v>
+        <v>508.0</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.6073291018122902</v>
+        <v>-0.6185773214854628</v>
       </c>
       <c r="J68" t="n">
-        <v>0.8666666666666667</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>hsa-miR-24-1-5p</t>
+          <t>hsa-miR-24-2-5p</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>FLAD1(2), TMEM63B(5), RPN2(1), PSMA5(1), HSPA4(3), EFNA4(1), AURKA(1), ILF2(3), MCM10(1), TPX2(1), TUFT1(3), BUB1(1), ZNF695(1), FAM110A(1), CASP6(2), HDGF(1), STIP1(1), BMS1(1), DBNDD1(1)</t>
+          <t>SAP30L(1), ADD1(1), STAT5B(2), ZAK(1)</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>19.0</v>
+        <v>4.0</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6000826273265909</v>
+        <v>-0.6029598548017477</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.689112995051397</v>
+        <v>-0.6210995027422729</v>
       </c>
       <c r="H69" t="n">
-        <v>31.0</v>
+        <v>5.0</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.6213275801857401</v>
+        <v>-0.6095764523398166</v>
       </c>
       <c r="J69" t="n">
-        <v>2.066666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>hsa-miR-93-3p</t>
+          <t>hsa-miR-324-3p</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>CRTAP(1), FLT4(2), LRRN4CL(1), TSPAN18(1), ANTXR2(1), C5orf53(1), TIMP2(1), MEF2C(2), DPYD(1), TACC1(1), ST5(2), PEAR1(1), PROS1(1), CNRIP1(1), KIAA1462(1), FBLN5(1), CALHM2(1), C16orf45(1), AKT3(3), CLIP3(1), LTBP4(1), TENC1(1), SLC24A3(2), SGCE(1), CBX7(1), MAOB(1), PDE7B(1), STAT5B(2), RHOJ(1), DFNA5(1), ZAK(1), LIX1L(1), ZBTB4(1)</t>
+          <t>CCND2(1), PPAPDC3(1), PRNP(1), TIMP2(1), TBC1D1(1), MEF2C(1), PEAR1(1), CLIC2(1), CNRIP1(1), STOM(1), KIAA1462(1), CALHM2(1), FGF2(1), ZAK(1), USP31(1), SLC24A3(1), TCEAL7(1), RHOJ(1), SYNE1(1), MDFIC(1), NBL1(1), LRRN4CL(1), CRTAP(1), SAP30L(1)</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>33.0</v>
+        <v>24.0</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6005046733579359</v>
+        <v>-0.6001735345748141</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6334625580007107</v>
+        <v>-0.641722320226168</v>
       </c>
       <c r="H70" t="n">
-        <v>40.0</v>
+        <v>24.0</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.6108235125466536</v>
+        <v>-0.6137617568806201</v>
       </c>
       <c r="J70" t="n">
-        <v>3.6363636363636362</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>hsa-miR-181a-5p</t>
+          <t>hsa-miR-652-3p</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2611,32 +2611,32 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ZAK(1), PPP1R12C(1), STAT5B(1), FLT4(1), C16orf45(1), SLC24A3(1)</t>
+          <t>RHOJ(4), FLT4(4), MEF2C(2), CLIC2(2), PMP22(1), KIAA1462(1), ZEB1(2), KIAA1614(1), SLC24A3(5), KANK2(1), TCEAL7(1), ARHGAP31(1), MDFIC(4), SAP30L(1), STAT5B(3), TIE1(2), MEIS3(2), TACC1(1), SETD7(1), CALHM2(1), HSPA12B(1), PEAR1(1), ACVRL1(1), CNRIP1(1), STOM(1), A2M(1), AKNA(1), TMEM55A(1), ARHGEF15(1), ESAM(1), ROBO4(1)</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6.0</v>
+        <v>31.0</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6026766110483881</v>
+        <v>-0.6004064909708056</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6165201981110814</v>
+        <v>-0.6372392496866679</v>
       </c>
       <c r="H71" t="n">
-        <v>6.0</v>
+        <v>51.0</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.6059003475682125</v>
+        <v>-0.6093568846630664</v>
       </c>
       <c r="J71" t="n">
-        <v>0.6</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>hsa-miR-23a-3p</t>
+          <t>hsa-miR-99a-5p</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2647,68 +2647,68 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>STAT5B(1), UBL3(1)</t>
+          <t>FAM49B(1), UCK2(1), TMEM63B(2), FAM110A(1), MFSD9(1), PGK1(1), TUBA1C(2), CCNF(1), HSPA4(1), TMEM8A(1)</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.6140157184131373</v>
+        <v>-0.600044178065665</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6168598868938606</v>
+        <v>-0.6278851680909753</v>
       </c>
       <c r="H72" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.615437802653499</v>
+        <v>-0.6115048133269944</v>
       </c>
       <c r="J72" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>hsa-miR-340-3p</t>
+          <t>hsa-miR-20a-5p</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>C5orf53(1), THRA(1), UBL3(1), FGF2(4), C16orf45(1), TMEM55A(1), STAT5B(3), DPYD(2), SH3D19(1), PCDHGB7(1), CALHM2(1), PRKCA(1), ZAK(1), SLC24A3(3), PCDHGA6(1), SVIL(2), C1orf21(1), SAP30L(2)</t>
+          <t>FLT4(7), CNRIP1(4), SLC24A3(7), TIMP2(2), ACVRL1(1), TIE1(1), C16orf45(2), TENC1(3), KANK2(3), RHOJ(5), SHANK3(1), GYPC(2), MEIS3(3), C1orf70(1), CLIP3(2), ZCCHC24(2), MAOB(2), ZBTB4(1), GPR124(2), FBXO31(1), C5orf53(1), LRRN4CL(1), SCN3B(1), NDN(1), EMILIN1(1), PMP22(1), TGFB1I1(1), AKT3(1), PRDM8(2), EHD2(1), MDFIC(1), SCARF1(1), MAP3K3(1)</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>18.0</v>
+        <v>33.0</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.6022387153878986</v>
+        <v>-0.6002540899224543</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6390045601275007</v>
+        <v>-0.6570827175204713</v>
       </c>
       <c r="H73" t="n">
-        <v>28.0</v>
+        <v>66.0</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.6109005764935395</v>
+        <v>-0.6127005807026866</v>
       </c>
       <c r="J73" t="n">
-        <v>2.8</v>
+        <v>7.333333333333333</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>hsa-miR-20a-5p</t>
+          <t>hsa-miR-340-5p</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -2719,32 +2719,32 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>FLT4(4), C5orf53(1), MEF2D(1), SLC24A3(6), RHOJ(4), GYPC(2), CCND2(1), ST5(1), MID2(1), CNRIP1(2), CLIP3(1), ZAK(2), TENC1(1), AKT3(1), STAT5B(1), IGFBP4(1), C1orf70(1), UBL3(1)</t>
+          <t>ZFYVE20(1), MAP3K3(1), STAT5B(3), NDN(1), CNRIP1(1), PRDM8(2), SLC24A3(2), KANK2(2), HSPA12B(1), MBTPS1(1), ANO6(1), FEM1B(1), GPRASP2(1), ZNF25(1), APBB1(1), KIAA1462(1), LRCH1(1), FGF2(1), VAMP3(1), PCDHGB6(1)</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.6001695934371083</v>
+        <v>-0.6006269990775662</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6497869448360258</v>
+        <v>-0.6393734289673453</v>
       </c>
       <c r="H74" t="n">
-        <v>32.0</v>
+        <v>25.0</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.6115240737959878</v>
+        <v>-0.6123151757589659</v>
       </c>
       <c r="J74" t="n">
-        <v>3.5555555555555554</v>
+        <v>2.7777777777777777</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>hsa-miR-19a-3p</t>
+          <t>hsa-miR-21-3p</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -2755,314 +2755,494 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>FLT4(10), SLC24A3(6), PCDHB4(1), FGD5(1), RHOJ(2), SCARF1(1), TBC1D1(1), MEIS3(1), SOX7(1), TBL1X(1), KIAA1462(1), TMEM204(1), KANK2(1), SVIL(1), STAT5B(1), GRID1(1)</t>
+          <t>SAP30L(3), PGCP(2), SH3BGRL(1), CNRIP1(2), ANKRD29(1), KLHDC1(1), C1orf21(3), BCL2(1), KIAA1614(2), POU6F1(1), ZAK(2), EPM2A(2), APBB1(1), CXorf36(1), N4BP2L1(1), FLT4(1), GYPC(1), LRRN4CL(1), FAM175A(1), ANTXR2(1), GHR(1), KCTD7(1), GLT8D2(1), JAM3(1), TCEAL1(1), PPAPDC3(1), NKAPL(1), PER3(1), MBNL2(1), TIMP2(1), TBC1D1(1), TIMP3(1), MEF2C(1), DMD(1), SPARCL1(1), ARHGAP6(1), C1QTNF7(1), LOH3CR2A(1), DPYD(1), SSPN(1), TACC1(1), LOC134466(1), GPRASP1(1), MYCT1(1), THRA(1), TGFBR3(1), TEF(1), HAND2(1), TSHZ3(1), PCDHGA2(1), NEURL1B(1), GPRASP2(1), ST5(1), PEAR1(1), RSPO1(1), NXPH3(1), TUB(1), CLIC2(1), KCNJ8(1), PABPC5(1), EMILIN1(1), DIXDC1(1), PMP22(1), JAZF1(1), PCDHGB7(1), FEZ1(1), RASSF8(1), KANK3(1), CACNB2(1), RAPGEF4(1), PDE5A(1), KIAA1462(1), TMEM109(1), C5orf4(1), OSR2(1), C16orf45(1), OLFML2A(1), TRPC1(1), LDB2(1), C7orf58(1), C1orf70(1), TXNIP(1), AKT3(1), CLIP3(1), LTBP4(1), ZEB1(1), GNG11(1), BNC2(1), TENC1(1), CASP12(1), MXI1(1), MAMDC2(1), KCNMA1(1), SLC24A3(1), PCDHGA3(1), LOC144571(1), CBX7(1), NFASC(1), EZH1(1), ABCG2(1), CYP1B1(1), ZCCHC24(1), PCDHGA6(1), HSPA12B(1), MAN1C1(1), PDE7B(1), STAT5B(1), LOC728392(1), ANXA6(1), CD302(1), TCEAL7(1), FAM13C(1), RHOJ(1), ASAM(1), ZEB2(1), GRID1(1), GPR124(1), RECK(1), CEP68(1)</t>
         </is>
       </c>
       <c r="E75" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.6002664252993843</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-0.6898088076032495</v>
+      </c>
+      <c r="H75" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-0.6250361417756198</v>
+      </c>
+      <c r="J75" t="n">
         <v>16.0</v>
-      </c>
-      <c r="F75" t="n">
-        <v>-0.6000225168281871</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-0.6641764121263004</v>
-      </c>
-      <c r="H75" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>-0.6138351712151314</v>
-      </c>
-      <c r="J75" t="n">
-        <v>3.875</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>hsa-let-7e-5p</t>
+          <t>hsa-miR-210</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="C76" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>PJA2(1), GPRASP2(1), ZAK(4), KLHDC1(1), PCDHB12(1), FLT4(4), JAM3(1), CLIC2(2), CNRIP1(3), PCDHGA7(1), FGF2(4), TCEAL7(3), RHOJ(3), PEAR1(2), KIAA1462(1), ERG(2), SLC24A3(3), ARHGAP31(1), SOX7(1), C5orf53(1), MEF2D(1), STAT5B(3), FLI1(1), DPYD(1), SETD7(1), SH3BGRL(1), KRT222(1), OLFML2A(1), TXNIP(1), GPR116(1), MDFIC(1), PPP6C(1), TMEM200A(1), MBNL1(1)</t>
+          <t>SHANK3(2), FLT4(9), WHAMML1(1), APBB1(4), CNRIP1(5), TRPC1(2), CLIP3(3), LTBP4(3), SLC24A3(10), STAT5B(4), RHOJ(9), GYPC(2), MEIS3(3), RFTN1(1), TENC1(3), EHD2(1), KANK2(1), HSPA12B(2), MXRA7(1), SAP30L(3), LRRN4CL(3), TIMP2(3), MEF2C(5), SSPN(2), CDO1(2), UBL3(1), CLIC2(3), C14orf28(1), TCEAL7(4), GPR124(2), INSR(1), JAM3(2), PPAPDC3(2), RGMA(1), ZNF25(1), C16orf45(2), ZAK(2), ARHGEF15(2), ZCCHC24(2), LIX1L(2), CCND2(1), CALHM2(3), C1orf70(2), CXorf36(1), N4BP2L1(1), TBC1D2B(1), AFAP1L1(1), TSPAN18(1), GHR(1), GIMAP1(1), POU6F1(1), JAM2(1), SLC45A1(1), GLT8D2(1), FBN1(1), PCDHGA5(1), NKAPL(1), ACACB(1), TBC1D1(1), TIMP3(1), DMD(1), RASGRP2(1), SNRK(1), TCF4(1), SPARCL1(1), FLI1(1), CBFA2T3(1), GLI2(1), GNG7(1), ARHGAP6(1), C1QTNF7(1), TACC1(1), DACT3(1), GPRASP1(1), PDE10A(1), ATP1B2(1), MYCT1(1), THRA(1), TGFBR3(1), OLFML1(1), TSHZ3(1), PCDHGA2(1), MARVELD1(1), GPRASP2(1), PEAR1(1), PHYHIP(1), C21orf34(1), RSPO1(1), CYYR1(1), NXPH3(1), TUB(1), KCNJ8(1), DIRAS1(1), PABPC5(1), EMILIN1(1), SOX15(1), DCHS1(1), FOXN3(1), ABI3BP(1), DIXDC1(1), SH2D3C(1), RASSF8(1), KANK3(1), CACNB2(1), PDE5A(1), KIAA1462(1), C10orf72(1), CRTAP(1), TIE1(1), C5orf4(1), RAMP1(1), OSR2(1), OLFML2A(1), LDB2(1), ANKRD29(1), TBX3(1), ADARB1(1), C7orf58(1), LRCH1(1), PRX(1), FGF2(1), NAP1L2(1), AKT3(1), ZEB1(1), GNG11(1), RASL12(1), CRISPLD2(1), PRDM8(1), AKNA(1), GEFT(1), BNC2(1), TMEM204(1), KIAA1614(1), MAMDC2(1), PCDHGA3(1), CBX7(1), CEP68(1), CACNA1H(1), CACNA1C(1), ENPEP(1), MRGPRF(1), FYCO1(1), EZH1(1), CYP1B1(1), TMEM200B(1), TEK(1), CCDC36(1), TNXB(1), MAOB(1), PCDHGA6(1), GNAO1(1), SVIL(1), MAN1C1(1), LOC728392(1), LOC283856(1), KATNAL1(1), ASAM(1), RASA4(1), ZEB2(1), GRID1(1), ROBO4(1), RECK(1)</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>34.0</v>
+        <v>162.0</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.6001345735835214</v>
+        <v>-0.6005210323626219</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6532316283837264</v>
+        <v>-0.6960820964002904</v>
       </c>
       <c r="H76" t="n">
-        <v>56.0</v>
+        <v>237.0</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.6134536651261262</v>
+        <v>-0.62332062970585</v>
       </c>
       <c r="J76" t="n">
-        <v>14.0</v>
+        <v>29.625</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>hsa-miR-652-3p</t>
+          <t>hsa-miR-330-5p</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ZBTB4(2), FLT4(3), LRRN4CL(1), TSPAN18(1), RAB31(1), GLT8D2(1), JAM3(1), CCND2(1), PPAPDC3(1), TIMP2(1), TIMP3(1), MEF2C(3), TCF4(1), SPARCL1(1), FLI1(2), MEIS3(2), LOH3CR2A(1), DPYD(1), REM1(1), SSPN(1), TACC1(3), NDN(1), C1orf133(1), UBL3(3), PEAR1(2), SH3BGRL(2), CLIC2(1), PROS1(1), RFTN1(2), EMILIN1(1), DIXDC1(1), TBL1X(1), CNRIP1(3), PCDHGB7(1), RASSF8(1), KANK3(1), KIAA1462(2), CALHM2(1), LDB2(2), PALLD(1), FGF2(4), AKT3(1), CLIP3(1), ZAK(2), ZEB1(3), MDFIC(3), SLC24A3(5), KANK2(1), ZCCHC24(1), TMEM200B(1), STAT5B(4), KATNAL1(1), TCEAL7(3), RHOJ(3), ASAM(1), ILK(1), GPR124(1), C5orf53(2), SETD7(2), ANKRD29(1), NRIP2(1), EHD2(1), HSPA12B(1), ADCY4(1), CXorf36(1), MYCT1(1), FGD5(1), CYYR1(1), TIE1(1), GPR116(1), TMEM55A(1), ARHGEF15(1), ESAM(1), ARHGAP31(1), MAP3K3(1)</t>
+          <t>SAP30L(2), UBL3(1), CNRIP1(1), ZAK(2), KLHDC1(3), C1orf21(1), CEP68(1), ZNF25(2), KCTD7(1), FEM1B(1), LOH3CR2A(1), RNF38(1), GPRASP2(1), C21orf34(1), MAOB(1), STAT5B(1)</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>75.0</v>
+        <v>16.0</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.6001377337471256</v>
+        <v>-0.6001177866884315</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.667673166955079</v>
+        <v>-0.6489571332079933</v>
       </c>
       <c r="H77" t="n">
-        <v>114.0</v>
+        <v>21.0</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.6181118643362215</v>
+        <v>-0.6133807759172422</v>
       </c>
       <c r="J77" t="n">
-        <v>28.5</v>
+        <v>2.625</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>hsa-miR-100-5p</t>
+          <t>hsa-miR-25-3p</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.03</v>
+        <v>0.07</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>TUBA1C(1)</t>
+          <t>UBL3(8), C14orf28(1), ARHGEF6(2), NOSTRIN(3), FLT4(3), LRRN4CL(3), ANTXR2(4), PPAPDC3(2), TIMP2(5), MEF2C(4), SH3BP5(4), GPRASP1(4), ST5(3), PMP22(2), CNRIP1(5), C16orf45(4), LRCH1(2), AKT3(5), ZEB1(4), PRDM8(4), MDFIC(3), SLC24A3(6), KANK2(2), PCDHGA6(4), LIX1L(2), STAT5B(8), TCEAL7(4), RHOJ(4), ZEB2(3), C5orf53(5), KLHDC1(5), BCAP29(1), CALHM2(4), ZAK(8), FBXL7(1), DPYD(3), NDN(1), RFTN1(1), CRTAP(1), TENC1(2), EZH1(2), PEAR1(4), TXNIP(3), SAP30L(1), TSPAN18(2), PGCP(2), ANO6(2), MBNL2(3), FEM1B(1), MFAP4(2), HSD17B6(2), SNRK(1), SPARCL1(3), ARHGAP6(3), LOH3CR2A(3), KCTD12(1), TACC1(4), THRA(1), SETD7(2), TSHZ3(2), GPRASP2(2), CDO1(1), C21orf34(2), RSPO1(3), SH3BGRL(2), CLIC2(3), KCNJ8(2), SOX7(3), PABPC5(3), DIXDC1(2), RASSF8(1), MAP3K3(1), KIAA1462(3), TRPC1(1), ANKRD29(2), FGF2(2), PRKCA(1), STARD13(2), BNC2(3), LAYN(1), CALD1(2), PCDHGA3(1), CBX7(2), MACF1(1), TMEM200A(1), MAOB(2), SMOC2(2), RFTN2(1), ASAM(3), GNG12(3), CXorf36(1), N4BP2L1(1), UST(1), GYPC(1), STON1(1), GHR(1), JAM2(1), GLT8D2(1), AHNAK(1), TCEAL1(2), NKAPL(1), LAMA4(1), ECM2(1), TIMP3(2), DMD(2), IL33(1), NEDD4(1), MICAL2(1), C1QTNF7(1), REM1(1), SSPN(1), DACT3(1), PDE10A(1), MYCT1(2), PPP1R12B(1), TGFBR3(1), SNAI2(1), CLIC4(1), PAPPA(1), ITPR1(1), LMOD1(1), FAM198B(1), PTGER2(1), NXPH3(1), DIRAS1(1), DDR2(1), FOXN3(1), ENPP1(1), KANK3(1), FERMT2(1), CACNB2(1), LHFP(1), STOM(1), SYTL4(1), TIE1(1), FBLN5(1), PGM5P2(1), HAAO(1), OLFML2A(1), ZBTB38(2), LDB2(2), PALLD(1), ERG(1), C7orf58(1), C1orf70(1), SERPINF1(1), LTBP4(1), GNG11(1), GPR116(1), AKNA(1), TMEM55A(2), ARHGEF15(1), MAMDC2(1), GIMAP4(1), KCNMA1(1), CACNA1H(2), CACNA1C(2), MRGPRF(1), EMCN(1), TLN1(1), PDE2A(1), ABCG2(1), TMEM200B(1), TEK(1), PKD2(1), TNXB(1), FRMD6(1), SVIL(2), MAN1C1(1), PDE7B(1), KIAA1644(1), TNS1(1), NT5DC3(1), CLEC2B(1), CD302(2), ESAM(1), COL15A1(1), MITF(1), MBNL1(2), ILK(1), ARHGAP31(1), ROBO4(1), TBC1D2B(1), FAM175A(1), JAM3(1), PRNP(1), PJA2(1), WT1(1), C1orf133(1), ZNF25(1), MID2(1), DCHS1(1), TCEAL4(1), NPTN(1), PCDHGA11(1), ADARB1(1), PALM2-AKAP2(1), FKBP7(1), SBDS(1), CDH5(1), PCDHB4(1)</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1.0</v>
+        <v>201.0</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.607810832561496</v>
+        <v>-0.6000119983400225</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.607810832561496</v>
+        <v>-0.717341424325236</v>
       </c>
       <c r="H78" t="n">
-        <v>1.0</v>
+        <v>365.0</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.607810832561496</v>
+        <v>-0.6251996152601221</v>
       </c>
       <c r="J78" t="n">
-        <v>0.3333333333333333</v>
+        <v>52.142857142857146</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>hsa-miR-330-5p</t>
+          <t>hsa-let-7e-5p</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>KLHDC1(1)</t>
+          <t>SAP30L(1), TIMP2(1), GPRASP2(1), PABPC5(2), CNRIP1(4), STAT5B(2), TCEAL7(4), FLT4(3), FEM1B(1), BMPR2(1), SETD7(1), ZNF25(2), DCHS1(1), TBL1X(1), RASSF8(2), KIAA1462(1), FGF2(3), ZAK(2), PRDM8(1), SLC24A3(1), KANK2(1), RHOJ(2), TBC1D1(1), MDFIC(2), C5orf53(1), SH3BGRL(1), TMEM200A(1)</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1.0</v>
+        <v>27.0</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.6028064478783597</v>
+        <v>-0.600228423723216</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6028064478783597</v>
+        <v>-0.6315164146006267</v>
       </c>
       <c r="H79" t="n">
-        <v>1.0</v>
+        <v>44.0</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.6028064478783597</v>
+        <v>-0.6100720889389877</v>
       </c>
       <c r="J79" t="n">
-        <v>0.3333333333333333</v>
+        <v>7.333333333333333</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>hsa-miR-505-3p</t>
+          <t>hsa-miR-100-5p</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="C80" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>C5orf53(1), PJA2(6), UBL3(9), SH3BGRL(3), ZAK(3), GAB1(2), CACNA1C(1), TSPAN18(2), JAM2(1), TBC1D1(1), TIMP3(1), MEF2C(5), NEDD4(1), SPARCL1(3), LOH3CR2A(1), TACC1(5), C1orf133(3), C21orf34(1), MID2(1), DST(1), DIXDC1(2), HEPH(1), PBX1(1), PALM2-AKAP2(1), AEBP1(1), TEK(2), ASAM(4), MBNL1(4), IL33(1), FLI1(2), PRKCH(4), SETD7(2), ABCB1(1), LRCH1(8), FGF2(2), MEF2D(3), STAT5B(2), GNG12(2), CRTAP(1), AKT3(2), KLHDC1(1), ZEB1(1), MDFIC(2), KCNMA1(4), SLC24A3(1), SVIL(2), TMEM47(2), AP1S2(1), KRT222(1), ADARB1(1), USP31(1), FEM1B(1), EPM2A(1), NPTN(1), SLC8A1(1), TIE1(1), CEP68(1), FBXL3(1), TBL1X(1)</t>
+          <t>PSMA5(1), NEK6(1), PSMA3(1), HN1(1)</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>59.0</v>
+        <v>4.0</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.600002160502033</v>
+        <v>-0.6027376604745894</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6804449915695687</v>
+        <v>-0.6361983958041163</v>
       </c>
       <c r="H80" t="n">
-        <v>122.0</v>
+        <v>4.0</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.6126095145397754</v>
+        <v>-0.6139214689293154</v>
       </c>
       <c r="J80" t="n">
-        <v>40.666666666666664</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>hsa-miR-24-2-5p</t>
+          <t>hsa-miR-651</t>
         </is>
       </c>
       <c r="B81" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>CD99L2(1), STAT5B(1)</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
         <v>2.0</v>
       </c>
-      <c r="C81" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>STAT5B(2), SAP30L(2), ZAK(2), MAN1C1(1), LRRN4CL(1), ANTXR2(1), GLT8D2(1), JAM3(1), SLC26A4(1), TIMP2(1), MEF2C(1), BCAP29(1), TACC1(1), GPRASP1(1), PCDHGA2(1), NDN(1), MEIS2(1), CLIC2(1), PABPC5(1), ABI3BP(1), DIXDC1(1), PMP22(1), CNRIP1(1), RASSF8(1), TMEM47(1), C7orf58(1), LRCH1(1), FGF2(1), AKT3(1), PRDM8(1), BNC2(1), CASP12(1), MDFIC(1), MAMDC2(1), SLC24A3(1), ITPKB(1), CBX7(1), KANK2(1), PCDHB4(1), ZCCHC24(1), MAOB(1), PCDHGA6(1), ADCY2(1), CD302(1), TCEAL7(1), FAM13C(1), RHOJ(1), ZNF483(1)</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>48.0</v>
-      </c>
       <c r="F81" t="n">
-        <v>-0.6010217071287073</v>
+        <v>-0.6143947916641594</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.6668481945087221</v>
+        <v>-0.6222893750462295</v>
       </c>
       <c r="H81" t="n">
-        <v>51.0</v>
+        <v>2.0</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.6210855327794378</v>
+        <v>-0.6183420833551945</v>
       </c>
       <c r="J81" t="n">
-        <v>25.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>hsa-miR-340-5p</t>
+          <t>hsa-miR-345-5p</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C82" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>THRA(2), C5orf53(1), UBL3(1)</t>
+          <t>PJA2(1), UBL3(3), SYNE1(1), VAMP3(1)</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.6014657366528271</v>
+        <v>-0.6008242108130379</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.6187374190781973</v>
+        <v>-0.6330900249586906</v>
       </c>
       <c r="H82" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.6065215089986402</v>
+        <v>-0.6126555409269332</v>
       </c>
       <c r="J82" t="n">
-        <v>2.0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>hsa-miR-361-5p</t>
+          <t>hsa-miR-18a-5p</t>
         </is>
       </c>
       <c r="B83" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>UBL3(1), SLC24A3(1), STAT5B(1), ADD1(1), KIAA1614(1)</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.6121187985004363</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-0.6189880589042716</v>
+      </c>
+      <c r="H83" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>-0.6142982518034047</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>hsa-miR-361-3p</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>ZAK(4), FLT4(2), TBC1D1(1), SLC24A3(3), RHOJ(2), TACC1(1), TIE1(1), OLFML2A(1), ZEB1(1), ARHGEF15(1), CACNA1C(1), TIMP2(1), DCHS1(1), TCEAL7(1)</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.601120064578735</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-0.6443889813193737</v>
+      </c>
+      <c r="H84" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-0.6163894306324968</v>
+      </c>
+      <c r="J84" t="n">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>hsa-miR-7-1-3p</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>STAT5B(2), CXorf36(1), ARHGEF6(1), FLT4(1), STON1(1), LRRN4CL(1), TSPAN18(1), ANTXR2(1), GHR(1), GLI3(1), AHNAK(1), PGCP(1), JAM3(1), ANO6(1), PRNP(1), MBNL2(1), TIMP2(1), PJA2(1), TBC1D1(1), TIMP3(1), MFAP4(1), MEF2C(1), SNRK(1), GPM6A(1), IL33(1), FAM65B(1), NEDD4(1), SPARCL1(1), ITGA8(1), FLI1(1), ERVFRDE1(1), ARHGAP6(1), C1QTNF7(1), LOH3CR2A(1), SHE(1), TACC1(1), CLEC1A(1), GIMAP8(1), GPRASP1(1), MYCT1(1), PPP1R12B(1), TGFBR3(1), SETD7(1), PCDHGA2(1), MEIS2(1), ITPR1(1), LMOD1(1), C1orf133(1), ST5(1), PEAR1(1), RSPO1(1), MID2(1), NXPH3(1), CLIC2(1), KCNJ8(1), ABCB1(1), DIRAS1(1), DDR2(1), FOXN3(1), CCDC69(1), ABI3BP(1), DIXDC1(1), PMP22(1), TBL1X(1), PCDHGB7(1), PDE5A(1), STARD8(1), KIAA1462(1), PGM5P2(1), CFL2(1), CALHM2(1), C16orf45(1), LDB2(1), ANKRD29(1), ERG(1), C7orf58(1), LRCH1(1), FRY(1), AKT3(1), ZAK(1), PGM5(1), ZEB1(1), PRDM8(1), RERG(1), BNC2(1), TMEM204(1), TMEM55A(1), ADAMTSL1(1), TAL1(1), GAB1(1), MAMDC2(1), GNAL(1), CALD1(1), KCNMA1(1), SLC24A3(1), CBX7(1), LRRC70(1), CACNA1C(1), KANK2(1), EMCN(1), PDE2A(1), LATS2(1), ABCG2(1), TEK(1), MAOB(1), PCDHGA6(1), FRMD6(1), SVIL(1), MAN1C1(1), TNS1(1), SMOC2(1), ADCY2(1), KATNAL1(1), ABCC9(1), RHOJ(1), ASAM(1), RASA4(1), PHLDB2(1), LIFR(1), ARHGAP31(1), DFNA5(1), RECK(1)</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.6000846654501364</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-0.6869887627082613</v>
+      </c>
+      <c r="H85" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-0.6272148633558666</v>
+      </c>
+      <c r="J85" t="n">
+        <v>30.75</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>hsa-miR-769-3p</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>KIAA1462(4), ANKRD29(1), AKT3(2), ZAK(7), STAT5B(7), RHOJ(5), MDFIC(1), DPYD(2), RFTN1(1), MEF2D(3), SLC24A3(5), PCDHGA6(3), MEF2C(3), TIE1(2), FLT4(2), RNF38(1), CRTAP(1), EZH1(1), CXorf36(1), ARHGEF6(1), NOSTRIN(1), LRRN4CL(1), SCARF1(1), ANTXR2(1), C5orf53(1), ANO6(1), NKAPL(1), TIMP2(1), PJA2(1), TBC1D1(1), TIMP3(1), SPARCL1(1), FLI1(1), MEIS3(1), ARHGAP6(1), DHH(1), TACC1(2), GPRASP1(1), MYCT1(1), SETD7(1), GPRASP2(1), C1orf133(1), UBL3(1), PEAR1(2), FGD5(1), MID2(1), SH3BGRL(1), NXPH3(1), CLIC2(1), SOX7(1), FOXN3(1), DIXDC1(1), TBL1X(1), CNRIP1(1), STOM(1), MAP3K3(1), CALHM2(1), C16orf45(2), PALM2-AKAP2(1), LRCH1(1), FGF2(1), NRIP2(1), TXNIP(1), CLIP3(2), A2M(1), GPR116(1), BNC2(1), ARHGEF15(1), CALD1(1), GIMAP4(1), CBX7(2), KANK2(1), ZCCHC24(1), MAOB(1), TMEM88(1), ADCY2(1), CD302(1), TCEAL7(1), PHLDB2(1), MBNL1(1), ROBO4(1), SH3BP5(1), PDE5A(1), ZEB1(1), TENC1(1), TMEM55A(1), GAB1(1)</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.6001732320065996</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-0.6952726942064603</v>
+      </c>
+      <c r="H86" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-0.6178739239411521</v>
+      </c>
+      <c r="J86" t="n">
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>hsa-miR-181a-5p</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
         <v>2.0</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C87" t="n">
         <v>0.02</v>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>SETD7(3), LDB2(1), TMEM204(1), TBL1X(2), DHH(1), ZAK(1), TEK(2), STAT5B(1), ELK3(1)</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F83" t="n">
-        <v>-0.6000390158852853</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-0.6094151305276799</v>
-      </c>
-      <c r="H83" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>-0.6037393984024434</v>
-      </c>
-      <c r="J83" t="n">
-        <v>6.5</v>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>FLT4(3), SPARCL1(3), TBL1X(1), C16orf45(3), FGF2(2), AKT3(3), ZCCHC24(2), MAOB(2), STAT5B(2), LRRN4CL(2), ANTXR2(1), TIMP2(2), MEF2C(1), TACC1(1), SETD7(1), C21orf34(1), RSPO1(1), CNRIP1(1), KANK3(1), KIAA1462(1), NECAB1(1), RAB11FIP5(1), C1orf70(1), CLIP3(1), ZAK(2), BNC2(1), TMEM55A(1), ZNF676(1), MAMDC2(1), GNAL(1), SLC24A3(2), TNXB(1), SVIL(1), TCEAL7(1), RHOJ(2), ASAM(1), ILK(1), SAP30L(1), JAM3(1), TBC1D1(1), MEIS3(1), NEURL1B(1), KIAA1614(1)</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0.6005383553990508</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-0.6608656623502425</v>
+      </c>
+      <c r="H87" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>-0.6138451202955475</v>
+      </c>
+      <c r="J87" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>hsa-miR-19b-1-5p</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>DHH(1), ACVRL1(1), TBXA2R(1), STAT5B(1), GJA5(1)</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0.6037664384843886</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-0.6184766336432376</v>
+      </c>
+      <c r="H88" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-0.6081240914405225</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
